--- a/eg2.xlsx
+++ b/eg2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiqing/Desktop/Lipschitz-System-ID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{570B5850-2295-8D46-94AF-9E0BEC3A7268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E3CFCC-C10E-E740-A38E-FC5B37527670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19800" activeTab="5" xr2:uid="{624D5C9E-D399-6E42-9BAD-9829FF00FD61}"/>
+    <workbookView xWindow="4040" yWindow="5280" windowWidth="34560" windowHeight="19800" activeTab="5" xr2:uid="{624D5C9E-D399-6E42-9BAD-9829FF00FD61}"/>
   </bookViews>
   <sheets>
     <sheet name="Ours 0.25" sheetId="1" r:id="rId1"/>
@@ -4709,7 +4709,7 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:N3"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5519,7 +5519,7 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="A22" sqref="A22:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5564,10 +5564,10 @@
         <v>1E-8</v>
       </c>
       <c r="B2">
-        <v>0.179212630072489</v>
+        <v>1.9186094051543999E-2</v>
       </c>
       <c r="C2">
-        <v>0.18656576714141501</v>
+        <v>1.9864022548488701E-2</v>
       </c>
       <c r="D2">
         <v>193</v>
@@ -5581,11 +5581,11 @@
       </c>
       <c r="K2" s="6">
         <f t="shared" ref="K2:N9" ca="1" si="0">AVERAGE(OFFSET(B$2,(ROW()-2)*4,0,4,1))</f>
-        <v>0.18789915193585574</v>
+        <v>1.5016789101014651E-2</v>
       </c>
       <c r="L2" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17897059065983276</v>
+        <v>1.5038570982374275E-2</v>
       </c>
       <c r="M2" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -5601,10 +5601,10 @@
         <v>1E-8</v>
       </c>
       <c r="B3">
-        <v>0.18812770879966101</v>
+        <v>1.4698107583210499E-2</v>
       </c>
       <c r="C3">
-        <v>0.17738470240951801</v>
+        <v>1.45098695907979E-2</v>
       </c>
       <c r="D3">
         <v>194</v>
@@ -5618,11 +5618,11 @@
       </c>
       <c r="K3" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18787627700874726</v>
+        <v>1.4796141772828151E-2</v>
       </c>
       <c r="L3" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.178968476735927</v>
+        <v>1.4713122691473599E-2</v>
       </c>
       <c r="M3" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -5638,10 +5638,10 @@
         <v>1E-8</v>
       </c>
       <c r="B4">
-        <v>0.20688070650113299</v>
+        <v>1.1689653169324099E-2</v>
       </c>
       <c r="C4">
-        <v>0.19518067402408401</v>
+        <v>1.21851139404672E-2</v>
       </c>
       <c r="D4">
         <v>195</v>
@@ -5655,11 +5655,11 @@
       </c>
       <c r="K4" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.187865280684955</v>
+        <v>1.4005169308338101E-2</v>
       </c>
       <c r="L4" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17899655481364452</v>
+        <v>1.4300195833400524E-2</v>
       </c>
       <c r="M4" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -5675,10 +5675,10 @@
         <v>1E-8</v>
       </c>
       <c r="B5">
-        <v>0.17737556237013999</v>
+        <v>1.449330159998E-2</v>
       </c>
       <c r="C5">
-        <v>0.156751219064314</v>
+        <v>1.3595277849743299E-2</v>
       </c>
       <c r="D5">
         <v>196</v>
@@ -5692,11 +5692,11 @@
       </c>
       <c r="K5" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18780035371000425</v>
+        <v>1.4314203806706923E-2</v>
       </c>
       <c r="L5" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17895571011653524</v>
+        <v>1.4426123701343075E-2</v>
       </c>
       <c r="M5" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -5712,10 +5712,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B6">
-        <v>0.17903912281419301</v>
+        <v>1.7852546201345101E-2</v>
       </c>
       <c r="C6">
-        <v>0.186558022342146</v>
+        <v>1.80588742678469E-2</v>
       </c>
       <c r="D6">
         <v>197</v>
@@ -5723,23 +5723,23 @@
       <c r="E6">
         <v>0.25</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="5">
         <f t="shared" ca="1" si="1"/>
         <v>1E-4</v>
       </c>
-      <c r="K6" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.18799361432010775</v>
-      </c>
-      <c r="L6" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.17894463480866274</v>
-      </c>
-      <c r="M6" s="3">
+      <c r="K6" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.4241468126667548E-2</v>
+      </c>
+      <c r="L6" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.4228564072796599E-2</v>
+      </c>
+      <c r="M6" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>210.5</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>0.25</v>
       </c>
@@ -5749,10 +5749,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B7">
-        <v>0.18832860724564501</v>
+        <v>1.6276186772998601E-2</v>
       </c>
       <c r="C7">
-        <v>0.17738470546108601</v>
+        <v>1.6061767797045198E-2</v>
       </c>
       <c r="D7">
         <v>198</v>
@@ -5760,23 +5760,23 @@
       <c r="E7">
         <v>0.25</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="3">
         <f t="shared" ca="1" si="1"/>
         <v>1E-3</v>
       </c>
-      <c r="K7" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.18960655568801627</v>
-      </c>
-      <c r="L7" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.17901267770162577</v>
-      </c>
-      <c r="M7" s="5">
+      <c r="K7" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.5142184625221176E-2</v>
+      </c>
+      <c r="L7" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.3840949961648048E-2</v>
+      </c>
+      <c r="M7" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>214.5</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>0.25</v>
       </c>
@@ -5786,10 +5786,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B8">
-        <v>0.20690995264560599</v>
+        <v>1.06967935596216E-2</v>
       </c>
       <c r="C8">
-        <v>0.19518046929164101</v>
+        <v>1.14172153184784E-2</v>
       </c>
       <c r="D8">
         <v>199</v>
@@ -5803,11 +5803,11 @@
       </c>
       <c r="K8" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2029618341971105</v>
+        <v>2.883384668545675E-2</v>
       </c>
       <c r="L8" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17955261507527276</v>
+        <v>1.4414622896707524E-2</v>
       </c>
       <c r="M8" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -5823,10 +5823,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B9">
-        <v>0.177227425329545</v>
+        <v>1.43590405573473E-2</v>
       </c>
       <c r="C9">
-        <v>0.15675070984883499</v>
+        <v>1.3314633382523901E-2</v>
       </c>
       <c r="D9">
         <v>200</v>
@@ -5840,11 +5840,11 @@
       </c>
       <c r="K9" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33961920317341598</v>
+        <v>0.16226991495870474</v>
       </c>
       <c r="L9" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19436873539172525</v>
+        <v>2.3115538766587777E-2</v>
       </c>
       <c r="M9" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -5860,10 +5860,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B10">
-        <v>0.17907957027250099</v>
+        <v>1.7615133391178001E-2</v>
       </c>
       <c r="C10">
-        <v>0.18659787407105199</v>
+        <v>1.85673551415984E-2</v>
       </c>
       <c r="D10">
         <v>201</v>
@@ -5873,7 +5873,7 @@
       </c>
       <c r="L10">
         <f ca="1">MIN(L2:L9)</f>
-        <v>0.17894463480866274</v>
+        <v>1.3840949961648048E-2</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -5881,10 +5881,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B11">
-        <v>0.18833914878679001</v>
+        <v>1.49164063846097E-2</v>
       </c>
       <c r="C11">
-        <v>0.17739468884277801</v>
+        <v>1.49100753478705E-2</v>
       </c>
       <c r="D11">
         <v>202</v>
@@ -5898,10 +5898,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B12">
-        <v>0.207139346590067</v>
+        <v>1.0718164638556699E-2</v>
       </c>
       <c r="C12">
-        <v>0.19530705608269</v>
+        <v>1.1546856778218E-2</v>
       </c>
       <c r="D12">
         <v>203</v>
@@ -5915,10 +5915,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B13">
-        <v>0.176903057090462</v>
+        <v>1.2770972819008001E-2</v>
       </c>
       <c r="C13">
-        <v>0.156686600258058</v>
+        <v>1.2176496065915201E-2</v>
       </c>
       <c r="D13">
         <v>204</v>
@@ -5932,10 +5932,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B14">
-        <v>0.17900921297358699</v>
+        <v>1.6784602033093201E-2</v>
       </c>
       <c r="C14">
-        <v>0.186549780058099</v>
+        <v>1.7650156584072901E-2</v>
       </c>
       <c r="D14">
         <v>205</v>
@@ -5949,10 +5949,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B15">
-        <v>0.18838748442841299</v>
+        <v>1.6337066928439899E-2</v>
       </c>
       <c r="C15">
-        <v>0.17742337009056999</v>
+        <v>1.6183854561259401E-2</v>
       </c>
       <c r="D15">
         <v>206</v>
@@ -5966,10 +5966,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B16">
-        <v>0.20680706841038801</v>
+        <v>1.0470563377392401E-2</v>
       </c>
       <c r="C16">
-        <v>0.19510685692125099</v>
+        <v>1.1126753631384699E-2</v>
       </c>
       <c r="D16">
         <v>207</v>
@@ -5983,10 +5983,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B17">
-        <v>0.17699764902762899</v>
+        <v>1.3664582887902199E-2</v>
       </c>
       <c r="C17">
-        <v>0.156742833396221</v>
+        <v>1.27437300286553E-2</v>
       </c>
       <c r="D17">
         <v>208</v>
@@ -5996,138 +5996,138 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
+      <c r="A18" s="4">
         <v>1E-4</v>
       </c>
-      <c r="B18" s="2">
-        <v>0.18005170859396399</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0.186631586323393</v>
-      </c>
-      <c r="D18" s="2">
+      <c r="B18" s="4">
+        <v>1.7618767139402702E-2</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1.8168687988865201E-2</v>
+      </c>
+      <c r="D18" s="4">
         <v>209</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="4">
         <v>0.25</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
+      <c r="A19" s="4">
         <v>1E-4</v>
       </c>
-      <c r="B19" s="2">
-        <v>0.188113656291302</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0.17730336176588099</v>
-      </c>
-      <c r="D19" s="2">
+      <c r="B19" s="4">
+        <v>1.47545036879625E-2</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1.44695432737786E-2</v>
+      </c>
+      <c r="D19" s="4">
         <v>210</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="4">
         <v>0.25</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
+      <c r="A20" s="4">
         <v>1E-4</v>
       </c>
-      <c r="B20" s="2">
-        <v>0.20674179874836099</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0.195143106690746</v>
-      </c>
-      <c r="D20" s="2">
+      <c r="B20" s="4">
+        <v>1.09027476555251E-2</v>
+      </c>
+      <c r="C20" s="4">
+        <v>1.1459637334213599E-2</v>
+      </c>
+      <c r="D20" s="4">
         <v>211</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="4">
         <v>0.25</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
+      <c r="A21" s="4">
         <v>1E-4</v>
       </c>
-      <c r="B21" s="2">
-        <v>0.17706729364680401</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0.156700484454631</v>
-      </c>
-      <c r="D21" s="2">
+      <c r="B21" s="4">
+        <v>1.3689854023779899E-2</v>
+      </c>
+      <c r="C21" s="4">
+        <v>1.2816387694329001E-2</v>
+      </c>
+      <c r="D21" s="4">
         <v>212</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="4">
         <v>0.25</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
+      <c r="A22" s="2">
         <v>1E-3</v>
       </c>
-      <c r="B22" s="4">
-        <v>0.180567278586169</v>
-      </c>
-      <c r="C22" s="4">
-        <v>0.18667281315998799</v>
-      </c>
-      <c r="D22" s="4">
+      <c r="B22" s="2">
+        <v>1.8082806533400601E-2</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1.7389006729415998E-2</v>
+      </c>
+      <c r="D22" s="2">
         <v>213</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="2">
         <v>0.25</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
+      <c r="A23" s="2">
         <v>1E-3</v>
       </c>
-      <c r="B23" s="4">
-        <v>0.190357828592049</v>
-      </c>
-      <c r="C23" s="4">
-        <v>0.177386230016325</v>
-      </c>
-      <c r="D23" s="4">
+      <c r="B23" s="2">
+        <v>1.5797798888401101E-2</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1.42915974014458E-2</v>
+      </c>
+      <c r="D23" s="2">
         <v>214</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="2">
         <v>0.25</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
+      <c r="A24" s="2">
         <v>1E-3</v>
       </c>
-      <c r="B24" s="4">
-        <v>0.20825184635976501</v>
-      </c>
-      <c r="C24" s="4">
-        <v>0.19512847755500601</v>
-      </c>
-      <c r="D24" s="4">
+      <c r="B24" s="2">
+        <v>1.18804146892371E-2</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1.10655254288081E-2</v>
+      </c>
+      <c r="D24" s="2">
         <v>215</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="2">
         <v>0.25</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
+      <c r="A25" s="2">
         <v>1E-3</v>
       </c>
-      <c r="B25" s="4">
-        <v>0.17924926921408199</v>
-      </c>
-      <c r="C25" s="4">
-        <v>0.15686319007518401</v>
-      </c>
-      <c r="D25" s="4">
+      <c r="B25" s="2">
+        <v>1.48077183898459E-2</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1.2617670286922299E-2</v>
+      </c>
+      <c r="D25" s="2">
         <v>216</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="2">
         <v>0.25</v>
       </c>
     </row>
@@ -6136,10 +6136,10 @@
         <v>0.01</v>
       </c>
       <c r="B26" s="4">
-        <v>0.195137212330356</v>
+        <v>2.85809608374504E-2</v>
       </c>
       <c r="C26" s="4">
-        <v>0.18718972112587101</v>
+        <v>1.50513490414286E-2</v>
       </c>
       <c r="D26" s="4">
         <v>217</v>
@@ -6154,10 +6154,10 @@
         <v>0.01</v>
       </c>
       <c r="B27" s="4">
-        <v>0.20394647327509299</v>
+        <v>3.11741222964322E-2</v>
       </c>
       <c r="C27" s="4">
-        <v>0.179118464007339</v>
+        <v>1.6625057024128202E-2</v>
       </c>
       <c r="D27" s="4">
         <v>218</v>
@@ -6172,10 +6172,10 @@
         <v>0.01</v>
       </c>
       <c r="B28" s="4">
-        <v>0.220661780618606</v>
+        <v>2.5468176270418901E-2</v>
       </c>
       <c r="C28" s="4">
-        <v>0.19463528082408799</v>
+        <v>1.17290332180229E-2</v>
       </c>
       <c r="D28" s="4">
         <v>219</v>
@@ -6190,10 +6190,10 @@
         <v>0.01</v>
       </c>
       <c r="B29" s="4">
-        <v>0.19210187056438699</v>
+        <v>3.01121273375255E-2</v>
       </c>
       <c r="C29" s="4">
-        <v>0.15726699434379299</v>
+        <v>1.4253052303250399E-2</v>
       </c>
       <c r="D29" s="4">
         <v>220</v>
@@ -6208,10 +6208,10 @@
         <v>0.1</v>
       </c>
       <c r="B30">
-        <v>0.334281222775895</v>
+        <v>0.16406007879908999</v>
       </c>
       <c r="C30">
-        <v>0.20458489862528201</v>
+        <v>2.3776198202308099E-2</v>
       </c>
       <c r="D30">
         <v>221</v>
@@ -6225,10 +6225,10 @@
         <v>0.1</v>
       </c>
       <c r="B31">
-        <v>0.33574961395339697</v>
+        <v>0.162753427282292</v>
       </c>
       <c r="C31">
-        <v>0.19059580707169499</v>
+        <v>2.37133319469842E-2</v>
       </c>
       <c r="D31">
         <v>222</v>
@@ -6242,10 +6242,10 @@
         <v>0.1</v>
       </c>
       <c r="B32">
-        <v>0.35755080698018299</v>
+        <v>0.15281916259134001</v>
       </c>
       <c r="C32">
-        <v>0.21057336539664101</v>
+        <v>1.7389700520149501E-2</v>
       </c>
       <c r="D32">
         <v>223</v>
@@ -6259,10 +6259,10 @@
         <v>0.1</v>
       </c>
       <c r="B33">
-        <v>0.33089516898418903</v>
+        <v>0.16944699116209699</v>
       </c>
       <c r="C33">
-        <v>0.17172087047328299</v>
+        <v>2.7582924396909299E-2</v>
       </c>
       <c r="D33">
         <v>224</v>
@@ -6281,7 +6281,7 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:E17"/>
+      <selection activeCell="A2" sqref="A2:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6322,56 +6322,56 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="A2" s="3">
         <v>1E-8</v>
       </c>
-      <c r="B2">
-        <v>7.3034532437536895E-2</v>
-      </c>
-      <c r="C2">
-        <v>7.9115029147013696E-2</v>
-      </c>
-      <c r="D2">
+      <c r="B2" s="2">
+        <v>8.3783396390920608E-3</v>
+      </c>
+      <c r="C2" s="2">
+        <v>8.3740366315667204E-3</v>
+      </c>
+      <c r="D2" s="2">
         <v>225</v>
       </c>
-      <c r="E2">
-        <v>0.5</v>
-      </c>
-      <c r="J2" s="5">
+      <c r="E2" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="J2" s="3">
         <f ca="1">AVERAGE(OFFSET(A$2,(ROW()-2)*4,0,4,1))</f>
         <v>1E-8</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="7">
         <f t="shared" ref="K2:N9" ca="1" si="0">AVERAGE(OFFSET(B$2,(ROW()-2)*4,0,4,1))</f>
-        <v>8.1178279056094843E-2</v>
-      </c>
-      <c r="L2" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.8459876019785019E-2</v>
-      </c>
-      <c r="M2" s="5">
+        <v>8.0850407335055149E-3</v>
+      </c>
+      <c r="L2" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.1865448118286499E-3</v>
+      </c>
+      <c r="M2" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>226.5</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="A3" s="3">
         <v>1E-8</v>
       </c>
-      <c r="B3">
-        <v>8.1617554203864698E-2</v>
-      </c>
-      <c r="C3">
-        <v>7.8527646297787093E-2</v>
-      </c>
-      <c r="D3">
+      <c r="B3" s="2">
+        <v>8.2911771915337804E-3</v>
+      </c>
+      <c r="C3" s="2">
+        <v>8.7065087393560295E-3</v>
+      </c>
+      <c r="D3" s="2">
         <v>226</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>0.5</v>
       </c>
       <c r="J3" s="5">
@@ -6380,11 +6380,11 @@
       </c>
       <c r="K3" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>8.0776587519992823E-2</v>
+        <v>8.1342596107439914E-3</v>
       </c>
       <c r="L3" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>7.8110078488417098E-2</v>
+        <v>8.2244854668115618E-3</v>
       </c>
       <c r="M3" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -6396,19 +6396,19 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="A4" s="3">
         <v>1E-8</v>
       </c>
-      <c r="B4">
-        <v>8.1697998994446103E-2</v>
-      </c>
-      <c r="C4">
-        <v>7.8215486508734597E-2</v>
-      </c>
-      <c r="D4">
+      <c r="B4" s="2">
+        <v>7.4680025065119596E-3</v>
+      </c>
+      <c r="C4" s="2">
+        <v>7.4744866368301301E-3</v>
+      </c>
+      <c r="D4" s="2">
         <v>227</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>0.5</v>
       </c>
       <c r="J4" s="5">
@@ -6417,11 +6417,11 @@
       </c>
       <c r="K4" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>8.1025124440821675E-2</v>
+        <v>8.1572164837122318E-3</v>
       </c>
       <c r="L4" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>7.8256970439898793E-2</v>
+        <v>8.2586379040607231E-3</v>
       </c>
       <c r="M4" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -6433,38 +6433,38 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="A5" s="3">
         <v>1E-8</v>
       </c>
-      <c r="B5">
-        <v>8.8363030588531705E-2</v>
-      </c>
-      <c r="C5">
-        <v>7.7981342125604702E-2</v>
-      </c>
-      <c r="D5">
+      <c r="B5" s="2">
+        <v>8.2026435968842598E-3</v>
+      </c>
+      <c r="C5" s="2">
+        <v>8.1911472395617205E-3</v>
+      </c>
+      <c r="D5" s="2">
         <v>228</v>
       </c>
-      <c r="E5">
-        <v>0.5</v>
-      </c>
-      <c r="J5" s="3">
+      <c r="E5" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="J5" s="5">
         <f t="shared" ca="1" si="1"/>
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="K5" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.1153822547577747E-2</v>
-      </c>
-      <c r="L5" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.8077673976448242E-2</v>
-      </c>
-      <c r="M5" s="3">
+      <c r="K5" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.1762797614074022E-3</v>
+      </c>
+      <c r="L5" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.2580252325142427E-3</v>
+      </c>
+      <c r="M5" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>238.5</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>0.5</v>
       </c>
@@ -6474,10 +6474,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B6">
-        <v>7.3113374243629098E-2</v>
+        <v>8.7934169383283595E-3</v>
       </c>
       <c r="C6">
-        <v>7.9151816903910696E-2</v>
+        <v>8.7398230742187499E-3</v>
       </c>
       <c r="D6">
         <v>229</v>
@@ -6491,11 +6491,11 @@
       </c>
       <c r="K6" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>8.1661170744832479E-2</v>
+        <v>8.2764906302203421E-3</v>
       </c>
       <c r="L6" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>7.8829476659364503E-2</v>
+        <v>8.2546752379672114E-3</v>
       </c>
       <c r="M6" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -6511,10 +6511,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B7">
-        <v>8.1595966116862095E-2</v>
+        <v>8.2521055344531805E-3</v>
       </c>
       <c r="C7">
-        <v>7.8743757026151107E-2</v>
+        <v>8.6559841974063693E-3</v>
       </c>
       <c r="D7">
         <v>230</v>
@@ -6528,11 +6528,11 @@
       </c>
       <c r="K7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>8.275504538819109E-2</v>
+        <v>9.5646517937061637E-3</v>
       </c>
       <c r="L7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>7.8410833826328144E-2</v>
+        <v>8.2213954474935468E-3</v>
       </c>
       <c r="M7" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -6548,10 +6548,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B8">
-        <v>8.0159620510691601E-2</v>
+        <v>7.4709269460885097E-3</v>
       </c>
       <c r="C8">
-        <v>7.6630134036407796E-2</v>
+        <v>7.51027159214495E-3</v>
       </c>
       <c r="D8">
         <v>231</v>
@@ -6565,11 +6565,11 @@
       </c>
       <c r="K8" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>9.7242296039265236E-2</v>
+        <v>2.2918798398484052E-2</v>
       </c>
       <c r="L8" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>7.94100609231502E-2</v>
+        <v>8.3515561666299976E-3</v>
       </c>
       <c r="M8" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -6585,10 +6585,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B9">
-        <v>8.82373892087885E-2</v>
+        <v>8.0205890241059202E-3</v>
       </c>
       <c r="C9">
-        <v>7.7914605987198807E-2</v>
+        <v>7.9918630034761795E-3</v>
       </c>
       <c r="D9">
         <v>232</v>
@@ -6602,11 +6602,11 @@
       </c>
       <c r="K9" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25031972624995547</v>
+        <v>0.14899048727362324</v>
       </c>
       <c r="L9" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10341254264076617</v>
+        <v>1.3209338294976201E-2</v>
       </c>
       <c r="M9" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -6622,10 +6622,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B10">
-        <v>7.2987852558652103E-2</v>
+        <v>8.3778658361629895E-3</v>
       </c>
       <c r="C10">
-        <v>7.9137010737619501E-2</v>
+        <v>8.3540357213388004E-3</v>
       </c>
       <c r="D10">
         <v>233</v>
@@ -6635,7 +6635,7 @@
       </c>
       <c r="L10">
         <f ca="1">MIN(L2:L9)</f>
-        <v>7.8077673976448242E-2</v>
+        <v>8.1865448118286499E-3</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -6643,10 +6643,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B11">
-        <v>8.2143593123777101E-2</v>
+        <v>8.5492521782029093E-3</v>
       </c>
       <c r="C11">
-        <v>7.8893848774122394E-2</v>
+        <v>8.98544038546846E-3</v>
       </c>
       <c r="D11">
         <v>234</v>
@@ -6660,10 +6660,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B12">
-        <v>8.1074305819941905E-2</v>
+        <v>7.4451102013204304E-3</v>
       </c>
       <c r="C12">
-        <v>7.7444343669141796E-2</v>
+        <v>7.4746080258108203E-3</v>
       </c>
       <c r="D12">
         <v>235</v>
@@ -6677,10 +6677,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B13">
-        <v>8.7894746260915604E-2</v>
+        <v>8.2566377191626E-3</v>
       </c>
       <c r="C13">
-        <v>7.7552678578711495E-2</v>
+        <v>8.2204674836248107E-3</v>
       </c>
       <c r="D13">
         <v>236</v>
@@ -6690,70 +6690,70 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+      <c r="A14" s="5">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="B14" s="2">
-        <v>7.3027611997454001E-2</v>
-      </c>
-      <c r="C14" s="2">
-        <v>7.9170859240471E-2</v>
-      </c>
-      <c r="D14" s="2">
+      <c r="B14" s="4">
+        <v>8.6025783044107705E-3</v>
+      </c>
+      <c r="C14" s="4">
+        <v>8.5885707150272807E-3</v>
+      </c>
+      <c r="D14" s="4">
         <v>237</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="4">
         <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+      <c r="A15" s="5">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="B15" s="2">
-        <v>8.1537078392315401E-2</v>
-      </c>
-      <c r="C15" s="2">
-        <v>7.8436089957013996E-2</v>
-      </c>
-      <c r="D15" s="2">
+      <c r="B15" s="4">
+        <v>8.3658466378147608E-3</v>
+      </c>
+      <c r="C15" s="4">
+        <v>8.7487246999715194E-3</v>
+      </c>
+      <c r="D15" s="4">
         <v>238</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="4">
         <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
+      <c r="A16" s="5">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="B16" s="2">
-        <v>8.1299033709504503E-2</v>
-      </c>
-      <c r="C16" s="2">
-        <v>7.6650629454153602E-2</v>
-      </c>
-      <c r="D16" s="2">
+      <c r="B16" s="4">
+        <v>7.4883708903724496E-3</v>
+      </c>
+      <c r="C16" s="4">
+        <v>7.5087636025582801E-3</v>
+      </c>
+      <c r="D16" s="4">
         <v>239</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="4">
         <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
+      <c r="A17" s="5">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="B17" s="2">
-        <v>8.8751566091037098E-2</v>
-      </c>
-      <c r="C17" s="2">
-        <v>7.8053117254154397E-2</v>
-      </c>
-      <c r="D17" s="2">
+      <c r="B17" s="4">
+        <v>8.2483232130316306E-3</v>
+      </c>
+      <c r="C17" s="4">
+        <v>8.1860419124998897E-3</v>
+      </c>
+      <c r="D17" s="4">
         <v>240</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="4">
         <v>0.5</v>
       </c>
     </row>
@@ -6762,10 +6762,10 @@
         <v>1E-4</v>
       </c>
       <c r="B18">
-        <v>7.3358894979700107E-2</v>
+        <v>8.6884314238906205E-3</v>
       </c>
       <c r="C18">
-        <v>7.9419468945645194E-2</v>
+        <v>8.5246779242570004E-3</v>
       </c>
       <c r="D18">
         <v>241</v>
@@ -6779,10 +6779,10 @@
         <v>1E-4</v>
       </c>
       <c r="B19">
-        <v>8.2120512562625494E-2</v>
+        <v>8.78104732986143E-3</v>
       </c>
       <c r="C19">
-        <v>7.9035460929128706E-2</v>
+        <v>9.1179387168364295E-3</v>
       </c>
       <c r="D19">
         <v>242</v>
@@ -6796,10 +6796,10 @@
         <v>1E-4</v>
       </c>
       <c r="B20">
-        <v>8.2582998436261296E-2</v>
+        <v>7.4575475585508203E-3</v>
       </c>
       <c r="C20">
-        <v>7.8843537202857902E-2</v>
+        <v>7.3635241442776096E-3</v>
       </c>
       <c r="D20">
         <v>243</v>
@@ -6813,10 +6813,10 @@
         <v>1E-4</v>
       </c>
       <c r="B21">
-        <v>8.8582277000743004E-2</v>
+        <v>8.1789362085784995E-3</v>
       </c>
       <c r="C21">
-        <v>7.8019439559826195E-2</v>
+        <v>8.0125601664978105E-3</v>
       </c>
       <c r="D21">
         <v>244</v>
@@ -6830,10 +6830,10 @@
         <v>1E-3</v>
       </c>
       <c r="B22">
-        <v>7.4607293141332007E-2</v>
+        <v>9.8607254813999796E-3</v>
       </c>
       <c r="C22">
-        <v>7.9188211920096493E-2</v>
+        <v>8.4397796234314103E-3</v>
       </c>
       <c r="D22">
         <v>245</v>
@@ -6847,10 +6847,10 @@
         <v>1E-3</v>
       </c>
       <c r="B23">
-        <v>8.3545729577382793E-2</v>
+        <v>1.0105295027507099E-2</v>
       </c>
       <c r="C23">
-        <v>7.8917055331329006E-2</v>
+        <v>9.1064660463165102E-3</v>
       </c>
       <c r="D23">
         <v>246</v>
@@ -6864,10 +6864,10 @@
         <v>1E-3</v>
       </c>
       <c r="B24">
-        <v>8.2658676044183199E-2</v>
+        <v>8.8475675946299692E-3</v>
       </c>
       <c r="C24">
-        <v>7.7593746674346098E-2</v>
+        <v>7.39875330312296E-3</v>
       </c>
       <c r="D24">
         <v>247</v>
@@ -6881,10 +6881,10 @@
         <v>1E-3</v>
       </c>
       <c r="B25">
-        <v>9.0208482789866401E-2</v>
+        <v>9.4450190712876102E-3</v>
       </c>
       <c r="C25">
-        <v>7.7944321379541007E-2</v>
+        <v>7.9405828171033102E-3</v>
       </c>
       <c r="D25">
         <v>248</v>
@@ -6898,10 +6898,10 @@
         <v>0.01</v>
       </c>
       <c r="B26" s="4">
-        <v>8.9272253928666404E-2</v>
+        <v>2.3954397126873701E-2</v>
       </c>
       <c r="C26" s="4">
-        <v>8.0249728734030301E-2</v>
+        <v>9.1604490199700891E-3</v>
       </c>
       <c r="D26" s="4">
         <v>249</v>
@@ -6916,10 +6916,10 @@
         <v>0.01</v>
       </c>
       <c r="B27" s="4">
-        <v>9.8549239694120994E-2</v>
+        <v>2.3215396191052898E-2</v>
       </c>
       <c r="C27" s="4">
-        <v>8.0539829097688198E-2</v>
+        <v>8.8126113876066305E-3</v>
       </c>
       <c r="D27" s="4">
         <v>250</v>
@@ -6934,10 +6934,10 @@
         <v>0.01</v>
       </c>
       <c r="B28" s="4">
-        <v>9.7392967783231602E-2</v>
+        <v>2.21288777749113E-2</v>
       </c>
       <c r="C28" s="4">
-        <v>7.8751635757532495E-2</v>
+        <v>7.5332020122082302E-3</v>
       </c>
       <c r="D28" s="4">
         <v>251</v>
@@ -6952,10 +6952,10 @@
         <v>0.01</v>
       </c>
       <c r="B29" s="4">
-        <v>0.103754722751042</v>
+        <v>2.2376522501098301E-2</v>
       </c>
       <c r="C29" s="4">
-        <v>7.8099050103349804E-2</v>
+        <v>7.8999622467350403E-3</v>
       </c>
       <c r="D29" s="4">
         <v>252</v>
@@ -6970,10 +6970,10 @@
         <v>0.1</v>
       </c>
       <c r="B30">
-        <v>0.24223461977027799</v>
+        <v>0.14747744862069401</v>
       </c>
       <c r="C30">
-        <v>0.107699855250564</v>
+        <v>1.33701692870322E-2</v>
       </c>
       <c r="D30">
         <v>253</v>
@@ -6987,10 +6987,10 @@
         <v>0.1</v>
       </c>
       <c r="B31">
-        <v>0.25411429731769702</v>
+        <v>0.149903489593812</v>
       </c>
       <c r="C31">
-        <v>0.10591270217790801</v>
+        <v>1.41610830447616E-2</v>
       </c>
       <c r="D31">
         <v>254</v>
@@ -7004,10 +7004,10 @@
         <v>0.1</v>
       </c>
       <c r="B32">
-        <v>0.25103019693113299</v>
+        <v>0.15269076943080401</v>
       </c>
       <c r="C32">
-        <v>0.105475360686157</v>
+        <v>1.22814576161351E-2</v>
       </c>
       <c r="D32">
         <v>255</v>
@@ -7021,10 +7021,10 @@
         <v>0.1</v>
       </c>
       <c r="B33">
-        <v>0.25389979098071402</v>
+        <v>0.145890241449183</v>
       </c>
       <c r="C33">
-        <v>9.4562252448435705E-2</v>
+        <v>1.3024643231975899E-2</v>
       </c>
       <c r="D33">
         <v>256</v>
@@ -7043,7 +7043,7 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7084,56 +7084,56 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+      <c r="A2" s="5">
         <v>1E-8</v>
       </c>
-      <c r="B2" s="2">
-        <v>2.2808854299287001E-2</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2.4635886961713101E-2</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="B2" s="4">
+        <v>6.9202277151246801E-3</v>
+      </c>
+      <c r="C2" s="4">
+        <v>7.0390597213693699E-3</v>
+      </c>
+      <c r="D2" s="4">
         <v>257</v>
       </c>
-      <c r="E2" s="2">
-        <v>1</v>
-      </c>
-      <c r="J2" s="3">
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5">
         <f ca="1">AVERAGE(OFFSET(A$2,(ROW()-2)*4,0,4,1))</f>
         <v>1E-8</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="5">
         <f t="shared" ref="K2:N9" ca="1" si="0">AVERAGE(OFFSET(B$2,(ROW()-2)*4,0,4,1))</f>
-        <v>2.4903768417114974E-2</v>
-      </c>
-      <c r="L2" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.4401408538440226E-2</v>
-      </c>
-      <c r="M2" s="3">
+        <v>6.9349163916582824E-3</v>
+      </c>
+      <c r="L2" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.9105311846756829E-3</v>
+      </c>
+      <c r="M2" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>258.5</v>
       </c>
-      <c r="N2" s="3">
+      <c r="N2" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+      <c r="A3" s="5">
         <v>1E-8</v>
       </c>
-      <c r="B3" s="2">
-        <v>2.3344877496361702E-2</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2.3423886095034901E-2</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="B3" s="4">
+        <v>6.9665644876658901E-3</v>
+      </c>
+      <c r="C3" s="4">
+        <v>6.9062660071761003E-3</v>
+      </c>
+      <c r="D3" s="4">
         <v>258</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="4">
         <v>1</v>
       </c>
       <c r="J3" s="5">
@@ -7142,11 +7142,11 @@
       </c>
       <c r="K3" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>2.5153215885162301E-2</v>
+        <v>6.9377810175841022E-3</v>
       </c>
       <c r="L3" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>2.4684588021123152E-2</v>
+        <v>6.9241661979678095E-3</v>
       </c>
       <c r="M3" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -7158,19 +7158,19 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="A4" s="5">
         <v>1E-8</v>
       </c>
-      <c r="B4" s="2">
-        <v>2.5584398806095102E-2</v>
-      </c>
-      <c r="C4" s="2">
-        <v>2.50332231455026E-2</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="B4" s="4">
+        <v>6.9158516054352104E-3</v>
+      </c>
+      <c r="C4" s="4">
+        <v>6.8469368902213399E-3</v>
+      </c>
+      <c r="D4" s="4">
         <v>259</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="4">
         <v>1</v>
       </c>
       <c r="J4" s="5">
@@ -7179,11 +7179,11 @@
       </c>
       <c r="K4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>2.5164696052670424E-2</v>
+        <v>6.8960279033829699E-3</v>
       </c>
       <c r="L4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>2.4645918190102749E-2</v>
+        <v>6.8748083889504175E-3</v>
       </c>
       <c r="M4" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -7195,19 +7195,19 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="A5" s="5">
         <v>1E-8</v>
       </c>
-      <c r="B5" s="2">
-        <v>2.7876943066716099E-2</v>
-      </c>
-      <c r="C5" s="2">
-        <v>2.4512637951510301E-2</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="B5" s="4">
+        <v>6.9370217584073498E-3</v>
+      </c>
+      <c r="C5" s="4">
+        <v>6.8498621199359197E-3</v>
+      </c>
+      <c r="D5" s="4">
         <v>260</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="4">
         <v>1</v>
       </c>
       <c r="J5" s="5">
@@ -7216,11 +7216,11 @@
       </c>
       <c r="K5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>2.503522301993015E-2</v>
+        <v>6.9446945069357698E-3</v>
       </c>
       <c r="L5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>2.4535537558667175E-2</v>
+        <v>6.8974114491287195E-3</v>
       </c>
       <c r="M5" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -7236,10 +7236,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B6">
-        <v>2.3820467482010499E-2</v>
+        <v>6.9152255828181901E-3</v>
       </c>
       <c r="C6">
-        <v>2.5729965319500302E-2</v>
+        <v>7.0192203213004902E-3</v>
       </c>
       <c r="D6">
         <v>261</v>
@@ -7253,11 +7253,11 @@
       </c>
       <c r="K6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>2.5148827973753198E-2</v>
+        <v>7.0800403412431424E-3</v>
       </c>
       <c r="L6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>2.44704132448842E-2</v>
+        <v>6.9167975700420697E-3</v>
       </c>
       <c r="M6" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -7273,10 +7273,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B7">
-        <v>2.3459786241253201E-2</v>
+        <v>7.0722114828725598E-3</v>
       </c>
       <c r="C7">
-        <v>2.3520945412839899E-2</v>
+        <v>7.0533275089048296E-3</v>
       </c>
       <c r="D7">
         <v>262</v>
@@ -7284,23 +7284,23 @@
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="3">
         <f t="shared" ca="1" si="1"/>
         <v>1E-3</v>
       </c>
-      <c r="K7" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.6597069218133849E-2</v>
-      </c>
-      <c r="L7" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.4589923710780226E-2</v>
-      </c>
-      <c r="M7" s="5">
+      <c r="K7" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.3469332428649026E-3</v>
+      </c>
+      <c r="L7" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.8626685694672448E-3</v>
+      </c>
+      <c r="M7" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>278.5</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
@@ -7310,10 +7310,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B8">
-        <v>2.59415251761674E-2</v>
+        <v>6.9242974407970901E-3</v>
       </c>
       <c r="C8">
-        <v>2.537639413346E-2</v>
+        <v>6.8632247015595997E-3</v>
       </c>
       <c r="D8">
         <v>263</v>
@@ -7327,11 +7327,11 @@
       </c>
       <c r="K8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>4.0261868326614277E-2</v>
+        <v>2.1395792896548874E-2</v>
       </c>
       <c r="L8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>2.5033289744974398E-2</v>
+        <v>6.9537427823772556E-3</v>
       </c>
       <c r="M8" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -7347,10 +7347,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B9">
-        <v>2.7391084641218099E-2</v>
+        <v>6.8393895638485698E-3</v>
       </c>
       <c r="C9">
-        <v>2.4111047218692401E-2</v>
+        <v>6.7608922601063203E-3</v>
       </c>
       <c r="D9">
         <v>264</v>
@@ -7364,11 +7364,11 @@
       </c>
       <c r="K9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18342518044511424</v>
+        <v>0.14849680686990374</v>
       </c>
       <c r="L9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>4.1037375565638051E-2</v>
+        <v>1.1526457856389375E-2</v>
       </c>
       <c r="M9" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -7384,10 +7384,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B10">
-        <v>2.3518092336754001E-2</v>
+        <v>6.8911990684767501E-3</v>
       </c>
       <c r="C10">
-        <v>2.5387006514567E-2</v>
+        <v>6.9890101737481404E-3</v>
       </c>
       <c r="D10">
         <v>265</v>
@@ -7397,7 +7397,7 @@
       </c>
       <c r="L10">
         <f ca="1">MIN(L2:L9)</f>
-        <v>2.4401408538440226E-2</v>
+        <v>6.8626685694672448E-3</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -7405,10 +7405,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B11">
-        <v>2.3600910872220899E-2</v>
+        <v>6.9422106121977099E-3</v>
       </c>
       <c r="C11">
-        <v>2.3638978550963499E-2</v>
+        <v>6.9226316780723702E-3</v>
       </c>
       <c r="D11">
         <v>266</v>
@@ -7422,10 +7422,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B12">
-        <v>2.5752140124638799E-2</v>
+        <v>6.9359584276874799E-3</v>
       </c>
       <c r="C12">
-        <v>2.5112546911027201E-2</v>
+        <v>6.8549519513753498E-3</v>
       </c>
       <c r="D12">
         <v>267</v>
@@ -7439,10 +7439,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B13">
-        <v>2.7787640877068E-2</v>
+        <v>6.8147435051699396E-3</v>
       </c>
       <c r="C13">
-        <v>2.4445140783853299E-2</v>
+        <v>6.7326397526058096E-3</v>
       </c>
       <c r="D13">
         <v>268</v>
@@ -7456,10 +7456,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B14">
-        <v>2.3293774380038101E-2</v>
+        <v>6.9013514059285304E-3</v>
       </c>
       <c r="C14">
-        <v>2.5196165351712301E-2</v>
+        <v>6.9554887484124996E-3</v>
       </c>
       <c r="D14">
         <v>269</v>
@@ -7473,10 +7473,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B15">
-        <v>2.4128161708513798E-2</v>
+        <v>6.9732892053822604E-3</v>
       </c>
       <c r="C15">
-        <v>2.4231293308053199E-2</v>
+        <v>6.8895201783310198E-3</v>
       </c>
       <c r="D15">
         <v>270</v>
@@ -7490,10 +7490,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B16">
-        <v>2.4912535133461099E-2</v>
+        <v>6.9799153829614297E-3</v>
       </c>
       <c r="C16">
-        <v>2.4303640070509998E-2</v>
+        <v>6.9166191338383099E-3</v>
       </c>
       <c r="D16">
         <v>271</v>
@@ -7507,10 +7507,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B17">
-        <v>2.7806420857707601E-2</v>
+        <v>6.9242220334708596E-3</v>
       </c>
       <c r="C17">
-        <v>2.44110515043932E-2</v>
+        <v>6.8280177359330502E-3</v>
       </c>
       <c r="D17">
         <v>272</v>
@@ -7524,10 +7524,10 @@
         <v>1E-4</v>
       </c>
       <c r="B18">
-        <v>2.3026761097212599E-2</v>
+        <v>7.0808826635281197E-3</v>
       </c>
       <c r="C18">
-        <v>2.47349143127336E-2</v>
+        <v>7.0427069539560896E-3</v>
       </c>
       <c r="D18">
         <v>273</v>
@@ -7541,10 +7541,10 @@
         <v>1E-4</v>
       </c>
       <c r="B19">
-        <v>2.4140511999527599E-2</v>
+        <v>7.0437683649361097E-3</v>
       </c>
       <c r="C19">
-        <v>2.4032315566263899E-2</v>
+        <v>6.8391533073117097E-3</v>
       </c>
       <c r="D19">
         <v>274</v>
@@ -7558,10 +7558,10 @@
         <v>1E-4</v>
       </c>
       <c r="B20">
-        <v>2.5205243495603401E-2</v>
+        <v>7.1221806146204401E-3</v>
       </c>
       <c r="C20">
-        <v>2.44550407329138E-2</v>
+        <v>6.92103705071705E-3</v>
       </c>
       <c r="D20">
         <v>275</v>
@@ -7575,10 +7575,10 @@
         <v>1E-4</v>
       </c>
       <c r="B21">
-        <v>2.8222795302669201E-2</v>
+        <v>7.0733297218878999E-3</v>
       </c>
       <c r="C21">
-        <v>2.46593823676255E-2</v>
+        <v>6.8642929681834303E-3</v>
       </c>
       <c r="D21">
         <v>276</v>
@@ -7588,70 +7588,70 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22">
+      <c r="A22" s="2">
         <v>1E-3</v>
       </c>
-      <c r="B22">
-        <v>2.4782419408361098E-2</v>
-      </c>
-      <c r="C22">
-        <v>2.5155142474761E-2</v>
-      </c>
-      <c r="D22">
+      <c r="B22" s="2">
+        <v>8.3537928362687405E-3</v>
+      </c>
+      <c r="C22" s="2">
+        <v>6.9867879340544002E-3</v>
+      </c>
+      <c r="D22" s="2">
         <v>277</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="A23" s="2">
         <v>1E-3</v>
       </c>
-      <c r="B23">
-        <v>2.5188983914752799E-2</v>
-      </c>
-      <c r="C23">
-        <v>2.3734168208976999E-2</v>
-      </c>
-      <c r="D23">
+      <c r="B23" s="2">
+        <v>8.3270458355545994E-3</v>
+      </c>
+      <c r="C23" s="2">
+        <v>6.81899001009445E-3</v>
+      </c>
+      <c r="D23" s="2">
         <v>278</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24">
+      <c r="A24" s="2">
         <v>1E-3</v>
       </c>
-      <c r="B24">
-        <v>2.7365555639068201E-2</v>
-      </c>
-      <c r="C24">
-        <v>2.5258657631484101E-2</v>
-      </c>
-      <c r="D24">
+      <c r="B24" s="2">
+        <v>8.4251453156272502E-3</v>
+      </c>
+      <c r="C24" s="2">
+        <v>6.8887089914146798E-3</v>
+      </c>
+      <c r="D24" s="2">
         <v>279</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25">
+      <c r="A25" s="2">
         <v>1E-3</v>
       </c>
-      <c r="B25">
-        <v>2.90513179103533E-2</v>
-      </c>
-      <c r="C25">
-        <v>2.42117265278988E-2</v>
-      </c>
-      <c r="D25">
+      <c r="B25" s="2">
+        <v>8.2817489840090203E-3</v>
+      </c>
+      <c r="C25" s="2">
+        <v>6.7561873423054499E-3</v>
+      </c>
+      <c r="D25" s="2">
         <v>280</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="2">
         <v>1</v>
       </c>
     </row>
@@ -7660,10 +7660,10 @@
         <v>0.01</v>
       </c>
       <c r="B26" s="4">
-        <v>3.8126751407980899E-2</v>
+        <v>2.1653072615464501E-2</v>
       </c>
       <c r="C26" s="4">
-        <v>2.5418225794713499E-2</v>
+        <v>7.1253092771277103E-3</v>
       </c>
       <c r="D26" s="4">
         <v>281</v>
@@ -7678,10 +7678,10 @@
         <v>0.01</v>
       </c>
       <c r="B27" s="4">
-        <v>3.9780106648802702E-2</v>
+        <v>2.13200199703375E-2</v>
       </c>
       <c r="C27" s="4">
-        <v>2.51171862052634E-2</v>
+        <v>6.8233620791517601E-3</v>
       </c>
       <c r="D27" s="4">
         <v>282</v>
@@ -7696,10 +7696,10 @@
         <v>0.01</v>
       </c>
       <c r="B28" s="4">
-        <v>4.1120236421624802E-2</v>
+        <v>2.14295417020718E-2</v>
       </c>
       <c r="C28" s="4">
-        <v>2.5460266815300302E-2</v>
+        <v>6.9669659913299499E-3</v>
       </c>
       <c r="D28" s="4">
         <v>283</v>
@@ -7714,10 +7714,10 @@
         <v>0.01</v>
       </c>
       <c r="B29" s="4">
-        <v>4.2020378828048703E-2</v>
+        <v>2.11805372983217E-2</v>
       </c>
       <c r="C29" s="4">
-        <v>2.41374801646204E-2</v>
+        <v>6.8993337818996003E-3</v>
       </c>
       <c r="D29" s="4">
         <v>284</v>
@@ -7732,10 +7732,10 @@
         <v>0.1</v>
       </c>
       <c r="B30">
-        <v>0.184045380512873</v>
+        <v>0.14689437943696901</v>
       </c>
       <c r="C30">
-        <v>4.5954251176419998E-2</v>
+        <v>1.2060225297241101E-2</v>
       </c>
       <c r="D30">
         <v>285</v>
@@ -7749,10 +7749,10 @@
         <v>0.1</v>
       </c>
       <c r="B31">
-        <v>0.18063915385802501</v>
+        <v>0.15054847296078999</v>
       </c>
       <c r="C31">
-        <v>3.8232134793825603E-2</v>
+        <v>1.1187123600393501E-2</v>
       </c>
       <c r="D31">
         <v>286</v>
@@ -7766,10 +7766,10 @@
         <v>0.1</v>
       </c>
       <c r="B32">
-        <v>0.17629466519753101</v>
+        <v>0.148614242831865</v>
       </c>
       <c r="C32">
-        <v>3.7414145487499301E-2</v>
+        <v>1.1416654687057701E-2</v>
       </c>
       <c r="D32">
         <v>287</v>
@@ -7783,10 +7783,10 @@
         <v>0.1</v>
       </c>
       <c r="B33">
-        <v>0.19272152221202801</v>
+        <v>0.14793013224999099</v>
       </c>
       <c r="C33">
-        <v>4.2548970804807303E-2</v>
+        <v>1.14418278408652E-2</v>
       </c>
       <c r="D33">
         <v>288</v>

--- a/eg2.xlsx
+++ b/eg2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiqing/Desktop/Lipschitz-System-ID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E3CFCC-C10E-E740-A38E-FC5B37527670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65E4D2F-123F-D74D-8150-C5DF25C3B69C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4040" yWindow="5280" windowWidth="34560" windowHeight="19800" activeTab="5" xr2:uid="{624D5C9E-D399-6E42-9BAD-9829FF00FD61}"/>
   </bookViews>
@@ -16,12 +16,15 @@
     <sheet name="Ours 0.25" sheetId="1" r:id="rId1"/>
     <sheet name="Ours 0.5" sheetId="2" r:id="rId2"/>
     <sheet name="Ours 1.0" sheetId="3" r:id="rId3"/>
-    <sheet name="FCN 0.25" sheetId="4" r:id="rId4"/>
-    <sheet name="FCN 0.5" sheetId="5" r:id="rId5"/>
-    <sheet name="FCN 1.0" sheetId="6" r:id="rId6"/>
+    <sheet name="FCN 0.25" sheetId="10" r:id="rId4"/>
+    <sheet name="FCN 0.5" sheetId="11" r:id="rId5"/>
+    <sheet name="FCN 1.0" sheetId="12" r:id="rId6"/>
     <sheet name="LRN 0.25" sheetId="7" r:id="rId7"/>
     <sheet name="LRN 0.5" sheetId="8" r:id="rId8"/>
     <sheet name="LRN 1.0" sheetId="9" r:id="rId9"/>
+    <sheet name="FCN 0.25 (2)" sheetId="4" r:id="rId10"/>
+    <sheet name="FCN 0.5 (2)" sheetId="5" r:id="rId11"/>
+    <sheet name="FCN 1.0 (2)" sheetId="6" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="9">
   <si>
     <t>Gamma</t>
   </si>
@@ -1353,6 +1356,2397 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F26A9CE-0C1E-AF48-A07D-15710713DB1F}">
+  <dimension ref="A1:O49"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>1E-8</v>
+      </c>
+      <c r="B2" s="4">
+        <v>6.63425694120691E-3</v>
+      </c>
+      <c r="C2" s="4">
+        <v>6.8795220639081001E-3</v>
+      </c>
+      <c r="D2" s="4">
+        <v>97</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="J2" s="5">
+        <f ca="1">AVERAGE(OFFSET(A$2,(ROW()-2)*4,0,4,1))</f>
+        <v>1E-8</v>
+      </c>
+      <c r="K2" s="6">
+        <f t="shared" ref="K2:N9" ca="1" si="0">AVERAGE(OFFSET(B$2,(ROW()-2)*4,0,4,1))</f>
+        <v>6.7591485146314169E-3</v>
+      </c>
+      <c r="L2" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.8695231643009953E-3</v>
+      </c>
+      <c r="M2" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>98.5</v>
+      </c>
+      <c r="N2" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>1E-8</v>
+      </c>
+      <c r="B3" s="4">
+        <v>6.9461869709986296E-3</v>
+      </c>
+      <c r="C3" s="4">
+        <v>6.94244590766252E-3</v>
+      </c>
+      <c r="D3" s="4">
+        <v>98</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="J3" s="5">
+        <f t="shared" ref="J3:J9" ca="1" si="1">AVERAGE(OFFSET(A$2,(ROW()-2)*4,0,4,1))</f>
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="K3" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.7178795517897774E-3</v>
+      </c>
+      <c r="L3" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.8484056267907097E-3</v>
+      </c>
+      <c r="M3" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>102.5</v>
+      </c>
+      <c r="N3" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>1E-8</v>
+      </c>
+      <c r="B4" s="4">
+        <v>6.7513413043652996E-3</v>
+      </c>
+      <c r="C4" s="4">
+        <v>6.8555044089543002E-3</v>
+      </c>
+      <c r="D4" s="4">
+        <v>99</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="J4" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="K4" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.7326461145793002E-3</v>
+      </c>
+      <c r="L4" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.8450468131638197E-3</v>
+      </c>
+      <c r="M4" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>106.5</v>
+      </c>
+      <c r="N4" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>1E-8</v>
+      </c>
+      <c r="B5" s="4">
+        <v>6.7048088419548301E-3</v>
+      </c>
+      <c r="C5" s="4">
+        <v>6.8006202766790601E-3</v>
+      </c>
+      <c r="D5" s="4">
+        <v>100</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="J5" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K5" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.7183565561401981E-3</v>
+      </c>
+      <c r="L5" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.8650978624800844E-3</v>
+      </c>
+      <c r="M5" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>110.5</v>
+      </c>
+      <c r="N5" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="B6" s="4">
+        <v>6.6392859691714297E-3</v>
+      </c>
+      <c r="C6" s="4">
+        <v>6.8231957092722596E-3</v>
+      </c>
+      <c r="D6" s="4">
+        <v>101</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="J6" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>1E-4</v>
+      </c>
+      <c r="K6" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.8359696157672878E-3</v>
+      </c>
+      <c r="L6" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.9516474750150516E-3</v>
+      </c>
+      <c r="M6" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>114.5</v>
+      </c>
+      <c r="N6" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="B7" s="4">
+        <v>6.7546032814982697E-3</v>
+      </c>
+      <c r="C7" s="4">
+        <v>6.8678372301795299E-3</v>
+      </c>
+      <c r="D7" s="4">
+        <v>102</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="J7" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>1E-3</v>
+      </c>
+      <c r="K7" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.5324684606884853E-3</v>
+      </c>
+      <c r="L7" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.6976588362471171E-3</v>
+      </c>
+      <c r="M7" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>118.5</v>
+      </c>
+      <c r="N7" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="B8" s="4">
+        <v>6.7522547237495699E-3</v>
+      </c>
+      <c r="C8" s="4">
+        <v>6.907919897361E-3</v>
+      </c>
+      <c r="D8" s="4">
+        <v>103</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="J8" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="K8" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.7182854842642224E-2</v>
+      </c>
+      <c r="L8" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.7094487527464577E-2</v>
+      </c>
+      <c r="M8" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>122.5</v>
+      </c>
+      <c r="N8" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="B9" s="4">
+        <v>6.7253742327398397E-3</v>
+      </c>
+      <c r="C9" s="4">
+        <v>6.7946696703500504E-3</v>
+      </c>
+      <c r="D9" s="4">
+        <v>104</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="J9" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="K9" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.8737791648154376</v>
+      </c>
+      <c r="L9" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.8631926631317128</v>
+      </c>
+      <c r="M9" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>126.5</v>
+      </c>
+      <c r="N9" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="B10" s="2">
+        <v>6.6933222362731996E-3</v>
+      </c>
+      <c r="C10" s="2">
+        <v>6.8940232864561201E-3</v>
+      </c>
+      <c r="D10" s="2">
+        <v>105</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="L10">
+        <f ca="1">MIN(L2:L9)</f>
+        <v>6.8450468131638197E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="B11" s="2">
+        <v>6.8411875337837796E-3</v>
+      </c>
+      <c r="C11" s="2">
+        <v>6.9263292218934899E-3</v>
+      </c>
+      <c r="D11" s="2">
+        <v>106</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="B12" s="2">
+        <v>6.6830442049243301E-3</v>
+      </c>
+      <c r="C12" s="2">
+        <v>6.7876846618712501E-3</v>
+      </c>
+      <c r="D12" s="2">
+        <v>107</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="B13" s="2">
+        <v>6.7130304833358896E-3</v>
+      </c>
+      <c r="C13" s="2">
+        <v>6.7721500824344198E-3</v>
+      </c>
+      <c r="D13" s="2">
+        <v>108</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="B14">
+        <v>6.6918825453266099E-3</v>
+      </c>
+      <c r="C14">
+        <v>6.8939140987919296E-3</v>
+      </c>
+      <c r="D14">
+        <v>109</v>
+      </c>
+      <c r="E14">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="B15">
+        <v>6.7642186520660797E-3</v>
+      </c>
+      <c r="C15">
+        <v>6.8623492187087198E-3</v>
+      </c>
+      <c r="D15">
+        <v>110</v>
+      </c>
+      <c r="E15">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="B16">
+        <v>6.7303993223987897E-3</v>
+      </c>
+      <c r="C16">
+        <v>6.8701671565228901E-3</v>
+      </c>
+      <c r="D16">
+        <v>111</v>
+      </c>
+      <c r="E16">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="B17">
+        <v>6.6869257047693104E-3</v>
+      </c>
+      <c r="C17">
+        <v>6.8339609758968E-3</v>
+      </c>
+      <c r="D17">
+        <v>112</v>
+      </c>
+      <c r="E17">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1E-4</v>
+      </c>
+      <c r="B18">
+        <v>6.7618447256849101E-3</v>
+      </c>
+      <c r="C18">
+        <v>6.9383331277268999E-3</v>
+      </c>
+      <c r="D18">
+        <v>113</v>
+      </c>
+      <c r="E18">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1E-4</v>
+      </c>
+      <c r="B19">
+        <v>6.8775182986196004E-3</v>
+      </c>
+      <c r="C19">
+        <v>6.9744737838652497E-3</v>
+      </c>
+      <c r="D19">
+        <v>114</v>
+      </c>
+      <c r="E19">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1E-4</v>
+      </c>
+      <c r="B20">
+        <v>6.8262979645836797E-3</v>
+      </c>
+      <c r="C20">
+        <v>6.9720424870227202E-3</v>
+      </c>
+      <c r="D20">
+        <v>115</v>
+      </c>
+      <c r="E20">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1E-4</v>
+      </c>
+      <c r="B21">
+        <v>6.87821747418096E-3</v>
+      </c>
+      <c r="C21">
+        <v>6.9217405014453401E-3</v>
+      </c>
+      <c r="D21">
+        <v>116</v>
+      </c>
+      <c r="E21">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1E-3</v>
+      </c>
+      <c r="B22">
+        <v>7.4801667633050302E-3</v>
+      </c>
+      <c r="C22">
+        <v>7.7435841902773403E-3</v>
+      </c>
+      <c r="D22">
+        <v>117</v>
+      </c>
+      <c r="E22">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1E-3</v>
+      </c>
+      <c r="B23">
+        <v>7.6838472630194497E-3</v>
+      </c>
+      <c r="C23">
+        <v>7.8472336159741592E-3</v>
+      </c>
+      <c r="D23">
+        <v>118</v>
+      </c>
+      <c r="E23">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1E-3</v>
+      </c>
+      <c r="B24">
+        <v>7.4433940215075899E-3</v>
+      </c>
+      <c r="C24">
+        <v>7.6696261852741802E-3</v>
+      </c>
+      <c r="D24">
+        <v>119</v>
+      </c>
+      <c r="E24">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1E-3</v>
+      </c>
+      <c r="B25">
+        <v>7.5224657949218704E-3</v>
+      </c>
+      <c r="C25">
+        <v>7.5301913534627897E-3</v>
+      </c>
+      <c r="D25">
+        <v>120</v>
+      </c>
+      <c r="E25">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>0.01</v>
+      </c>
+      <c r="B26">
+        <v>1.8781037520656799E-2</v>
+      </c>
+      <c r="C26">
+        <v>1.9340524197298401E-2</v>
+      </c>
+      <c r="D26">
+        <v>121</v>
+      </c>
+      <c r="E26">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>0.01</v>
+      </c>
+      <c r="B27">
+        <v>1.86151711448551E-2</v>
+      </c>
+      <c r="C27">
+        <v>1.8307993010162001E-2</v>
+      </c>
+      <c r="D27">
+        <v>122</v>
+      </c>
+      <c r="E27">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>0.01</v>
+      </c>
+      <c r="B28">
+        <v>1.74524653901128E-2</v>
+      </c>
+      <c r="C28">
+        <v>1.7244511764456901E-2</v>
+      </c>
+      <c r="D28">
+        <v>123</v>
+      </c>
+      <c r="E28">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>0.01</v>
+      </c>
+      <c r="B29">
+        <v>1.3882745314944199E-2</v>
+      </c>
+      <c r="C29">
+        <v>1.3484921137940999E-2</v>
+      </c>
+      <c r="D29">
+        <v>124</v>
+      </c>
+      <c r="E29">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>0.1</v>
+      </c>
+      <c r="B30">
+        <v>0.194996873709432</v>
+      </c>
+      <c r="C30">
+        <v>0.20584093597024</v>
+      </c>
+      <c r="D30">
+        <v>125</v>
+      </c>
+      <c r="E30">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>0.1</v>
+      </c>
+      <c r="B31">
+        <v>7.7016466221910802</v>
+      </c>
+      <c r="C31">
+        <v>7.7301994891876804</v>
+      </c>
+      <c r="D31">
+        <v>126</v>
+      </c>
+      <c r="E31">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>0.1</v>
+      </c>
+      <c r="B32">
+        <v>7.7975222455694304</v>
+      </c>
+      <c r="C32">
+        <v>7.7867968437519401</v>
+      </c>
+      <c r="D32">
+        <v>127</v>
+      </c>
+      <c r="E32">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>0.1</v>
+      </c>
+      <c r="B33">
+        <v>7.8009509177918099</v>
+      </c>
+      <c r="C33">
+        <v>7.7299333836169897</v>
+      </c>
+      <c r="D33">
+        <v>128</v>
+      </c>
+      <c r="E33">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="1"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="1"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="1"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="1"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F5A6AC-C536-6146-8F68-4021A88D57DE}">
+  <dimension ref="A1:N33"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4:N5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="B2">
+        <v>6.7823391501851196E-3</v>
+      </c>
+      <c r="C2">
+        <v>6.7879713754704597E-3</v>
+      </c>
+      <c r="D2">
+        <v>129</v>
+      </c>
+      <c r="E2">
+        <v>0.5</v>
+      </c>
+      <c r="J2" s="5">
+        <f ca="1">AVERAGE(OFFSET(A$2,(ROW()-2)*4,0,4,1))</f>
+        <v>1E-8</v>
+      </c>
+      <c r="K2" s="6">
+        <f t="shared" ref="K2:N9" ca="1" si="0">AVERAGE(OFFSET(B$2,(ROW()-2)*4,0,4,1))</f>
+        <v>6.7413872277532526E-3</v>
+      </c>
+      <c r="L2" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.7303437278903155E-3</v>
+      </c>
+      <c r="M2" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>130.5</v>
+      </c>
+      <c r="N2" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="B3">
+        <v>6.7840145697737903E-3</v>
+      </c>
+      <c r="C3">
+        <v>6.7853279847730902E-3</v>
+      </c>
+      <c r="D3">
+        <v>130</v>
+      </c>
+      <c r="E3">
+        <v>0.5</v>
+      </c>
+      <c r="J3" s="5">
+        <f t="shared" ref="J3:J9" ca="1" si="1">AVERAGE(OFFSET(A$2,(ROW()-2)*4,0,4,1))</f>
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="K3" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.7238400812865123E-3</v>
+      </c>
+      <c r="L3" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.7317792229314721E-3</v>
+      </c>
+      <c r="M3" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>134.5</v>
+      </c>
+      <c r="N3" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="B4">
+        <v>6.6765474497360398E-3</v>
+      </c>
+      <c r="C4">
+        <v>6.6869882519971103E-3</v>
+      </c>
+      <c r="D4">
+        <v>131</v>
+      </c>
+      <c r="E4">
+        <v>0.5</v>
+      </c>
+      <c r="J4" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="K4" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.7000229120938101E-3</v>
+      </c>
+      <c r="L4" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.7199673033022126E-3</v>
+      </c>
+      <c r="M4" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>138.5</v>
+      </c>
+      <c r="N4" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="B5">
+        <v>6.7226477413180599E-3</v>
+      </c>
+      <c r="C5">
+        <v>6.6610872993206E-3</v>
+      </c>
+      <c r="D5">
+        <v>132</v>
+      </c>
+      <c r="E5">
+        <v>0.5</v>
+      </c>
+      <c r="J5" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K5" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.7160105459055184E-3</v>
+      </c>
+      <c r="L5" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.7199134810312453E-3</v>
+      </c>
+      <c r="M5" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>142.5</v>
+      </c>
+      <c r="N5" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="B6">
+        <v>6.7820863803214502E-3</v>
+      </c>
+      <c r="C6">
+        <v>6.77950316148394E-3</v>
+      </c>
+      <c r="D6">
+        <v>133</v>
+      </c>
+      <c r="E6">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>1E-4</v>
+      </c>
+      <c r="K6" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.8331792736376429E-3</v>
+      </c>
+      <c r="L6" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.8532793790082158E-3</v>
+      </c>
+      <c r="M6" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>146.5</v>
+      </c>
+      <c r="N6" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="B7">
+        <v>6.7094686327184997E-3</v>
+      </c>
+      <c r="C7">
+        <v>6.7685939807524001E-3</v>
+      </c>
+      <c r="D7">
+        <v>134</v>
+      </c>
+      <c r="E7">
+        <v>0.5</v>
+      </c>
+      <c r="J7" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>1E-3</v>
+      </c>
+      <c r="K7" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.6049650100337169E-3</v>
+      </c>
+      <c r="L7" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.6071586685274948E-3</v>
+      </c>
+      <c r="M7" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>150.5</v>
+      </c>
+      <c r="N7" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="B8">
+        <v>6.6295407360736601E-3</v>
+      </c>
+      <c r="C8">
+        <v>6.6720121589667596E-3</v>
+      </c>
+      <c r="D8">
+        <v>135</v>
+      </c>
+      <c r="E8">
+        <v>0.5</v>
+      </c>
+      <c r="J8" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="K8" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.7203692707822574E-2</v>
+      </c>
+      <c r="L8" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.6995441299823499E-2</v>
+      </c>
+      <c r="M8" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>154.5</v>
+      </c>
+      <c r="N8" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="B9">
+        <v>6.77426457603244E-3</v>
+      </c>
+      <c r="C9">
+        <v>6.7070075905227896E-3</v>
+      </c>
+      <c r="D9">
+        <v>136</v>
+      </c>
+      <c r="E9">
+        <v>0.5</v>
+      </c>
+      <c r="J9" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="K9" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.7864739660252882</v>
+      </c>
+      <c r="L9" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.7652930528559505</v>
+      </c>
+      <c r="M9" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>158.5</v>
+      </c>
+      <c r="N9" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="B10" s="2">
+        <v>6.7846961839600102E-3</v>
+      </c>
+      <c r="C10" s="2">
+        <v>6.8637235833212996E-3</v>
+      </c>
+      <c r="D10" s="2">
+        <v>137</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="L10">
+        <f ca="1">MIN(L2:L9)</f>
+        <v>6.7199134810312453E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="B11" s="2">
+        <v>6.68932232718439E-3</v>
+      </c>
+      <c r="C11" s="2">
+        <v>6.7351497362981997E-3</v>
+      </c>
+      <c r="D11" s="2">
+        <v>138</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="B12" s="2">
+        <v>6.6354002164518196E-3</v>
+      </c>
+      <c r="C12" s="2">
+        <v>6.6696927446792701E-3</v>
+      </c>
+      <c r="D12" s="2">
+        <v>139</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="B13" s="2">
+        <v>6.6906729207790198E-3</v>
+      </c>
+      <c r="C13" s="2">
+        <v>6.6113031489100802E-3</v>
+      </c>
+      <c r="D13" s="2">
+        <v>140</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="B14" s="4">
+        <v>6.7688857968104003E-3</v>
+      </c>
+      <c r="C14" s="4">
+        <v>6.8050990614326699E-3</v>
+      </c>
+      <c r="D14" s="4">
+        <v>141</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="B15" s="4">
+        <v>6.7033654281948704E-3</v>
+      </c>
+      <c r="C15" s="4">
+        <v>6.7616181666071097E-3</v>
+      </c>
+      <c r="D15" s="4">
+        <v>142</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="B16" s="4">
+        <v>6.6713447251575096E-3</v>
+      </c>
+      <c r="C16" s="4">
+        <v>6.6534047203257304E-3</v>
+      </c>
+      <c r="D16" s="4">
+        <v>143</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="B17" s="4">
+        <v>6.7204462334592898E-3</v>
+      </c>
+      <c r="C17" s="4">
+        <v>6.6595319757594704E-3</v>
+      </c>
+      <c r="D17" s="4">
+        <v>144</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1E-4</v>
+      </c>
+      <c r="B18">
+        <v>6.9045284787747699E-3</v>
+      </c>
+      <c r="C18">
+        <v>7.0274053339628396E-3</v>
+      </c>
+      <c r="D18">
+        <v>145</v>
+      </c>
+      <c r="E18">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1E-4</v>
+      </c>
+      <c r="B19">
+        <v>6.8325304867144897E-3</v>
+      </c>
+      <c r="C19">
+        <v>6.8716885313946504E-3</v>
+      </c>
+      <c r="D19">
+        <v>146</v>
+      </c>
+      <c r="E19">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1E-4</v>
+      </c>
+      <c r="B20">
+        <v>6.7819960246932598E-3</v>
+      </c>
+      <c r="C20">
+        <v>6.7838065801782803E-3</v>
+      </c>
+      <c r="D20">
+        <v>147</v>
+      </c>
+      <c r="E20">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1E-4</v>
+      </c>
+      <c r="B21">
+        <v>6.8136621043680496E-3</v>
+      </c>
+      <c r="C21">
+        <v>6.7302170704970901E-3</v>
+      </c>
+      <c r="D21">
+        <v>148</v>
+      </c>
+      <c r="E21">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1E-3</v>
+      </c>
+      <c r="B22">
+        <v>7.4825403825478903E-3</v>
+      </c>
+      <c r="C22">
+        <v>7.6690057906857196E-3</v>
+      </c>
+      <c r="D22">
+        <v>149</v>
+      </c>
+      <c r="E22">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1E-3</v>
+      </c>
+      <c r="B23">
+        <v>7.7343439668456603E-3</v>
+      </c>
+      <c r="C23">
+        <v>7.7221156692409698E-3</v>
+      </c>
+      <c r="D23">
+        <v>150</v>
+      </c>
+      <c r="E23">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1E-3</v>
+      </c>
+      <c r="B24">
+        <v>7.6535743205471199E-3</v>
+      </c>
+      <c r="C24">
+        <v>7.6246715566896297E-3</v>
+      </c>
+      <c r="D24">
+        <v>151</v>
+      </c>
+      <c r="E24">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1E-3</v>
+      </c>
+      <c r="B25">
+        <v>7.5494013701941998E-3</v>
+      </c>
+      <c r="C25">
+        <v>7.4128416574936601E-3</v>
+      </c>
+      <c r="D25">
+        <v>152</v>
+      </c>
+      <c r="E25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>0.01</v>
+      </c>
+      <c r="B26">
+        <v>1.9732550361213502E-2</v>
+      </c>
+      <c r="C26">
+        <v>2.0975059165837199E-2</v>
+      </c>
+      <c r="D26">
+        <v>153</v>
+      </c>
+      <c r="E26">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>0.01</v>
+      </c>
+      <c r="B27">
+        <v>1.7721472206485799E-2</v>
+      </c>
+      <c r="C27">
+        <v>1.7249549630078201E-2</v>
+      </c>
+      <c r="D27">
+        <v>154</v>
+      </c>
+      <c r="E27">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>0.01</v>
+      </c>
+      <c r="B28">
+        <v>1.6423993516079202E-2</v>
+      </c>
+      <c r="C28">
+        <v>1.6223486512899399E-2</v>
+      </c>
+      <c r="D28">
+        <v>155</v>
+      </c>
+      <c r="E28">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>0.01</v>
+      </c>
+      <c r="B29">
+        <v>1.4936754747511801E-2</v>
+      </c>
+      <c r="C29">
+        <v>1.3533669890479201E-2</v>
+      </c>
+      <c r="D29">
+        <v>156</v>
+      </c>
+      <c r="E29">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>0.1</v>
+      </c>
+      <c r="B30">
+        <v>7.7577526112820197</v>
+      </c>
+      <c r="C30">
+        <v>7.8142421194847502</v>
+      </c>
+      <c r="D30">
+        <v>157</v>
+      </c>
+      <c r="E30">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>0.1</v>
+      </c>
+      <c r="B31">
+        <v>7.7592554067043498</v>
+      </c>
+      <c r="C31">
+        <v>7.7301994891876804</v>
+      </c>
+      <c r="D31">
+        <v>158</v>
+      </c>
+      <c r="E31">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>0.1</v>
+      </c>
+      <c r="B32">
+        <v>7.8002449755973</v>
+      </c>
+      <c r="C32">
+        <v>7.7867968437519401</v>
+      </c>
+      <c r="D32">
+        <v>159</v>
+      </c>
+      <c r="E32">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>0.1</v>
+      </c>
+      <c r="B33">
+        <v>7.8286428705174798</v>
+      </c>
+      <c r="C33">
+        <v>7.7299337589994304</v>
+      </c>
+      <c r="D33">
+        <v>160</v>
+      </c>
+      <c r="E33">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9902717B-D473-4C4C-BD56-0A1D1459D334}">
+  <dimension ref="A1:N50"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>1E-8</v>
+      </c>
+      <c r="B2" s="4">
+        <v>6.6716014184057702E-3</v>
+      </c>
+      <c r="C2" s="4">
+        <v>6.7108751403445197E-3</v>
+      </c>
+      <c r="D2" s="4">
+        <v>161</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5">
+        <f ca="1">AVERAGE(OFFSET(A$2,(ROW()-2)*4,0,4,1))</f>
+        <v>1E-8</v>
+      </c>
+      <c r="K2" s="6">
+        <f t="shared" ref="K2:N9" ca="1" si="0">AVERAGE(OFFSET(B$2,(ROW()-2)*4,0,4,1))</f>
+        <v>6.693693019449708E-3</v>
+      </c>
+      <c r="L2" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.663737818598742E-3</v>
+      </c>
+      <c r="M2" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>162.5</v>
+      </c>
+      <c r="N2" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>1E-8</v>
+      </c>
+      <c r="B3" s="4">
+        <v>6.6993678286671604E-3</v>
+      </c>
+      <c r="C3" s="4">
+        <v>6.7036600060206104E-3</v>
+      </c>
+      <c r="D3" s="4">
+        <v>162</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3">
+        <f t="shared" ref="J3:J9" ca="1" si="1">AVERAGE(OFFSET(A$2,(ROW()-2)*4,0,4,1))</f>
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="K3" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.7046002037823155E-3</v>
+      </c>
+      <c r="L3" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.6485973855262524E-3</v>
+      </c>
+      <c r="M3" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>166.5</v>
+      </c>
+      <c r="N3" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>1E-8</v>
+      </c>
+      <c r="B4" s="4">
+        <v>6.7179734297096701E-3</v>
+      </c>
+      <c r="C4" s="4">
+        <v>6.6498632126666098E-3</v>
+      </c>
+      <c r="D4" s="4">
+        <v>163</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="K4" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.7269933754578173E-3</v>
+      </c>
+      <c r="L4" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.662821810831253E-3</v>
+      </c>
+      <c r="M4" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>170.5</v>
+      </c>
+      <c r="N4" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>1E-8</v>
+      </c>
+      <c r="B5" s="4">
+        <v>6.6858294010162297E-3</v>
+      </c>
+      <c r="C5" s="4">
+        <v>6.59055291536323E-3</v>
+      </c>
+      <c r="D5" s="4">
+        <v>164</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K5" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.7440382285664426E-3</v>
+      </c>
+      <c r="L5" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.6998219414752822E-3</v>
+      </c>
+      <c r="M5" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>174.5</v>
+      </c>
+      <c r="N5" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="B6" s="2">
+        <v>6.6522866760691003E-3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>6.7000399403115496E-3</v>
+      </c>
+      <c r="D6" s="2">
+        <v>165</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>47.720999999999997</v>
+      </c>
+      <c r="J6" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>1E-4</v>
+      </c>
+      <c r="K6" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.9272691843410301E-3</v>
+      </c>
+      <c r="L6" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.8618829914447906E-3</v>
+      </c>
+      <c r="M6" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>178.5</v>
+      </c>
+      <c r="N6" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="B7" s="2">
+        <v>6.7498680179317698E-3</v>
+      </c>
+      <c r="C7" s="2">
+        <v>6.7204476651200502E-3</v>
+      </c>
+      <c r="D7" s="2">
+        <v>166</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>77.769000000000005</v>
+      </c>
+      <c r="J7" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>1E-3</v>
+      </c>
+      <c r="K7" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.6820023019487623E-3</v>
+      </c>
+      <c r="L7" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.6357470193699423E-3</v>
+      </c>
+      <c r="M7" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>182.5</v>
+      </c>
+      <c r="N7" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="B8" s="2">
+        <v>6.6699861499170399E-3</v>
+      </c>
+      <c r="C8" s="2">
+        <v>6.5281062010437802E-3</v>
+      </c>
+      <c r="D8" s="2">
+        <v>167</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>99.394999999999996</v>
+      </c>
+      <c r="J8" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.01</v>
+      </c>
+      <c r="K8" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.6336592090316075E-2</v>
+      </c>
+      <c r="L8" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.6456085695647302E-2</v>
+      </c>
+      <c r="M8" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>186.5</v>
+      </c>
+      <c r="N8" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>6.7462599712113502E-3</v>
+      </c>
+      <c r="C9" s="2">
+        <v>6.6457957356296296E-3</v>
+      </c>
+      <c r="D9" s="2">
+        <v>168</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
+        <v>63.13</v>
+      </c>
+      <c r="J9" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="K9" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.8477453077336099</v>
+      </c>
+      <c r="L9" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.8390877858359085</v>
+      </c>
+      <c r="M9" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>190.5</v>
+      </c>
+      <c r="N9" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="B10" s="4">
+        <v>6.6695518928269497E-3</v>
+      </c>
+      <c r="C10" s="4">
+        <v>6.6823153905174199E-3</v>
+      </c>
+      <c r="D10" s="4">
+        <v>169</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <f ca="1">MIN(L2:L9)</f>
+        <v>6.6485973855262524E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="B11" s="4">
+        <v>6.7755464687943396E-3</v>
+      </c>
+      <c r="C11" s="4">
+        <v>6.7222203435178098E-3</v>
+      </c>
+      <c r="D11" s="4">
+        <v>170</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="B12" s="4">
+        <v>6.7317735143005803E-3</v>
+      </c>
+      <c r="C12" s="4">
+        <v>6.6283174760718901E-3</v>
+      </c>
+      <c r="D12" s="4">
+        <v>171</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="B13" s="4">
+        <v>6.7311016259093996E-3</v>
+      </c>
+      <c r="C13" s="4">
+        <v>6.6184340332178897E-3</v>
+      </c>
+      <c r="D13" s="4">
+        <v>172</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="B14">
+        <v>6.6822747252881501E-3</v>
+      </c>
+      <c r="C14">
+        <v>6.7156803239374696E-3</v>
+      </c>
+      <c r="D14">
+        <v>173</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="B15">
+        <v>6.7276908395190998E-3</v>
+      </c>
+      <c r="C15">
+        <v>6.7015521109421196E-3</v>
+      </c>
+      <c r="D15">
+        <v>174</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="B16">
+        <v>6.7416144162416401E-3</v>
+      </c>
+      <c r="C16">
+        <v>6.65543164978636E-3</v>
+      </c>
+      <c r="D16">
+        <v>175</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="B17">
+        <v>6.8245729332168797E-3</v>
+      </c>
+      <c r="C17">
+        <v>6.7266236812351804E-3</v>
+      </c>
+      <c r="D17">
+        <v>176</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1E-4</v>
+      </c>
+      <c r="B18">
+        <v>6.7973423774043704E-3</v>
+      </c>
+      <c r="C18">
+        <v>6.8380069037146298E-3</v>
+      </c>
+      <c r="D18">
+        <v>177</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1E-4</v>
+      </c>
+      <c r="B19">
+        <v>6.9881694229940502E-3</v>
+      </c>
+      <c r="C19">
+        <v>6.9383545778691699E-3</v>
+      </c>
+      <c r="D19">
+        <v>178</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1E-4</v>
+      </c>
+      <c r="B20">
+        <v>6.9439835747083E-3</v>
+      </c>
+      <c r="C20">
+        <v>6.7963713849399296E-3</v>
+      </c>
+      <c r="D20">
+        <v>179</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1E-4</v>
+      </c>
+      <c r="B21">
+        <v>6.9795813622573998E-3</v>
+      </c>
+      <c r="C21">
+        <v>6.8747990992554303E-3</v>
+      </c>
+      <c r="D21">
+        <v>180</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1E-3</v>
+      </c>
+      <c r="B22">
+        <v>7.5740726354221501E-3</v>
+      </c>
+      <c r="C22">
+        <v>7.7762496509054197E-3</v>
+      </c>
+      <c r="D22">
+        <v>181</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1E-3</v>
+      </c>
+      <c r="B23">
+        <v>8.0200596141318404E-3</v>
+      </c>
+      <c r="C23">
+        <v>7.9087801574868003E-3</v>
+      </c>
+      <c r="D23">
+        <v>182</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1E-3</v>
+      </c>
+      <c r="B24">
+        <v>7.5297359315057598E-3</v>
+      </c>
+      <c r="C24">
+        <v>7.3877964317402298E-3</v>
+      </c>
+      <c r="D24">
+        <v>183</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1E-3</v>
+      </c>
+      <c r="B25">
+        <v>7.6041410267352998E-3</v>
+      </c>
+      <c r="C25">
+        <v>7.4701618373473203E-3</v>
+      </c>
+      <c r="D25">
+        <v>184</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>0.01</v>
+      </c>
+      <c r="B26">
+        <v>1.7778381492942499E-2</v>
+      </c>
+      <c r="C26">
+        <v>1.9238388879185001E-2</v>
+      </c>
+      <c r="D26">
+        <v>185</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>0.01</v>
+      </c>
+      <c r="B27">
+        <v>1.51289113089442E-2</v>
+      </c>
+      <c r="C27">
+        <v>1.4470159977753701E-2</v>
+      </c>
+      <c r="D27">
+        <v>186</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>0.01</v>
+      </c>
+      <c r="B28">
+        <v>1.70353068858385E-2</v>
+      </c>
+      <c r="C28">
+        <v>1.7105834910329E-2</v>
+      </c>
+      <c r="D28">
+        <v>187</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>0.01</v>
+      </c>
+      <c r="B29">
+        <v>1.5403768673539099E-2</v>
+      </c>
+      <c r="C29">
+        <v>1.5009959015321501E-2</v>
+      </c>
+      <c r="D29">
+        <v>188</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>0.1</v>
+      </c>
+      <c r="B30">
+        <v>0.17871318678061099</v>
+      </c>
+      <c r="C30">
+        <v>0.19225988600482299</v>
+      </c>
+      <c r="D30">
+        <v>189</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>0.1</v>
+      </c>
+      <c r="B31">
+        <v>7.7863888270060198</v>
+      </c>
+      <c r="C31">
+        <v>7.7301994891876804</v>
+      </c>
+      <c r="D31">
+        <v>190</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>0.1</v>
+      </c>
+      <c r="B32">
+        <v>7.7723126831054596</v>
+      </c>
+      <c r="C32">
+        <v>7.7867968437519401</v>
+      </c>
+      <c r="D32">
+        <v>191</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>0.1</v>
+      </c>
+      <c r="B33">
+        <v>3.65356653404235</v>
+      </c>
+      <c r="C33">
+        <v>3.6470949243991901</v>
+      </c>
+      <c r="D33">
+        <v>192</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="1"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="1"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="1"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="1"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4411848-26EC-7848-88E5-EF7373A463AB}">
   <dimension ref="A1:O33"/>
@@ -2247,7 +4641,7 @@
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3132,11 +5526,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F26A9CE-0C1E-AF48-A07D-15710713DB1F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DF2A173-9918-8F44-B269-57F0463C8F5C}">
   <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:E13"/>
+      <selection activeCell="A2" sqref="A2:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3177,57 +5571,57 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
+      <c r="A2" s="3">
         <v>1E-8</v>
       </c>
-      <c r="B2" s="4">
-        <v>6.63425694120691E-3</v>
-      </c>
-      <c r="C2" s="4">
-        <v>6.8795220639081001E-3</v>
-      </c>
-      <c r="D2" s="4">
-        <v>97</v>
-      </c>
-      <c r="E2" s="4">
+      <c r="B2" s="2">
+        <v>6.7470905598887099E-3</v>
+      </c>
+      <c r="C2" s="2">
+        <v>6.9630718938610003E-3</v>
+      </c>
+      <c r="D2" s="2">
+        <v>289</v>
+      </c>
+      <c r="E2" s="2">
         <v>0.25</v>
       </c>
       <c r="F2" s="2"/>
-      <c r="J2" s="5">
+      <c r="J2" s="3">
         <f ca="1">AVERAGE(OFFSET(A$2,(ROW()-2)*4,0,4,1))</f>
         <v>1E-8</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="7">
         <f t="shared" ref="K2:N9" ca="1" si="0">AVERAGE(OFFSET(B$2,(ROW()-2)*4,0,4,1))</f>
-        <v>6.7591485146314169E-3</v>
-      </c>
-      <c r="L2" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.8695231643009953E-3</v>
-      </c>
-      <c r="M2" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>98.5</v>
-      </c>
-      <c r="N2" s="5">
+        <v>6.83427429535089E-3</v>
+      </c>
+      <c r="L2" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.0383100797659975E-3</v>
+      </c>
+      <c r="M2" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>290.5</v>
+      </c>
+      <c r="N2" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+      <c r="A3" s="3">
         <v>1E-8</v>
       </c>
-      <c r="B3" s="4">
-        <v>6.9461869709986296E-3</v>
-      </c>
-      <c r="C3" s="4">
-        <v>6.94244590766252E-3</v>
-      </c>
-      <c r="D3" s="4">
-        <v>98</v>
-      </c>
-      <c r="E3" s="4">
+      <c r="B3" s="2">
+        <v>6.8794474094868302E-3</v>
+      </c>
+      <c r="C3" s="2">
+        <v>7.0039383284351197E-3</v>
+      </c>
+      <c r="D3" s="2">
+        <v>290</v>
+      </c>
+      <c r="E3" s="2">
         <v>0.25</v>
       </c>
       <c r="F3" s="2"/>
@@ -3237,15 +5631,15 @@
       </c>
       <c r="K3" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7178795517897774E-3</v>
+        <v>6.8681727552370297E-3</v>
       </c>
       <c r="L3" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.8484056267907097E-3</v>
+        <v>7.0872444837809818E-3</v>
       </c>
       <c r="M3" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>102.5</v>
+        <v>294.5</v>
       </c>
       <c r="N3" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -3253,57 +5647,57 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
+      <c r="A4" s="3">
         <v>1E-8</v>
       </c>
-      <c r="B4" s="4">
-        <v>6.7513413043652996E-3</v>
-      </c>
-      <c r="C4" s="4">
-        <v>6.8555044089543002E-3</v>
-      </c>
-      <c r="D4" s="4">
-        <v>99</v>
-      </c>
-      <c r="E4" s="4">
+      <c r="B4" s="2">
+        <v>6.8101911022862803E-3</v>
+      </c>
+      <c r="C4" s="2">
+        <v>7.13198418986607E-3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>291</v>
+      </c>
+      <c r="E4" s="2">
         <v>0.25</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="J4" s="3">
+      <c r="J4" s="5">
         <f t="shared" ca="1" si="1"/>
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="K4" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.7326461145793002E-3</v>
-      </c>
-      <c r="L4" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.8450468131638197E-3</v>
-      </c>
-      <c r="M4" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>106.5</v>
-      </c>
-      <c r="N4" s="3">
+      <c r="K4" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.8759944691184002E-3</v>
+      </c>
+      <c r="L4" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.1167462577230896E-3</v>
+      </c>
+      <c r="M4" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>298.5</v>
+      </c>
+      <c r="N4" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
+      <c r="A5" s="3">
         <v>1E-8</v>
       </c>
-      <c r="B5" s="4">
-        <v>6.7048088419548301E-3</v>
-      </c>
-      <c r="C5" s="4">
-        <v>6.8006202766790601E-3</v>
-      </c>
-      <c r="D5" s="4">
-        <v>100</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="B5" s="2">
+        <v>6.9003681097417396E-3</v>
+      </c>
+      <c r="C5" s="2">
+        <v>7.0542459069018E-3</v>
+      </c>
+      <c r="D5" s="2">
+        <v>292</v>
+      </c>
+      <c r="E5" s="2">
         <v>0.25</v>
       </c>
       <c r="F5" s="2"/>
@@ -3313,15 +5707,15 @@
       </c>
       <c r="K5" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7183565561401981E-3</v>
+        <v>6.8543202545929731E-3</v>
       </c>
       <c r="L5" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.8650978624800844E-3</v>
+        <v>7.0482942392118258E-3</v>
       </c>
       <c r="M5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>110.5</v>
+        <v>302.5</v>
       </c>
       <c r="N5" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -3334,13 +5728,13 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B6" s="4">
-        <v>6.6392859691714297E-3</v>
+        <v>6.8009068812937097E-3</v>
       </c>
       <c r="C6" s="4">
-        <v>6.8231957092722596E-3</v>
+        <v>7.0461012135715501E-3</v>
       </c>
       <c r="D6" s="4">
-        <v>101</v>
+        <v>293</v>
       </c>
       <c r="E6" s="4">
         <v>0.25</v>
@@ -3351,15 +5745,15 @@
       </c>
       <c r="K6" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.8359696157672878E-3</v>
+        <v>6.9815217334024075E-3</v>
       </c>
       <c r="L6" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.9516474750150516E-3</v>
+        <v>7.2248550230993823E-3</v>
       </c>
       <c r="M6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>114.5</v>
+        <v>306.5</v>
       </c>
       <c r="N6" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -3371,13 +5765,13 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B7" s="4">
-        <v>6.7546032814982697E-3</v>
+        <v>6.9101155349152498E-3</v>
       </c>
       <c r="C7" s="4">
-        <v>6.8678372301795299E-3</v>
+        <v>7.0684617732037196E-3</v>
       </c>
       <c r="D7" s="4">
-        <v>102</v>
+        <v>294</v>
       </c>
       <c r="E7" s="4">
         <v>0.25</v>
@@ -3388,15 +5782,15 @@
       </c>
       <c r="K7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>7.5324684606884853E-3</v>
+        <v>7.5977075537864798E-3</v>
       </c>
       <c r="L7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>7.6976588362471171E-3</v>
+        <v>7.9289341365244778E-3</v>
       </c>
       <c r="M7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>118.5</v>
+        <v>310.5</v>
       </c>
       <c r="N7" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -3408,13 +5802,13 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B8" s="4">
-        <v>6.7522547237495699E-3</v>
+        <v>6.87250651993808E-3</v>
       </c>
       <c r="C8" s="4">
-        <v>6.907919897361E-3</v>
+        <v>7.2317193311817402E-3</v>
       </c>
       <c r="D8" s="4">
-        <v>103</v>
+        <v>295</v>
       </c>
       <c r="E8" s="4">
         <v>0.25</v>
@@ -3425,15 +5819,15 @@
       </c>
       <c r="K8" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.7182854842642224E-2</v>
+        <v>1.4555556838341175E-2</v>
       </c>
       <c r="L8" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.7094487527464577E-2</v>
+        <v>1.4606356000319624E-2</v>
       </c>
       <c r="M8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>122.5</v>
+        <v>314.5</v>
       </c>
       <c r="N8" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -3445,13 +5839,13 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B9" s="4">
-        <v>6.7253742327398397E-3</v>
+        <v>6.8891620848010801E-3</v>
       </c>
       <c r="C9" s="4">
-        <v>6.7946696703500504E-3</v>
+        <v>7.0026956171669198E-3</v>
       </c>
       <c r="D9" s="4">
-        <v>104</v>
+        <v>296</v>
       </c>
       <c r="E9" s="4">
         <v>0.25</v>
@@ -3462,15 +5856,15 @@
       </c>
       <c r="K9" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>5.8737791648154376</v>
+        <v>2.9594283824826157</v>
       </c>
       <c r="L9" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>5.8631926631317128</v>
+        <v>2.9431920855682554</v>
       </c>
       <c r="M9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>126.5</v>
+        <v>318.5</v>
       </c>
       <c r="N9" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -3478,74 +5872,74 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+      <c r="A10" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="B10" s="2">
-        <v>6.6933222362731996E-3</v>
-      </c>
-      <c r="C10" s="2">
-        <v>6.8940232864561201E-3</v>
-      </c>
-      <c r="D10" s="2">
-        <v>105</v>
-      </c>
-      <c r="E10" s="2">
+      <c r="B10" s="4">
+        <v>6.7900841154078804E-3</v>
+      </c>
+      <c r="C10" s="4">
+        <v>7.0032630601224097E-3</v>
+      </c>
+      <c r="D10" s="4">
+        <v>297</v>
+      </c>
+      <c r="E10" s="4">
         <v>0.25</v>
       </c>
       <c r="L10">
         <f ca="1">MIN(L2:L9)</f>
-        <v>6.8450468131638197E-3</v>
+        <v>7.0383100797659975E-3</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+      <c r="A11" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="B11" s="2">
-        <v>6.8411875337837796E-3</v>
-      </c>
-      <c r="C11" s="2">
-        <v>6.9263292218934899E-3</v>
-      </c>
-      <c r="D11" s="2">
-        <v>106</v>
-      </c>
-      <c r="E11" s="2">
+      <c r="B11" s="4">
+        <v>6.9466409412153197E-3</v>
+      </c>
+      <c r="C11" s="4">
+        <v>7.2358154810647996E-3</v>
+      </c>
+      <c r="D11" s="4">
+        <v>298</v>
+      </c>
+      <c r="E11" s="4">
         <v>0.25</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+      <c r="A12" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="B12" s="2">
-        <v>6.6830442049243301E-3</v>
-      </c>
-      <c r="C12" s="2">
-        <v>6.7876846618712501E-3</v>
-      </c>
-      <c r="D12" s="2">
-        <v>107</v>
-      </c>
-      <c r="E12" s="2">
+      <c r="B12" s="4">
+        <v>6.8014510263233099E-3</v>
+      </c>
+      <c r="C12" s="4">
+        <v>7.15276715841065E-3</v>
+      </c>
+      <c r="D12" s="4">
+        <v>299</v>
+      </c>
+      <c r="E12" s="4">
         <v>0.25</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+      <c r="A13" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="B13" s="2">
-        <v>6.7130304833358896E-3</v>
-      </c>
-      <c r="C13" s="2">
-        <v>6.7721500824344198E-3</v>
-      </c>
-      <c r="D13" s="2">
-        <v>108</v>
-      </c>
-      <c r="E13" s="2">
+      <c r="B13" s="4">
+        <v>6.9658017935270902E-3</v>
+      </c>
+      <c r="C13" s="4">
+        <v>7.0751393312944999E-3</v>
+      </c>
+      <c r="D13" s="4">
+        <v>300</v>
+      </c>
+      <c r="E13" s="4">
         <v>0.25</v>
       </c>
     </row>
@@ -3554,13 +5948,13 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B14">
-        <v>6.6918825453266099E-3</v>
+        <v>6.7167168413784202E-3</v>
       </c>
       <c r="C14">
-        <v>6.8939140987919296E-3</v>
+        <v>6.9398097248074197E-3</v>
       </c>
       <c r="D14">
-        <v>109</v>
+        <v>301</v>
       </c>
       <c r="E14">
         <v>0.25</v>
@@ -3571,13 +5965,13 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B15">
-        <v>6.7642186520660797E-3</v>
+        <v>6.9095826598795798E-3</v>
       </c>
       <c r="C15">
-        <v>6.8623492187087198E-3</v>
+        <v>7.0965024048185096E-3</v>
       </c>
       <c r="D15">
-        <v>110</v>
+        <v>302</v>
       </c>
       <c r="E15">
         <v>0.25</v>
@@ -3588,13 +5982,13 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B16">
-        <v>6.7303993223987897E-3</v>
+        <v>6.8650318735695203E-3</v>
       </c>
       <c r="C16">
-        <v>6.8701671565228901E-3</v>
+        <v>7.1205389289621304E-3</v>
       </c>
       <c r="D16">
-        <v>111</v>
+        <v>303</v>
       </c>
       <c r="E16">
         <v>0.25</v>
@@ -3605,13 +5999,13 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B17">
-        <v>6.6869257047693104E-3</v>
+        <v>6.9259496435443704E-3</v>
       </c>
       <c r="C17">
-        <v>6.8339609758968E-3</v>
+        <v>7.03632589825924E-3</v>
       </c>
       <c r="D17">
-        <v>112</v>
+        <v>304</v>
       </c>
       <c r="E17">
         <v>0.25</v>
@@ -3622,13 +6016,13 @@
         <v>1E-4</v>
       </c>
       <c r="B18">
-        <v>6.7618447256849101E-3</v>
+        <v>6.9778452855237599E-3</v>
       </c>
       <c r="C18">
-        <v>6.9383331277268999E-3</v>
+        <v>7.2857977406300097E-3</v>
       </c>
       <c r="D18">
-        <v>113</v>
+        <v>305</v>
       </c>
       <c r="E18">
         <v>0.25</v>
@@ -3639,13 +6033,13 @@
         <v>1E-4</v>
       </c>
       <c r="B19">
-        <v>6.8775182986196004E-3</v>
+        <v>6.9711571460232997E-3</v>
       </c>
       <c r="C19">
-        <v>6.9744737838652497E-3</v>
+        <v>7.2064603966204999E-3</v>
       </c>
       <c r="D19">
-        <v>114</v>
+        <v>306</v>
       </c>
       <c r="E19">
         <v>0.25</v>
@@ -3656,13 +6050,13 @@
         <v>1E-4</v>
       </c>
       <c r="B20">
-        <v>6.8262979645836797E-3</v>
+        <v>6.9245617648467702E-3</v>
       </c>
       <c r="C20">
-        <v>6.9720424870227202E-3</v>
+        <v>7.3012334264894096E-3</v>
       </c>
       <c r="D20">
-        <v>115</v>
+        <v>307</v>
       </c>
       <c r="E20">
         <v>0.25</v>
@@ -3673,13 +6067,13 @@
         <v>1E-4</v>
       </c>
       <c r="B21">
-        <v>6.87821747418096E-3</v>
+        <v>7.0525227372158E-3</v>
       </c>
       <c r="C21">
-        <v>6.9217405014453401E-3</v>
+        <v>7.1059285286576099E-3</v>
       </c>
       <c r="D21">
-        <v>116</v>
+        <v>308</v>
       </c>
       <c r="E21">
         <v>0.25</v>
@@ -3690,13 +6084,13 @@
         <v>1E-3</v>
       </c>
       <c r="B22">
-        <v>7.4801667633050302E-3</v>
+        <v>7.5226608723243504E-3</v>
       </c>
       <c r="C22">
-        <v>7.7435841902773403E-3</v>
+        <v>7.92595891262147E-3</v>
       </c>
       <c r="D22">
-        <v>117</v>
+        <v>309</v>
       </c>
       <c r="E22">
         <v>0.25</v>
@@ -3707,13 +6101,13 @@
         <v>1E-3</v>
       </c>
       <c r="B23">
-        <v>7.6838472630194497E-3</v>
+        <v>7.5961676911708497E-3</v>
       </c>
       <c r="C23">
-        <v>7.8472336159741592E-3</v>
+        <v>7.8300070067114595E-3</v>
       </c>
       <c r="D23">
-        <v>118</v>
+        <v>310</v>
       </c>
       <c r="E23">
         <v>0.25</v>
@@ -3724,13 +6118,13 @@
         <v>1E-3</v>
       </c>
       <c r="B24">
-        <v>7.4433940215075899E-3</v>
+        <v>7.5731197114479003E-3</v>
       </c>
       <c r="C24">
-        <v>7.6696261852741802E-3</v>
+        <v>8.2060148632351997E-3</v>
       </c>
       <c r="D24">
-        <v>119</v>
+        <v>311</v>
       </c>
       <c r="E24">
         <v>0.25</v>
@@ -3741,13 +6135,13 @@
         <v>1E-3</v>
       </c>
       <c r="B25">
-        <v>7.5224657949218704E-3</v>
+        <v>7.6988819402028204E-3</v>
       </c>
       <c r="C25">
-        <v>7.5301913534627897E-3</v>
+        <v>7.7537557635297804E-3</v>
       </c>
       <c r="D25">
-        <v>120</v>
+        <v>312</v>
       </c>
       <c r="E25">
         <v>0.25</v>
@@ -3758,13 +6152,13 @@
         <v>0.01</v>
       </c>
       <c r="B26">
-        <v>1.8781037520656799E-2</v>
+        <v>1.38430839870125E-2</v>
       </c>
       <c r="C26">
-        <v>1.9340524197298401E-2</v>
+        <v>1.4173359981678501E-2</v>
       </c>
       <c r="D26">
-        <v>121</v>
+        <v>313</v>
       </c>
       <c r="E26">
         <v>0.25</v>
@@ -3775,13 +6169,13 @@
         <v>0.01</v>
       </c>
       <c r="B27">
-        <v>1.86151711448551E-2</v>
+        <v>1.5170980210198E-2</v>
       </c>
       <c r="C27">
-        <v>1.8307993010162001E-2</v>
+        <v>1.4865293162577601E-2</v>
       </c>
       <c r="D27">
-        <v>122</v>
+        <v>314</v>
       </c>
       <c r="E27">
         <v>0.25</v>
@@ -3792,13 +6186,13 @@
         <v>0.01</v>
       </c>
       <c r="B28">
-        <v>1.74524653901128E-2</v>
+        <v>1.44030684803394E-2</v>
       </c>
       <c r="C28">
-        <v>1.7244511764456901E-2</v>
+        <v>1.5000163790512199E-2</v>
       </c>
       <c r="D28">
-        <v>123</v>
+        <v>315</v>
       </c>
       <c r="E28">
         <v>0.25</v>
@@ -3809,13 +6203,13 @@
         <v>0.01</v>
       </c>
       <c r="B29">
-        <v>1.3882745314944199E-2</v>
+        <v>1.48050946758148E-2</v>
       </c>
       <c r="C29">
-        <v>1.3484921137940999E-2</v>
+        <v>1.4386607066510199E-2</v>
       </c>
       <c r="D29">
-        <v>124</v>
+        <v>316</v>
       </c>
       <c r="E29">
         <v>0.25</v>
@@ -3826,13 +6220,13 @@
         <v>0.1</v>
       </c>
       <c r="B30">
-        <v>0.194996873709432</v>
+        <v>0.18388538882928901</v>
       </c>
       <c r="C30">
-        <v>0.20584093597024</v>
+        <v>0.19247239102867</v>
       </c>
       <c r="D30">
-        <v>125</v>
+        <v>317</v>
       </c>
       <c r="E30">
         <v>0.25</v>
@@ -3843,13 +6237,13 @@
         <v>0.1</v>
       </c>
       <c r="B31">
-        <v>7.7016466221910802</v>
+        <v>3.6649023421267199</v>
       </c>
       <c r="C31">
-        <v>7.7301994891876804</v>
+        <v>3.62127451693758</v>
       </c>
       <c r="D31">
-        <v>126</v>
+        <v>318</v>
       </c>
       <c r="E31">
         <v>0.25</v>
@@ -3860,13 +6254,13 @@
         <v>0.1</v>
       </c>
       <c r="B32">
-        <v>7.7975222455694304</v>
+        <v>7.7951931801248104</v>
       </c>
       <c r="C32">
-        <v>7.7867968437519401</v>
+        <v>7.7845290011547901</v>
       </c>
       <c r="D32">
-        <v>127</v>
+        <v>319</v>
       </c>
       <c r="E32">
         <v>0.25</v>
@@ -3877,13 +6271,13 @@
         <v>0.1</v>
       </c>
       <c r="B33">
-        <v>7.8009509177918099</v>
+        <v>0.19373261884964499</v>
       </c>
       <c r="C33">
-        <v>7.7299333836169897</v>
+        <v>0.17449243315198301</v>
       </c>
       <c r="D33">
-        <v>128</v>
+        <v>320</v>
       </c>
       <c r="E33">
         <v>0.25</v>
@@ -3943,11 +6337,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F5A6AC-C536-6146-8F68-4021A88D57DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97F0F4E3-F8A9-FD44-9B86-58506672924C}">
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4:N5"/>
+      <selection activeCell="A14" sqref="A14:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3992,13 +6386,13 @@
         <v>1E-8</v>
       </c>
       <c r="B2">
-        <v>6.7823391501851196E-3</v>
+        <v>6.6413861040541099E-3</v>
       </c>
       <c r="C2">
-        <v>6.7879713754704597E-3</v>
+        <v>6.7527445300700102E-3</v>
       </c>
       <c r="D2">
-        <v>129</v>
+        <v>321</v>
       </c>
       <c r="E2">
         <v>0.5</v>
@@ -4009,15 +6403,15 @@
       </c>
       <c r="K2" s="6">
         <f t="shared" ref="K2:N9" ca="1" si="0">AVERAGE(OFFSET(B$2,(ROW()-2)*4,0,4,1))</f>
-        <v>6.7413872277532526E-3</v>
+        <v>6.6670745275567876E-3</v>
       </c>
       <c r="L2" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7303437278903155E-3</v>
+        <v>6.7078960276743781E-3</v>
       </c>
       <c r="M2" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>130.5</v>
+        <v>322.5</v>
       </c>
       <c r="N2" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -4029,13 +6423,13 @@
         <v>1E-8</v>
       </c>
       <c r="B3">
-        <v>6.7840145697737903E-3</v>
+        <v>6.60309573001367E-3</v>
       </c>
       <c r="C3">
-        <v>6.7853279847730902E-3</v>
+        <v>6.6898680747823503E-3</v>
       </c>
       <c r="D3">
-        <v>130</v>
+        <v>322</v>
       </c>
       <c r="E3">
         <v>0.5</v>
@@ -4046,15 +6440,15 @@
       </c>
       <c r="K3" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7238400812865123E-3</v>
+        <v>6.6798017044462452E-3</v>
       </c>
       <c r="L3" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7317792229314721E-3</v>
+        <v>6.7176290086787523E-3</v>
       </c>
       <c r="M3" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>134.5</v>
+        <v>326.5</v>
       </c>
       <c r="N3" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -4066,34 +6460,34 @@
         <v>1E-8</v>
       </c>
       <c r="B4">
-        <v>6.6765474497360398E-3</v>
+        <v>6.67784079919232E-3</v>
       </c>
       <c r="C4">
-        <v>6.6869882519971103E-3</v>
+        <v>6.6889632602241999E-3</v>
       </c>
       <c r="D4">
-        <v>131</v>
+        <v>323</v>
       </c>
       <c r="E4">
         <v>0.5</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="5">
         <f t="shared" ca="1" si="1"/>
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="K4" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.7000229120938101E-3</v>
-      </c>
-      <c r="L4" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.7199673033022126E-3</v>
-      </c>
-      <c r="M4" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>138.5</v>
-      </c>
-      <c r="N4" s="3">
+      <c r="K4" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.6717922671430474E-3</v>
+      </c>
+      <c r="L4" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.7077804569828665E-3</v>
+      </c>
+      <c r="M4" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>330.5</v>
+      </c>
+      <c r="N4" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>0.5</v>
       </c>
@@ -4103,13 +6497,13 @@
         <v>1E-8</v>
       </c>
       <c r="B5">
-        <v>6.7226477413180599E-3</v>
+        <v>6.7459754769670496E-3</v>
       </c>
       <c r="C5">
-        <v>6.6610872993206E-3</v>
+        <v>6.7000082456209501E-3</v>
       </c>
       <c r="D5">
-        <v>132</v>
+        <v>324</v>
       </c>
       <c r="E5">
         <v>0.5</v>
@@ -4120,15 +6514,15 @@
       </c>
       <c r="K5" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7160105459055184E-3</v>
+        <v>6.6579571216703977E-3</v>
       </c>
       <c r="L5" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7199134810312453E-3</v>
+        <v>6.6972447972883349E-3</v>
       </c>
       <c r="M5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>142.5</v>
+        <v>334.5</v>
       </c>
       <c r="N5" s="3">
         <f t="shared" ca="1" si="0"/>
@@ -4140,13 +6534,13 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B6">
-        <v>6.7820863803214502E-3</v>
+        <v>6.6636733740488901E-3</v>
       </c>
       <c r="C6">
-        <v>6.77950316148394E-3</v>
+        <v>6.7819816189164097E-3</v>
       </c>
       <c r="D6">
-        <v>133</v>
+        <v>325</v>
       </c>
       <c r="E6">
         <v>0.5</v>
@@ -4157,15 +6551,15 @@
       </c>
       <c r="K6" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.8331792736376429E-3</v>
+        <v>6.7529258921375799E-3</v>
       </c>
       <c r="L6" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.8532793790082158E-3</v>
+        <v>6.7842870076345457E-3</v>
       </c>
       <c r="M6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>146.5</v>
+        <v>338.5</v>
       </c>
       <c r="N6" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -4177,13 +6571,13 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B7">
-        <v>6.7094686327184997E-3</v>
+        <v>6.5958166737703798E-3</v>
       </c>
       <c r="C7">
-        <v>6.7685939807524001E-3</v>
+        <v>6.6645175287935897E-3</v>
       </c>
       <c r="D7">
-        <v>134</v>
+        <v>326</v>
       </c>
       <c r="E7">
         <v>0.5</v>
@@ -4194,15 +6588,15 @@
       </c>
       <c r="K7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>7.6049650100337169E-3</v>
+        <v>7.3739899628290344E-3</v>
       </c>
       <c r="L7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>7.6071586685274948E-3</v>
+        <v>7.417895512883247E-3</v>
       </c>
       <c r="M7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>150.5</v>
+        <v>342.5</v>
       </c>
       <c r="N7" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -4214,13 +6608,13 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B8">
-        <v>6.6295407360736601E-3</v>
+        <v>6.6619169764577301E-3</v>
       </c>
       <c r="C8">
-        <v>6.6720121589667596E-3</v>
+        <v>6.6920623252604197E-3</v>
       </c>
       <c r="D8">
-        <v>135</v>
+        <v>327</v>
       </c>
       <c r="E8">
         <v>0.5</v>
@@ -4231,15 +6625,15 @@
       </c>
       <c r="K8" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.7203692707822574E-2</v>
+        <v>1.4098341908662548E-2</v>
       </c>
       <c r="L8" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6995441299823499E-2</v>
+        <v>1.3843968396689299E-2</v>
       </c>
       <c r="M8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>154.5</v>
+        <v>346.5</v>
       </c>
       <c r="N8" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -4251,13 +6645,13 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B9">
-        <v>6.77426457603244E-3</v>
+        <v>6.79779979350798E-3</v>
       </c>
       <c r="C9">
-        <v>6.7070075905227896E-3</v>
+        <v>6.7319545617445901E-3</v>
       </c>
       <c r="D9">
-        <v>136</v>
+        <v>328</v>
       </c>
       <c r="E9">
         <v>0.5</v>
@@ -4268,15 +6662,15 @@
       </c>
       <c r="K9" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>7.7864739660252882</v>
+        <v>2.953447714309263</v>
       </c>
       <c r="L9" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>7.7652930528559505</v>
+        <v>2.9402569598874972</v>
       </c>
       <c r="M9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>158.5</v>
+        <v>350.5</v>
       </c>
       <c r="N9" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -4284,146 +6678,146 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+      <c r="A10" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="B10" s="2">
-        <v>6.7846961839600102E-3</v>
-      </c>
-      <c r="C10" s="2">
-        <v>6.8637235833212996E-3</v>
-      </c>
-      <c r="D10" s="2">
-        <v>137</v>
-      </c>
-      <c r="E10" s="2">
+      <c r="B10" s="4">
+        <v>6.6512033016361402E-3</v>
+      </c>
+      <c r="C10" s="4">
+        <v>6.7707723690236497E-3</v>
+      </c>
+      <c r="D10" s="4">
+        <v>329</v>
+      </c>
+      <c r="E10" s="4">
         <v>0.5</v>
       </c>
       <c r="F10" s="2"/>
       <c r="L10">
         <f ca="1">MIN(L2:L9)</f>
-        <v>6.7199134810312453E-3</v>
+        <v>6.6972447972883349E-3</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+      <c r="A11" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="B11" s="2">
-        <v>6.68932232718439E-3</v>
-      </c>
-      <c r="C11" s="2">
-        <v>6.7351497362981997E-3</v>
-      </c>
-      <c r="D11" s="2">
-        <v>138</v>
-      </c>
-      <c r="E11" s="2">
+      <c r="B11" s="4">
+        <v>6.59043153629023E-3</v>
+      </c>
+      <c r="C11" s="4">
+        <v>6.6589221378114596E-3</v>
+      </c>
+      <c r="D11" s="4">
+        <v>330</v>
+      </c>
+      <c r="E11" s="4">
         <v>0.5</v>
       </c>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+      <c r="A12" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="B12" s="2">
-        <v>6.6354002164518196E-3</v>
-      </c>
-      <c r="C12" s="2">
-        <v>6.6696927446792701E-3</v>
-      </c>
-      <c r="D12" s="2">
-        <v>139</v>
-      </c>
-      <c r="E12" s="2">
+      <c r="B12" s="4">
+        <v>6.6580904122600501E-3</v>
+      </c>
+      <c r="C12" s="4">
+        <v>6.6736257843118402E-3</v>
+      </c>
+      <c r="D12" s="4">
+        <v>331</v>
+      </c>
+      <c r="E12" s="4">
         <v>0.5</v>
       </c>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+      <c r="A13" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="B13" s="2">
-        <v>6.6906729207790198E-3</v>
-      </c>
-      <c r="C13" s="2">
-        <v>6.6113031489100802E-3</v>
-      </c>
-      <c r="D13" s="2">
-        <v>140</v>
-      </c>
-      <c r="E13" s="2">
+      <c r="B13" s="4">
+        <v>6.7874438183857704E-3</v>
+      </c>
+      <c r="C13" s="4">
+        <v>6.7278015367845199E-3</v>
+      </c>
+      <c r="D13" s="4">
+        <v>332</v>
+      </c>
+      <c r="E13" s="4">
         <v>0.5</v>
       </c>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
+      <c r="A14" s="3">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="B14" s="4">
-        <v>6.7688857968104003E-3</v>
-      </c>
-      <c r="C14" s="4">
-        <v>6.8050990614326699E-3</v>
-      </c>
-      <c r="D14" s="4">
-        <v>141</v>
-      </c>
-      <c r="E14" s="4">
+      <c r="B14" s="2">
+        <v>6.6108331629174096E-3</v>
+      </c>
+      <c r="C14" s="2">
+        <v>6.7000788577059401E-3</v>
+      </c>
+      <c r="D14" s="2">
+        <v>333</v>
+      </c>
+      <c r="E14" s="2">
         <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
+      <c r="A15" s="3">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="B15" s="4">
-        <v>6.7033654281948704E-3</v>
-      </c>
-      <c r="C15" s="4">
-        <v>6.7616181666071097E-3</v>
-      </c>
-      <c r="D15" s="4">
-        <v>142</v>
-      </c>
-      <c r="E15" s="4">
+      <c r="B15" s="2">
+        <v>6.5842629212172696E-3</v>
+      </c>
+      <c r="C15" s="2">
+        <v>6.6593334356203904E-3</v>
+      </c>
+      <c r="D15" s="2">
+        <v>334</v>
+      </c>
+      <c r="E15" s="2">
         <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
+      <c r="A16" s="3">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="B16" s="4">
-        <v>6.6713447251575096E-3</v>
-      </c>
-      <c r="C16" s="4">
-        <v>6.6534047203257304E-3</v>
-      </c>
-      <c r="D16" s="4">
-        <v>143</v>
-      </c>
-      <c r="E16" s="4">
+      <c r="B16" s="2">
+        <v>6.6165736197751502E-3</v>
+      </c>
+      <c r="C16" s="2">
+        <v>6.6457062196779099E-3</v>
+      </c>
+      <c r="D16" s="2">
+        <v>335</v>
+      </c>
+      <c r="E16" s="2">
         <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
+      <c r="A17" s="3">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="B17" s="4">
-        <v>6.7204462334592898E-3</v>
-      </c>
-      <c r="C17" s="4">
-        <v>6.6595319757594704E-3</v>
-      </c>
-      <c r="D17" s="4">
-        <v>144</v>
-      </c>
-      <c r="E17" s="4">
+      <c r="B17" s="2">
+        <v>6.8201587827717604E-3</v>
+      </c>
+      <c r="C17" s="2">
+        <v>6.7838606761491003E-3</v>
+      </c>
+      <c r="D17" s="2">
+        <v>336</v>
+      </c>
+      <c r="E17" s="2">
         <v>0.5</v>
       </c>
     </row>
@@ -4432,13 +6826,13 @@
         <v>1E-4</v>
       </c>
       <c r="B18">
-        <v>6.9045284787747699E-3</v>
+        <v>6.7216475875651899E-3</v>
       </c>
       <c r="C18">
-        <v>7.0274053339628396E-3</v>
+        <v>6.85823471483556E-3</v>
       </c>
       <c r="D18">
-        <v>145</v>
+        <v>337</v>
       </c>
       <c r="E18">
         <v>0.5</v>
@@ -4449,13 +6843,13 @@
         <v>1E-4</v>
       </c>
       <c r="B19">
-        <v>6.8325304867144897E-3</v>
+        <v>6.6880567390669799E-3</v>
       </c>
       <c r="C19">
-        <v>6.8716885313946504E-3</v>
+        <v>6.7515979629961097E-3</v>
       </c>
       <c r="D19">
-        <v>146</v>
+        <v>338</v>
       </c>
       <c r="E19">
         <v>0.5</v>
@@ -4466,13 +6860,13 @@
         <v>1E-4</v>
       </c>
       <c r="B20">
-        <v>6.7819960246932598E-3</v>
+        <v>6.69922175113745E-3</v>
       </c>
       <c r="C20">
-        <v>6.7838065801782803E-3</v>
+        <v>6.6865209559414602E-3</v>
       </c>
       <c r="D20">
-        <v>147</v>
+        <v>339</v>
       </c>
       <c r="E20">
         <v>0.5</v>
@@ -4483,13 +6877,13 @@
         <v>1E-4</v>
       </c>
       <c r="B21">
-        <v>6.8136621043680496E-3</v>
+        <v>6.9027774907806996E-3</v>
       </c>
       <c r="C21">
-        <v>6.7302170704970901E-3</v>
+        <v>6.8407943967650504E-3</v>
       </c>
       <c r="D21">
-        <v>148</v>
+        <v>340</v>
       </c>
       <c r="E21">
         <v>0.5</v>
@@ -4500,13 +6894,13 @@
         <v>1E-3</v>
       </c>
       <c r="B22">
-        <v>7.4825403825478903E-3</v>
+        <v>7.3076221977974804E-3</v>
       </c>
       <c r="C22">
-        <v>7.6690057906857196E-3</v>
+        <v>7.6738472809975396E-3</v>
       </c>
       <c r="D22">
-        <v>149</v>
+        <v>341</v>
       </c>
       <c r="E22">
         <v>0.5</v>
@@ -4517,13 +6911,13 @@
         <v>1E-3</v>
       </c>
       <c r="B23">
-        <v>7.7343439668456603E-3</v>
+        <v>7.3104447368136103E-3</v>
       </c>
       <c r="C23">
-        <v>7.7221156692409698E-3</v>
+        <v>7.2924508415955101E-3</v>
       </c>
       <c r="D23">
-        <v>150</v>
+        <v>342</v>
       </c>
       <c r="E23">
         <v>0.5</v>
@@ -4534,13 +6928,13 @@
         <v>1E-3</v>
       </c>
       <c r="B24">
-        <v>7.6535743205471199E-3</v>
+        <v>7.3077094300273496E-3</v>
       </c>
       <c r="C24">
-        <v>7.6246715566896297E-3</v>
+        <v>7.3077902841837397E-3</v>
       </c>
       <c r="D24">
-        <v>151</v>
+        <v>343</v>
       </c>
       <c r="E24">
         <v>0.5</v>
@@ -4551,13 +6945,13 @@
         <v>1E-3</v>
       </c>
       <c r="B25">
-        <v>7.5494013701941998E-3</v>
+        <v>7.5701834866777002E-3</v>
       </c>
       <c r="C25">
-        <v>7.4128416574936601E-3</v>
+        <v>7.3974936447561996E-3</v>
       </c>
       <c r="D25">
-        <v>152</v>
+        <v>344</v>
       </c>
       <c r="E25">
         <v>0.5</v>
@@ -4568,13 +6962,13 @@
         <v>0.01</v>
       </c>
       <c r="B26">
-        <v>1.9732550361213502E-2</v>
+        <v>1.4530084474864299E-2</v>
       </c>
       <c r="C26">
-        <v>2.0975059165837199E-2</v>
+        <v>1.50307300896879E-2</v>
       </c>
       <c r="D26">
-        <v>153</v>
+        <v>345</v>
       </c>
       <c r="E26">
         <v>0.5</v>
@@ -4585,13 +6979,13 @@
         <v>0.01</v>
       </c>
       <c r="B27">
-        <v>1.7721472206485799E-2</v>
+        <v>1.4001994928781E-2</v>
       </c>
       <c r="C27">
-        <v>1.7249549630078201E-2</v>
+        <v>1.34382305092158E-2</v>
       </c>
       <c r="D27">
-        <v>154</v>
+        <v>346</v>
       </c>
       <c r="E27">
         <v>0.5</v>
@@ -4602,13 +6996,13 @@
         <v>0.01</v>
       </c>
       <c r="B28">
-        <v>1.6423993516079202E-2</v>
+        <v>1.3882941853730599E-2</v>
       </c>
       <c r="C28">
-        <v>1.6223486512899399E-2</v>
+        <v>1.39214131693811E-2</v>
       </c>
       <c r="D28">
-        <v>155</v>
+        <v>347</v>
       </c>
       <c r="E28">
         <v>0.5</v>
@@ -4619,13 +7013,13 @@
         <v>0.01</v>
       </c>
       <c r="B29">
-        <v>1.4936754747511801E-2</v>
+        <v>1.3978346377274299E-2</v>
       </c>
       <c r="C29">
-        <v>1.3533669890479201E-2</v>
+        <v>1.29854998184724E-2</v>
       </c>
       <c r="D29">
-        <v>156</v>
+        <v>348</v>
       </c>
       <c r="E29">
         <v>0.5</v>
@@ -4636,13 +7030,13 @@
         <v>0.1</v>
       </c>
       <c r="B30">
-        <v>7.7577526112820197</v>
+        <v>0.18013032180990299</v>
       </c>
       <c r="C30">
-        <v>7.8142421194847502</v>
+        <v>0.19195959324690801</v>
       </c>
       <c r="D30">
-        <v>157</v>
+        <v>349</v>
       </c>
       <c r="E30">
         <v>0.5</v>
@@ -4653,13 +7047,13 @@
         <v>0.1</v>
       </c>
       <c r="B31">
-        <v>7.7592554067043498</v>
+        <v>3.6447734870809101</v>
       </c>
       <c r="C31">
-        <v>7.7301994891876804</v>
+        <v>3.61507086043662</v>
       </c>
       <c r="D31">
-        <v>158</v>
+        <v>350</v>
       </c>
       <c r="E31">
         <v>0.5</v>
@@ -4670,13 +7064,13 @@
         <v>0.1</v>
       </c>
       <c r="B32">
-        <v>7.8002449755973</v>
+        <v>7.7993736571453898</v>
       </c>
       <c r="C32">
-        <v>7.7867968437519401</v>
+        <v>7.7843263555080302</v>
       </c>
       <c r="D32">
-        <v>159</v>
+        <v>351</v>
       </c>
       <c r="E32">
         <v>0.5</v>
@@ -4687,13 +7081,13 @@
         <v>0.1</v>
       </c>
       <c r="B33">
-        <v>7.8286428705174798</v>
+        <v>0.18951339120084901</v>
       </c>
       <c r="C33">
-        <v>7.7299337589994304</v>
+        <v>0.16967103035843101</v>
       </c>
       <c r="D33">
-        <v>160</v>
+        <v>352</v>
       </c>
       <c r="E33">
         <v>0.5</v>
@@ -4705,11 +7099,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9902717B-D473-4C4C-BD56-0A1D1459D334}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72D6121D-E5CF-1A48-8933-0BAD4C1790A9}">
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4750,94 +7144,103 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
+      <c r="A2" s="3">
         <v>1E-8</v>
       </c>
-      <c r="B2" s="4">
-        <v>6.6716014184057702E-3</v>
-      </c>
-      <c r="C2" s="4">
-        <v>6.7108751403445197E-3</v>
-      </c>
-      <c r="D2" s="4">
-        <v>161</v>
-      </c>
-      <c r="E2" s="4">
-        <v>1</v>
-      </c>
-      <c r="J2" s="5">
+      <c r="B2" s="2">
+        <v>6.4922216882308302E-3</v>
+      </c>
+      <c r="C2" s="2">
+        <v>6.5654593549589503E-3</v>
+      </c>
+      <c r="D2" s="2">
+        <v>353</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>40.999000000000002</v>
+      </c>
+      <c r="J2" s="3">
         <f ca="1">AVERAGE(OFFSET(A$2,(ROW()-2)*4,0,4,1))</f>
         <v>1E-8</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="7">
         <f t="shared" ref="K2:N9" ca="1" si="0">AVERAGE(OFFSET(B$2,(ROW()-2)*4,0,4,1))</f>
-        <v>6.693693019449708E-3</v>
-      </c>
-      <c r="L2" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.663737818598742E-3</v>
-      </c>
-      <c r="M2" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>162.5</v>
-      </c>
-      <c r="N2" s="5">
+        <v>6.5612546723956833E-3</v>
+      </c>
+      <c r="L2" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.5286292055463198E-3</v>
+      </c>
+      <c r="M2" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>354.5</v>
+      </c>
+      <c r="N2" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+      <c r="A3" s="3">
         <v>1E-8</v>
       </c>
-      <c r="B3" s="4">
-        <v>6.6993678286671604E-3</v>
-      </c>
-      <c r="C3" s="4">
-        <v>6.7036600060206104E-3</v>
-      </c>
-      <c r="D3" s="4">
-        <v>162</v>
-      </c>
-      <c r="E3" s="4">
-        <v>1</v>
-      </c>
-      <c r="J3" s="3">
+      <c r="B3" s="2">
+        <v>6.6077931324640899E-3</v>
+      </c>
+      <c r="C3" s="2">
+        <v>6.5619135523175302E-3</v>
+      </c>
+      <c r="D3" s="2">
+        <v>354</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>33.923000000000002</v>
+      </c>
+      <c r="J3" s="5">
         <f t="shared" ref="J3:J9" ca="1" si="1">AVERAGE(OFFSET(A$2,(ROW()-2)*4,0,4,1))</f>
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="K3" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.7046002037823155E-3</v>
-      </c>
-      <c r="L3" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.6485973855262524E-3</v>
-      </c>
-      <c r="M3" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>166.5</v>
-      </c>
-      <c r="N3" s="3">
+      <c r="K3" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.5917621050029952E-3</v>
+      </c>
+      <c r="L3" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.559533427439708E-3</v>
+      </c>
+      <c r="M3" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>358.5</v>
+      </c>
+      <c r="N3" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
+      <c r="A4" s="3">
         <v>1E-8</v>
       </c>
-      <c r="B4" s="4">
-        <v>6.7179734297096701E-3</v>
-      </c>
-      <c r="C4" s="4">
-        <v>6.6498632126666098E-3</v>
-      </c>
-      <c r="D4" s="4">
-        <v>163</v>
-      </c>
-      <c r="E4" s="4">
-        <v>1</v>
+      <c r="B4" s="2">
+        <v>6.5677869021892503E-3</v>
+      </c>
+      <c r="C4" s="2">
+        <v>6.4744272150416299E-3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>355</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>36.770000000000003</v>
       </c>
       <c r="J4" s="5">
         <f t="shared" ca="1" si="1"/>
@@ -4845,15 +7248,15 @@
       </c>
       <c r="K4" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7269933754578173E-3</v>
+        <v>6.5702606653794595E-3</v>
       </c>
       <c r="L4" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.662821810831253E-3</v>
+        <v>6.5420259959361599E-3</v>
       </c>
       <c r="M4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>170.5</v>
+        <v>362.5</v>
       </c>
       <c r="N4" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -4861,20 +7264,23 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
+      <c r="A5" s="3">
         <v>1E-8</v>
       </c>
-      <c r="B5" s="4">
-        <v>6.6858294010162297E-3</v>
-      </c>
-      <c r="C5" s="4">
-        <v>6.59055291536323E-3</v>
-      </c>
-      <c r="D5" s="4">
-        <v>164</v>
-      </c>
-      <c r="E5" s="4">
-        <v>1</v>
+      <c r="B5" s="2">
+        <v>6.5772169666985601E-3</v>
+      </c>
+      <c r="C5" s="2">
+        <v>6.5127166998671703E-3</v>
+      </c>
+      <c r="D5" s="2">
+        <v>356</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>44.238999999999997</v>
       </c>
       <c r="J5" s="5">
         <f t="shared" ca="1" si="1"/>
@@ -4882,15 +7288,15 @@
       </c>
       <c r="K5" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7440382285664426E-3</v>
+        <v>6.5817417055368376E-3</v>
       </c>
       <c r="L5" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.6998219414752822E-3</v>
+        <v>6.556874308289282E-3</v>
       </c>
       <c r="M5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>174.5</v>
+        <v>366.5</v>
       </c>
       <c r="N5" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -4898,19 +7304,19 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="A6" s="5">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="B6" s="2">
-        <v>6.6522866760691003E-3</v>
-      </c>
-      <c r="C6" s="2">
-        <v>6.7000399403115496E-3</v>
-      </c>
-      <c r="D6" s="2">
-        <v>165</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="B6" s="4">
+        <v>6.4915962815284703E-3</v>
+      </c>
+      <c r="C6" s="4">
+        <v>6.5653700222994401E-3</v>
+      </c>
+      <c r="D6" s="4">
+        <v>357</v>
+      </c>
+      <c r="E6" s="4">
         <v>1</v>
       </c>
       <c r="F6" s="2"/>
@@ -4920,15 +7326,15 @@
       </c>
       <c r="K6" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.9272691843410301E-3</v>
+        <v>6.6497503680487419E-3</v>
       </c>
       <c r="L6" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.8618829914447906E-3</v>
+        <v>6.6127846094264434E-3</v>
       </c>
       <c r="M6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>178.5</v>
+        <v>370.5</v>
       </c>
       <c r="N6" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -4936,19 +7342,19 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+      <c r="A7" s="5">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="B7" s="2">
-        <v>6.7498680179317698E-3</v>
-      </c>
-      <c r="C7" s="2">
-        <v>6.7204476651200502E-3</v>
-      </c>
-      <c r="D7" s="2">
-        <v>166</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="B7" s="4">
+        <v>6.6280786208808397E-3</v>
+      </c>
+      <c r="C7" s="4">
+        <v>6.5899452917832597E-3</v>
+      </c>
+      <c r="D7" s="4">
+        <v>358</v>
+      </c>
+      <c r="E7" s="4">
         <v>1</v>
       </c>
       <c r="F7" s="2"/>
@@ -4958,15 +7364,15 @@
       </c>
       <c r="K7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>7.6820023019487623E-3</v>
+        <v>7.1682701483368827E-3</v>
       </c>
       <c r="L7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>7.6357470193699423E-3</v>
+        <v>7.1464709496680372E-3</v>
       </c>
       <c r="M7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>182.5</v>
+        <v>374.5</v>
       </c>
       <c r="N7" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -4974,19 +7380,19 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+      <c r="A8" s="5">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="B8" s="2">
-        <v>6.6699861499170399E-3</v>
-      </c>
-      <c r="C8" s="2">
-        <v>6.5281062010437802E-3</v>
-      </c>
-      <c r="D8" s="2">
-        <v>167</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="B8" s="4">
+        <v>6.5947839344541199E-3</v>
+      </c>
+      <c r="C8" s="4">
+        <v>6.4921774653757501E-3</v>
+      </c>
+      <c r="D8" s="4">
+        <v>359</v>
+      </c>
+      <c r="E8" s="4">
         <v>1</v>
       </c>
       <c r="F8" s="2"/>
@@ -4996,15 +7402,15 @@
       </c>
       <c r="K8" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6336592090316075E-2</v>
+        <v>1.3523972719286799E-2</v>
       </c>
       <c r="L8" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6456085695647302E-2</v>
+        <v>1.3514298399504051E-2</v>
       </c>
       <c r="M8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>186.5</v>
+        <v>378.5</v>
       </c>
       <c r="N8" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -5012,19 +7418,19 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+      <c r="A9" s="5">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="B9" s="2">
-        <v>6.7462599712113502E-3</v>
-      </c>
-      <c r="C9" s="2">
-        <v>6.6457957356296296E-3</v>
-      </c>
-      <c r="D9" s="2">
-        <v>168</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="B9" s="4">
+        <v>6.6525895831485498E-3</v>
+      </c>
+      <c r="C9" s="4">
+        <v>6.5906409303003802E-3</v>
+      </c>
+      <c r="D9" s="4">
+        <v>360</v>
+      </c>
+      <c r="E9" s="4">
         <v>1</v>
       </c>
       <c r="F9" s="2"/>
@@ -5034,15 +7440,15 @@
       </c>
       <c r="K9" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>4.8477453077336099</v>
+        <v>3.0138972008551157</v>
       </c>
       <c r="L9" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>4.8390877858359085</v>
+        <v>2.9316605888009848</v>
       </c>
       <c r="M9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>190.5</v>
+        <v>382.5</v>
       </c>
       <c r="N9" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -5054,20 +7460,20 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B10" s="4">
-        <v>6.6695518928269497E-3</v>
+        <v>6.4669582520921996E-3</v>
       </c>
       <c r="C10" s="4">
-        <v>6.6823153905174199E-3</v>
+        <v>6.5365784375512196E-3</v>
       </c>
       <c r="D10" s="4">
-        <v>169</v>
+        <v>361</v>
       </c>
       <c r="E10" s="4">
         <v>1</v>
       </c>
       <c r="L10">
         <f ca="1">MIN(L2:L9)</f>
-        <v>6.6485973855262524E-3</v>
+        <v>6.5286292055463198E-3</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -5075,13 +7481,13 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B11" s="4">
-        <v>6.7755464687943396E-3</v>
+        <v>6.6387108638882603E-3</v>
       </c>
       <c r="C11" s="4">
-        <v>6.7222203435178098E-3</v>
+        <v>6.6282110922831101E-3</v>
       </c>
       <c r="D11" s="4">
-        <v>170</v>
+        <v>362</v>
       </c>
       <c r="E11" s="4">
         <v>1</v>
@@ -5092,13 +7498,13 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B12" s="4">
-        <v>6.7317735143005803E-3</v>
+        <v>6.55908660963177E-3</v>
       </c>
       <c r="C12" s="4">
-        <v>6.6283174760718901E-3</v>
+        <v>6.4612504966715502E-3</v>
       </c>
       <c r="D12" s="4">
-        <v>171</v>
+        <v>363</v>
       </c>
       <c r="E12" s="4">
         <v>1</v>
@@ -5109,13 +7515,13 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B13" s="4">
-        <v>6.7311016259093996E-3</v>
+        <v>6.6162869359056098E-3</v>
       </c>
       <c r="C13" s="4">
-        <v>6.6184340332178897E-3</v>
+        <v>6.5420639572387604E-3</v>
       </c>
       <c r="D13" s="4">
-        <v>172</v>
+        <v>364</v>
       </c>
       <c r="E13" s="4">
         <v>1</v>
@@ -5126,13 +7532,13 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B14">
-        <v>6.6822747252881501E-3</v>
+        <v>6.5072143624226196E-3</v>
       </c>
       <c r="C14">
-        <v>6.7156803239374696E-3</v>
+        <v>6.5681120737435903E-3</v>
       </c>
       <c r="D14">
-        <v>173</v>
+        <v>365</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -5143,13 +7549,13 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B15">
-        <v>6.7276908395190998E-3</v>
+        <v>6.6488646219174004E-3</v>
       </c>
       <c r="C15">
-        <v>6.7015521109421196E-3</v>
+        <v>6.6260660334708198E-3</v>
       </c>
       <c r="D15">
-        <v>174</v>
+        <v>366</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -5160,13 +7566,13 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B16">
-        <v>6.7416144162416401E-3</v>
+        <v>6.5595739819109397E-3</v>
       </c>
       <c r="C16">
-        <v>6.65543164978636E-3</v>
+        <v>6.4623216761553496E-3</v>
       </c>
       <c r="D16">
-        <v>175</v>
+        <v>367</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -5177,13 +7583,13 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B17">
-        <v>6.8245729332168797E-3</v>
+        <v>6.61131385589639E-3</v>
       </c>
       <c r="C17">
-        <v>6.7266236812351804E-3</v>
+        <v>6.57099744978737E-3</v>
       </c>
       <c r="D17">
-        <v>176</v>
+        <v>368</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -5194,13 +7600,13 @@
         <v>1E-4</v>
       </c>
       <c r="B18">
-        <v>6.7973423774043704E-3</v>
+        <v>6.5528181679546799E-3</v>
       </c>
       <c r="C18">
-        <v>6.8380069037146298E-3</v>
+        <v>6.6153147416387397E-3</v>
       </c>
       <c r="D18">
-        <v>177</v>
+        <v>369</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -5211,13 +7617,13 @@
         <v>1E-4</v>
       </c>
       <c r="B19">
-        <v>6.9881694229940502E-3</v>
+        <v>6.6898381821811201E-3</v>
       </c>
       <c r="C19">
-        <v>6.9383545778691699E-3</v>
+        <v>6.6436659643783202E-3</v>
       </c>
       <c r="D19">
-        <v>178</v>
+        <v>370</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -5228,13 +7634,13 @@
         <v>1E-4</v>
       </c>
       <c r="B20">
-        <v>6.9439835747083E-3</v>
+        <v>6.6581434930364199E-3</v>
       </c>
       <c r="C20">
-        <v>6.7963713849399296E-3</v>
+        <v>6.5674526874530802E-3</v>
       </c>
       <c r="D20">
-        <v>179</v>
+        <v>371</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -5245,13 +7651,13 @@
         <v>1E-4</v>
       </c>
       <c r="B21">
-        <v>6.9795813622573998E-3</v>
+        <v>6.6982016290227497E-3</v>
       </c>
       <c r="C21">
-        <v>6.8747990992554303E-3</v>
+        <v>6.6247050442356297E-3</v>
       </c>
       <c r="D21">
-        <v>180</v>
+        <v>372</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -5262,13 +7668,13 @@
         <v>1E-3</v>
       </c>
       <c r="B22">
-        <v>7.5740726354221501E-3</v>
+        <v>7.1441543189187801E-3</v>
       </c>
       <c r="C22">
-        <v>7.7762496509054197E-3</v>
+        <v>7.3928796448447598E-3</v>
       </c>
       <c r="D22">
-        <v>181</v>
+        <v>373</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -5279,13 +7685,13 @@
         <v>1E-3</v>
       </c>
       <c r="B23">
-        <v>8.0200596141318404E-3</v>
+        <v>7.19645212466518E-3</v>
       </c>
       <c r="C23">
-        <v>7.9087801574868003E-3</v>
+        <v>7.0948700985296598E-3</v>
       </c>
       <c r="D23">
-        <v>182</v>
+        <v>374</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -5296,13 +7702,13 @@
         <v>1E-3</v>
       </c>
       <c r="B24">
-        <v>7.5297359315057598E-3</v>
+        <v>7.0939090810716102E-3</v>
       </c>
       <c r="C24">
-        <v>7.3877964317402298E-3</v>
+        <v>7.0097275236819601E-3</v>
       </c>
       <c r="D24">
-        <v>183</v>
+        <v>375</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -5313,13 +7719,13 @@
         <v>1E-3</v>
       </c>
       <c r="B25">
-        <v>7.6041410267352998E-3</v>
+        <v>7.2385650686919599E-3</v>
       </c>
       <c r="C25">
-        <v>7.4701618373473203E-3</v>
+        <v>7.0884065316157699E-3</v>
       </c>
       <c r="D25">
-        <v>184</v>
+        <v>376</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -5330,13 +7736,13 @@
         <v>0.01</v>
       </c>
       <c r="B26">
-        <v>1.7778381492942499E-2</v>
+        <v>1.39660050471623E-2</v>
       </c>
       <c r="C26">
-        <v>1.9238388879185001E-2</v>
+        <v>1.50185203912885E-2</v>
       </c>
       <c r="D26">
-        <v>185</v>
+        <v>377</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -5347,13 +7753,13 @@
         <v>0.01</v>
       </c>
       <c r="B27">
-        <v>1.51289113089442E-2</v>
+        <v>1.4105211627980001E-2</v>
       </c>
       <c r="C27">
-        <v>1.4470159977753701E-2</v>
+        <v>1.29917985363368E-2</v>
       </c>
       <c r="D27">
-        <v>186</v>
+        <v>378</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -5364,13 +7770,13 @@
         <v>0.01</v>
       </c>
       <c r="B28">
-        <v>1.70353068858385E-2</v>
+        <v>1.3714472901076E-2</v>
       </c>
       <c r="C28">
-        <v>1.7105834910329E-2</v>
+        <v>1.4213206058249101E-2</v>
       </c>
       <c r="D28">
-        <v>187</v>
+        <v>379</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -5381,13 +7787,13 @@
         <v>0.01</v>
       </c>
       <c r="B29">
-        <v>1.5403768673539099E-2</v>
+        <v>1.23102013009289E-2</v>
       </c>
       <c r="C29">
-        <v>1.5009959015321501E-2</v>
+        <v>1.1833668612141799E-2</v>
       </c>
       <c r="D29">
-        <v>188</v>
+        <v>380</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -5398,13 +7804,13 @@
         <v>0.1</v>
       </c>
       <c r="B30">
-        <v>0.17871318678061099</v>
+        <v>0.20876754343509599</v>
       </c>
       <c r="C30">
-        <v>0.19225988600482299</v>
+        <v>0.17749932249809799</v>
       </c>
       <c r="D30">
-        <v>189</v>
+        <v>381</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -5415,13 +7821,13 @@
         <v>0.1</v>
       </c>
       <c r="B31">
-        <v>7.7863888270060198</v>
+        <v>3.88954202334086</v>
       </c>
       <c r="C31">
-        <v>7.7301994891876804</v>
+        <v>3.6068199238878602</v>
       </c>
       <c r="D31">
-        <v>190</v>
+        <v>382</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -5432,13 +7838,13 @@
         <v>0.1</v>
       </c>
       <c r="B32">
-        <v>7.7723126831054596</v>
+        <v>7.7701647783915204</v>
       </c>
       <c r="C32">
-        <v>7.7867968437519401</v>
+        <v>7.7850124582331199</v>
       </c>
       <c r="D32">
-        <v>191</v>
+        <v>383</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -5449,13 +7855,13 @@
         <v>0.1</v>
       </c>
       <c r="B33">
-        <v>3.65356653404235</v>
+        <v>0.187114458252986</v>
       </c>
       <c r="C33">
-        <v>3.6470949243991901</v>
+        <v>0.15731065058486199</v>
       </c>
       <c r="D33">
-        <v>192</v>
+        <v>384</v>
       </c>
       <c r="E33">
         <v>1</v>

--- a/eg2.xlsx
+++ b/eg2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiqing/Desktop/Lipschitz-System-ID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65E4D2F-123F-D74D-8150-C5DF25C3B69C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB34466-6EBD-2543-A6CA-3B3CEE1DD2D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4040" yWindow="5280" windowWidth="34560" windowHeight="19800" activeTab="5" xr2:uid="{624D5C9E-D399-6E42-9BAD-9829FF00FD61}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="34560" windowHeight="19800" activeTab="8" xr2:uid="{624D5C9E-D399-6E42-9BAD-9829FF00FD61}"/>
   </bookViews>
   <sheets>
     <sheet name="Ours 0.25" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,6 @@
     <sheet name="LRN 0.25" sheetId="7" r:id="rId7"/>
     <sheet name="LRN 0.5" sheetId="8" r:id="rId8"/>
     <sheet name="LRN 1.0" sheetId="9" r:id="rId9"/>
-    <sheet name="FCN 0.25 (2)" sheetId="4" r:id="rId10"/>
-    <sheet name="FCN 0.5 (2)" sheetId="5" r:id="rId11"/>
-    <sheet name="FCN 1.0 (2)" sheetId="6" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="9">
   <si>
     <t>Gamma</t>
   </si>
@@ -1356,2397 +1353,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F26A9CE-0C1E-AF48-A07D-15710713DB1F}">
-  <dimension ref="A1:O49"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
-        <v>1E-8</v>
-      </c>
-      <c r="B2" s="4">
-        <v>6.63425694120691E-3</v>
-      </c>
-      <c r="C2" s="4">
-        <v>6.8795220639081001E-3</v>
-      </c>
-      <c r="D2" s="4">
-        <v>97</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="J2" s="5">
-        <f ca="1">AVERAGE(OFFSET(A$2,(ROW()-2)*4,0,4,1))</f>
-        <v>1E-8</v>
-      </c>
-      <c r="K2" s="6">
-        <f t="shared" ref="K2:N9" ca="1" si="0">AVERAGE(OFFSET(B$2,(ROW()-2)*4,0,4,1))</f>
-        <v>6.7591485146314169E-3</v>
-      </c>
-      <c r="L2" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.8695231643009953E-3</v>
-      </c>
-      <c r="M2" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>98.5</v>
-      </c>
-      <c r="N2" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
-        <v>1E-8</v>
-      </c>
-      <c r="B3" s="4">
-        <v>6.9461869709986296E-3</v>
-      </c>
-      <c r="C3" s="4">
-        <v>6.94244590766252E-3</v>
-      </c>
-      <c r="D3" s="4">
-        <v>98</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="J3" s="5">
-        <f t="shared" ref="J3:J9" ca="1" si="1">AVERAGE(OFFSET(A$2,(ROW()-2)*4,0,4,1))</f>
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="K3" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.7178795517897774E-3</v>
-      </c>
-      <c r="L3" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.8484056267907097E-3</v>
-      </c>
-      <c r="M3" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>102.5</v>
-      </c>
-      <c r="N3" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
-        <v>1E-8</v>
-      </c>
-      <c r="B4" s="4">
-        <v>6.7513413043652996E-3</v>
-      </c>
-      <c r="C4" s="4">
-        <v>6.8555044089543002E-3</v>
-      </c>
-      <c r="D4" s="4">
-        <v>99</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="J4" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="K4" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.7326461145793002E-3</v>
-      </c>
-      <c r="L4" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.8450468131638197E-3</v>
-      </c>
-      <c r="M4" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>106.5</v>
-      </c>
-      <c r="N4" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
-        <v>1E-8</v>
-      </c>
-      <c r="B5" s="4">
-        <v>6.7048088419548301E-3</v>
-      </c>
-      <c r="C5" s="4">
-        <v>6.8006202766790601E-3</v>
-      </c>
-      <c r="D5" s="4">
-        <v>100</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="J5" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="K5" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.7183565561401981E-3</v>
-      </c>
-      <c r="L5" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.8650978624800844E-3</v>
-      </c>
-      <c r="M5" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>110.5</v>
-      </c>
-      <c r="N5" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.25</v>
-      </c>
-      <c r="O5" s="2"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="B6" s="4">
-        <v>6.6392859691714297E-3</v>
-      </c>
-      <c r="C6" s="4">
-        <v>6.8231957092722596E-3</v>
-      </c>
-      <c r="D6" s="4">
-        <v>101</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="J6" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>1E-4</v>
-      </c>
-      <c r="K6" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.8359696157672878E-3</v>
-      </c>
-      <c r="L6" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.9516474750150516E-3</v>
-      </c>
-      <c r="M6" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>114.5</v>
-      </c>
-      <c r="N6" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="B7" s="4">
-        <v>6.7546032814982697E-3</v>
-      </c>
-      <c r="C7" s="4">
-        <v>6.8678372301795299E-3</v>
-      </c>
-      <c r="D7" s="4">
-        <v>102</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="J7" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>1E-3</v>
-      </c>
-      <c r="K7" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.5324684606884853E-3</v>
-      </c>
-      <c r="L7" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.6976588362471171E-3</v>
-      </c>
-      <c r="M7" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>118.5</v>
-      </c>
-      <c r="N7" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="B8" s="4">
-        <v>6.7522547237495699E-3</v>
-      </c>
-      <c r="C8" s="4">
-        <v>6.907919897361E-3</v>
-      </c>
-      <c r="D8" s="4">
-        <v>103</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="J8" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.01</v>
-      </c>
-      <c r="K8" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.7182854842642224E-2</v>
-      </c>
-      <c r="L8" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.7094487527464577E-2</v>
-      </c>
-      <c r="M8" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>122.5</v>
-      </c>
-      <c r="N8" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="B9" s="4">
-        <v>6.7253742327398397E-3</v>
-      </c>
-      <c r="C9" s="4">
-        <v>6.7946696703500504E-3</v>
-      </c>
-      <c r="D9" s="4">
-        <v>104</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="J9" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.1</v>
-      </c>
-      <c r="K9" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.8737791648154376</v>
-      </c>
-      <c r="L9" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.8631926631317128</v>
-      </c>
-      <c r="M9" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>126.5</v>
-      </c>
-      <c r="N9" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="B10" s="2">
-        <v>6.6933222362731996E-3</v>
-      </c>
-      <c r="C10" s="2">
-        <v>6.8940232864561201E-3</v>
-      </c>
-      <c r="D10" s="2">
-        <v>105</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="L10">
-        <f ca="1">MIN(L2:L9)</f>
-        <v>6.8450468131638197E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="B11" s="2">
-        <v>6.8411875337837796E-3</v>
-      </c>
-      <c r="C11" s="2">
-        <v>6.9263292218934899E-3</v>
-      </c>
-      <c r="D11" s="2">
-        <v>106</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="B12" s="2">
-        <v>6.6830442049243301E-3</v>
-      </c>
-      <c r="C12" s="2">
-        <v>6.7876846618712501E-3</v>
-      </c>
-      <c r="D12" s="2">
-        <v>107</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="B13" s="2">
-        <v>6.7130304833358896E-3</v>
-      </c>
-      <c r="C13" s="2">
-        <v>6.7721500824344198E-3</v>
-      </c>
-      <c r="D13" s="2">
-        <v>108</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="B14">
-        <v>6.6918825453266099E-3</v>
-      </c>
-      <c r="C14">
-        <v>6.8939140987919296E-3</v>
-      </c>
-      <c r="D14">
-        <v>109</v>
-      </c>
-      <c r="E14">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="B15">
-        <v>6.7642186520660797E-3</v>
-      </c>
-      <c r="C15">
-        <v>6.8623492187087198E-3</v>
-      </c>
-      <c r="D15">
-        <v>110</v>
-      </c>
-      <c r="E15">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="B16">
-        <v>6.7303993223987897E-3</v>
-      </c>
-      <c r="C16">
-        <v>6.8701671565228901E-3</v>
-      </c>
-      <c r="D16">
-        <v>111</v>
-      </c>
-      <c r="E16">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="B17">
-        <v>6.6869257047693104E-3</v>
-      </c>
-      <c r="C17">
-        <v>6.8339609758968E-3</v>
-      </c>
-      <c r="D17">
-        <v>112</v>
-      </c>
-      <c r="E17">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>1E-4</v>
-      </c>
-      <c r="B18">
-        <v>6.7618447256849101E-3</v>
-      </c>
-      <c r="C18">
-        <v>6.9383331277268999E-3</v>
-      </c>
-      <c r="D18">
-        <v>113</v>
-      </c>
-      <c r="E18">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>1E-4</v>
-      </c>
-      <c r="B19">
-        <v>6.8775182986196004E-3</v>
-      </c>
-      <c r="C19">
-        <v>6.9744737838652497E-3</v>
-      </c>
-      <c r="D19">
-        <v>114</v>
-      </c>
-      <c r="E19">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>1E-4</v>
-      </c>
-      <c r="B20">
-        <v>6.8262979645836797E-3</v>
-      </c>
-      <c r="C20">
-        <v>6.9720424870227202E-3</v>
-      </c>
-      <c r="D20">
-        <v>115</v>
-      </c>
-      <c r="E20">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>1E-4</v>
-      </c>
-      <c r="B21">
-        <v>6.87821747418096E-3</v>
-      </c>
-      <c r="C21">
-        <v>6.9217405014453401E-3</v>
-      </c>
-      <c r="D21">
-        <v>116</v>
-      </c>
-      <c r="E21">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>1E-3</v>
-      </c>
-      <c r="B22">
-        <v>7.4801667633050302E-3</v>
-      </c>
-      <c r="C22">
-        <v>7.7435841902773403E-3</v>
-      </c>
-      <c r="D22">
-        <v>117</v>
-      </c>
-      <c r="E22">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>1E-3</v>
-      </c>
-      <c r="B23">
-        <v>7.6838472630194497E-3</v>
-      </c>
-      <c r="C23">
-        <v>7.8472336159741592E-3</v>
-      </c>
-      <c r="D23">
-        <v>118</v>
-      </c>
-      <c r="E23">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>1E-3</v>
-      </c>
-      <c r="B24">
-        <v>7.4433940215075899E-3</v>
-      </c>
-      <c r="C24">
-        <v>7.6696261852741802E-3</v>
-      </c>
-      <c r="D24">
-        <v>119</v>
-      </c>
-      <c r="E24">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>1E-3</v>
-      </c>
-      <c r="B25">
-        <v>7.5224657949218704E-3</v>
-      </c>
-      <c r="C25">
-        <v>7.5301913534627897E-3</v>
-      </c>
-      <c r="D25">
-        <v>120</v>
-      </c>
-      <c r="E25">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>0.01</v>
-      </c>
-      <c r="B26">
-        <v>1.8781037520656799E-2</v>
-      </c>
-      <c r="C26">
-        <v>1.9340524197298401E-2</v>
-      </c>
-      <c r="D26">
-        <v>121</v>
-      </c>
-      <c r="E26">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>0.01</v>
-      </c>
-      <c r="B27">
-        <v>1.86151711448551E-2</v>
-      </c>
-      <c r="C27">
-        <v>1.8307993010162001E-2</v>
-      </c>
-      <c r="D27">
-        <v>122</v>
-      </c>
-      <c r="E27">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>0.01</v>
-      </c>
-      <c r="B28">
-        <v>1.74524653901128E-2</v>
-      </c>
-      <c r="C28">
-        <v>1.7244511764456901E-2</v>
-      </c>
-      <c r="D28">
-        <v>123</v>
-      </c>
-      <c r="E28">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>0.01</v>
-      </c>
-      <c r="B29">
-        <v>1.3882745314944199E-2</v>
-      </c>
-      <c r="C29">
-        <v>1.3484921137940999E-2</v>
-      </c>
-      <c r="D29">
-        <v>124</v>
-      </c>
-      <c r="E29">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>0.1</v>
-      </c>
-      <c r="B30">
-        <v>0.194996873709432</v>
-      </c>
-      <c r="C30">
-        <v>0.20584093597024</v>
-      </c>
-      <c r="D30">
-        <v>125</v>
-      </c>
-      <c r="E30">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>0.1</v>
-      </c>
-      <c r="B31">
-        <v>7.7016466221910802</v>
-      </c>
-      <c r="C31">
-        <v>7.7301994891876804</v>
-      </c>
-      <c r="D31">
-        <v>126</v>
-      </c>
-      <c r="E31">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>0.1</v>
-      </c>
-      <c r="B32">
-        <v>7.7975222455694304</v>
-      </c>
-      <c r="C32">
-        <v>7.7867968437519401</v>
-      </c>
-      <c r="D32">
-        <v>127</v>
-      </c>
-      <c r="E32">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>0.1</v>
-      </c>
-      <c r="B33">
-        <v>7.8009509177918099</v>
-      </c>
-      <c r="C33">
-        <v>7.7299333836169897</v>
-      </c>
-      <c r="D33">
-        <v>128</v>
-      </c>
-      <c r="E33">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="1"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="1"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="1"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="1"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="1"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="1"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="1"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="1"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="1"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="1"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="1"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="1"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="1"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="1"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F5A6AC-C536-6146-8F68-4021A88D57DE}">
-  <dimension ref="A1:N33"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4:N5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>1E-8</v>
-      </c>
-      <c r="B2">
-        <v>6.7823391501851196E-3</v>
-      </c>
-      <c r="C2">
-        <v>6.7879713754704597E-3</v>
-      </c>
-      <c r="D2">
-        <v>129</v>
-      </c>
-      <c r="E2">
-        <v>0.5</v>
-      </c>
-      <c r="J2" s="5">
-        <f ca="1">AVERAGE(OFFSET(A$2,(ROW()-2)*4,0,4,1))</f>
-        <v>1E-8</v>
-      </c>
-      <c r="K2" s="6">
-        <f t="shared" ref="K2:N9" ca="1" si="0">AVERAGE(OFFSET(B$2,(ROW()-2)*4,0,4,1))</f>
-        <v>6.7413872277532526E-3</v>
-      </c>
-      <c r="L2" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.7303437278903155E-3</v>
-      </c>
-      <c r="M2" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>130.5</v>
-      </c>
-      <c r="N2" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>1E-8</v>
-      </c>
-      <c r="B3">
-        <v>6.7840145697737903E-3</v>
-      </c>
-      <c r="C3">
-        <v>6.7853279847730902E-3</v>
-      </c>
-      <c r="D3">
-        <v>130</v>
-      </c>
-      <c r="E3">
-        <v>0.5</v>
-      </c>
-      <c r="J3" s="5">
-        <f t="shared" ref="J3:J9" ca="1" si="1">AVERAGE(OFFSET(A$2,(ROW()-2)*4,0,4,1))</f>
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="K3" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.7238400812865123E-3</v>
-      </c>
-      <c r="L3" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.7317792229314721E-3</v>
-      </c>
-      <c r="M3" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>134.5</v>
-      </c>
-      <c r="N3" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>1E-8</v>
-      </c>
-      <c r="B4">
-        <v>6.6765474497360398E-3</v>
-      </c>
-      <c r="C4">
-        <v>6.6869882519971103E-3</v>
-      </c>
-      <c r="D4">
-        <v>131</v>
-      </c>
-      <c r="E4">
-        <v>0.5</v>
-      </c>
-      <c r="J4" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="K4" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.7000229120938101E-3</v>
-      </c>
-      <c r="L4" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.7199673033022126E-3</v>
-      </c>
-      <c r="M4" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>138.5</v>
-      </c>
-      <c r="N4" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>1E-8</v>
-      </c>
-      <c r="B5">
-        <v>6.7226477413180599E-3</v>
-      </c>
-      <c r="C5">
-        <v>6.6610872993206E-3</v>
-      </c>
-      <c r="D5">
-        <v>132</v>
-      </c>
-      <c r="E5">
-        <v>0.5</v>
-      </c>
-      <c r="J5" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="K5" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.7160105459055184E-3</v>
-      </c>
-      <c r="L5" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.7199134810312453E-3</v>
-      </c>
-      <c r="M5" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>142.5</v>
-      </c>
-      <c r="N5" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="B6">
-        <v>6.7820863803214502E-3</v>
-      </c>
-      <c r="C6">
-        <v>6.77950316148394E-3</v>
-      </c>
-      <c r="D6">
-        <v>133</v>
-      </c>
-      <c r="E6">
-        <v>0.5</v>
-      </c>
-      <c r="J6" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>1E-4</v>
-      </c>
-      <c r="K6" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.8331792736376429E-3</v>
-      </c>
-      <c r="L6" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.8532793790082158E-3</v>
-      </c>
-      <c r="M6" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>146.5</v>
-      </c>
-      <c r="N6" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="B7">
-        <v>6.7094686327184997E-3</v>
-      </c>
-      <c r="C7">
-        <v>6.7685939807524001E-3</v>
-      </c>
-      <c r="D7">
-        <v>134</v>
-      </c>
-      <c r="E7">
-        <v>0.5</v>
-      </c>
-      <c r="J7" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>1E-3</v>
-      </c>
-      <c r="K7" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.6049650100337169E-3</v>
-      </c>
-      <c r="L7" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.6071586685274948E-3</v>
-      </c>
-      <c r="M7" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>150.5</v>
-      </c>
-      <c r="N7" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="B8">
-        <v>6.6295407360736601E-3</v>
-      </c>
-      <c r="C8">
-        <v>6.6720121589667596E-3</v>
-      </c>
-      <c r="D8">
-        <v>135</v>
-      </c>
-      <c r="E8">
-        <v>0.5</v>
-      </c>
-      <c r="J8" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.01</v>
-      </c>
-      <c r="K8" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.7203692707822574E-2</v>
-      </c>
-      <c r="L8" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.6995441299823499E-2</v>
-      </c>
-      <c r="M8" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>154.5</v>
-      </c>
-      <c r="N8" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="B9">
-        <v>6.77426457603244E-3</v>
-      </c>
-      <c r="C9">
-        <v>6.7070075905227896E-3</v>
-      </c>
-      <c r="D9">
-        <v>136</v>
-      </c>
-      <c r="E9">
-        <v>0.5</v>
-      </c>
-      <c r="J9" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.1</v>
-      </c>
-      <c r="K9" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.7864739660252882</v>
-      </c>
-      <c r="L9" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.7652930528559505</v>
-      </c>
-      <c r="M9" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>158.5</v>
-      </c>
-      <c r="N9" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="B10" s="2">
-        <v>6.7846961839600102E-3</v>
-      </c>
-      <c r="C10" s="2">
-        <v>6.8637235833212996E-3</v>
-      </c>
-      <c r="D10" s="2">
-        <v>137</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="L10">
-        <f ca="1">MIN(L2:L9)</f>
-        <v>6.7199134810312453E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="B11" s="2">
-        <v>6.68932232718439E-3</v>
-      </c>
-      <c r="C11" s="2">
-        <v>6.7351497362981997E-3</v>
-      </c>
-      <c r="D11" s="2">
-        <v>138</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="B12" s="2">
-        <v>6.6354002164518196E-3</v>
-      </c>
-      <c r="C12" s="2">
-        <v>6.6696927446792701E-3</v>
-      </c>
-      <c r="D12" s="2">
-        <v>139</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="B13" s="2">
-        <v>6.6906729207790198E-3</v>
-      </c>
-      <c r="C13" s="2">
-        <v>6.6113031489100802E-3</v>
-      </c>
-      <c r="D13" s="2">
-        <v>140</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="B14" s="4">
-        <v>6.7688857968104003E-3</v>
-      </c>
-      <c r="C14" s="4">
-        <v>6.8050990614326699E-3</v>
-      </c>
-      <c r="D14" s="4">
-        <v>141</v>
-      </c>
-      <c r="E14" s="4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="B15" s="4">
-        <v>6.7033654281948704E-3</v>
-      </c>
-      <c r="C15" s="4">
-        <v>6.7616181666071097E-3</v>
-      </c>
-      <c r="D15" s="4">
-        <v>142</v>
-      </c>
-      <c r="E15" s="4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="B16" s="4">
-        <v>6.6713447251575096E-3</v>
-      </c>
-      <c r="C16" s="4">
-        <v>6.6534047203257304E-3</v>
-      </c>
-      <c r="D16" s="4">
-        <v>143</v>
-      </c>
-      <c r="E16" s="4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="B17" s="4">
-        <v>6.7204462334592898E-3</v>
-      </c>
-      <c r="C17" s="4">
-        <v>6.6595319757594704E-3</v>
-      </c>
-      <c r="D17" s="4">
-        <v>144</v>
-      </c>
-      <c r="E17" s="4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>1E-4</v>
-      </c>
-      <c r="B18">
-        <v>6.9045284787747699E-3</v>
-      </c>
-      <c r="C18">
-        <v>7.0274053339628396E-3</v>
-      </c>
-      <c r="D18">
-        <v>145</v>
-      </c>
-      <c r="E18">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>1E-4</v>
-      </c>
-      <c r="B19">
-        <v>6.8325304867144897E-3</v>
-      </c>
-      <c r="C19">
-        <v>6.8716885313946504E-3</v>
-      </c>
-      <c r="D19">
-        <v>146</v>
-      </c>
-      <c r="E19">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>1E-4</v>
-      </c>
-      <c r="B20">
-        <v>6.7819960246932598E-3</v>
-      </c>
-      <c r="C20">
-        <v>6.7838065801782803E-3</v>
-      </c>
-      <c r="D20">
-        <v>147</v>
-      </c>
-      <c r="E20">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>1E-4</v>
-      </c>
-      <c r="B21">
-        <v>6.8136621043680496E-3</v>
-      </c>
-      <c r="C21">
-        <v>6.7302170704970901E-3</v>
-      </c>
-      <c r="D21">
-        <v>148</v>
-      </c>
-      <c r="E21">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>1E-3</v>
-      </c>
-      <c r="B22">
-        <v>7.4825403825478903E-3</v>
-      </c>
-      <c r="C22">
-        <v>7.6690057906857196E-3</v>
-      </c>
-      <c r="D22">
-        <v>149</v>
-      </c>
-      <c r="E22">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>1E-3</v>
-      </c>
-      <c r="B23">
-        <v>7.7343439668456603E-3</v>
-      </c>
-      <c r="C23">
-        <v>7.7221156692409698E-3</v>
-      </c>
-      <c r="D23">
-        <v>150</v>
-      </c>
-      <c r="E23">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>1E-3</v>
-      </c>
-      <c r="B24">
-        <v>7.6535743205471199E-3</v>
-      </c>
-      <c r="C24">
-        <v>7.6246715566896297E-3</v>
-      </c>
-      <c r="D24">
-        <v>151</v>
-      </c>
-      <c r="E24">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>1E-3</v>
-      </c>
-      <c r="B25">
-        <v>7.5494013701941998E-3</v>
-      </c>
-      <c r="C25">
-        <v>7.4128416574936601E-3</v>
-      </c>
-      <c r="D25">
-        <v>152</v>
-      </c>
-      <c r="E25">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>0.01</v>
-      </c>
-      <c r="B26">
-        <v>1.9732550361213502E-2</v>
-      </c>
-      <c r="C26">
-        <v>2.0975059165837199E-2</v>
-      </c>
-      <c r="D26">
-        <v>153</v>
-      </c>
-      <c r="E26">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>0.01</v>
-      </c>
-      <c r="B27">
-        <v>1.7721472206485799E-2</v>
-      </c>
-      <c r="C27">
-        <v>1.7249549630078201E-2</v>
-      </c>
-      <c r="D27">
-        <v>154</v>
-      </c>
-      <c r="E27">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>0.01</v>
-      </c>
-      <c r="B28">
-        <v>1.6423993516079202E-2</v>
-      </c>
-      <c r="C28">
-        <v>1.6223486512899399E-2</v>
-      </c>
-      <c r="D28">
-        <v>155</v>
-      </c>
-      <c r="E28">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>0.01</v>
-      </c>
-      <c r="B29">
-        <v>1.4936754747511801E-2</v>
-      </c>
-      <c r="C29">
-        <v>1.3533669890479201E-2</v>
-      </c>
-      <c r="D29">
-        <v>156</v>
-      </c>
-      <c r="E29">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>0.1</v>
-      </c>
-      <c r="B30">
-        <v>7.7577526112820197</v>
-      </c>
-      <c r="C30">
-        <v>7.8142421194847502</v>
-      </c>
-      <c r="D30">
-        <v>157</v>
-      </c>
-      <c r="E30">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>0.1</v>
-      </c>
-      <c r="B31">
-        <v>7.7592554067043498</v>
-      </c>
-      <c r="C31">
-        <v>7.7301994891876804</v>
-      </c>
-      <c r="D31">
-        <v>158</v>
-      </c>
-      <c r="E31">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>0.1</v>
-      </c>
-      <c r="B32">
-        <v>7.8002449755973</v>
-      </c>
-      <c r="C32">
-        <v>7.7867968437519401</v>
-      </c>
-      <c r="D32">
-        <v>159</v>
-      </c>
-      <c r="E32">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>0.1</v>
-      </c>
-      <c r="B33">
-        <v>7.8286428705174798</v>
-      </c>
-      <c r="C33">
-        <v>7.7299337589994304</v>
-      </c>
-      <c r="D33">
-        <v>160</v>
-      </c>
-      <c r="E33">
-        <v>0.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9902717B-D473-4C4C-BD56-0A1D1459D334}">
-  <dimension ref="A1:N50"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
-        <v>1E-8</v>
-      </c>
-      <c r="B2" s="4">
-        <v>6.6716014184057702E-3</v>
-      </c>
-      <c r="C2" s="4">
-        <v>6.7108751403445197E-3</v>
-      </c>
-      <c r="D2" s="4">
-        <v>161</v>
-      </c>
-      <c r="E2" s="4">
-        <v>1</v>
-      </c>
-      <c r="J2" s="5">
-        <f ca="1">AVERAGE(OFFSET(A$2,(ROW()-2)*4,0,4,1))</f>
-        <v>1E-8</v>
-      </c>
-      <c r="K2" s="6">
-        <f t="shared" ref="K2:N9" ca="1" si="0">AVERAGE(OFFSET(B$2,(ROW()-2)*4,0,4,1))</f>
-        <v>6.693693019449708E-3</v>
-      </c>
-      <c r="L2" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.663737818598742E-3</v>
-      </c>
-      <c r="M2" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>162.5</v>
-      </c>
-      <c r="N2" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
-        <v>1E-8</v>
-      </c>
-      <c r="B3" s="4">
-        <v>6.6993678286671604E-3</v>
-      </c>
-      <c r="C3" s="4">
-        <v>6.7036600060206104E-3</v>
-      </c>
-      <c r="D3" s="4">
-        <v>162</v>
-      </c>
-      <c r="E3" s="4">
-        <v>1</v>
-      </c>
-      <c r="J3" s="3">
-        <f t="shared" ref="J3:J9" ca="1" si="1">AVERAGE(OFFSET(A$2,(ROW()-2)*4,0,4,1))</f>
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="K3" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.7046002037823155E-3</v>
-      </c>
-      <c r="L3" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.6485973855262524E-3</v>
-      </c>
-      <c r="M3" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>166.5</v>
-      </c>
-      <c r="N3" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
-        <v>1E-8</v>
-      </c>
-      <c r="B4" s="4">
-        <v>6.7179734297096701E-3</v>
-      </c>
-      <c r="C4" s="4">
-        <v>6.6498632126666098E-3</v>
-      </c>
-      <c r="D4" s="4">
-        <v>163</v>
-      </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-      <c r="J4" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="K4" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.7269933754578173E-3</v>
-      </c>
-      <c r="L4" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.662821810831253E-3</v>
-      </c>
-      <c r="M4" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>170.5</v>
-      </c>
-      <c r="N4" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
-        <v>1E-8</v>
-      </c>
-      <c r="B5" s="4">
-        <v>6.6858294010162297E-3</v>
-      </c>
-      <c r="C5" s="4">
-        <v>6.59055291536323E-3</v>
-      </c>
-      <c r="D5" s="4">
-        <v>164</v>
-      </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-      <c r="J5" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="K5" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.7440382285664426E-3</v>
-      </c>
-      <c r="L5" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.6998219414752822E-3</v>
-      </c>
-      <c r="M5" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>174.5</v>
-      </c>
-      <c r="N5" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="B6" s="2">
-        <v>6.6522866760691003E-3</v>
-      </c>
-      <c r="C6" s="2">
-        <v>6.7000399403115496E-3</v>
-      </c>
-      <c r="D6" s="2">
-        <v>165</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2">
-        <v>47.720999999999997</v>
-      </c>
-      <c r="J6" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>1E-4</v>
-      </c>
-      <c r="K6" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.9272691843410301E-3</v>
-      </c>
-      <c r="L6" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.8618829914447906E-3</v>
-      </c>
-      <c r="M6" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>178.5</v>
-      </c>
-      <c r="N6" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="B7" s="2">
-        <v>6.7498680179317698E-3</v>
-      </c>
-      <c r="C7" s="2">
-        <v>6.7204476651200502E-3</v>
-      </c>
-      <c r="D7" s="2">
-        <v>166</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2">
-        <v>77.769000000000005</v>
-      </c>
-      <c r="J7" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>1E-3</v>
-      </c>
-      <c r="K7" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.6820023019487623E-3</v>
-      </c>
-      <c r="L7" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.6357470193699423E-3</v>
-      </c>
-      <c r="M7" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>182.5</v>
-      </c>
-      <c r="N7" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="B8" s="2">
-        <v>6.6699861499170399E-3</v>
-      </c>
-      <c r="C8" s="2">
-        <v>6.5281062010437802E-3</v>
-      </c>
-      <c r="D8" s="2">
-        <v>167</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1</v>
-      </c>
-      <c r="F8" s="2">
-        <v>99.394999999999996</v>
-      </c>
-      <c r="J8" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.01</v>
-      </c>
-      <c r="K8" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.6336592090316075E-2</v>
-      </c>
-      <c r="L8" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.6456085695647302E-2</v>
-      </c>
-      <c r="M8" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>186.5</v>
-      </c>
-      <c r="N8" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>9.9999999999999995E-8</v>
-      </c>
-      <c r="B9" s="2">
-        <v>6.7462599712113502E-3</v>
-      </c>
-      <c r="C9" s="2">
-        <v>6.6457957356296296E-3</v>
-      </c>
-      <c r="D9" s="2">
-        <v>168</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1</v>
-      </c>
-      <c r="F9" s="2">
-        <v>63.13</v>
-      </c>
-      <c r="J9" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.1</v>
-      </c>
-      <c r="K9" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.8477453077336099</v>
-      </c>
-      <c r="L9" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.8390877858359085</v>
-      </c>
-      <c r="M9" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>190.5</v>
-      </c>
-      <c r="N9" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="B10" s="4">
-        <v>6.6695518928269497E-3</v>
-      </c>
-      <c r="C10" s="4">
-        <v>6.6823153905174199E-3</v>
-      </c>
-      <c r="D10" s="4">
-        <v>169</v>
-      </c>
-      <c r="E10" s="4">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <f ca="1">MIN(L2:L9)</f>
-        <v>6.6485973855262524E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="B11" s="4">
-        <v>6.7755464687943396E-3</v>
-      </c>
-      <c r="C11" s="4">
-        <v>6.7222203435178098E-3</v>
-      </c>
-      <c r="D11" s="4">
-        <v>170</v>
-      </c>
-      <c r="E11" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="B12" s="4">
-        <v>6.7317735143005803E-3</v>
-      </c>
-      <c r="C12" s="4">
-        <v>6.6283174760718901E-3</v>
-      </c>
-      <c r="D12" s="4">
-        <v>171</v>
-      </c>
-      <c r="E12" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="B13" s="4">
-        <v>6.7311016259093996E-3</v>
-      </c>
-      <c r="C13" s="4">
-        <v>6.6184340332178897E-3</v>
-      </c>
-      <c r="D13" s="4">
-        <v>172</v>
-      </c>
-      <c r="E13" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="B14">
-        <v>6.6822747252881501E-3</v>
-      </c>
-      <c r="C14">
-        <v>6.7156803239374696E-3</v>
-      </c>
-      <c r="D14">
-        <v>173</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="B15">
-        <v>6.7276908395190998E-3</v>
-      </c>
-      <c r="C15">
-        <v>6.7015521109421196E-3</v>
-      </c>
-      <c r="D15">
-        <v>174</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="B16">
-        <v>6.7416144162416401E-3</v>
-      </c>
-      <c r="C16">
-        <v>6.65543164978636E-3</v>
-      </c>
-      <c r="D16">
-        <v>175</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="B17">
-        <v>6.8245729332168797E-3</v>
-      </c>
-      <c r="C17">
-        <v>6.7266236812351804E-3</v>
-      </c>
-      <c r="D17">
-        <v>176</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>1E-4</v>
-      </c>
-      <c r="B18">
-        <v>6.7973423774043704E-3</v>
-      </c>
-      <c r="C18">
-        <v>6.8380069037146298E-3</v>
-      </c>
-      <c r="D18">
-        <v>177</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>1E-4</v>
-      </c>
-      <c r="B19">
-        <v>6.9881694229940502E-3</v>
-      </c>
-      <c r="C19">
-        <v>6.9383545778691699E-3</v>
-      </c>
-      <c r="D19">
-        <v>178</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>1E-4</v>
-      </c>
-      <c r="B20">
-        <v>6.9439835747083E-3</v>
-      </c>
-      <c r="C20">
-        <v>6.7963713849399296E-3</v>
-      </c>
-      <c r="D20">
-        <v>179</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>1E-4</v>
-      </c>
-      <c r="B21">
-        <v>6.9795813622573998E-3</v>
-      </c>
-      <c r="C21">
-        <v>6.8747990992554303E-3</v>
-      </c>
-      <c r="D21">
-        <v>180</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>1E-3</v>
-      </c>
-      <c r="B22">
-        <v>7.5740726354221501E-3</v>
-      </c>
-      <c r="C22">
-        <v>7.7762496509054197E-3</v>
-      </c>
-      <c r="D22">
-        <v>181</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>1E-3</v>
-      </c>
-      <c r="B23">
-        <v>8.0200596141318404E-3</v>
-      </c>
-      <c r="C23">
-        <v>7.9087801574868003E-3</v>
-      </c>
-      <c r="D23">
-        <v>182</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>1E-3</v>
-      </c>
-      <c r="B24">
-        <v>7.5297359315057598E-3</v>
-      </c>
-      <c r="C24">
-        <v>7.3877964317402298E-3</v>
-      </c>
-      <c r="D24">
-        <v>183</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>1E-3</v>
-      </c>
-      <c r="B25">
-        <v>7.6041410267352998E-3</v>
-      </c>
-      <c r="C25">
-        <v>7.4701618373473203E-3</v>
-      </c>
-      <c r="D25">
-        <v>184</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>0.01</v>
-      </c>
-      <c r="B26">
-        <v>1.7778381492942499E-2</v>
-      </c>
-      <c r="C26">
-        <v>1.9238388879185001E-2</v>
-      </c>
-      <c r="D26">
-        <v>185</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>0.01</v>
-      </c>
-      <c r="B27">
-        <v>1.51289113089442E-2</v>
-      </c>
-      <c r="C27">
-        <v>1.4470159977753701E-2</v>
-      </c>
-      <c r="D27">
-        <v>186</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>0.01</v>
-      </c>
-      <c r="B28">
-        <v>1.70353068858385E-2</v>
-      </c>
-      <c r="C28">
-        <v>1.7105834910329E-2</v>
-      </c>
-      <c r="D28">
-        <v>187</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>0.01</v>
-      </c>
-      <c r="B29">
-        <v>1.5403768673539099E-2</v>
-      </c>
-      <c r="C29">
-        <v>1.5009959015321501E-2</v>
-      </c>
-      <c r="D29">
-        <v>188</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>0.1</v>
-      </c>
-      <c r="B30">
-        <v>0.17871318678061099</v>
-      </c>
-      <c r="C30">
-        <v>0.19225988600482299</v>
-      </c>
-      <c r="D30">
-        <v>189</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>0.1</v>
-      </c>
-      <c r="B31">
-        <v>7.7863888270060198</v>
-      </c>
-      <c r="C31">
-        <v>7.7301994891876804</v>
-      </c>
-      <c r="D31">
-        <v>190</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>0.1</v>
-      </c>
-      <c r="B32">
-        <v>7.7723126831054596</v>
-      </c>
-      <c r="C32">
-        <v>7.7867968437519401</v>
-      </c>
-      <c r="D32">
-        <v>191</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>0.1</v>
-      </c>
-      <c r="B33">
-        <v>3.65356653404235</v>
-      </c>
-      <c r="C33">
-        <v>3.6470949243991901</v>
-      </c>
-      <c r="D33">
-        <v>192</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="1"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="1"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="1"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="1"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="1"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="1"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="1"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="1"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="1"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="1"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="1"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="1"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="1"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="1"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4411848-26EC-7848-88E5-EF7373A463AB}">
   <dimension ref="A1:O33"/>
@@ -4641,7 +2247,7 @@
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4689,13 +2295,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1.049560546875</v>
+        <v>1.0141516923904399</v>
       </c>
       <c r="C2">
-        <v>0.34640740970770501</v>
+        <v>0.182354071658651</v>
       </c>
       <c r="D2">
-        <v>0.36292099746617801</v>
+        <v>0.18012873076324101</v>
       </c>
       <c r="E2">
         <v>65</v>
@@ -4709,15 +2315,15 @@
       </c>
       <c r="K2">
         <f t="shared" ref="K2:O9" ca="1" si="0">AVERAGE(OFFSET(B$2,(ROW()-2)*4,0,4,1))</f>
-        <v>1.049560546875</v>
+        <v>1.0141516923904399</v>
       </c>
       <c r="L2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35242207453151497</v>
+        <v>0.18183029610751875</v>
       </c>
       <c r="M2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34874079741061975</v>
+        <v>0.18052621878121225</v>
       </c>
       <c r="N2">
         <f t="shared" ca="1" si="0"/>
@@ -4733,13 +2339,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.049560546875</v>
+        <v>1.0141516923904399</v>
       </c>
       <c r="C3">
-        <v>0.35553118364016201</v>
+        <v>0.17989082154222</v>
       </c>
       <c r="D3">
-        <v>0.334810252043795</v>
+        <v>0.184625543513388</v>
       </c>
       <c r="E3">
         <v>66</v>
@@ -4753,15 +2359,15 @@
       </c>
       <c r="K3">
         <f t="shared" ca="1" si="0"/>
-        <v>2.09912109375</v>
+        <v>2.0283033847808798</v>
       </c>
       <c r="L3">
         <f t="shared" ca="1" si="0"/>
-        <v>4.2063623482671855E-2</v>
+        <v>2.6151730988772702E-3</v>
       </c>
       <c r="M3">
         <f t="shared" ca="1" si="0"/>
-        <v>4.131393695864425E-2</v>
+        <v>2.52145578571867E-3</v>
       </c>
       <c r="N3">
         <f t="shared" ca="1" si="0"/>
@@ -4777,13 +2383,13 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>1.049560546875</v>
+        <v>1.0141516923904399</v>
       </c>
       <c r="C4">
-        <v>0.35001042103767299</v>
+        <v>0.181765205981607</v>
       </c>
       <c r="D4">
-        <v>0.35863845652722298</v>
+        <v>0.177050863445367</v>
       </c>
       <c r="E4">
         <v>67</v>
@@ -4797,15 +2403,15 @@
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="0"/>
-        <v>4.1982421875</v>
+        <v>4.0566067695617596</v>
       </c>
       <c r="L4">
         <f t="shared" ca="1" si="0"/>
-        <v>7.4819480335960725E-3</v>
+        <v>5.8580142772004444E-4</v>
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="0"/>
-        <v>7.3386035386492719E-3</v>
+        <v>5.8844408656268316E-4</v>
       </c>
       <c r="N4">
         <f t="shared" ca="1" si="0"/>
@@ -4821,13 +2427,13 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>1.049560546875</v>
+        <v>1.0141516923904399</v>
       </c>
       <c r="C5">
-        <v>0.35773928374052</v>
+        <v>0.18331108524759701</v>
       </c>
       <c r="D5">
-        <v>0.33859348360528302</v>
+        <v>0.18029973740285299</v>
       </c>
       <c r="E5">
         <v>68</v>
@@ -4841,15 +2447,15 @@
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="0"/>
-        <v>8.396484375</v>
+        <v>8.1132135391235298</v>
       </c>
       <c r="L5">
         <f t="shared" ca="1" si="0"/>
-        <v>6.4721681478743694E-3</v>
+        <v>5.6951944898001202E-4</v>
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="0"/>
-        <v>6.4266637522489402E-3</v>
+        <v>5.7297403910988001E-4</v>
       </c>
       <c r="N5">
         <f t="shared" ca="1" si="0"/>
@@ -4865,13 +2471,13 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>2.09912109375</v>
+        <v>2.0283033847808798</v>
       </c>
       <c r="C6">
-        <v>4.0877415409932498E-2</v>
+        <v>2.6262016776315701E-3</v>
       </c>
       <c r="D6">
-        <v>4.49651443112166E-2</v>
+        <v>2.6302639612453501E-3</v>
       </c>
       <c r="E6">
         <v>69</v>
@@ -4885,15 +2491,15 @@
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="0"/>
-        <v>16.79296875</v>
+        <v>16.226427078246999</v>
       </c>
       <c r="L6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.4638485476995449E-3</v>
+        <v>5.6626587132418429E-4</v>
       </c>
       <c r="M6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.4298576672878428E-3</v>
+        <v>5.7168505963142301E-4</v>
       </c>
       <c r="N6">
         <f t="shared" ca="1" si="0"/>
@@ -4909,13 +2515,13 @@
         <v>2</v>
       </c>
       <c r="B7">
-        <v>2.09912109375</v>
+        <v>2.0283033847808798</v>
       </c>
       <c r="C7">
-        <v>4.3428969821582203E-2</v>
+        <v>2.55994174435792E-3</v>
       </c>
       <c r="D7">
-        <v>3.6578822108183702E-2</v>
+        <v>2.6434074048357001E-3</v>
       </c>
       <c r="E7">
         <v>70</v>
@@ -4929,15 +2535,15 @@
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="0"/>
-        <v>33.5859375</v>
+        <v>32.452854156494098</v>
       </c>
       <c r="L7">
         <f t="shared" ca="1" si="0"/>
-        <v>6.4608371676877097E-3</v>
+        <v>5.6898660087939751E-4</v>
       </c>
       <c r="M7">
         <f t="shared" ca="1" si="0"/>
-        <v>6.4233628366677474E-3</v>
+        <v>5.7348558670436954E-4</v>
       </c>
       <c r="N7">
         <f t="shared" ca="1" si="0"/>
@@ -4953,13 +2559,13 @@
         <v>2</v>
       </c>
       <c r="B8">
-        <v>2.09912109375</v>
+        <v>2.0283033847808798</v>
       </c>
       <c r="C8">
-        <v>4.1094452161341902E-2</v>
+        <v>2.5954600772544502E-3</v>
       </c>
       <c r="D8">
-        <v>4.4154394408093399E-2</v>
+        <v>2.3384923598605998E-3</v>
       </c>
       <c r="E8">
         <v>71</v>
@@ -4973,15 +2579,15 @@
       </c>
       <c r="K8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>67.171875</v>
+        <v>64.905708312988196</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>6.4575120219960754E-3</v>
+        <v>5.6961259335832227E-4</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>6.4215111382741495E-3</v>
+        <v>5.7343222805735948E-4</v>
       </c>
       <c r="N8" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -4997,13 +2603,13 @@
         <v>2</v>
       </c>
       <c r="B9">
-        <v>2.09912109375</v>
+        <v>2.0283033847808798</v>
       </c>
       <c r="C9">
-        <v>4.2853656537830798E-2</v>
+        <v>2.6790888962651398E-3</v>
       </c>
       <c r="D9">
-        <v>3.9557387007083299E-2</v>
+        <v>2.4736594169330302E-3</v>
       </c>
       <c r="E9">
         <v>72</v>
@@ -5017,15 +2623,15 @@
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="0"/>
-        <v>134.34375</v>
+        <v>129.81141662597599</v>
       </c>
       <c r="L9">
         <f t="shared" ca="1" si="0"/>
-        <v>6.4779250075419703E-3</v>
+        <v>5.7210625606970793E-4</v>
       </c>
       <c r="M9">
         <f t="shared" ca="1" si="0"/>
-        <v>6.430843971332807E-3</v>
+        <v>5.7582962115290811E-4</v>
       </c>
       <c r="N9">
         <f t="shared" ca="1" si="0"/>
@@ -5041,13 +2647,13 @@
         <v>4</v>
       </c>
       <c r="B10">
-        <v>4.1982421875</v>
+        <v>4.0566067695617596</v>
       </c>
       <c r="C10">
-        <v>7.4010775896410103E-3</v>
+        <v>5.9090811103776504E-4</v>
       </c>
       <c r="D10">
-        <v>7.6363179238235698E-3</v>
+        <v>5.9912694488511401E-4</v>
       </c>
       <c r="E10">
         <v>73</v>
@@ -5057,7 +2663,7 @@
       </c>
       <c r="M10">
         <f ca="1">MIN(M2:M9)</f>
-        <v>6.4215111382741495E-3</v>
+        <v>5.7168505963142301E-4</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -5065,13 +2671,13 @@
         <v>4</v>
       </c>
       <c r="B11">
-        <v>4.1982421875</v>
+        <v>4.0566067695617596</v>
       </c>
       <c r="C11">
-        <v>7.50512576599915E-3</v>
+        <v>5.8026180419986999E-4</v>
       </c>
       <c r="D11">
-        <v>6.8863996829678998E-3</v>
+        <v>5.8439645129870895E-4</v>
       </c>
       <c r="E11">
         <v>74</v>
@@ -5085,13 +2691,13 @@
         <v>4</v>
       </c>
       <c r="B12">
-        <v>4.1982421875</v>
+        <v>4.0566067695617596</v>
       </c>
       <c r="C12">
-        <v>7.5055641457438399E-3</v>
+        <v>5.8405404386024495E-4</v>
       </c>
       <c r="D12">
-        <v>7.4630089232975497E-3</v>
+        <v>5.8256732058307103E-4</v>
       </c>
       <c r="E12">
         <v>75</v>
@@ -5105,13 +2711,13 @@
         <v>4</v>
       </c>
       <c r="B13">
-        <v>4.1982421875</v>
+        <v>4.0566067695617596</v>
       </c>
       <c r="C13">
-        <v>7.5160246330002898E-3</v>
+        <v>5.8798175178229799E-4</v>
       </c>
       <c r="D13">
-        <v>7.3686876245080699E-3</v>
+        <v>5.8768562948383898E-4</v>
       </c>
       <c r="E13">
         <v>76</v>
@@ -5125,13 +2731,13 @@
         <v>8</v>
       </c>
       <c r="B14" s="2">
-        <v>8.396484375</v>
+        <v>8.1132135391235298</v>
       </c>
       <c r="C14" s="2">
-        <v>6.4562729199727298E-3</v>
+        <v>5.7217467427849496E-4</v>
       </c>
       <c r="D14" s="2">
-        <v>6.5031742052908204E-3</v>
+        <v>5.7575543397896903E-4</v>
       </c>
       <c r="E14" s="2">
         <v>77</v>
@@ -5145,13 +2751,13 @@
         <v>8</v>
       </c>
       <c r="B15" s="2">
-        <v>8.396484375</v>
+        <v>8.1132135391235298</v>
       </c>
       <c r="C15" s="2">
-        <v>6.5003480526308203E-3</v>
+        <v>5.6563148973509604E-4</v>
       </c>
       <c r="D15" s="2">
-        <v>6.46497666875415E-3</v>
+        <v>5.6990910429103301E-4</v>
       </c>
       <c r="E15" s="2">
         <v>78</v>
@@ -5165,13 +2771,13 @@
         <v>8</v>
       </c>
       <c r="B16" s="2">
-        <v>8.396484375</v>
+        <v>8.1132135391235298</v>
       </c>
       <c r="C16" s="2">
-        <v>6.45803068578243E-3</v>
+        <v>5.6951258325192299E-4</v>
       </c>
       <c r="D16" s="2">
-        <v>6.3495260286838403E-3</v>
+        <v>5.7272411133865503E-4</v>
       </c>
       <c r="E16" s="2">
         <v>79</v>
@@ -5185,13 +2791,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="2">
-        <v>8.396484375</v>
+        <v>8.1132135391235298</v>
       </c>
       <c r="C17" s="2">
-        <v>6.4740209331115E-3</v>
+        <v>5.7075904865453396E-4</v>
       </c>
       <c r="D17" s="2">
-        <v>6.3889781062669501E-3</v>
+        <v>5.7350750683086299E-4</v>
       </c>
       <c r="E17" s="2">
         <v>80</v>
@@ -5205,13 +2811,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>16.79296875</v>
+        <v>16.226427078246999</v>
       </c>
       <c r="C18" s="2">
-        <v>6.4528095920880603E-3</v>
+        <v>5.6798992201551198E-4</v>
       </c>
       <c r="D18" s="2">
-        <v>6.5152100485531498E-3</v>
+        <v>5.7075067339816402E-4</v>
       </c>
       <c r="E18" s="2">
         <v>81</v>
@@ -5225,13 +2831,13 @@
         <v>16</v>
       </c>
       <c r="B19" s="2">
-        <v>16.79296875</v>
+        <v>16.226427078246999</v>
       </c>
       <c r="C19" s="2">
-        <v>6.4879471895595304E-3</v>
+        <v>5.66158735141449E-4</v>
       </c>
       <c r="D19" s="2">
-        <v>6.4774835729931798E-3</v>
+        <v>5.7288773005327402E-4</v>
       </c>
       <c r="E19" s="2">
         <v>82</v>
@@ -5245,13 +2851,13 @@
         <v>16</v>
       </c>
       <c r="B20" s="2">
-        <v>16.79296875</v>
+        <v>16.226427078246999</v>
       </c>
       <c r="C20" s="2">
-        <v>6.4457499670485599E-3</v>
+        <v>5.6385922480718805E-4</v>
       </c>
       <c r="D20" s="2">
-        <v>6.3414753345336604E-3</v>
+        <v>5.7121278621467201E-4</v>
       </c>
       <c r="E20" s="2">
         <v>83</v>
@@ -5265,13 +2871,13 @@
         <v>16</v>
       </c>
       <c r="B21" s="2">
-        <v>16.79296875</v>
+        <v>16.226427078246999</v>
       </c>
       <c r="C21" s="2">
-        <v>6.4688874421020299E-3</v>
+        <v>5.67055603332588E-4</v>
       </c>
       <c r="D21" s="2">
-        <v>6.3852617130713803E-3</v>
+        <v>5.7188904885958197E-4</v>
       </c>
       <c r="E21" s="2">
         <v>84</v>
@@ -5285,13 +2891,13 @@
         <v>32</v>
       </c>
       <c r="B22" s="2">
-        <v>33.5859375</v>
+        <v>32.452854156494098</v>
       </c>
       <c r="C22" s="2">
-        <v>6.43106060102582E-3</v>
+        <v>5.7176252741805798E-4</v>
       </c>
       <c r="D22" s="2">
-        <v>6.4691266074697303E-3</v>
+        <v>5.7552236830815597E-4</v>
       </c>
       <c r="E22" s="2">
         <v>85</v>
@@ -5305,13 +2911,13 @@
         <v>32</v>
       </c>
       <c r="B23" s="2">
-        <v>33.5859375</v>
+        <v>32.452854156494098</v>
       </c>
       <c r="C23" s="2">
-        <v>6.5016109744707703E-3</v>
+        <v>5.6737957972485798E-4</v>
       </c>
       <c r="D23" s="2">
-        <v>6.47386981848072E-3</v>
+        <v>5.7364400654135003E-4</v>
       </c>
       <c r="E23" s="2">
         <v>86</v>
@@ -5325,13 +2931,13 @@
         <v>32</v>
       </c>
       <c r="B24" s="2">
-        <v>33.5859375</v>
+        <v>32.452854156494098</v>
       </c>
       <c r="C24" s="2">
-        <v>6.4591864421963598E-3</v>
+        <v>5.6918153483575097E-4</v>
       </c>
       <c r="D24" s="2">
-        <v>6.3597708346044696E-3</v>
+        <v>5.7355711513357003E-4</v>
       </c>
       <c r="E24" s="2">
         <v>87</v>
@@ -5345,13 +2951,13 @@
         <v>32</v>
       </c>
       <c r="B25" s="2">
-        <v>33.5859375</v>
+        <v>32.452854156494098</v>
       </c>
       <c r="C25" s="2">
-        <v>6.4514906530578897E-3</v>
+        <v>5.6762276153892301E-4</v>
       </c>
       <c r="D25" s="2">
-        <v>6.3906840861160698E-3</v>
+        <v>5.7121885683440201E-4</v>
       </c>
       <c r="E25" s="2">
         <v>88</v>
@@ -5365,13 +2971,13 @@
         <v>64</v>
       </c>
       <c r="B26" s="2">
-        <v>67.171875</v>
+        <v>64.905708312988196</v>
       </c>
       <c r="C26" s="2">
-        <v>6.4194338644544199E-3</v>
+        <v>5.68279432782779E-4</v>
       </c>
       <c r="D26" s="2">
-        <v>6.4601021907985797E-3</v>
+        <v>5.7047968598539505E-4</v>
       </c>
       <c r="E26" s="2">
         <v>89</v>
@@ -5385,13 +2991,13 @@
         <v>64</v>
       </c>
       <c r="B27" s="2">
-        <v>67.171875</v>
+        <v>64.905708312988196</v>
       </c>
       <c r="C27" s="2">
-        <v>6.4791161268949503E-3</v>
+        <v>5.6790220672573604E-4</v>
       </c>
       <c r="D27" s="2">
-        <v>6.4661246773965097E-3</v>
+        <v>5.7500906954167995E-4</v>
       </c>
       <c r="E27" s="2">
         <v>90</v>
@@ -5405,13 +3011,13 @@
         <v>64</v>
       </c>
       <c r="B28" s="2">
-        <v>67.171875</v>
+        <v>64.905708312988196</v>
       </c>
       <c r="C28" s="2">
-        <v>6.4690429518620097E-3</v>
+        <v>5.7340912069569095E-4</v>
       </c>
       <c r="D28" s="2">
-        <v>6.3628365008279297E-3</v>
+        <v>5.7523057440225496E-4</v>
       </c>
       <c r="E28" s="2">
         <v>91</v>
@@ -5425,13 +3031,13 @@
         <v>64</v>
       </c>
       <c r="B29" s="2">
-        <v>67.171875</v>
+        <v>64.905708312988196</v>
       </c>
       <c r="C29" s="2">
-        <v>6.46245514477292E-3</v>
+        <v>5.6885961322908297E-4</v>
       </c>
       <c r="D29" s="2">
-        <v>6.3969811840735797E-3</v>
+        <v>5.7300958230010795E-4</v>
       </c>
       <c r="E29" s="2">
         <v>92</v>
@@ -5445,13 +3051,13 @@
         <v>128</v>
       </c>
       <c r="B30">
-        <v>134.34375</v>
+        <v>129.81141662597599</v>
       </c>
       <c r="C30">
-        <v>6.4443249379595099E-3</v>
+        <v>5.6827455968430499E-4</v>
       </c>
       <c r="D30">
-        <v>6.4859393924633201E-3</v>
+        <v>5.7056505630618702E-4</v>
       </c>
       <c r="E30">
         <v>93</v>
@@ -5465,13 +3071,13 @@
         <v>128</v>
       </c>
       <c r="B31">
-        <v>134.34375</v>
+        <v>129.81141662597599</v>
       </c>
       <c r="C31">
-        <v>6.5046323277056202E-3</v>
+        <v>5.6999718340861895E-4</v>
       </c>
       <c r="D31">
-        <v>6.4758027140843699E-3</v>
+        <v>5.7594825234703396E-4</v>
       </c>
       <c r="E31">
         <v>94</v>
@@ -5485,13 +3091,13 @@
         <v>128</v>
       </c>
       <c r="B32">
-        <v>134.34375</v>
+        <v>129.81141662597599</v>
       </c>
       <c r="C32">
-        <v>6.4837435223162104E-3</v>
+        <v>5.7726450277143697E-4</v>
       </c>
       <c r="D32">
-        <v>6.3650842825386704E-3</v>
+        <v>5.7969049370478604E-4</v>
       </c>
       <c r="E32">
         <v>95</v>
@@ -5505,13 +3111,13 @@
         <v>128</v>
       </c>
       <c r="B33">
-        <v>134.34375</v>
+        <v>129.81141662597599</v>
       </c>
       <c r="C33">
-        <v>6.47899924218654E-3</v>
+        <v>5.7288877841447103E-4</v>
       </c>
       <c r="D33">
-        <v>6.3965494962448704E-3</v>
+        <v>5.7711468225362501E-4</v>
       </c>
       <c r="E33">
         <v>96</v>
@@ -7102,8 +4708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72D6121D-E5CF-1A48-8933-0BAD4C1790A9}">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7148,19 +4754,16 @@
         <v>1E-8</v>
       </c>
       <c r="B2" s="2">
-        <v>6.4922216882308302E-3</v>
+        <v>6.0041419600613197E-4</v>
       </c>
       <c r="C2" s="2">
-        <v>6.5654593549589503E-3</v>
+        <v>6.0144016455489896E-4</v>
       </c>
       <c r="D2" s="2">
-        <v>353</v>
+        <v>161</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
-      </c>
-      <c r="F2">
-        <v>40.999000000000002</v>
       </c>
       <c r="J2" s="3">
         <f ca="1">AVERAGE(OFFSET(A$2,(ROW()-2)*4,0,4,1))</f>
@@ -7168,15 +4771,15 @@
       </c>
       <c r="K2" s="7">
         <f t="shared" ref="K2:N9" ca="1" si="0">AVERAGE(OFFSET(B$2,(ROW()-2)*4,0,4,1))</f>
-        <v>6.5612546723956833E-3</v>
+        <v>6.1113358438991496E-4</v>
       </c>
       <c r="L2" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>6.5286292055463198E-3</v>
+        <v>6.1082911366302454E-4</v>
       </c>
       <c r="M2" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>354.5</v>
+        <v>162.5</v>
       </c>
       <c r="N2" s="3">
         <f t="shared" ca="1" si="0"/>
@@ -7188,19 +4791,16 @@
         <v>1E-8</v>
       </c>
       <c r="B3" s="2">
-        <v>6.6077931324640899E-3</v>
+        <v>6.2069915727738702E-4</v>
       </c>
       <c r="C3" s="2">
-        <v>6.5619135523175302E-3</v>
+        <v>6.2034941577124097E-4</v>
       </c>
       <c r="D3" s="2">
-        <v>354</v>
+        <v>162</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
-      </c>
-      <c r="F3">
-        <v>33.923000000000002</v>
       </c>
       <c r="J3" s="5">
         <f t="shared" ref="J3:J9" ca="1" si="1">AVERAGE(OFFSET(A$2,(ROW()-2)*4,0,4,1))</f>
@@ -7208,15 +4808,15 @@
       </c>
       <c r="K3" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.5917621050029952E-3</v>
+        <v>6.1009303094988494E-4</v>
       </c>
       <c r="L3" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.559533427439708E-3</v>
+        <v>6.1235278471425693E-4</v>
       </c>
       <c r="M3" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>358.5</v>
+        <v>166.5</v>
       </c>
       <c r="N3" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -7228,19 +4828,16 @@
         <v>1E-8</v>
       </c>
       <c r="B4" s="2">
-        <v>6.5677869021892503E-3</v>
+        <v>6.1442296355035798E-4</v>
       </c>
       <c r="C4" s="2">
-        <v>6.4744272150416299E-3</v>
+        <v>6.1359601468726399E-4</v>
       </c>
       <c r="D4" s="2">
-        <v>355</v>
+        <v>163</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
-      </c>
-      <c r="F4">
-        <v>36.770000000000003</v>
       </c>
       <c r="J4" s="5">
         <f t="shared" ca="1" si="1"/>
@@ -7248,15 +4845,15 @@
       </c>
       <c r="K4" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.5702606653794595E-3</v>
+        <v>6.1089777218986706E-4</v>
       </c>
       <c r="L4" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.5420259959361599E-3</v>
+        <v>6.1244837885375417E-4</v>
       </c>
       <c r="M4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>362.5</v>
+        <v>170.5</v>
       </c>
       <c r="N4" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -7268,19 +4865,16 @@
         <v>1E-8</v>
       </c>
       <c r="B5" s="2">
-        <v>6.5772169666985601E-3</v>
+        <v>6.0899802072578299E-4</v>
       </c>
       <c r="C5" s="2">
-        <v>6.5127166998671703E-3</v>
+        <v>6.0793085963869401E-4</v>
       </c>
       <c r="D5" s="2">
-        <v>356</v>
+        <v>164</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
-      </c>
-      <c r="F5">
-        <v>44.238999999999997</v>
       </c>
       <c r="J5" s="5">
         <f t="shared" ca="1" si="1"/>
@@ -7288,15 +4882,15 @@
       </c>
       <c r="K5" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.5817417055368376E-3</v>
+        <v>6.1374124696037392E-4</v>
       </c>
       <c r="L5" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.556874308289282E-3</v>
+        <v>6.1528938838922072E-4</v>
       </c>
       <c r="M5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>366.5</v>
+        <v>174.5</v>
       </c>
       <c r="N5" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -7308,13 +4902,13 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B6" s="4">
-        <v>6.4915962815284703E-3</v>
+        <v>6.0671953804695999E-4</v>
       </c>
       <c r="C6" s="4">
-        <v>6.5653700222994401E-3</v>
+        <v>6.1044584024029795E-4</v>
       </c>
       <c r="D6" s="4">
-        <v>357</v>
+        <v>165</v>
       </c>
       <c r="E6" s="4">
         <v>1</v>
@@ -7326,15 +4920,15 @@
       </c>
       <c r="K6" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.6497503680487419E-3</v>
+        <v>6.6954505342799219E-4</v>
       </c>
       <c r="L6" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.6127846094264434E-3</v>
+        <v>6.6713293075873394E-4</v>
       </c>
       <c r="M6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>370.5</v>
+        <v>178.5</v>
       </c>
       <c r="N6" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -7346,13 +4940,13 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B7" s="4">
-        <v>6.6280786208808397E-3</v>
+        <v>6.1102821717868498E-4</v>
       </c>
       <c r="C7" s="4">
-        <v>6.5899452917832597E-3</v>
+        <v>6.1675184076862705E-4</v>
       </c>
       <c r="D7" s="4">
-        <v>358</v>
+        <v>166</v>
       </c>
       <c r="E7" s="4">
         <v>1</v>
@@ -7364,15 +4958,15 @@
       </c>
       <c r="K7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>7.1682701483368827E-3</v>
+        <v>9.7733107005809833E-4</v>
       </c>
       <c r="L7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>7.1464709496680372E-3</v>
+        <v>9.6105509750624E-4</v>
       </c>
       <c r="M7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>374.5</v>
+        <v>182.5</v>
       </c>
       <c r="N7" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -7384,13 +4978,13 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B8" s="4">
-        <v>6.5947839344541199E-3</v>
+        <v>6.1980338537650603E-4</v>
       </c>
       <c r="C8" s="4">
-        <v>6.4921774653757501E-3</v>
+        <v>6.1879554853493395E-4</v>
       </c>
       <c r="D8" s="4">
-        <v>359</v>
+        <v>167</v>
       </c>
       <c r="E8" s="4">
         <v>1</v>
@@ -7402,15 +4996,15 @@
       </c>
       <c r="K8" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3523972719286799E-2</v>
+        <v>5.4788148409678095E-3</v>
       </c>
       <c r="L8" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3514298399504051E-2</v>
+        <v>5.2534477532081222E-3</v>
       </c>
       <c r="M8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>378.5</v>
+        <v>186.5</v>
       </c>
       <c r="N8" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -7422,13 +5016,13 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B9" s="4">
-        <v>6.6525895831485498E-3</v>
+        <v>6.0282098319738896E-4</v>
       </c>
       <c r="C9" s="4">
-        <v>6.5906409303003802E-3</v>
+        <v>6.0341790931316901E-4</v>
       </c>
       <c r="D9" s="4">
-        <v>360</v>
+        <v>168</v>
       </c>
       <c r="E9" s="4">
         <v>1</v>
@@ -7440,15 +5034,15 @@
       </c>
       <c r="K9" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>3.0138972008551157</v>
+        <v>0.95775334369633824</v>
       </c>
       <c r="L9" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>2.9316605888009848</v>
+        <v>0.93775767128352272</v>
       </c>
       <c r="M9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>382.5</v>
+        <v>190.5</v>
       </c>
       <c r="N9" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -7460,20 +5054,20 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B10" s="4">
-        <v>6.4669582520921996E-3</v>
+        <v>6.0882785545675203E-4</v>
       </c>
       <c r="C10" s="4">
-        <v>6.5365784375512196E-3</v>
+        <v>6.1045092572282295E-4</v>
       </c>
       <c r="D10" s="4">
-        <v>361</v>
+        <v>169</v>
       </c>
       <c r="E10" s="4">
         <v>1</v>
       </c>
       <c r="L10">
         <f ca="1">MIN(L2:L9)</f>
-        <v>6.5286292055463198E-3</v>
+        <v>6.1082911366302454E-4</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -7481,13 +5075,13 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B11" s="4">
-        <v>6.6387108638882603E-3</v>
+        <v>6.1842446837252004E-4</v>
       </c>
       <c r="C11" s="4">
-        <v>6.6282110922831101E-3</v>
+        <v>6.2343241638099798E-4</v>
       </c>
       <c r="D11" s="4">
-        <v>362</v>
+        <v>170</v>
       </c>
       <c r="E11" s="4">
         <v>1</v>
@@ -7498,13 +5092,13 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B12" s="4">
-        <v>6.55908660963177E-3</v>
+        <v>6.1882309581404605E-4</v>
       </c>
       <c r="C12" s="4">
-        <v>6.4612504966715502E-3</v>
+        <v>6.1897190786318204E-4</v>
       </c>
       <c r="D12" s="4">
-        <v>363</v>
+        <v>171</v>
       </c>
       <c r="E12" s="4">
         <v>1</v>
@@ -7515,13 +5109,13 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B13" s="4">
-        <v>6.6162869359056098E-3</v>
+        <v>5.9751566911615003E-4</v>
       </c>
       <c r="C13" s="4">
-        <v>6.5420639572387604E-3</v>
+        <v>5.9693826544801403E-4</v>
       </c>
       <c r="D13" s="4">
-        <v>364</v>
+        <v>172</v>
       </c>
       <c r="E13" s="4">
         <v>1</v>
@@ -7532,13 +5126,13 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B14">
-        <v>6.5072143624226196E-3</v>
+        <v>6.1082480912829501E-4</v>
       </c>
       <c r="C14">
-        <v>6.5681120737435903E-3</v>
+        <v>6.1503354732368905E-4</v>
       </c>
       <c r="D14">
-        <v>365</v>
+        <v>173</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -7549,13 +5143,13 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B15">
-        <v>6.6488646219174004E-3</v>
+        <v>6.1185607839468401E-4</v>
       </c>
       <c r="C15">
-        <v>6.6260660334708198E-3</v>
+        <v>6.1564046103190903E-4</v>
       </c>
       <c r="D15">
-        <v>366</v>
+        <v>174</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -7566,13 +5160,13 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B16">
-        <v>6.5595739819109397E-3</v>
+        <v>6.2753468000449196E-4</v>
       </c>
       <c r="C16">
-        <v>6.4623216761553496E-3</v>
+        <v>6.2554147762228804E-4</v>
       </c>
       <c r="D16">
-        <v>367</v>
+        <v>175</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -7583,13 +5177,13 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B17">
-        <v>6.61131385589639E-3</v>
+        <v>6.0474942031402503E-4</v>
       </c>
       <c r="C17">
-        <v>6.57099744978737E-3</v>
+        <v>6.04942067578997E-4</v>
       </c>
       <c r="D17">
-        <v>368</v>
+        <v>176</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -7600,13 +5194,13 @@
         <v>1E-4</v>
       </c>
       <c r="B18">
-        <v>6.5528181679546799E-3</v>
+        <v>6.6319399226955598E-4</v>
       </c>
       <c r="C18">
-        <v>6.6153147416387397E-3</v>
+        <v>6.7641262518558303E-4</v>
       </c>
       <c r="D18">
-        <v>369</v>
+        <v>177</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -7617,13 +5211,13 @@
         <v>1E-4</v>
       </c>
       <c r="B19">
-        <v>6.6898381821811201E-3</v>
+        <v>6.58737985892839E-4</v>
       </c>
       <c r="C19">
-        <v>6.6436659643783202E-3</v>
+        <v>6.5660282018383496E-4</v>
       </c>
       <c r="D19">
-        <v>370</v>
+        <v>178</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -7634,13 +5228,13 @@
         <v>1E-4</v>
       </c>
       <c r="B20">
-        <v>6.6581434930364199E-3</v>
+        <v>6.8931868084666601E-4</v>
       </c>
       <c r="C20">
-        <v>6.5674526874530802E-3</v>
+        <v>6.7292798402771904E-4</v>
       </c>
       <c r="D20">
-        <v>371</v>
+        <v>179</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -7651,13 +5245,13 @@
         <v>1E-4</v>
       </c>
       <c r="B21">
-        <v>6.6982016290227497E-3</v>
+        <v>6.6692955470290798E-4</v>
       </c>
       <c r="C21">
-        <v>6.6247050442356297E-3</v>
+        <v>6.6258829363779895E-4</v>
       </c>
       <c r="D21">
-        <v>372</v>
+        <v>180</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -7668,13 +5262,13 @@
         <v>1E-3</v>
       </c>
       <c r="B22">
-        <v>7.1441543189187801E-3</v>
+        <v>9.31884528891408E-4</v>
       </c>
       <c r="C22">
-        <v>7.3928796448447598E-3</v>
+        <v>9.4429495852036403E-4</v>
       </c>
       <c r="D22">
-        <v>373</v>
+        <v>181</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -7685,13 +5279,13 @@
         <v>1E-3</v>
       </c>
       <c r="B23">
-        <v>7.19645212466518E-3</v>
+        <v>9.88194873165869E-4</v>
       </c>
       <c r="C23">
-        <v>7.0948700985296598E-3</v>
+        <v>1.0055391785671101E-3</v>
       </c>
       <c r="D23">
-        <v>374</v>
+        <v>182</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -7702,13 +5296,13 @@
         <v>1E-3</v>
       </c>
       <c r="B24">
-        <v>7.0939090810716102E-3</v>
+        <v>9.8992244564482298E-4</v>
       </c>
       <c r="C24">
-        <v>7.0097275236819601E-3</v>
+        <v>9.3182174923812098E-4</v>
       </c>
       <c r="D24">
-        <v>375</v>
+        <v>183</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -7719,13 +5313,13 @@
         <v>1E-3</v>
       </c>
       <c r="B25">
-        <v>7.2385650686919599E-3</v>
+        <v>9.9932243253029302E-4</v>
       </c>
       <c r="C25">
-        <v>7.0884065316157699E-3</v>
+        <v>9.6256450369936505E-4</v>
       </c>
       <c r="D25">
-        <v>376</v>
+        <v>184</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -7736,13 +5330,13 @@
         <v>0.01</v>
       </c>
       <c r="B26">
-        <v>1.39660050471623E-2</v>
+        <v>5.5974833206582503E-3</v>
       </c>
       <c r="C26">
-        <v>1.50185203912885E-2</v>
+        <v>5.79402166778959E-3</v>
       </c>
       <c r="D26">
-        <v>377</v>
+        <v>185</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -7753,13 +5347,13 @@
         <v>0.01</v>
       </c>
       <c r="B27">
-        <v>1.4105211627980001E-2</v>
+        <v>5.09926428388301E-3</v>
       </c>
       <c r="C27">
-        <v>1.29917985363368E-2</v>
+        <v>4.9462787826756397E-3</v>
       </c>
       <c r="D27">
-        <v>378</v>
+        <v>186</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -7770,13 +5364,13 @@
         <v>0.01</v>
       </c>
       <c r="B28">
-        <v>1.3714472901076E-2</v>
+        <v>5.4447425207149597E-3</v>
       </c>
       <c r="C28">
-        <v>1.4213206058249101E-2</v>
+        <v>5.0669391156297197E-3</v>
       </c>
       <c r="D28">
-        <v>379</v>
+        <v>187</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -7787,13 +5381,13 @@
         <v>0.01</v>
       </c>
       <c r="B29">
-        <v>1.23102013009289E-2</v>
+        <v>5.7737692386150199E-3</v>
       </c>
       <c r="C29">
-        <v>1.1833668612141799E-2</v>
+        <v>5.2065514467375404E-3</v>
       </c>
       <c r="D29">
-        <v>380</v>
+        <v>188</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -7804,13 +5398,13 @@
         <v>0.1</v>
       </c>
       <c r="B30">
-        <v>0.20876754343509599</v>
+        <v>7.9303193387191398E-2</v>
       </c>
       <c r="C30">
-        <v>0.17749932249809799</v>
+        <v>7.6216881919019597E-2</v>
       </c>
       <c r="D30">
-        <v>381</v>
+        <v>189</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -7821,13 +5415,13 @@
         <v>0.1</v>
       </c>
       <c r="B31">
-        <v>3.88954202334086</v>
+        <v>3.6042677644304701</v>
       </c>
       <c r="C31">
-        <v>3.6068199238878602</v>
+        <v>3.5316734268980201</v>
       </c>
       <c r="D31">
-        <v>382</v>
+        <v>190</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -7838,13 +5432,13 @@
         <v>0.1</v>
       </c>
       <c r="B32">
-        <v>7.7701647783915204</v>
+        <v>7.6917742387837398E-2</v>
       </c>
       <c r="C32">
-        <v>7.7850124582331199</v>
+        <v>7.2686749949770105E-2</v>
       </c>
       <c r="D32">
-        <v>383</v>
+        <v>191</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -7855,13 +5449,13 @@
         <v>0.1</v>
       </c>
       <c r="B33">
-        <v>0.187114458252986</v>
+        <v>7.0524674579854202E-2</v>
       </c>
       <c r="C33">
-        <v>0.15731065058486199</v>
+        <v>7.0453626367281003E-2</v>
       </c>
       <c r="D33">
-        <v>384</v>
+        <v>192</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -9448,8 +7042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55E0C2B-C766-7C43-9790-D95441714A70}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/eg2.xlsx
+++ b/eg2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiqing/Desktop/Lipschitz-System-ID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB34466-6EBD-2543-A6CA-3B3CEE1DD2D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC38064C-59C4-0E42-AF04-94E51159F9F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="34560" windowHeight="19800" activeTab="8" xr2:uid="{624D5C9E-D399-6E42-9BAD-9829FF00FD61}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="34560" windowHeight="19800" activeTab="2" xr2:uid="{624D5C9E-D399-6E42-9BAD-9829FF00FD61}"/>
   </bookViews>
   <sheets>
     <sheet name="Ours 0.25" sheetId="1" r:id="rId1"/>
@@ -468,7 +468,7 @@
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:F25"/>
+      <selection activeCell="A2" sqref="A2:G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -516,13 +516,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1.049560546875</v>
+        <v>1.0141516923904399</v>
       </c>
       <c r="C2">
-        <v>0.35985427032759798</v>
+        <v>0.18607116125102299</v>
       </c>
       <c r="D2">
-        <v>0.37112422461839401</v>
+        <v>0.184718117680189</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -536,15 +536,15 @@
       </c>
       <c r="K2">
         <f t="shared" ref="K2:O9" ca="1" si="0">AVERAGE(OFFSET(B$2,(ROW()-2)*4,0,4,1))</f>
-        <v>1.049560546875</v>
+        <v>1.0141516923904399</v>
       </c>
       <c r="L2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36173430929317074</v>
+        <v>0.18926323423126923</v>
       </c>
       <c r="M2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3540092154623975</v>
+        <v>0.18589712568681677</v>
       </c>
       <c r="N2">
         <f t="shared" ca="1" si="0"/>
@@ -560,13 +560,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.049560546875</v>
+        <v>1.0141516923904399</v>
       </c>
       <c r="C3">
-        <v>0.35020549119786998</v>
+        <v>0.192502060940243</v>
       </c>
       <c r="D3">
-        <v>0.33883727119958101</v>
+        <v>0.19042851628278701</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -580,15 +580,15 @@
       </c>
       <c r="K3">
         <f t="shared" ca="1" si="0"/>
-        <v>2.09912109375</v>
+        <v>2.0283033847808798</v>
       </c>
       <c r="L3">
         <f t="shared" ca="1" si="0"/>
-        <v>4.8295574168615123E-2</v>
+        <v>3.9937508279866175E-3</v>
       </c>
       <c r="M3">
         <f t="shared" ca="1" si="0"/>
-        <v>4.6246488631871349E-2</v>
+        <v>3.7270914932069276E-3</v>
       </c>
       <c r="N3">
         <f t="shared" ca="1" si="0"/>
@@ -604,13 +604,13 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>1.049560546875</v>
+        <v>1.0141516923904399</v>
       </c>
       <c r="C4">
-        <v>0.365690114174751</v>
+        <v>0.18973795704121801</v>
       </c>
       <c r="D4">
-        <v>0.364059630226581</v>
+        <v>0.183686470226296</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -624,15 +624,15 @@
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="0"/>
-        <v>4.1982421875</v>
+        <v>4.0566067695617596</v>
       </c>
       <c r="L4">
         <f t="shared" ca="1" si="0"/>
-        <v>9.5804413703785424E-3</v>
+        <v>6.72625229234877E-4</v>
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="0"/>
-        <v>9.5752609715341018E-3</v>
+        <v>6.7871307925637431E-4</v>
       </c>
       <c r="N4">
         <f t="shared" ca="1" si="0"/>
@@ -648,13 +648,13 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>1.049560546875</v>
+        <v>1.0141516923904399</v>
       </c>
       <c r="C5">
-        <v>0.37118736147246401</v>
+        <v>0.18874175769259299</v>
       </c>
       <c r="D5">
-        <v>0.34201573580503403</v>
+        <v>0.184755398557995</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -668,15 +668,15 @@
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="0"/>
-        <v>8.396484375</v>
+        <v>8.1132135391235298</v>
       </c>
       <c r="L5">
         <f t="shared" ca="1" si="0"/>
-        <v>6.5446581364549793E-3</v>
+        <v>6.0028130487035827E-4</v>
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="0"/>
-        <v>6.6951381493399395E-3</v>
+        <v>6.2107110743626101E-4</v>
       </c>
       <c r="N5">
         <f t="shared" ca="1" si="0"/>
@@ -692,13 +692,13 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>2.09912109375</v>
+        <v>2.0283033847808798</v>
       </c>
       <c r="C6">
-        <v>4.8434798784078401E-2</v>
+        <v>4.1584230142311602E-3</v>
       </c>
       <c r="D6">
-        <v>5.0236872620286102E-2</v>
+        <v>4.0554738129084901E-3</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -712,15 +712,15 @@
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="0"/>
-        <v>16.79296875</v>
+        <v>16.226427078246999</v>
       </c>
       <c r="L6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.4766424066545602E-3</v>
+        <v>5.9529976797935869E-4</v>
       </c>
       <c r="M6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.6431610525506399E-3</v>
+        <v>6.1859906994834275E-4</v>
       </c>
       <c r="N6">
         <f t="shared" ca="1" si="0"/>
@@ -736,13 +736,13 @@
         <v>2</v>
       </c>
       <c r="B7">
-        <v>2.09912109375</v>
+        <v>2.0283033847808798</v>
       </c>
       <c r="C7">
-        <v>4.5155914678694002E-2</v>
+        <v>4.1211588074286203E-3</v>
       </c>
       <c r="D7">
-        <v>4.1087900813510402E-2</v>
+        <v>3.7263929042174399E-3</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -756,15 +756,15 @@
       </c>
       <c r="K7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>33.5859375</v>
+        <v>32.452854156494098</v>
       </c>
       <c r="L7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>6.4632449871265948E-3</v>
+        <v>6.0304742901452009E-4</v>
       </c>
       <c r="M7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>6.6195386771528749E-3</v>
+        <v>6.2509961352125653E-4</v>
       </c>
       <c r="N7" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -780,13 +780,13 @@
         <v>2</v>
       </c>
       <c r="B8">
-        <v>2.09912109375</v>
+        <v>2.0283033847808798</v>
       </c>
       <c r="C8">
-        <v>4.8877926384831898E-2</v>
+        <v>4.00719053237171E-3</v>
       </c>
       <c r="D8">
-        <v>4.9763337084825297E-2</v>
+        <v>3.5394901406450401E-3</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -800,15 +800,15 @@
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="0"/>
-        <v>67.171875</v>
+        <v>64.905708312988196</v>
       </c>
       <c r="L8">
         <f t="shared" ca="1" si="0"/>
-        <v>6.4633176810643097E-3</v>
+        <v>6.0729913162023571E-4</v>
       </c>
       <c r="M8">
         <f t="shared" ca="1" si="0"/>
-        <v>6.6329253542712517E-3</v>
+        <v>6.3115818426562071E-4</v>
       </c>
       <c r="N8">
         <f t="shared" ca="1" si="0"/>
@@ -824,13 +824,13 @@
         <v>2</v>
       </c>
       <c r="B9">
-        <v>2.09912109375</v>
+        <v>2.0283033847808798</v>
       </c>
       <c r="C9">
-        <v>5.0713656826856197E-2</v>
+        <v>3.6882309579149798E-3</v>
       </c>
       <c r="D9">
-        <v>4.3897844008863603E-2</v>
+        <v>3.5870091150567401E-3</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -844,15 +844,15 @@
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="0"/>
-        <v>134.34375</v>
+        <v>129.81141662597599</v>
       </c>
       <c r="L9">
         <f t="shared" ca="1" si="0"/>
-        <v>6.4797801513006795E-3</v>
+        <v>6.2228539502270095E-4</v>
       </c>
       <c r="M9">
         <f t="shared" ca="1" si="0"/>
-        <v>6.649832886475273E-3</v>
+        <v>6.4855192009280493E-4</v>
       </c>
       <c r="N9">
         <f t="shared" ca="1" si="0"/>
@@ -868,13 +868,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="4">
-        <v>4.1982421875</v>
+        <v>4.0566067695617596</v>
       </c>
       <c r="C10" s="4">
-        <v>9.6906630589844705E-3</v>
+        <v>7.1672668553150699E-4</v>
       </c>
       <c r="D10" s="4">
-        <v>9.9024173872981295E-3</v>
+        <v>7.2313637806559498E-4</v>
       </c>
       <c r="E10" s="4">
         <v>9</v>
@@ -884,7 +884,7 @@
       </c>
       <c r="M10">
         <f ca="1">MIN(M2:M9)</f>
-        <v>6.6195386771528749E-3</v>
+        <v>6.1859906994834275E-4</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -892,13 +892,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="4">
-        <v>4.1982421875</v>
+        <v>4.0566067695617596</v>
       </c>
       <c r="C11" s="4">
-        <v>9.6781651955097896E-3</v>
+        <v>6.4848862228176997E-4</v>
       </c>
       <c r="D11" s="4">
-        <v>8.6721959920164106E-3</v>
+        <v>6.4607766316325001E-4</v>
       </c>
       <c r="E11" s="4">
         <v>10</v>
@@ -912,13 +912,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="4">
-        <v>4.1982421875</v>
+        <v>4.0566067695617596</v>
       </c>
       <c r="C12" s="4">
-        <v>9.4838487876063894E-3</v>
+        <v>6.6485820790612195E-4</v>
       </c>
       <c r="D12" s="4">
-        <v>1.0620898918862901E-2</v>
+        <v>6.5726189784055399E-4</v>
       </c>
       <c r="E12" s="4">
         <v>11</v>
@@ -932,13 +932,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="4">
-        <v>4.1982421875</v>
+        <v>4.0566067695617596</v>
       </c>
       <c r="C13" s="4">
-        <v>9.46908843941352E-3</v>
+        <v>6.60427401220109E-4</v>
       </c>
       <c r="D13" s="4">
-        <v>9.1055315879589697E-3</v>
+        <v>6.8837637795609804E-4</v>
       </c>
       <c r="E13" s="4">
         <v>12</v>
@@ -952,13 +952,13 @@
         <v>8</v>
       </c>
       <c r="B14" s="4">
-        <v>8.396484375</v>
+        <v>8.1132135391235298</v>
       </c>
       <c r="C14" s="4">
-        <v>6.5342452317634697E-3</v>
+        <v>6.09070509628234E-4</v>
       </c>
       <c r="D14" s="4">
-        <v>6.6969626325559103E-3</v>
+        <v>6.3173906528390901E-4</v>
       </c>
       <c r="E14" s="4">
         <v>13</v>
@@ -972,13 +972,13 @@
         <v>8</v>
       </c>
       <c r="B15" s="4">
-        <v>8.396484375</v>
+        <v>8.1132135391235298</v>
       </c>
       <c r="C15" s="4">
-        <v>6.6478074419292297E-3</v>
+        <v>5.9003636179456702E-4</v>
       </c>
       <c r="D15" s="4">
-        <v>6.6411787535044101E-3</v>
+        <v>6.0812584761494996E-4</v>
       </c>
       <c r="E15" s="4">
         <v>14</v>
@@ -992,13 +992,13 @@
         <v>8</v>
       </c>
       <c r="B16" s="4">
-        <v>8.396484375</v>
+        <v>8.1132135391235298</v>
       </c>
       <c r="C16" s="4">
-        <v>6.48037030639008E-3</v>
+        <v>6.0570075886130705E-4</v>
       </c>
       <c r="D16" s="4">
-        <v>6.8452541042673997E-3</v>
+        <v>6.25917058161301E-4</v>
       </c>
       <c r="E16" s="4">
         <v>15</v>
@@ -1012,13 +1012,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="4">
-        <v>8.396484375</v>
+        <v>8.1132135391235298</v>
       </c>
       <c r="C17" s="4">
-        <v>6.5162095657371397E-3</v>
+        <v>5.9631758919732501E-4</v>
       </c>
       <c r="D17" s="4">
-        <v>6.5971571070320397E-3</v>
+        <v>6.1850245868488396E-4</v>
       </c>
       <c r="E17" s="4">
         <v>16</v>
@@ -1032,13 +1032,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.79296875</v>
+        <v>16.226427078246999</v>
       </c>
       <c r="C18">
-        <v>6.4358774057411104E-3</v>
+        <v>5.9901985486986902E-4</v>
       </c>
       <c r="D18">
-        <v>6.6191605589491203E-3</v>
+        <v>6.2299411928386597E-4</v>
       </c>
       <c r="E18">
         <v>17</v>
@@ -1052,13 +1052,13 @@
         <v>16</v>
       </c>
       <c r="B19">
-        <v>16.79296875</v>
+        <v>16.226427078246999</v>
       </c>
       <c r="C19">
-        <v>6.5582064574861701E-3</v>
+        <v>5.9192208243744797E-4</v>
       </c>
       <c r="D19">
-        <v>6.6228768778370398E-3</v>
+        <v>6.13573139076525E-4</v>
       </c>
       <c r="E19">
         <v>18</v>
@@ -1072,13 +1072,13 @@
         <v>16</v>
       </c>
       <c r="B20">
-        <v>16.79296875</v>
+        <v>16.226427078246999</v>
       </c>
       <c r="C20">
-        <v>6.4336438019304198E-3</v>
+        <v>5.9256294768584704E-4</v>
       </c>
       <c r="D20">
-        <v>6.7524426032174699E-3</v>
+        <v>6.1683567078292003E-4</v>
       </c>
       <c r="E20">
         <v>19</v>
@@ -1092,13 +1092,13 @@
         <v>16</v>
       </c>
       <c r="B21">
-        <v>16.79296875</v>
+        <v>16.226427078246999</v>
       </c>
       <c r="C21">
-        <v>6.4788419614605396E-3</v>
+        <v>5.9769418692427105E-4</v>
       </c>
       <c r="D21">
-        <v>6.5781641701989297E-3</v>
+        <v>6.2099335065006001E-4</v>
       </c>
       <c r="E21">
         <v>20</v>
@@ -1112,13 +1112,13 @@
         <v>32</v>
       </c>
       <c r="B22" s="2">
-        <v>33.5859375</v>
+        <v>32.452854156494098</v>
       </c>
       <c r="C22" s="2">
-        <v>6.41559380443489E-3</v>
+        <v>6.0710444429204003E-4</v>
       </c>
       <c r="D22" s="2">
-        <v>6.6294666835443701E-3</v>
+        <v>6.3238482601624298E-4</v>
       </c>
       <c r="E22" s="2">
         <v>21</v>
@@ -1132,13 +1132,13 @@
         <v>32</v>
       </c>
       <c r="B23" s="2">
-        <v>33.5859375</v>
+        <v>32.452854156494098</v>
       </c>
       <c r="C23" s="2">
-        <v>6.5462148768153598E-3</v>
+        <v>5.9535246856405198E-4</v>
       </c>
       <c r="D23" s="2">
-        <v>6.6104744352955096E-3</v>
+        <v>6.1688733282762602E-4</v>
       </c>
       <c r="E23" s="2">
         <v>22</v>
@@ -1152,13 +1152,13 @@
         <v>32</v>
       </c>
       <c r="B24" s="2">
-        <v>33.5859375</v>
+        <v>32.452854156494098</v>
       </c>
       <c r="C24" s="2">
-        <v>6.4515651233414996E-3</v>
+        <v>5.9943532028657205E-4</v>
       </c>
       <c r="D24" s="2">
-        <v>6.6692417814455699E-3</v>
+        <v>6.2136158164818997E-4</v>
       </c>
       <c r="E24" s="2">
         <v>23</v>
@@ -1172,13 +1172,13 @@
         <v>32</v>
       </c>
       <c r="B25" s="2">
-        <v>33.5859375</v>
+        <v>32.452854156494098</v>
       </c>
       <c r="C25" s="2">
-        <v>6.4396061439146298E-3</v>
+        <v>6.1029748291541598E-4</v>
       </c>
       <c r="D25" s="2">
-        <v>6.56897180832605E-3</v>
+        <v>6.2976471359296705E-4</v>
       </c>
       <c r="E25" s="2">
         <v>24</v>
@@ -1192,13 +1192,13 @@
         <v>64</v>
       </c>
       <c r="B26">
-        <v>67.171875</v>
+        <v>64.905708312988196</v>
       </c>
       <c r="C26">
-        <v>6.43124944094489E-3</v>
+        <v>6.0667748066579104E-4</v>
       </c>
       <c r="D26">
-        <v>6.64281991231156E-3</v>
+        <v>6.3595885272524398E-4</v>
       </c>
       <c r="E26">
         <v>25</v>
@@ -1212,13 +1212,13 @@
         <v>64</v>
       </c>
       <c r="B27">
-        <v>67.171875</v>
+        <v>64.905708312988196</v>
       </c>
       <c r="C27">
-        <v>6.5012779928981601E-3</v>
+        <v>6.0645785821900403E-4</v>
       </c>
       <c r="D27">
-        <v>6.6074453234830997E-3</v>
+        <v>6.3013206214099205E-4</v>
       </c>
       <c r="E27">
         <v>26</v>
@@ -1232,13 +1232,13 @@
         <v>64</v>
       </c>
       <c r="B28">
-        <v>67.171875</v>
+        <v>64.905708312988196</v>
       </c>
       <c r="C28">
-        <v>6.4804342753709597E-3</v>
+        <v>6.0292779806263297E-4</v>
       </c>
       <c r="D28">
-        <v>6.7287567864231599E-3</v>
+        <v>6.1922435888159505E-4</v>
       </c>
       <c r="E28">
         <v>27</v>
@@ -1252,13 +1252,13 @@
         <v>64</v>
       </c>
       <c r="B29">
-        <v>67.171875</v>
+        <v>64.905708312988196</v>
       </c>
       <c r="C29">
-        <v>6.4403090150432296E-3</v>
+        <v>6.1313338953351501E-4</v>
       </c>
       <c r="D29">
-        <v>6.5526793948671898E-3</v>
+        <v>6.3931746331465198E-4</v>
       </c>
       <c r="E29">
         <v>28</v>
@@ -1272,13 +1272,13 @@
         <v>128</v>
       </c>
       <c r="B30">
-        <v>134.34375</v>
+        <v>129.81141662597599</v>
       </c>
       <c r="C30">
-        <v>6.4285258128446397E-3</v>
+        <v>6.1487482217105298E-4</v>
       </c>
       <c r="D30">
-        <v>6.6821220420063103E-3</v>
+        <v>6.4103841015032302E-4</v>
       </c>
       <c r="E30">
         <v>29</v>
@@ -1292,13 +1292,13 @@
         <v>128</v>
       </c>
       <c r="B31">
-        <v>134.34375</v>
+        <v>129.81141662597599</v>
       </c>
       <c r="C31">
-        <v>6.5317644906091503E-3</v>
+        <v>6.2065488847745697E-4</v>
       </c>
       <c r="D31">
-        <v>6.6609985858915302E-3</v>
+        <v>6.5081635652601999E-4</v>
       </c>
       <c r="E31">
         <v>30</v>
@@ -1312,13 +1312,13 @@
         <v>128</v>
       </c>
       <c r="B32">
-        <v>134.34375</v>
+        <v>129.81141662597599</v>
       </c>
       <c r="C32">
-        <v>6.5066263654289004E-3</v>
+        <v>6.2936692353654305E-4</v>
       </c>
       <c r="D32">
-        <v>6.7079865690717003E-3</v>
+        <v>6.5403590187483097E-4</v>
       </c>
       <c r="E32">
         <v>31</v>
@@ -1332,13 +1332,13 @@
         <v>128</v>
       </c>
       <c r="B33">
-        <v>134.34375</v>
+        <v>129.81141662597599</v>
       </c>
       <c r="C33">
-        <v>6.4522039363200303E-3</v>
+        <v>6.2424494590575101E-4</v>
       </c>
       <c r="D33">
-        <v>6.5482243489315504E-3</v>
+        <v>6.4831701182004595E-4</v>
       </c>
       <c r="E33">
         <v>32</v>
@@ -1358,7 +1358,7 @@
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="A2" sqref="A2:G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1406,13 +1406,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1.049560546875</v>
+        <v>1.0141516923904399</v>
       </c>
       <c r="C2">
-        <v>0.35454864720714802</v>
+        <v>0.18600010087987201</v>
       </c>
       <c r="D2">
-        <v>0.36894237900033899</v>
+        <v>0.184779522835083</v>
       </c>
       <c r="E2">
         <v>33</v>
@@ -1426,15 +1426,15 @@
       </c>
       <c r="K2">
         <f t="shared" ref="K2:O2" ca="1" si="0">AVERAGE(OFFSET(B$2,(ROW()-2)*4,0,4,1))</f>
-        <v>1.049560546875</v>
+        <v>1.0141516923904399</v>
       </c>
       <c r="L2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35795770674706079</v>
+        <v>0.18758798205245128</v>
       </c>
       <c r="M2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35070659822605998</v>
+        <v>0.18554691065383902</v>
       </c>
       <c r="N2">
         <f t="shared" ca="1" si="0"/>
@@ -1450,13 +1450,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.049560546875</v>
+        <v>1.0141516923904399</v>
       </c>
       <c r="C3">
-        <v>0.353373066938303</v>
+        <v>0.196120072668197</v>
       </c>
       <c r="D3">
-        <v>0.336753299103138</v>
+        <v>0.197722954851276</v>
       </c>
       <c r="E3">
         <v>34</v>
@@ -1470,15 +1470,15 @@
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K9" ca="1" si="2">AVERAGE(OFFSET(B$2,(ROW()-2)*4,0,4,1))</f>
-        <v>2.09912109375</v>
+        <v>2.0283033847808798</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L9" ca="1" si="3">AVERAGE(OFFSET(C$2,(ROW()-2)*4,0,4,1))</f>
-        <v>4.4201196655581469E-2</v>
+        <v>2.9151865806136996E-3</v>
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M9" ca="1" si="4">AVERAGE(OFFSET(D$2,(ROW()-2)*4,0,4,1))</f>
-        <v>4.258509971662125E-2</v>
+        <v>2.806546687937055E-3</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N9" ca="1" si="5">AVERAGE(OFFSET(E$2,(ROW()-2)*4,0,4,1))</f>
@@ -1494,13 +1494,13 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>1.049560546875</v>
+        <v>1.0141516923904399</v>
       </c>
       <c r="C4">
-        <v>0.35644289605478002</v>
+        <v>0.186060976607822</v>
       </c>
       <c r="D4">
-        <v>0.36115617162369601</v>
+        <v>0.17907262228007501</v>
       </c>
       <c r="E4">
         <v>35</v>
@@ -1514,15 +1514,15 @@
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="2"/>
-        <v>4.1982421875</v>
+        <v>4.0566067695617596</v>
       </c>
       <c r="L4">
         <f t="shared" ca="1" si="3"/>
-        <v>8.4037988265837551E-3</v>
+        <v>6.0739872675892202E-4</v>
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="4"/>
-        <v>8.1238969219254008E-3</v>
+        <v>6.1280712035576804E-4</v>
       </c>
       <c r="N4">
         <f t="shared" ca="1" si="5"/>
@@ -1538,13 +1538,13 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>1.049560546875</v>
+        <v>1.0141516923904399</v>
       </c>
       <c r="C5">
-        <v>0.367466216788012</v>
+        <v>0.18217077805391399</v>
       </c>
       <c r="D5">
-        <v>0.33597454317706699</v>
+        <v>0.18061254264892199</v>
       </c>
       <c r="E5">
         <v>36</v>
@@ -1558,15 +1558,15 @@
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="2"/>
-        <v>8.396484375</v>
+        <v>8.1132135391235298</v>
       </c>
       <c r="L5">
         <f t="shared" ca="1" si="3"/>
-        <v>6.4960932476753122E-3</v>
+        <v>5.8165187690207274E-4</v>
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="4"/>
-        <v>6.509931681261575E-3</v>
+        <v>5.922175280503783E-4</v>
       </c>
       <c r="N5">
         <f t="shared" ca="1" si="5"/>
@@ -1582,13 +1582,13 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>2.09912109375</v>
+        <v>2.0283033847808798</v>
       </c>
       <c r="C6">
-        <v>4.4468181594175801E-2</v>
+        <v>3.0148351935766799E-3</v>
       </c>
       <c r="D6">
-        <v>4.6804063304505698E-2</v>
+        <v>2.9119107974385598E-3</v>
       </c>
       <c r="E6">
         <v>37</v>
@@ -1602,15 +1602,15 @@
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="2"/>
-        <v>16.79296875</v>
+        <v>16.226427078246999</v>
       </c>
       <c r="L6">
         <f t="shared" ca="1" si="3"/>
-        <v>6.4535551497643326E-3</v>
+        <v>5.7434638479660473E-4</v>
       </c>
       <c r="M6">
         <f t="shared" ca="1" si="4"/>
-        <v>6.4873989446068824E-3</v>
+        <v>5.8490706098107757E-4</v>
       </c>
       <c r="N6">
         <f t="shared" ca="1" si="5"/>
@@ -1626,13 +1626,13 @@
         <v>2</v>
       </c>
       <c r="B7">
-        <v>2.09912109375</v>
+        <v>2.0283033847808798</v>
       </c>
       <c r="C7">
-        <v>4.2648868605573702E-2</v>
+        <v>2.8706761021873202E-3</v>
       </c>
       <c r="D7">
-        <v>3.7694552190046998E-2</v>
+        <v>2.92509019963513E-3</v>
       </c>
       <c r="E7">
         <v>38</v>
@@ -1646,15 +1646,15 @@
       </c>
       <c r="K7" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>33.5859375</v>
+        <v>32.452854156494098</v>
       </c>
       <c r="L7" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>6.4427404270626255E-3</v>
+        <v>5.8054184511864418E-4</v>
       </c>
       <c r="M7" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>6.4786065622490403E-3</v>
+        <v>5.9061429330437704E-4</v>
       </c>
       <c r="N7" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -1670,13 +1670,13 @@
         <v>2</v>
       </c>
       <c r="B8">
-        <v>2.09912109375</v>
+        <v>2.0283033847808798</v>
       </c>
       <c r="C8">
-        <v>4.2466939580527698E-2</v>
+        <v>2.9066207449578601E-3</v>
       </c>
       <c r="D8">
-        <v>4.5361545556125801E-2</v>
+        <v>2.6001408564383598E-3</v>
       </c>
       <c r="E8">
         <v>39</v>
@@ -1690,15 +1690,15 @@
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="2"/>
-        <v>67.171875</v>
+        <v>64.905708312988196</v>
       </c>
       <c r="L8">
         <f t="shared" ca="1" si="3"/>
-        <v>6.453121849459573E-3</v>
+        <v>5.8284894269046872E-4</v>
       </c>
       <c r="M8">
         <f t="shared" ca="1" si="4"/>
-        <v>6.4933037427452149E-3</v>
+        <v>5.9511193776072644E-4</v>
       </c>
       <c r="N8">
         <f t="shared" ca="1" si="5"/>
@@ -1714,13 +1714,13 @@
         <v>2</v>
       </c>
       <c r="B9">
-        <v>2.09912109375</v>
+        <v>2.0283033847808798</v>
       </c>
       <c r="C9">
-        <v>4.7220796842048697E-2</v>
+        <v>2.8686142817329402E-3</v>
       </c>
       <c r="D9">
-        <v>4.0480237815806501E-2</v>
+        <v>2.78904489823617E-3</v>
       </c>
       <c r="E9">
         <v>40</v>
@@ -1734,15 +1734,15 @@
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="2"/>
-        <v>134.34375</v>
+        <v>129.81141662597599</v>
       </c>
       <c r="L9">
         <f t="shared" ca="1" si="3"/>
-        <v>6.46374796571685E-3</v>
+        <v>5.9033994388714699E-4</v>
       </c>
       <c r="M9">
         <f t="shared" ca="1" si="4"/>
-        <v>6.486819609950116E-3</v>
+        <v>6.0298261032242016E-4</v>
       </c>
       <c r="N9">
         <f t="shared" ca="1" si="5"/>
@@ -1758,13 +1758,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="4">
-        <v>4.1982421875</v>
+        <v>4.0566067695617596</v>
       </c>
       <c r="C10" s="4">
-        <v>8.5651142265092805E-3</v>
+        <v>6.22591312883104E-4</v>
       </c>
       <c r="D10" s="4">
-        <v>8.5889634953692801E-3</v>
+        <v>6.3337494052489605E-4</v>
       </c>
       <c r="E10" s="4">
         <v>41</v>
@@ -1774,7 +1774,7 @@
       </c>
       <c r="M10">
         <f ca="1">MIN(M2:M9)</f>
-        <v>6.4786065622490403E-3</v>
+        <v>5.8490706098107757E-4</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -1782,13 +1782,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="4">
-        <v>4.1982421875</v>
+        <v>4.0566067695617596</v>
       </c>
       <c r="C11" s="4">
-        <v>8.1306375721667597E-3</v>
+        <v>6.0010144045086504E-4</v>
       </c>
       <c r="D11" s="4">
-        <v>7.4517312459647603E-3</v>
+        <v>6.0682817700512205E-4</v>
       </c>
       <c r="E11" s="4">
         <v>42</v>
@@ -1802,13 +1802,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="4">
-        <v>4.1982421875</v>
+        <v>4.0566067695617596</v>
       </c>
       <c r="C12" s="4">
-        <v>8.2681360728840501E-3</v>
+        <v>6.0367992468359204E-4</v>
       </c>
       <c r="D12" s="4">
-        <v>8.3897674426515693E-3</v>
+        <v>6.00715613163972E-4</v>
       </c>
       <c r="E12" s="4">
         <v>43</v>
@@ -1822,13 +1822,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="4">
-        <v>4.1982421875</v>
+        <v>4.0566067695617596</v>
       </c>
       <c r="C13" s="4">
-        <v>8.65130743477493E-3</v>
+        <v>6.0322222901812699E-4</v>
       </c>
       <c r="D13" s="4">
-        <v>8.0651255037159902E-3</v>
+        <v>6.1030975072908205E-4</v>
       </c>
       <c r="E13" s="4">
         <v>44</v>
@@ -1842,13 +1842,13 @@
         <v>8</v>
       </c>
       <c r="B14" s="4">
-        <v>8.396484375</v>
+        <v>8.1132135391235298</v>
       </c>
       <c r="C14" s="4">
-        <v>6.5379529854560098E-3</v>
+        <v>5.9002065800474598E-4</v>
       </c>
       <c r="D14" s="4">
-        <v>6.5822328807429399E-3</v>
+        <v>6.00726025745729E-4</v>
       </c>
       <c r="E14" s="4">
         <v>45</v>
@@ -1862,13 +1862,13 @@
         <v>8</v>
       </c>
       <c r="B15" s="4">
-        <v>8.396484375</v>
+        <v>8.1132135391235298</v>
       </c>
       <c r="C15" s="4">
-        <v>6.5226227248166698E-3</v>
+        <v>5.7109027272818596E-4</v>
       </c>
       <c r="D15" s="4">
-        <v>6.5602191000621998E-3</v>
+        <v>5.8476352967532701E-4</v>
       </c>
       <c r="E15" s="4">
         <v>46</v>
@@ -1882,13 +1882,13 @@
         <v>8</v>
       </c>
       <c r="B16" s="4">
-        <v>8.396484375</v>
+        <v>8.1132135391235298</v>
       </c>
       <c r="C16" s="4">
-        <v>6.4347479938271796E-3</v>
+        <v>5.8011552572726996E-4</v>
       </c>
       <c r="D16" s="4">
-        <v>6.4594990454931202E-3</v>
+        <v>5.9129302565640897E-4</v>
       </c>
       <c r="E16" s="4">
         <v>47</v>
@@ -1902,13 +1902,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="4">
-        <v>8.396484375</v>
+        <v>8.1132135391235298</v>
       </c>
       <c r="C17" s="4">
-        <v>6.4890492866013904E-3</v>
+        <v>5.8538105114808896E-4</v>
       </c>
       <c r="D17" s="4">
-        <v>6.4377756987480401E-3</v>
+        <v>5.9208753112404799E-4</v>
       </c>
       <c r="E17" s="4">
         <v>48</v>
@@ -1922,13 +1922,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.79296875</v>
+        <v>16.226427078246999</v>
       </c>
       <c r="C18">
-        <v>6.4900265932281197E-3</v>
+        <v>5.7307107032550299E-4</v>
       </c>
       <c r="D18">
-        <v>6.5563070994028999E-3</v>
+        <v>5.8422082945054296E-4</v>
       </c>
       <c r="E18">
         <v>49</v>
@@ -1942,13 +1942,13 @@
         <v>16</v>
       </c>
       <c r="B19">
-        <v>16.79296875</v>
+        <v>16.226427078246999</v>
       </c>
       <c r="C19">
-        <v>6.4691434158606698E-3</v>
+        <v>5.6983174958102998E-4</v>
       </c>
       <c r="D19">
-        <v>6.5121919095040602E-3</v>
+        <v>5.8578107921178097E-4</v>
       </c>
       <c r="E19">
         <v>50</v>
@@ -1962,13 +1962,13 @@
         <v>16</v>
       </c>
       <c r="B20">
-        <v>16.79296875</v>
+        <v>16.226427078246999</v>
       </c>
       <c r="C20">
-        <v>6.4078941421107701E-3</v>
+        <v>5.7493576667408299E-4</v>
       </c>
       <c r="D20">
-        <v>6.4371112347679496E-3</v>
+        <v>5.8524077209064099E-4</v>
       </c>
       <c r="E20">
         <v>51</v>
@@ -1982,13 +1982,13 @@
         <v>16</v>
       </c>
       <c r="B21">
-        <v>16.79296875</v>
+        <v>16.226427078246999</v>
       </c>
       <c r="C21">
-        <v>6.4471564478577699E-3</v>
+        <v>5.7954695260580295E-4</v>
       </c>
       <c r="D21">
-        <v>6.44398553475262E-3</v>
+        <v>5.8438556317134504E-4</v>
       </c>
       <c r="E21">
         <v>52</v>
@@ -2002,13 +2002,13 @@
         <v>32</v>
       </c>
       <c r="B22" s="2">
-        <v>33.5859375</v>
+        <v>32.452854156494098</v>
       </c>
       <c r="C22" s="2">
-        <v>6.4628176128571002E-3</v>
+        <v>5.7879349457373697E-4</v>
       </c>
       <c r="D22" s="2">
-        <v>6.5315450452505903E-3</v>
+        <v>5.9307116426457202E-4</v>
       </c>
       <c r="E22" s="2">
         <v>53</v>
@@ -2022,13 +2022,13 @@
         <v>32</v>
       </c>
       <c r="B23" s="2">
-        <v>33.5859375</v>
+        <v>32.452854156494098</v>
       </c>
       <c r="C23" s="2">
-        <v>6.4448758989493196E-3</v>
+        <v>5.7767298882518102E-4</v>
       </c>
       <c r="D23" s="2">
-        <v>6.5002031178471196E-3</v>
+        <v>5.8704243043771398E-4</v>
       </c>
       <c r="E23" s="2">
         <v>54</v>
@@ -2042,13 +2042,13 @@
         <v>32</v>
       </c>
       <c r="B24" s="2">
-        <v>33.5859375</v>
+        <v>32.452854156494098</v>
       </c>
       <c r="C24" s="2">
-        <v>6.4212808464752802E-3</v>
+        <v>5.7995588845855797E-4</v>
       </c>
       <c r="D24" s="2">
-        <v>6.4434835617925802E-3</v>
+        <v>5.9124138063470003E-4</v>
       </c>
       <c r="E24" s="2">
         <v>55</v>
@@ -2062,13 +2062,13 @@
         <v>32</v>
       </c>
       <c r="B25" s="2">
-        <v>33.5859375</v>
+        <v>32.452854156494098</v>
       </c>
       <c r="C25" s="2">
-        <v>6.4419873499688002E-3</v>
+        <v>5.8574500861710099E-4</v>
       </c>
       <c r="D25" s="2">
-        <v>6.4391945241058703E-3</v>
+        <v>5.9110219788052201E-4</v>
       </c>
       <c r="E25" s="2">
         <v>56</v>
@@ -2082,13 +2082,13 @@
         <v>64</v>
       </c>
       <c r="B26">
-        <v>67.171875</v>
+        <v>64.905708312988196</v>
       </c>
       <c r="C26">
-        <v>6.4543083315081098E-3</v>
+        <v>5.8170709890309003E-4</v>
       </c>
       <c r="D26">
-        <v>6.5357920248061401E-3</v>
+        <v>5.9236943686626997E-4</v>
       </c>
       <c r="E26">
         <v>57</v>
@@ -2102,13 +2102,13 @@
         <v>64</v>
       </c>
       <c r="B27">
-        <v>67.171875</v>
+        <v>64.905708312988196</v>
       </c>
       <c r="C27">
-        <v>6.4842482790985001E-3</v>
+        <v>5.8153962360041702E-4</v>
       </c>
       <c r="D27">
-        <v>6.5428276120268903E-3</v>
+        <v>5.9759594667000001E-4</v>
       </c>
       <c r="E27">
         <v>58</v>
@@ -2122,13 +2122,13 @@
         <v>64</v>
       </c>
       <c r="B28">
-        <v>67.171875</v>
+        <v>64.905708312988196</v>
       </c>
       <c r="C28">
-        <v>6.4294935461688503E-3</v>
+        <v>5.8420146062365403E-4</v>
       </c>
       <c r="D28">
-        <v>6.44761502267198E-3</v>
+        <v>5.9592386571479504E-4</v>
       </c>
       <c r="E28">
         <v>59</v>
@@ -2142,13 +2142,13 @@
         <v>64</v>
       </c>
       <c r="B29">
-        <v>67.171875</v>
+        <v>64.905708312988196</v>
       </c>
       <c r="C29">
-        <v>6.4444372410628302E-3</v>
+        <v>5.8394758763471403E-4</v>
       </c>
       <c r="D29">
-        <v>6.44698031147585E-3</v>
+        <v>5.9455850179184096E-4</v>
       </c>
       <c r="E29">
         <v>60</v>
@@ -2162,13 +2162,13 @@
         <v>128</v>
       </c>
       <c r="B30">
-        <v>134.34375</v>
+        <v>129.81141662597599</v>
       </c>
       <c r="C30">
-        <v>6.4717329236024801E-3</v>
+        <v>5.8578067777514996E-4</v>
       </c>
       <c r="D30">
-        <v>6.5400761334185901E-3</v>
+        <v>6.0022019348458702E-4</v>
       </c>
       <c r="E30">
         <v>61</v>
@@ -2182,13 +2182,13 @@
         <v>128</v>
       </c>
       <c r="B31">
-        <v>134.34375</v>
+        <v>129.81141662597599</v>
       </c>
       <c r="C31">
-        <v>6.4809676284525303E-3</v>
+        <v>5.8902763227504005E-4</v>
       </c>
       <c r="D31">
-        <v>6.53817858348818E-3</v>
+        <v>6.08428111212011E-4</v>
       </c>
       <c r="E31">
         <v>62</v>
@@ -2202,13 +2202,13 @@
         <v>128</v>
       </c>
       <c r="B32">
-        <v>134.34375</v>
+        <v>129.81141662597599</v>
       </c>
       <c r="C32">
-        <v>6.4508777676506798E-3</v>
+        <v>5.9465516341510299E-4</v>
       </c>
       <c r="D32">
-        <v>6.4283249344914504E-3</v>
+        <v>6.0599002897089203E-4</v>
       </c>
       <c r="E32">
         <v>63</v>
@@ -2222,13 +2222,13 @@
         <v>128</v>
       </c>
       <c r="B33">
-        <v>134.34375</v>
+        <v>129.81141662597599</v>
       </c>
       <c r="C33">
-        <v>6.4514135431617096E-3</v>
+        <v>5.9189630208329497E-4</v>
       </c>
       <c r="D33">
-        <v>6.4406987884022401E-3</v>
+        <v>5.9729210762219103E-4</v>
       </c>
       <c r="E33">
         <v>64</v>
@@ -2246,8 +2246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C910F4E5-1871-5D44-A4D1-B4921F11A929}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2441,27 +2441,27 @@
       <c r="F5">
         <v>1</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>8</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>8.1132135391235298</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>5.6951944898001202E-4</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>5.7297403910988001E-4</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>78.5</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
@@ -2573,27 +2573,27 @@
       <c r="F8">
         <v>1</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="4">
         <f t="shared" ca="1" si="1"/>
         <v>64</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="4">
         <f t="shared" ca="1" si="0"/>
         <v>64.905708312988196</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="4">
         <f t="shared" ca="1" si="0"/>
         <v>5.6961259335832227E-4</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="4">
         <f t="shared" ca="1" si="0"/>
         <v>5.7343222805735948E-4</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8" s="4">
         <f t="shared" ca="1" si="0"/>
         <v>90.5</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O8" s="4">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
@@ -2807,242 +2807,242 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
+      <c r="A18" s="4">
         <v>16</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="4">
         <v>16.226427078246999</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="4">
         <v>5.6798992201551198E-4</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="4">
         <v>5.7075067339816402E-4</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="4">
         <v>81</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
+      <c r="A19" s="4">
         <v>16</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="4">
         <v>16.226427078246999</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="4">
         <v>5.66158735141449E-4</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="4">
         <v>5.7288773005327402E-4</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="4">
         <v>82</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
+      <c r="A20" s="4">
         <v>16</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="4">
         <v>16.226427078246999</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="4">
         <v>5.6385922480718805E-4</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="4">
         <v>5.7121278621467201E-4</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="4">
         <v>83</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
+      <c r="A21" s="4">
         <v>16</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="4">
         <v>16.226427078246999</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="4">
         <v>5.67055603332588E-4</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="4">
         <v>5.7188904885958197E-4</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="4">
         <v>84</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
+      <c r="A22" s="4">
         <v>32</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="4">
         <v>32.452854156494098</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="4">
         <v>5.7176252741805798E-4</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="4">
         <v>5.7552236830815597E-4</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="4">
         <v>85</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
+      <c r="A23" s="4">
         <v>32</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="4">
         <v>32.452854156494098</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="4">
         <v>5.6737957972485798E-4</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="4">
         <v>5.7364400654135003E-4</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="4">
         <v>86</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
+      <c r="A24" s="4">
         <v>32</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="4">
         <v>32.452854156494098</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="4">
         <v>5.6918153483575097E-4</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="4">
         <v>5.7355711513357003E-4</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="4">
         <v>87</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
+      <c r="A25" s="4">
         <v>32</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="4">
         <v>32.452854156494098</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="4">
         <v>5.6762276153892301E-4</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="4">
         <v>5.7121885683440201E-4</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="4">
         <v>88</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
+      <c r="A26" s="4">
         <v>64</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="4">
         <v>64.905708312988196</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="4">
         <v>5.68279432782779E-4</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="4">
         <v>5.7047968598539505E-4</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="4">
         <v>89</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
+      <c r="A27" s="4">
         <v>64</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="4">
         <v>64.905708312988196</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="4">
         <v>5.6790220672573604E-4</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="4">
         <v>5.7500906954167995E-4</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="4">
         <v>90</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
+      <c r="A28" s="4">
         <v>64</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="4">
         <v>64.905708312988196</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="4">
         <v>5.7340912069569095E-4</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="4">
         <v>5.7523057440225496E-4</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="4">
         <v>91</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
+      <c r="A29" s="4">
         <v>64</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="4">
         <v>64.905708312988196</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="4">
         <v>5.6885961322908297E-4</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="4">
         <v>5.7300958230010795E-4</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="4">
         <v>92</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3136,7 +3136,7 @@
   <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E5"/>
+      <selection activeCell="A2" sqref="A2:F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3181,13 +3181,13 @@
         <v>1E-8</v>
       </c>
       <c r="B2" s="2">
-        <v>6.7470905598887099E-3</v>
+        <v>7.2636599608538798E-4</v>
       </c>
       <c r="C2" s="2">
-        <v>6.9630718938610003E-3</v>
+        <v>7.5724270010261595E-4</v>
       </c>
       <c r="D2" s="2">
-        <v>289</v>
+        <v>97</v>
       </c>
       <c r="E2" s="2">
         <v>0.25</v>
@@ -3199,15 +3199,15 @@
       </c>
       <c r="K2" s="7">
         <f t="shared" ref="K2:N9" ca="1" si="0">AVERAGE(OFFSET(B$2,(ROW()-2)*4,0,4,1))</f>
-        <v>6.83427429535089E-3</v>
+        <v>7.2360647809889382E-4</v>
       </c>
       <c r="L2" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>7.0383100797659975E-3</v>
+        <v>7.3960638137749476E-4</v>
       </c>
       <c r="M2" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>290.5</v>
+        <v>98.5</v>
       </c>
       <c r="N2" s="3">
         <f t="shared" ca="1" si="0"/>
@@ -3219,13 +3219,13 @@
         <v>1E-8</v>
       </c>
       <c r="B3" s="2">
-        <v>6.8794474094868302E-3</v>
+        <v>7.3624037333570804E-4</v>
       </c>
       <c r="C3" s="2">
-        <v>7.0039383284351197E-3</v>
+        <v>7.4927837210092302E-4</v>
       </c>
       <c r="D3" s="2">
-        <v>290</v>
+        <v>98</v>
       </c>
       <c r="E3" s="2">
         <v>0.25</v>
@@ -3237,15 +3237,15 @@
       </c>
       <c r="K3" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.8681727552370297E-3</v>
+        <v>7.3968890528875505E-4</v>
       </c>
       <c r="L3" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>7.0872444837809818E-3</v>
+        <v>7.5225883209089392E-4</v>
       </c>
       <c r="M3" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>294.5</v>
+        <v>102.5</v>
       </c>
       <c r="N3" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -3257,13 +3257,13 @@
         <v>1E-8</v>
       </c>
       <c r="B4" s="2">
-        <v>6.8101911022862803E-3</v>
+        <v>7.1161957446679003E-4</v>
       </c>
       <c r="C4" s="2">
-        <v>7.13198418986607E-3</v>
+        <v>7.2977392229181201E-4</v>
       </c>
       <c r="D4" s="2">
-        <v>291</v>
+        <v>99</v>
       </c>
       <c r="E4" s="2">
         <v>0.25</v>
@@ -3275,15 +3275,15 @@
       </c>
       <c r="K4" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.8759944691184002E-3</v>
+        <v>7.334489434109643E-4</v>
       </c>
       <c r="L4" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>7.1167462577230896E-3</v>
+        <v>7.4865197598657359E-4</v>
       </c>
       <c r="M4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>298.5</v>
+        <v>106.5</v>
       </c>
       <c r="N4" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -3295,13 +3295,13 @@
         <v>1E-8</v>
       </c>
       <c r="B5" s="2">
-        <v>6.9003681097417396E-3</v>
+        <v>7.2019996850768901E-4</v>
       </c>
       <c r="C5" s="2">
-        <v>7.0542459069018E-3</v>
+        <v>7.2213053101462797E-4</v>
       </c>
       <c r="D5" s="2">
-        <v>292</v>
+        <v>100</v>
       </c>
       <c r="E5" s="2">
         <v>0.25</v>
@@ -3313,15 +3313,15 @@
       </c>
       <c r="K5" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.8543202545929731E-3</v>
+        <v>7.3638835999859824E-4</v>
       </c>
       <c r="L5" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>7.0482942392118258E-3</v>
+        <v>7.5286967165873577E-4</v>
       </c>
       <c r="M5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>302.5</v>
+        <v>110.5</v>
       </c>
       <c r="N5" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -3334,13 +3334,13 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B6" s="4">
-        <v>6.8009068812937097E-3</v>
+        <v>7.3218628059070997E-4</v>
       </c>
       <c r="C6" s="4">
-        <v>7.0461012135715501E-3</v>
+        <v>7.5060247612747995E-4</v>
       </c>
       <c r="D6" s="4">
-        <v>293</v>
+        <v>101</v>
       </c>
       <c r="E6" s="4">
         <v>0.25</v>
@@ -3351,15 +3351,15 @@
       </c>
       <c r="K6" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.9815217334024075E-3</v>
+        <v>7.6935362558974403E-4</v>
       </c>
       <c r="L6" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>7.2248550230993823E-3</v>
+        <v>7.7848622623725549E-4</v>
       </c>
       <c r="M6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>306.5</v>
+        <v>114.5</v>
       </c>
       <c r="N6" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -3371,13 +3371,13 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B7" s="4">
-        <v>6.9101155349152498E-3</v>
+        <v>7.5920887801022999E-4</v>
       </c>
       <c r="C7" s="4">
-        <v>7.0684617732037196E-3</v>
+        <v>7.7061113167800101E-4</v>
       </c>
       <c r="D7" s="4">
-        <v>294</v>
+        <v>102</v>
       </c>
       <c r="E7" s="4">
         <v>0.25</v>
@@ -3388,15 +3388,15 @@
       </c>
       <c r="K7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>7.5977075537864798E-3</v>
+        <v>1.2200155732263601E-3</v>
       </c>
       <c r="L7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>7.9289341365244778E-3</v>
+        <v>1.2059445276841E-3</v>
       </c>
       <c r="M7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>310.5</v>
+        <v>118.5</v>
       </c>
       <c r="N7" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -3408,13 +3408,13 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B8" s="4">
-        <v>6.87250651993808E-3</v>
+        <v>7.45016319857348E-4</v>
       </c>
       <c r="C8" s="4">
-        <v>7.2317193311817402E-3</v>
+        <v>7.5421503960277898E-4</v>
       </c>
       <c r="D8" s="4">
-        <v>295</v>
+        <v>103</v>
       </c>
       <c r="E8" s="4">
         <v>0.25</v>
@@ -3425,15 +3425,15 @@
       </c>
       <c r="K8" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4555556838341175E-2</v>
+        <v>5.9490539312015544E-3</v>
       </c>
       <c r="L8" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4606356000319624E-2</v>
+        <v>5.7559311142815067E-3</v>
       </c>
       <c r="M8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>314.5</v>
+        <v>122.5</v>
       </c>
       <c r="N8" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -3445,13 +3445,13 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B9" s="4">
-        <v>6.8891620848010801E-3</v>
+        <v>7.2234414269673202E-4</v>
       </c>
       <c r="C9" s="4">
-        <v>7.0026956171669198E-3</v>
+        <v>7.3360668095531604E-4</v>
       </c>
       <c r="D9" s="4">
-        <v>296</v>
+        <v>104</v>
       </c>
       <c r="E9" s="4">
         <v>0.25</v>
@@ -3462,15 +3462,15 @@
       </c>
       <c r="K9" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>2.9594283824826157</v>
+        <v>1.8181929215613093</v>
       </c>
       <c r="L9" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>2.9431920855682554</v>
+        <v>1.8045152128972799</v>
       </c>
       <c r="M9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>318.5</v>
+        <v>126.5</v>
       </c>
       <c r="N9" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -3482,20 +3482,20 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B10" s="4">
-        <v>6.7900841154078804E-3</v>
+        <v>7.2133745108555298E-4</v>
       </c>
       <c r="C10" s="4">
-        <v>7.0032630601224097E-3</v>
+        <v>7.48147739356664E-4</v>
       </c>
       <c r="D10" s="4">
-        <v>297</v>
+        <v>105</v>
       </c>
       <c r="E10" s="4">
         <v>0.25</v>
       </c>
       <c r="L10">
         <f ca="1">MIN(L2:L9)</f>
-        <v>7.0383100797659975E-3</v>
+        <v>7.3960638137749476E-4</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -3503,13 +3503,13 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B11" s="4">
-        <v>6.9466409412153197E-3</v>
+        <v>7.4272849190681401E-4</v>
       </c>
       <c r="C11" s="4">
-        <v>7.2358154810647996E-3</v>
+        <v>7.6757139253939605E-4</v>
       </c>
       <c r="D11" s="4">
-        <v>298</v>
+        <v>106</v>
       </c>
       <c r="E11" s="4">
         <v>0.25</v>
@@ -3520,13 +3520,13 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B12" s="4">
-        <v>6.8014510263233099E-3</v>
+        <v>7.5584040067316698E-4</v>
       </c>
       <c r="C12" s="4">
-        <v>7.15276715841065E-3</v>
+        <v>7.5883594537065895E-4</v>
       </c>
       <c r="D12" s="4">
-        <v>299</v>
+        <v>107</v>
       </c>
       <c r="E12" s="4">
         <v>0.25</v>
@@ -3537,13 +3537,13 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B13" s="4">
-        <v>6.9658017935270902E-3</v>
+        <v>7.1388942997832302E-4</v>
       </c>
       <c r="C13" s="4">
-        <v>7.0751393312944999E-3</v>
+        <v>7.2005282667957505E-4</v>
       </c>
       <c r="D13" s="4">
-        <v>300</v>
+        <v>108</v>
       </c>
       <c r="E13" s="4">
         <v>0.25</v>
@@ -3554,13 +3554,13 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B14">
-        <v>6.7167168413784202E-3</v>
+        <v>7.0271373315679102E-4</v>
       </c>
       <c r="C14">
-        <v>6.9398097248074197E-3</v>
+        <v>7.3153952154207896E-4</v>
       </c>
       <c r="D14">
-        <v>301</v>
+        <v>109</v>
       </c>
       <c r="E14">
         <v>0.25</v>
@@ -3571,13 +3571,13 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B15">
-        <v>6.9095826598795798E-3</v>
+        <v>7.6501315321228502E-4</v>
       </c>
       <c r="C15">
-        <v>7.0965024048185096E-3</v>
+        <v>7.8020843771672897E-4</v>
       </c>
       <c r="D15">
-        <v>302</v>
+        <v>110</v>
       </c>
       <c r="E15">
         <v>0.25</v>
@@ -3588,13 +3588,13 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B16">
-        <v>6.8650318735695203E-3</v>
+        <v>7.3880401993486596E-4</v>
       </c>
       <c r="C16">
-        <v>7.1205389289621304E-3</v>
+        <v>7.5945673391820403E-4</v>
       </c>
       <c r="D16">
-        <v>303</v>
+        <v>111</v>
       </c>
       <c r="E16">
         <v>0.25</v>
@@ -3605,13 +3605,13 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B17">
-        <v>6.9259496435443704E-3</v>
+        <v>7.3902253369045098E-4</v>
       </c>
       <c r="C17">
-        <v>7.03632589825924E-3</v>
+        <v>7.40273993457931E-4</v>
       </c>
       <c r="D17">
-        <v>304</v>
+        <v>112</v>
       </c>
       <c r="E17">
         <v>0.25</v>
@@ -3622,13 +3622,13 @@
         <v>1E-4</v>
       </c>
       <c r="B18">
-        <v>6.9778452855237599E-3</v>
+        <v>7.71248616489037E-4</v>
       </c>
       <c r="C18">
-        <v>7.2857977406300097E-3</v>
+        <v>7.9154180426519501E-4</v>
       </c>
       <c r="D18">
-        <v>305</v>
+        <v>113</v>
       </c>
       <c r="E18">
         <v>0.25</v>
@@ -3639,13 +3639,13 @@
         <v>1E-4</v>
       </c>
       <c r="B19">
-        <v>6.9711571460232997E-3</v>
+        <v>7.57080432519597E-4</v>
       </c>
       <c r="C19">
-        <v>7.2064603966204999E-3</v>
+        <v>7.6061426024919096E-4</v>
       </c>
       <c r="D19">
-        <v>306</v>
+        <v>114</v>
       </c>
       <c r="E19">
         <v>0.25</v>
@@ -3656,13 +3656,13 @@
         <v>1E-4</v>
       </c>
       <c r="B20">
-        <v>6.9245617648467702E-3</v>
+        <v>7.8300622957407095E-4</v>
       </c>
       <c r="C20">
-        <v>7.3012334264894096E-3</v>
+        <v>7.9436484232263697E-4</v>
       </c>
       <c r="D20">
-        <v>307</v>
+        <v>115</v>
       </c>
       <c r="E20">
         <v>0.25</v>
@@ -3673,13 +3673,13 @@
         <v>1E-4</v>
       </c>
       <c r="B21">
-        <v>7.0525227372158E-3</v>
+        <v>7.6607922377627097E-4</v>
       </c>
       <c r="C21">
-        <v>7.1059285286576099E-3</v>
+        <v>7.6742399811199902E-4</v>
       </c>
       <c r="D21">
-        <v>308</v>
+        <v>116</v>
       </c>
       <c r="E21">
         <v>0.25</v>
@@ -3690,13 +3690,13 @@
         <v>1E-3</v>
       </c>
       <c r="B22">
-        <v>7.5226608723243504E-3</v>
+        <v>1.1757695619104701E-3</v>
       </c>
       <c r="C22">
-        <v>7.92595891262147E-3</v>
+        <v>1.2023302985636399E-3</v>
       </c>
       <c r="D22">
-        <v>309</v>
+        <v>117</v>
       </c>
       <c r="E22">
         <v>0.25</v>
@@ -3707,13 +3707,13 @@
         <v>1E-3</v>
       </c>
       <c r="B23">
-        <v>7.5961676911708497E-3</v>
+        <v>1.1782956711578901E-3</v>
       </c>
       <c r="C23">
-        <v>7.8300070067114595E-3</v>
+        <v>1.14172309437186E-3</v>
       </c>
       <c r="D23">
-        <v>310</v>
+        <v>118</v>
       </c>
       <c r="E23">
         <v>0.25</v>
@@ -3724,13 +3724,13 @@
         <v>1E-3</v>
       </c>
       <c r="B24">
-        <v>7.5731197114479003E-3</v>
+        <v>1.28481883054845E-3</v>
       </c>
       <c r="C24">
-        <v>8.2060148632351997E-3</v>
+        <v>1.2477810048709E-3</v>
       </c>
       <c r="D24">
-        <v>311</v>
+        <v>119</v>
       </c>
       <c r="E24">
         <v>0.25</v>
@@ -3741,13 +3741,13 @@
         <v>1E-3</v>
       </c>
       <c r="B25">
-        <v>7.6988819402028204E-3</v>
+        <v>1.2411782292886301E-3</v>
       </c>
       <c r="C25">
-        <v>7.7537557635297804E-3</v>
+        <v>1.2319437129300001E-3</v>
       </c>
       <c r="D25">
-        <v>312</v>
+        <v>120</v>
       </c>
       <c r="E25">
         <v>0.25</v>
@@ -3758,13 +3758,13 @@
         <v>0.01</v>
       </c>
       <c r="B26">
-        <v>1.38430839870125E-2</v>
+        <v>5.7821003390686899E-3</v>
       </c>
       <c r="C26">
-        <v>1.4173359981678501E-2</v>
+        <v>5.78011213779836E-3</v>
       </c>
       <c r="D26">
-        <v>313</v>
+        <v>121</v>
       </c>
       <c r="E26">
         <v>0.25</v>
@@ -3775,13 +3775,13 @@
         <v>0.01</v>
       </c>
       <c r="B27">
-        <v>1.5170980210198E-2</v>
+        <v>5.4334417448976503E-3</v>
       </c>
       <c r="C27">
-        <v>1.4865293162577601E-2</v>
+        <v>4.9850952796163502E-3</v>
       </c>
       <c r="D27">
-        <v>314</v>
+        <v>122</v>
       </c>
       <c r="E27">
         <v>0.25</v>
@@ -3792,13 +3792,13 @@
         <v>0.01</v>
       </c>
       <c r="B28">
-        <v>1.44030684803394E-2</v>
+        <v>6.9374515178595702E-3</v>
       </c>
       <c r="C28">
-        <v>1.5000163790512199E-2</v>
+        <v>6.7594325837661597E-3</v>
       </c>
       <c r="D28">
-        <v>315</v>
+        <v>123</v>
       </c>
       <c r="E28">
         <v>0.25</v>
@@ -3809,13 +3809,13 @@
         <v>0.01</v>
       </c>
       <c r="B29">
-        <v>1.48050946758148E-2</v>
+        <v>5.6432221229803098E-3</v>
       </c>
       <c r="C29">
-        <v>1.4386607066510199E-2</v>
+        <v>5.4990844559451597E-3</v>
       </c>
       <c r="D29">
-        <v>316</v>
+        <v>124</v>
       </c>
       <c r="E29">
         <v>0.25</v>
@@ -3826,13 +3826,13 @@
         <v>0.1</v>
       </c>
       <c r="B30">
-        <v>0.18388538882928901</v>
+        <v>7.8204306685980704E-2</v>
       </c>
       <c r="C30">
-        <v>0.19247239102867</v>
+        <v>7.6412226793900903E-2</v>
       </c>
       <c r="D30">
-        <v>317</v>
+        <v>125</v>
       </c>
       <c r="E30">
         <v>0.25</v>
@@ -3843,13 +3843,13 @@
         <v>0.1</v>
       </c>
       <c r="B31">
-        <v>3.6649023421267199</v>
+        <v>3.58287210959308</v>
       </c>
       <c r="C31">
-        <v>3.62127451693758</v>
+        <v>3.5313930039135899</v>
       </c>
       <c r="D31">
-        <v>318</v>
+        <v>126</v>
       </c>
       <c r="E31">
         <v>0.25</v>
@@ -3860,13 +3860,13 @@
         <v>0.1</v>
       </c>
       <c r="B32">
-        <v>7.7951931801248104</v>
+        <v>8.0144878301136896E-2</v>
       </c>
       <c r="C32">
-        <v>7.7845290011547901</v>
+        <v>7.5037431534168794E-2</v>
       </c>
       <c r="D32">
-        <v>319</v>
+        <v>127</v>
       </c>
       <c r="E32">
         <v>0.25</v>
@@ -3877,13 +3877,13 @@
         <v>0.1</v>
       </c>
       <c r="B33">
-        <v>0.19373261884964499</v>
+        <v>3.5315503916650401</v>
       </c>
       <c r="C33">
-        <v>0.17449243315198301</v>
+        <v>3.5352181893474599</v>
       </c>
       <c r="D33">
-        <v>320</v>
+        <v>128</v>
       </c>
       <c r="E33">
         <v>0.25</v>
@@ -3947,7 +3947,7 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:E17"/>
+      <selection activeCell="A2" sqref="A2:F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3992,13 +3992,13 @@
         <v>1E-8</v>
       </c>
       <c r="B2">
-        <v>6.6413861040541099E-3</v>
+        <v>6.5133122973347096E-4</v>
       </c>
       <c r="C2">
-        <v>6.7527445300700102E-3</v>
+        <v>6.7449874631216999E-4</v>
       </c>
       <c r="D2">
-        <v>321</v>
+        <v>129</v>
       </c>
       <c r="E2">
         <v>0.5</v>
@@ -4009,15 +4009,15 @@
       </c>
       <c r="K2" s="6">
         <f t="shared" ref="K2:N9" ca="1" si="0">AVERAGE(OFFSET(B$2,(ROW()-2)*4,0,4,1))</f>
-        <v>6.6670745275567876E-3</v>
+        <v>6.4220108025347554E-4</v>
       </c>
       <c r="L2" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7078960276743781E-3</v>
+        <v>6.5416267417911576E-4</v>
       </c>
       <c r="M2" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>322.5</v>
+        <v>130.5</v>
       </c>
       <c r="N2" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -4029,13 +4029,13 @@
         <v>1E-8</v>
       </c>
       <c r="B3">
-        <v>6.60309573001367E-3</v>
+        <v>6.4592443404374905E-4</v>
       </c>
       <c r="C3">
-        <v>6.6898680747823503E-3</v>
+        <v>6.6296869607747702E-4</v>
       </c>
       <c r="D3">
-        <v>322</v>
+        <v>130</v>
       </c>
       <c r="E3">
         <v>0.5</v>
@@ -4046,15 +4046,15 @@
       </c>
       <c r="K3" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.6798017044462452E-3</v>
+        <v>6.3853658413265076E-4</v>
       </c>
       <c r="L3" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7176290086787523E-3</v>
+        <v>6.5313848320346394E-4</v>
       </c>
       <c r="M3" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>326.5</v>
+        <v>134.5</v>
       </c>
       <c r="N3" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -4066,13 +4066,13 @@
         <v>1E-8</v>
       </c>
       <c r="B4">
-        <v>6.67784079919232E-3</v>
+        <v>6.3044691990213504E-4</v>
       </c>
       <c r="C4">
-        <v>6.6889632602241999E-3</v>
+        <v>6.3936845102909696E-4</v>
       </c>
       <c r="D4">
-        <v>323</v>
+        <v>131</v>
       </c>
       <c r="E4">
         <v>0.5</v>
@@ -4083,15 +4083,15 @@
       </c>
       <c r="K4" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.6717922671430474E-3</v>
+        <v>6.4774600955022025E-4</v>
       </c>
       <c r="L4" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7077804569828665E-3</v>
+        <v>6.6094415579188819E-4</v>
       </c>
       <c r="M4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>330.5</v>
+        <v>138.5</v>
       </c>
       <c r="N4" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -4103,13 +4103,13 @@
         <v>1E-8</v>
       </c>
       <c r="B5">
-        <v>6.7459754769670496E-3</v>
+        <v>6.4110173733454697E-4</v>
       </c>
       <c r="C5">
-        <v>6.7000082456209501E-3</v>
+        <v>6.3981480329771898E-4</v>
       </c>
       <c r="D5">
-        <v>324</v>
+        <v>132</v>
       </c>
       <c r="E5">
         <v>0.5</v>
@@ -4120,15 +4120,15 @@
       </c>
       <c r="K5" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>6.6579571216703977E-3</v>
+        <v>6.516064189333612E-4</v>
       </c>
       <c r="L5" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>6.6972447972883349E-3</v>
+        <v>6.6455473402901577E-4</v>
       </c>
       <c r="M5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>334.5</v>
+        <v>142.5</v>
       </c>
       <c r="N5" s="3">
         <f t="shared" ca="1" si="0"/>
@@ -4140,13 +4140,13 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B6">
-        <v>6.6636733740488901E-3</v>
+        <v>6.4064471891935504E-4</v>
       </c>
       <c r="C6">
-        <v>6.7819816189164097E-3</v>
+        <v>6.6471136425498795E-4</v>
       </c>
       <c r="D6">
-        <v>325</v>
+        <v>133</v>
       </c>
       <c r="E6">
         <v>0.5</v>
@@ -4157,15 +4157,15 @@
       </c>
       <c r="K6" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7529258921375799E-3</v>
+        <v>6.9670194690446725E-4</v>
       </c>
       <c r="L6" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7842870076345457E-3</v>
+        <v>7.03499805240426E-4</v>
       </c>
       <c r="M6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>338.5</v>
+        <v>146.5</v>
       </c>
       <c r="N6" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -4177,13 +4177,13 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B7">
-        <v>6.5958166737703798E-3</v>
+        <v>6.3556117795725503E-4</v>
       </c>
       <c r="C7">
-        <v>6.6645175287935897E-3</v>
+        <v>6.5874577530677296E-4</v>
       </c>
       <c r="D7">
-        <v>326</v>
+        <v>134</v>
       </c>
       <c r="E7">
         <v>0.5</v>
@@ -4194,15 +4194,15 @@
       </c>
       <c r="K7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>7.3739899628290344E-3</v>
+        <v>1.0894708998442776E-3</v>
       </c>
       <c r="L7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>7.417895512883247E-3</v>
+        <v>1.0888391584300649E-3</v>
       </c>
       <c r="M7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>342.5</v>
+        <v>150.5</v>
       </c>
       <c r="N7" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -4214,13 +4214,13 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B8">
-        <v>6.6619169764577301E-3</v>
+        <v>6.3349055297346097E-4</v>
       </c>
       <c r="C8">
-        <v>6.6920623252604197E-3</v>
+        <v>6.4552664143947001E-4</v>
       </c>
       <c r="D8">
-        <v>327</v>
+        <v>135</v>
       </c>
       <c r="E8">
         <v>0.5</v>
@@ -4231,15 +4231,15 @@
       </c>
       <c r="K8" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4098341908662548E-2</v>
+        <v>5.8131229593937107E-3</v>
       </c>
       <c r="L8" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3843968396689299E-2</v>
+        <v>5.4075622962423079E-3</v>
       </c>
       <c r="M8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>346.5</v>
+        <v>154.5</v>
       </c>
       <c r="N8" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -4251,13 +4251,13 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B9">
-        <v>6.79779979350798E-3</v>
+        <v>6.4444988668053201E-4</v>
       </c>
       <c r="C9">
-        <v>6.7319545617445901E-3</v>
+        <v>6.4357015181262496E-4</v>
       </c>
       <c r="D9">
-        <v>328</v>
+        <v>136</v>
       </c>
       <c r="E9">
         <v>0.5</v>
@@ -4268,15 +4268,15 @@
       </c>
       <c r="K9" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>2.953447714309263</v>
+        <v>0.94097604350544317</v>
       </c>
       <c r="L9" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>2.9402569598874972</v>
+        <v>0.94022613045987857</v>
       </c>
       <c r="M9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>350.5</v>
+        <v>158.5</v>
       </c>
       <c r="N9" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -4288,13 +4288,13 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B10" s="4">
-        <v>6.6512033016361402E-3</v>
+        <v>6.4541697055233804E-4</v>
       </c>
       <c r="C10" s="4">
-        <v>6.7707723690236497E-3</v>
+        <v>6.7066922421426503E-4</v>
       </c>
       <c r="D10" s="4">
-        <v>329</v>
+        <v>137</v>
       </c>
       <c r="E10" s="4">
         <v>0.5</v>
@@ -4302,7 +4302,7 @@
       <c r="F10" s="2"/>
       <c r="L10">
         <f ca="1">MIN(L2:L9)</f>
-        <v>6.6972447972883349E-3</v>
+        <v>6.5313848320346394E-4</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -4310,13 +4310,13 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B11" s="4">
-        <v>6.59043153629023E-3</v>
+        <v>6.5724343012894695E-4</v>
       </c>
       <c r="C11" s="4">
-        <v>6.6589221378114596E-3</v>
+        <v>6.7583676196968599E-4</v>
       </c>
       <c r="D11" s="4">
-        <v>330</v>
+        <v>138</v>
       </c>
       <c r="E11" s="4">
         <v>0.5</v>
@@ -4328,13 +4328,13 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B12" s="4">
-        <v>6.6580904122600501E-3</v>
+        <v>6.4763535278677096E-4</v>
       </c>
       <c r="C12" s="4">
-        <v>6.6736257843118402E-3</v>
+        <v>6.56741508722024E-4</v>
       </c>
       <c r="D12" s="4">
-        <v>331</v>
+        <v>139</v>
       </c>
       <c r="E12" s="4">
         <v>0.5</v>
@@ -4346,13 +4346,13 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B13" s="4">
-        <v>6.7874438183857704E-3</v>
+        <v>6.4068828473282503E-4</v>
       </c>
       <c r="C13" s="4">
-        <v>6.7278015367845199E-3</v>
+        <v>6.4052912826157804E-4</v>
       </c>
       <c r="D13" s="4">
-        <v>332</v>
+        <v>140</v>
       </c>
       <c r="E13" s="4">
         <v>0.5</v>
@@ -4364,13 +4364,13 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B14" s="2">
-        <v>6.6108331629174096E-3</v>
+        <v>6.54677876439033E-4</v>
       </c>
       <c r="C14" s="2">
-        <v>6.7000788577059401E-3</v>
+        <v>6.7458176361572604E-4</v>
       </c>
       <c r="D14" s="2">
-        <v>333</v>
+        <v>141</v>
       </c>
       <c r="E14" s="2">
         <v>0.5</v>
@@ -4381,13 +4381,13 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B15" s="2">
-        <v>6.5842629212172696E-3</v>
+        <v>6.4286210527864204E-4</v>
       </c>
       <c r="C15" s="2">
-        <v>6.6593334356203904E-3</v>
+        <v>6.6250456795799201E-4</v>
       </c>
       <c r="D15" s="2">
-        <v>334</v>
+        <v>142</v>
       </c>
       <c r="E15" s="2">
         <v>0.5</v>
@@ -4398,13 +4398,13 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B16" s="2">
-        <v>6.6165736197751502E-3</v>
+        <v>6.4876923002125996E-4</v>
       </c>
       <c r="C16" s="2">
-        <v>6.6457062196779099E-3</v>
+        <v>6.5735841767405499E-4</v>
       </c>
       <c r="D16" s="2">
-        <v>335</v>
+        <v>143</v>
       </c>
       <c r="E16" s="2">
         <v>0.5</v>
@@ -4415,13 +4415,13 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B17" s="2">
-        <v>6.8201587827717604E-3</v>
+        <v>6.6011646399451E-4</v>
       </c>
       <c r="C17" s="2">
-        <v>6.7838606761491003E-3</v>
+        <v>6.6377418686829005E-4</v>
       </c>
       <c r="D17" s="2">
-        <v>336</v>
+        <v>144</v>
       </c>
       <c r="E17" s="2">
         <v>0.5</v>
@@ -4432,13 +4432,13 @@
         <v>1E-4</v>
       </c>
       <c r="B18">
-        <v>6.7216475875651899E-3</v>
+        <v>6.8449296368400703E-4</v>
       </c>
       <c r="C18">
-        <v>6.85823471483556E-3</v>
+        <v>7.0824876278287395E-4</v>
       </c>
       <c r="D18">
-        <v>337</v>
+        <v>145</v>
       </c>
       <c r="E18">
         <v>0.5</v>
@@ -4449,13 +4449,13 @@
         <v>1E-4</v>
       </c>
       <c r="B19">
-        <v>6.6880567390669799E-3</v>
+        <v>6.9450249953936902E-4</v>
       </c>
       <c r="C19">
-        <v>6.7515979629961097E-3</v>
+        <v>7.0928829614477198E-4</v>
       </c>
       <c r="D19">
-        <v>338</v>
+        <v>146</v>
       </c>
       <c r="E19">
         <v>0.5</v>
@@ -4466,13 +4466,13 @@
         <v>1E-4</v>
       </c>
       <c r="B20">
-        <v>6.69922175113745E-3</v>
+        <v>6.9261056159168296E-4</v>
       </c>
       <c r="C20">
-        <v>6.6865209559414602E-3</v>
+        <v>6.8510310309236196E-4</v>
       </c>
       <c r="D20">
-        <v>339</v>
+        <v>147</v>
       </c>
       <c r="E20">
         <v>0.5</v>
@@ -4483,13 +4483,13 @@
         <v>1E-4</v>
       </c>
       <c r="B21">
-        <v>6.9027774907806996E-3</v>
+        <v>7.1520176280281001E-4</v>
       </c>
       <c r="C21">
-        <v>6.8407943967650504E-3</v>
+        <v>7.1135905894169598E-4</v>
       </c>
       <c r="D21">
-        <v>340</v>
+        <v>148</v>
       </c>
       <c r="E21">
         <v>0.5</v>
@@ -4500,13 +4500,13 @@
         <v>1E-3</v>
       </c>
       <c r="B22">
-        <v>7.3076221977974804E-3</v>
+        <v>1.0210900496850301E-3</v>
       </c>
       <c r="C22">
-        <v>7.6738472809975396E-3</v>
+        <v>1.0298978738302201E-3</v>
       </c>
       <c r="D22">
-        <v>341</v>
+        <v>149</v>
       </c>
       <c r="E22">
         <v>0.5</v>
@@ -4517,13 +4517,13 @@
         <v>1E-3</v>
       </c>
       <c r="B23">
-        <v>7.3104447368136103E-3</v>
+        <v>1.09495586738811E-3</v>
       </c>
       <c r="C23">
-        <v>7.2924508415955101E-3</v>
+        <v>1.16825818725562E-3</v>
       </c>
       <c r="D23">
-        <v>342</v>
+        <v>150</v>
       </c>
       <c r="E23">
         <v>0.5</v>
@@ -4534,13 +4534,13 @@
         <v>1E-3</v>
       </c>
       <c r="B24">
-        <v>7.3077094300273496E-3</v>
+        <v>1.1570048554341401E-3</v>
       </c>
       <c r="C24">
-        <v>7.3077902841837397E-3</v>
+        <v>1.09188385277037E-3</v>
       </c>
       <c r="D24">
-        <v>343</v>
+        <v>151</v>
       </c>
       <c r="E24">
         <v>0.5</v>
@@ -4551,13 +4551,13 @@
         <v>1E-3</v>
       </c>
       <c r="B25">
-        <v>7.5701834866777002E-3</v>
+        <v>1.08483282686983E-3</v>
       </c>
       <c r="C25">
-        <v>7.3974936447561996E-3</v>
+        <v>1.0653167198640501E-3</v>
       </c>
       <c r="D25">
-        <v>344</v>
+        <v>152</v>
       </c>
       <c r="E25">
         <v>0.5</v>
@@ -4568,13 +4568,13 @@
         <v>0.01</v>
       </c>
       <c r="B26">
-        <v>1.4530084474864299E-2</v>
+        <v>5.5560992425969704E-3</v>
       </c>
       <c r="C26">
-        <v>1.50307300896879E-2</v>
+        <v>5.5536419309166101E-3</v>
       </c>
       <c r="D26">
-        <v>345</v>
+        <v>153</v>
       </c>
       <c r="E26">
         <v>0.5</v>
@@ -4585,13 +4585,13 @@
         <v>0.01</v>
       </c>
       <c r="B27">
-        <v>1.4001994928781E-2</v>
+        <v>5.1254389031847496E-3</v>
       </c>
       <c r="C27">
-        <v>1.34382305092158E-2</v>
+        <v>5.0746796340769397E-3</v>
       </c>
       <c r="D27">
-        <v>346</v>
+        <v>154</v>
       </c>
       <c r="E27">
         <v>0.5</v>
@@ -4602,13 +4602,13 @@
         <v>0.01</v>
       </c>
       <c r="B28">
-        <v>1.3882941853730599E-2</v>
+        <v>5.75752028868802E-3</v>
       </c>
       <c r="C28">
-        <v>1.39214131693811E-2</v>
+        <v>5.2854157083685304E-3</v>
       </c>
       <c r="D28">
-        <v>347</v>
+        <v>155</v>
       </c>
       <c r="E28">
         <v>0.5</v>
@@ -4619,13 +4619,13 @@
         <v>0.01</v>
       </c>
       <c r="B29">
-        <v>1.3978346377274299E-2</v>
+        <v>6.8134334031051003E-3</v>
       </c>
       <c r="C29">
-        <v>1.29854998184724E-2</v>
+        <v>5.7165119116071497E-3</v>
       </c>
       <c r="D29">
-        <v>348</v>
+        <v>156</v>
       </c>
       <c r="E29">
         <v>0.5</v>
@@ -4636,13 +4636,13 @@
         <v>0.1</v>
       </c>
       <c r="B30">
-        <v>0.18013032180990299</v>
+        <v>7.6394565138630396E-2</v>
       </c>
       <c r="C30">
-        <v>0.19195959324690801</v>
+        <v>7.4583051761366204E-2</v>
       </c>
       <c r="D30">
-        <v>349</v>
+        <v>157</v>
       </c>
       <c r="E30">
         <v>0.5</v>
@@ -4653,13 +4653,13 @@
         <v>0.1</v>
       </c>
       <c r="B31">
-        <v>3.6447734870809101</v>
+        <v>7.5977290517063506E-2</v>
       </c>
       <c r="C31">
-        <v>3.61507086043662</v>
+        <v>7.1860651678915297E-2</v>
       </c>
       <c r="D31">
-        <v>350</v>
+        <v>158</v>
       </c>
       <c r="E31">
         <v>0.5</v>
@@ -4670,13 +4670,13 @@
         <v>0.1</v>
       </c>
       <c r="B32">
-        <v>7.7993736571453898</v>
+        <v>7.6674913060608599E-2</v>
       </c>
       <c r="C32">
-        <v>7.7843263555080302</v>
+        <v>7.0225474196222507E-2</v>
       </c>
       <c r="D32">
-        <v>351</v>
+        <v>159</v>
       </c>
       <c r="E32">
         <v>0.5</v>
@@ -4687,13 +4687,13 @@
         <v>0.1</v>
       </c>
       <c r="B33">
-        <v>0.18951339120084901</v>
+        <v>3.5348574053054702</v>
       </c>
       <c r="C33">
-        <v>0.16967103035843101</v>
+        <v>3.5442353442030101</v>
       </c>
       <c r="D33">
-        <v>352</v>
+        <v>160</v>
       </c>
       <c r="E33">
         <v>0.5</v>
@@ -4709,7 +4709,7 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4765,6 +4765,9 @@
       <c r="E2" s="2">
         <v>1</v>
       </c>
+      <c r="F2">
+        <v>11.711</v>
+      </c>
       <c r="J2" s="3">
         <f ca="1">AVERAGE(OFFSET(A$2,(ROW()-2)*4,0,4,1))</f>
         <v>1E-8</v>
@@ -4802,6 +4805,9 @@
       <c r="E3" s="2">
         <v>1</v>
       </c>
+      <c r="F3">
+        <v>13.887</v>
+      </c>
       <c r="J3" s="5">
         <f t="shared" ref="J3:J9" ca="1" si="1">AVERAGE(OFFSET(A$2,(ROW()-2)*4,0,4,1))</f>
         <v>9.9999999999999995E-8</v>
@@ -4839,6 +4845,9 @@
       <c r="E4" s="2">
         <v>1</v>
       </c>
+      <c r="F4">
+        <v>15.571999999999999</v>
+      </c>
       <c r="J4" s="5">
         <f t="shared" ca="1" si="1"/>
         <v>9.9999999999999995E-7</v>
@@ -4875,6 +4884,9 @@
       </c>
       <c r="E5" s="2">
         <v>1</v>
+      </c>
+      <c r="F5">
+        <v>13.675000000000001</v>
       </c>
       <c r="J5" s="5">
         <f t="shared" ca="1" si="1"/>
@@ -7042,7 +7054,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55E0C2B-C766-7C43-9790-D95441714A70}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>

--- a/eg2.xlsx
+++ b/eg2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiqing/Desktop/Lipschitz-System-ID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC38064C-59C4-0E42-AF04-94E51159F9F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930AE6AB-06EF-B04E-BF39-81C7D1B9A5E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="34560" windowHeight="19800" activeTab="2" xr2:uid="{624D5C9E-D399-6E42-9BAD-9829FF00FD61}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="34560" windowHeight="19800" activeTab="5" xr2:uid="{624D5C9E-D399-6E42-9BAD-9829FF00FD61}"/>
   </bookViews>
   <sheets>
     <sheet name="Ours 0.25" sheetId="1" r:id="rId1"/>
@@ -2244,10 +2244,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C910F4E5-1871-5D44-A4D1-B4921F11A929}">
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2292,42 +2292,42 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="B2">
-        <v>1.0141516923904399</v>
+        <v>0.50343608856201105</v>
       </c>
       <c r="C2">
-        <v>0.182354071658651</v>
+        <v>2.1766328506469699</v>
       </c>
       <c r="D2">
-        <v>0.18012873076324101</v>
+        <v>2.1835943566765699</v>
       </c>
       <c r="E2">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="J2">
         <f ca="1">AVERAGE(OFFSET(A$2,(ROW()-2)*4,0,4,1))</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K2">
         <f t="shared" ref="K2:O9" ca="1" si="0">AVERAGE(OFFSET(B$2,(ROW()-2)*4,0,4,1))</f>
-        <v>1.0141516923904399</v>
+        <v>0.50343608856201105</v>
       </c>
       <c r="L2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18183029610751875</v>
+        <v>2.1774129129886575</v>
       </c>
       <c r="M2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18052621878121225</v>
+        <v>2.18107405096102</v>
       </c>
       <c r="N2">
         <f t="shared" ca="1" si="0"/>
-        <v>66.5</v>
+        <v>50.5</v>
       </c>
       <c r="O2">
         <f t="shared" ca="1" si="0"/>
@@ -2336,42 +2336,42 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="B3">
-        <v>1.0141516923904399</v>
+        <v>0.50343608856201105</v>
       </c>
       <c r="C3">
-        <v>0.17989082154222</v>
+        <v>2.1775262559890698</v>
       </c>
       <c r="D3">
-        <v>0.184625543513388</v>
+        <v>2.1808682247331901</v>
       </c>
       <c r="E3">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J9" ca="1" si="1">AVERAGE(OFFSET(A$2,(ROW()-2)*4,0,4,1))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <f t="shared" ca="1" si="0"/>
-        <v>2.0283033847808798</v>
+        <v>1.0068721771240201</v>
       </c>
       <c r="L3">
         <f t="shared" ca="1" si="0"/>
-        <v>2.6151730988772702E-3</v>
+        <v>3.5877577021717975E-2</v>
       </c>
       <c r="M3">
         <f t="shared" ca="1" si="0"/>
-        <v>2.52145578571867E-3</v>
+        <v>3.589527369447193E-2</v>
       </c>
       <c r="N3">
         <f t="shared" ca="1" si="0"/>
-        <v>70.5</v>
+        <v>54.5</v>
       </c>
       <c r="O3">
         <f t="shared" ca="1" si="0"/>
@@ -2380,174 +2380,174 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="B4">
-        <v>1.0141516923904399</v>
+        <v>0.50343608856201105</v>
       </c>
       <c r="C4">
-        <v>0.181765205981607</v>
+        <v>2.1766223686218198</v>
       </c>
       <c r="D4">
-        <v>0.177050863445367</v>
+        <v>2.1836080429660201</v>
       </c>
       <c r="E4">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="2">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K4" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.0137443542480402</v>
+      </c>
+      <c r="L4" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.44796273100655E-4</v>
+      </c>
+      <c r="M4" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.4843390178251203E-4</v>
+      </c>
+      <c r="N4" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>58.5</v>
+      </c>
+      <c r="O4" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0.5</v>
+      </c>
+      <c r="B5">
+        <v>0.50343608856201105</v>
+      </c>
+      <c r="C5">
+        <v>2.17887017669677</v>
+      </c>
+      <c r="D5">
+        <v>2.1762255794683001</v>
+      </c>
+      <c r="E5">
+        <v>52</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="4">
         <f t="shared" ca="1" si="1"/>
         <v>4</v>
       </c>
-      <c r="K4">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.0566067695617596</v>
-      </c>
-      <c r="L4">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.8580142772004444E-4</v>
-      </c>
-      <c r="M4">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.8844408656268316E-4</v>
-      </c>
-      <c r="N4">
-        <f t="shared" ca="1" si="0"/>
-        <v>74.5</v>
-      </c>
-      <c r="O4">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>1.0141516923904399</v>
-      </c>
-      <c r="C5">
-        <v>0.18331108524759701</v>
-      </c>
-      <c r="D5">
-        <v>0.18029973740285299</v>
-      </c>
-      <c r="E5">
-        <v>68</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="J5" s="2">
+      <c r="K5" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.0274887084960902</v>
+      </c>
+      <c r="L5" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.3488306086510364E-4</v>
+      </c>
+      <c r="M5" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.4031718390879576E-4</v>
+      </c>
+      <c r="N5" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>62.5</v>
+      </c>
+      <c r="O5" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>1.0068721771240201</v>
+      </c>
+      <c r="C6">
+        <v>3.5592726659774698E-2</v>
+      </c>
+      <c r="D6">
+        <v>3.5595786431507702E-2</v>
+      </c>
+      <c r="E6">
+        <v>53</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="J6">
         <f t="shared" ca="1" si="1"/>
         <v>8</v>
       </c>
-      <c r="K5" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>8.1132135391235298</v>
-      </c>
-      <c r="L5" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.6951944898001202E-4</v>
-      </c>
-      <c r="M5" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.7297403910988001E-4</v>
-      </c>
-      <c r="N5" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>78.5</v>
-      </c>
-      <c r="O5" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>2.0283033847808798</v>
-      </c>
-      <c r="C6">
-        <v>2.6262016776315701E-3</v>
-      </c>
-      <c r="D6">
-        <v>2.6302639612453501E-3</v>
-      </c>
-      <c r="E6">
-        <v>69</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="J6">
+      <c r="K6">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.0549774169921804</v>
+      </c>
+      <c r="L6">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.3306349304039005E-4</v>
+      </c>
+      <c r="M6">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.3853282588534003E-4</v>
+      </c>
+      <c r="N6">
+        <f t="shared" ca="1" si="0"/>
+        <v>66.5</v>
+      </c>
+      <c r="O6">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>1.0068721771240201</v>
+      </c>
+      <c r="C7">
+        <v>3.6501656001806201E-2</v>
+      </c>
+      <c r="D7">
+        <v>3.6691080304277902E-2</v>
+      </c>
+      <c r="E7">
+        <v>54</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="J7">
         <f t="shared" ca="1" si="1"/>
         <v>16</v>
       </c>
-      <c r="K6">
-        <f t="shared" ca="1" si="0"/>
-        <v>16.226427078246999</v>
-      </c>
-      <c r="L6">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.6626587132418429E-4</v>
-      </c>
-      <c r="M6">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.7168505963142301E-4</v>
-      </c>
-      <c r="N6">
-        <f t="shared" ca="1" si="0"/>
-        <v>82.5</v>
-      </c>
-      <c r="O6">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>2.0283033847808798</v>
-      </c>
-      <c r="C7">
-        <v>2.55994174435792E-3</v>
-      </c>
-      <c r="D7">
-        <v>2.6434074048357001E-3</v>
-      </c>
-      <c r="E7">
-        <v>70</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <f t="shared" ca="1" si="1"/>
-        <v>32</v>
-      </c>
       <c r="K7">
         <f t="shared" ca="1" si="0"/>
-        <v>32.452854156494098</v>
+        <v>16.1099548339843</v>
       </c>
       <c r="L7">
         <f t="shared" ca="1" si="0"/>
-        <v>5.6898660087939751E-4</v>
+        <v>5.3380343744065576E-4</v>
       </c>
       <c r="M7">
         <f t="shared" ca="1" si="0"/>
-        <v>5.7348558670436954E-4</v>
+        <v>5.3837227743159025E-4</v>
       </c>
       <c r="N7">
         <f t="shared" ca="1" si="0"/>
-        <v>86.5</v>
+        <v>70.5</v>
       </c>
       <c r="O7">
         <f t="shared" ca="1" si="0"/>
@@ -2556,271 +2556,229 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8">
-        <v>2.0283033847808798</v>
+        <v>1.0068721771240201</v>
       </c>
       <c r="C8">
-        <v>2.5954600772544502E-3</v>
+        <v>3.5614374345541003E-2</v>
       </c>
       <c r="D8">
-        <v>2.3384923598605998E-3</v>
+        <v>3.5849563279159502E-2</v>
       </c>
       <c r="E8">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
-      <c r="J8" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>64</v>
-      </c>
-      <c r="K8" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>64.905708312988196</v>
-      </c>
-      <c r="L8" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.6961259335832227E-4</v>
-      </c>
-      <c r="M8" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.7343222805735948E-4</v>
-      </c>
-      <c r="N8" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>90.5</v>
-      </c>
-      <c r="O8" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>1.0068721771240201</v>
+      </c>
+      <c r="C9">
+        <v>3.5801551079749999E-2</v>
+      </c>
+      <c r="D9">
+        <v>3.5444664762942599E-2</v>
+      </c>
+      <c r="E9">
+        <v>56</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
         <v>2</v>
       </c>
-      <c r="B9">
-        <v>2.0283033847808798</v>
-      </c>
-      <c r="C9">
-        <v>2.6790888962651398E-3</v>
-      </c>
-      <c r="D9">
-        <v>2.4736594169330302E-3</v>
-      </c>
-      <c r="E9">
-        <v>72</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <f t="shared" ca="1" si="1"/>
-        <v>128</v>
-      </c>
-      <c r="K9">
-        <f t="shared" ca="1" si="0"/>
-        <v>129.81141662597599</v>
-      </c>
-      <c r="L9">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.7210625606970793E-4</v>
-      </c>
-      <c r="M9">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.7582962115290811E-4</v>
-      </c>
-      <c r="N9">
-        <f t="shared" ca="1" si="0"/>
-        <v>94.5</v>
-      </c>
-      <c r="O9">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>4</v>
-      </c>
-      <c r="B10">
-        <v>4.0566067695617596</v>
-      </c>
-      <c r="C10">
-        <v>5.9090811103776504E-4</v>
-      </c>
-      <c r="D10">
-        <v>5.9912694488511401E-4</v>
-      </c>
-      <c r="E10">
-        <v>73</v>
-      </c>
-      <c r="F10">
+      <c r="B10" s="2">
+        <v>2.0137443542480402</v>
+      </c>
+      <c r="C10" s="2">
+        <v>5.4671502402052203E-4</v>
+      </c>
+      <c r="D10" s="2">
+        <v>5.5108411451890605E-4</v>
+      </c>
+      <c r="E10" s="2">
+        <v>57</v>
+      </c>
+      <c r="F10" s="2">
         <v>1</v>
       </c>
       <c r="M10">
         <f ca="1">MIN(M2:M9)</f>
-        <v>5.7168505963142301E-4</v>
+        <v>5.3837227743159025E-4</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="A11" s="2">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2.0137443542480402</v>
+      </c>
+      <c r="C11" s="2">
+        <v>5.41395342070609E-4</v>
+      </c>
+      <c r="D11" s="2">
+        <v>5.4446025213944396E-4</v>
+      </c>
+      <c r="E11" s="2">
+        <v>58</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2.0137443542480402</v>
+      </c>
+      <c r="C12" s="2">
+        <v>5.44865331286564E-4</v>
+      </c>
+      <c r="D12" s="2">
+        <v>5.5057641562181203E-4</v>
+      </c>
+      <c r="E12" s="2">
+        <v>59</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>2</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2.0137443542480402</v>
+      </c>
+      <c r="C13" s="2">
+        <v>5.4620939502492496E-4</v>
+      </c>
+      <c r="D13" s="2">
+        <v>5.4761482484988596E-4</v>
+      </c>
+      <c r="E13" s="2">
+        <v>60</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
         <v>4</v>
       </c>
-      <c r="B11">
-        <v>4.0566067695617596</v>
-      </c>
-      <c r="C11">
-        <v>5.8026180419986999E-4</v>
-      </c>
-      <c r="D11">
-        <v>5.8439645129870895E-4</v>
-      </c>
-      <c r="E11">
-        <v>74</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="B14" s="4">
+        <v>4.0274887084960902</v>
+      </c>
+      <c r="C14" s="4">
+        <v>5.3520710361190096E-4</v>
+      </c>
+      <c r="D14" s="4">
+        <v>5.4482978755299703E-4</v>
+      </c>
+      <c r="E14" s="4">
+        <v>61</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
         <v>4</v>
       </c>
-      <c r="B12">
-        <v>4.0566067695617596</v>
-      </c>
-      <c r="C12">
-        <v>5.8405404386024495E-4</v>
-      </c>
-      <c r="D12">
-        <v>5.8256732058307103E-4</v>
-      </c>
-      <c r="E12">
-        <v>75</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="B15" s="4">
+        <v>4.0274887084960902</v>
+      </c>
+      <c r="C15" s="4">
+        <v>5.3389373254030903E-4</v>
+      </c>
+      <c r="D15" s="4">
+        <v>5.3813045968266005E-4</v>
+      </c>
+      <c r="E15" s="4">
+        <v>62</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
         <v>4</v>
       </c>
-      <c r="B13">
-        <v>4.0566067695617596</v>
-      </c>
-      <c r="C13">
-        <v>5.8798175178229799E-4</v>
-      </c>
-      <c r="D13">
-        <v>5.8768562948383898E-4</v>
-      </c>
-      <c r="E13">
-        <v>76</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>8</v>
-      </c>
-      <c r="B14" s="2">
-        <v>8.1132135391235298</v>
-      </c>
-      <c r="C14" s="2">
-        <v>5.7217467427849496E-4</v>
-      </c>
-      <c r="D14" s="2">
-        <v>5.7575543397896903E-4</v>
-      </c>
-      <c r="E14" s="2">
-        <v>77</v>
-      </c>
-      <c r="F14" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
-        <v>8</v>
-      </c>
-      <c r="B15" s="2">
-        <v>8.1132135391235298</v>
-      </c>
-      <c r="C15" s="2">
-        <v>5.6563148973509604E-4</v>
-      </c>
-      <c r="D15" s="2">
-        <v>5.6990910429103301E-4</v>
-      </c>
-      <c r="E15" s="2">
-        <v>78</v>
-      </c>
-      <c r="F15" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
-        <v>8</v>
-      </c>
-      <c r="B16" s="2">
-        <v>8.1132135391235298</v>
-      </c>
-      <c r="C16" s="2">
-        <v>5.6951258325192299E-4</v>
-      </c>
-      <c r="D16" s="2">
-        <v>5.7272411133865503E-4</v>
-      </c>
-      <c r="E16" s="2">
-        <v>79</v>
-      </c>
-      <c r="F16" s="2">
+      <c r="B16" s="4">
+        <v>4.0274887084960902</v>
+      </c>
+      <c r="C16" s="4">
+        <v>5.3533195322379395E-4</v>
+      </c>
+      <c r="D16" s="4">
+        <v>5.3911201472714497E-4</v>
+      </c>
+      <c r="E16" s="4">
+        <v>63</v>
+      </c>
+      <c r="F16" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
-        <v>8</v>
-      </c>
-      <c r="B17" s="2">
-        <v>8.1132135391235298</v>
-      </c>
-      <c r="C17" s="2">
-        <v>5.7075904865453396E-4</v>
-      </c>
-      <c r="D17" s="2">
-        <v>5.7350750683086299E-4</v>
-      </c>
-      <c r="E17" s="2">
-        <v>80</v>
-      </c>
-      <c r="F17" s="2">
+      <c r="A17" s="4">
+        <v>4</v>
+      </c>
+      <c r="B17" s="4">
+        <v>4.0274887084960902</v>
+      </c>
+      <c r="C17" s="4">
+        <v>5.3509945408441095E-4</v>
+      </c>
+      <c r="D17" s="4">
+        <v>5.3919647367238097E-4</v>
+      </c>
+      <c r="E17" s="4">
+        <v>64</v>
+      </c>
+      <c r="F17" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B18" s="4">
-        <v>16.226427078246999</v>
+        <v>8.0549774169921804</v>
       </c>
       <c r="C18" s="4">
-        <v>5.6798992201551198E-4</v>
+        <v>5.3272665482945701E-4</v>
       </c>
       <c r="D18" s="4">
-        <v>5.7075067339816402E-4</v>
+        <v>5.4266521815435895E-4</v>
       </c>
       <c r="E18" s="4">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="F18" s="4">
         <v>1</v>
@@ -2828,19 +2786,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B19" s="4">
-        <v>16.226427078246999</v>
+        <v>8.0549774169921804</v>
       </c>
       <c r="C19" s="4">
-        <v>5.66158735141449E-4</v>
+        <v>5.3388965432532099E-4</v>
       </c>
       <c r="D19" s="4">
-        <v>5.7288773005327402E-4</v>
+        <v>5.3793034304206204E-4</v>
       </c>
       <c r="E19" s="4">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="F19" s="4">
         <v>1</v>
@@ -2848,19 +2806,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B20" s="4">
-        <v>16.226427078246999</v>
+        <v>8.0549774169921804</v>
       </c>
       <c r="C20" s="4">
-        <v>5.6385922480718805E-4</v>
+        <v>5.3282709205523099E-4</v>
       </c>
       <c r="D20" s="4">
-        <v>5.7121278621467201E-4</v>
+        <v>5.3707223180177199E-4</v>
       </c>
       <c r="E20" s="4">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="F20" s="4">
         <v>1</v>
@@ -2868,19 +2826,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B21" s="4">
-        <v>16.226427078246999</v>
+        <v>8.0549774169921804</v>
       </c>
       <c r="C21" s="4">
-        <v>5.67055603332588E-4</v>
+        <v>5.32810570951551E-4</v>
       </c>
       <c r="D21" s="4">
-        <v>5.7188904885958197E-4</v>
+        <v>5.3646351054316703E-4</v>
       </c>
       <c r="E21" s="4">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="F21" s="4">
         <v>1</v>
@@ -2888,19 +2846,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B22" s="4">
-        <v>32.452854156494098</v>
+        <v>16.1099548339843</v>
       </c>
       <c r="C22" s="4">
-        <v>5.7176252741805798E-4</v>
+        <v>5.3240928314626204E-4</v>
       </c>
       <c r="D22" s="4">
-        <v>5.7552236830815597E-4</v>
+        <v>5.4179476763145499E-4</v>
       </c>
       <c r="E22" s="4">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="F22" s="4">
         <v>1</v>
@@ -2908,19 +2866,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B23" s="4">
-        <v>32.452854156494098</v>
+        <v>16.1099548339843</v>
       </c>
       <c r="C23" s="4">
-        <v>5.6737957972485798E-4</v>
+        <v>5.3358408650383299E-4</v>
       </c>
       <c r="D23" s="4">
-        <v>5.7364400654135003E-4</v>
+        <v>5.36472148448822E-4</v>
       </c>
       <c r="E23" s="4">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="F23" s="4">
         <v>1</v>
@@ -2928,19 +2886,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B24" s="4">
-        <v>32.452854156494098</v>
+        <v>16.1099548339843</v>
       </c>
       <c r="C24" s="4">
-        <v>5.6918153483575097E-4</v>
+        <v>5.3274723063222998E-4</v>
       </c>
       <c r="D24" s="4">
-        <v>5.7355711513357003E-4</v>
+        <v>5.3596395738185595E-4</v>
       </c>
       <c r="E24" s="4">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="F24" s="4">
         <v>1</v>
@@ -2948,183 +2906,55 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B25" s="4">
-        <v>32.452854156494098</v>
+        <v>16.1099548339843</v>
       </c>
       <c r="C25" s="4">
-        <v>5.6762276153892301E-4</v>
+        <v>5.3647314948029802E-4</v>
       </c>
       <c r="D25" s="4">
-        <v>5.7121885683440201E-4</v>
+        <v>5.3925823626422805E-4</v>
       </c>
       <c r="E25" s="4">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="F25" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
-        <v>64</v>
-      </c>
-      <c r="B26" s="4">
-        <v>64.905708312988196</v>
-      </c>
-      <c r="C26" s="4">
-        <v>5.68279432782779E-4</v>
-      </c>
-      <c r="D26" s="4">
-        <v>5.7047968598539505E-4</v>
-      </c>
-      <c r="E26" s="4">
-        <v>89</v>
-      </c>
-      <c r="F26" s="4">
-        <v>1</v>
-      </c>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="4">
-        <v>64</v>
-      </c>
-      <c r="B27" s="4">
-        <v>64.905708312988196</v>
-      </c>
-      <c r="C27" s="4">
-        <v>5.6790220672573604E-4</v>
-      </c>
-      <c r="D27" s="4">
-        <v>5.7500906954167995E-4</v>
-      </c>
-      <c r="E27" s="4">
-        <v>90</v>
-      </c>
-      <c r="F27" s="4">
-        <v>1</v>
-      </c>
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="4">
-        <v>64</v>
-      </c>
-      <c r="B28" s="4">
-        <v>64.905708312988196</v>
-      </c>
-      <c r="C28" s="4">
-        <v>5.7340912069569095E-4</v>
-      </c>
-      <c r="D28" s="4">
-        <v>5.7523057440225496E-4</v>
-      </c>
-      <c r="E28" s="4">
-        <v>91</v>
-      </c>
-      <c r="F28" s="4">
-        <v>1</v>
-      </c>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="4">
-        <v>64</v>
-      </c>
-      <c r="B29" s="4">
-        <v>64.905708312988196</v>
-      </c>
-      <c r="C29" s="4">
-        <v>5.6885961322908297E-4</v>
-      </c>
-      <c r="D29" s="4">
-        <v>5.7300958230010795E-4</v>
-      </c>
-      <c r="E29" s="4">
-        <v>92</v>
-      </c>
-      <c r="F29" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>128</v>
-      </c>
-      <c r="B30">
-        <v>129.81141662597599</v>
-      </c>
-      <c r="C30">
-        <v>5.6827455968430499E-4</v>
-      </c>
-      <c r="D30">
-        <v>5.7056505630618702E-4</v>
-      </c>
-      <c r="E30">
-        <v>93</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>128</v>
-      </c>
-      <c r="B31">
-        <v>129.81141662597599</v>
-      </c>
-      <c r="C31">
-        <v>5.6999718340861895E-4</v>
-      </c>
-      <c r="D31">
-        <v>5.7594825234703396E-4</v>
-      </c>
-      <c r="E31">
-        <v>94</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>128</v>
-      </c>
-      <c r="B32">
-        <v>129.81141662597599</v>
-      </c>
-      <c r="C32">
-        <v>5.7726450277143697E-4</v>
-      </c>
-      <c r="D32">
-        <v>5.7969049370478604E-4</v>
-      </c>
-      <c r="E32">
-        <v>95</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>128</v>
-      </c>
-      <c r="B33">
-        <v>129.81141662597599</v>
-      </c>
-      <c r="C33">
-        <v>5.7288877841447103E-4</v>
-      </c>
-      <c r="D33">
-        <v>5.7711468225362501E-4</v>
-      </c>
-      <c r="E33">
-        <v>96</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4708,8 +4538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72D6121D-E5CF-1A48-8933-0BAD4C1790A9}">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4750,63 +4580,57 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+      <c r="A2" s="5">
         <v>1E-8</v>
       </c>
-      <c r="B2" s="2">
-        <v>6.0041419600613197E-4</v>
-      </c>
-      <c r="C2" s="2">
-        <v>6.0144016455489896E-4</v>
-      </c>
-      <c r="D2" s="2">
-        <v>161</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>11.711</v>
-      </c>
-      <c r="J2" s="3">
+      <c r="B2" s="4">
+        <v>5.41926246369257E-4</v>
+      </c>
+      <c r="C2" s="4">
+        <v>5.4944366914409901E-4</v>
+      </c>
+      <c r="D2" s="4">
+        <v>137</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5">
         <f ca="1">AVERAGE(OFFSET(A$2,(ROW()-2)*4,0,4,1))</f>
         <v>1E-8</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="6">
         <f t="shared" ref="K2:N9" ca="1" si="0">AVERAGE(OFFSET(B$2,(ROW()-2)*4,0,4,1))</f>
-        <v>6.1113358438991496E-4</v>
-      </c>
-      <c r="L2" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.1082911366302454E-4</v>
-      </c>
-      <c r="M2" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>162.5</v>
-      </c>
-      <c r="N2" s="3">
+        <v>5.4721664829412444E-4</v>
+      </c>
+      <c r="L2" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.5184196436089557E-4</v>
+      </c>
+      <c r="M2" s="5">
+        <f t="shared" ca="1" si="0"/>
+        <v>138.5</v>
+      </c>
+      <c r="N2" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+      <c r="A3" s="5">
         <v>1E-8</v>
       </c>
-      <c r="B3" s="2">
-        <v>6.2069915727738702E-4</v>
-      </c>
-      <c r="C3" s="2">
-        <v>6.2034941577124097E-4</v>
-      </c>
-      <c r="D3" s="2">
-        <v>162</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>13.887</v>
+      <c r="B3" s="4">
+        <v>5.4839390292763695E-4</v>
+      </c>
+      <c r="C3" s="4">
+        <v>5.5113619128182797E-4</v>
+      </c>
+      <c r="D3" s="4">
+        <v>138</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
       </c>
       <c r="J3" s="5">
         <f t="shared" ref="J3:J9" ca="1" si="1">AVERAGE(OFFSET(A$2,(ROW()-2)*4,0,4,1))</f>
@@ -4814,15 +4638,15 @@
       </c>
       <c r="K3" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.1009303094988494E-4</v>
+        <v>5.4662439271341951E-4</v>
       </c>
       <c r="L3" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.1235278471425693E-4</v>
+        <v>5.5097479761205873E-4</v>
       </c>
       <c r="M3" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>166.5</v>
+        <v>142.5</v>
       </c>
       <c r="N3" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -4830,63 +4654,57 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="A4" s="5">
         <v>1E-8</v>
       </c>
-      <c r="B4" s="2">
-        <v>6.1442296355035798E-4</v>
-      </c>
-      <c r="C4" s="2">
-        <v>6.1359601468726399E-4</v>
-      </c>
-      <c r="D4" s="2">
-        <v>163</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>15.571999999999999</v>
-      </c>
-      <c r="J4" s="5">
+      <c r="B4" s="4">
+        <v>5.5013704607263195E-4</v>
+      </c>
+      <c r="C4" s="4">
+        <v>5.5629565457629502E-4</v>
+      </c>
+      <c r="D4" s="4">
+        <v>139</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3">
         <f t="shared" ca="1" si="1"/>
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="K4" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.1089777218986706E-4</v>
-      </c>
-      <c r="L4" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>6.1244837885375417E-4</v>
-      </c>
-      <c r="M4" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>170.5</v>
-      </c>
-      <c r="N4" s="5">
+      <c r="K4" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.4678430308122128E-4</v>
+      </c>
+      <c r="L4" s="7">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.5093768420354803E-4</v>
+      </c>
+      <c r="M4" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>146.5</v>
+      </c>
+      <c r="N4" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="A5" s="5">
         <v>1E-8</v>
       </c>
-      <c r="B5" s="2">
-        <v>6.0899802072578299E-4</v>
-      </c>
-      <c r="C5" s="2">
-        <v>6.0793085963869401E-4</v>
-      </c>
-      <c r="D5" s="2">
-        <v>164</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>13.675000000000001</v>
+      <c r="B5" s="4">
+        <v>5.4840939780697196E-4</v>
+      </c>
+      <c r="C5" s="4">
+        <v>5.5049234244135996E-4</v>
+      </c>
+      <c r="D5" s="4">
+        <v>140</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
       </c>
       <c r="J5" s="5">
         <f t="shared" ca="1" si="1"/>
@@ -4894,15 +4712,15 @@
       </c>
       <c r="K5" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.1374124696037392E-4</v>
+        <v>5.5187327221501575E-4</v>
       </c>
       <c r="L5" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.1528938838922072E-4</v>
+        <v>5.5658835485788147E-4</v>
       </c>
       <c r="M5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>174.5</v>
+        <v>150.5</v>
       </c>
       <c r="N5" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -4914,13 +4732,13 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B6" s="4">
-        <v>6.0671953804695999E-4</v>
+        <v>5.4299019603058698E-4</v>
       </c>
       <c r="C6" s="4">
-        <v>6.1044584024029795E-4</v>
+        <v>5.5131978973758098E-4</v>
       </c>
       <c r="D6" s="4">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="E6" s="4">
         <v>1</v>
@@ -4932,15 +4750,15 @@
       </c>
       <c r="K6" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.6954505342799219E-4</v>
+        <v>5.7794446547049998E-4</v>
       </c>
       <c r="L6" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.6713293075873394E-4</v>
+        <v>5.8176417858784701E-4</v>
       </c>
       <c r="M6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>178.5</v>
+        <v>154.5</v>
       </c>
       <c r="N6" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -4952,13 +4770,13 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B7" s="4">
-        <v>6.1102821717868498E-4</v>
+        <v>5.4678227556869297E-4</v>
       </c>
       <c r="C7" s="4">
-        <v>6.1675184076862705E-4</v>
+        <v>5.4899573023579299E-4</v>
       </c>
       <c r="D7" s="4">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="E7" s="4">
         <v>1</v>
@@ -4970,15 +4788,15 @@
       </c>
       <c r="K7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>9.7733107005809833E-4</v>
+        <v>7.4878711584024083E-4</v>
       </c>
       <c r="L7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>9.6105509750624E-4</v>
+        <v>7.4920679617207421E-4</v>
       </c>
       <c r="M7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>182.5</v>
+        <v>158.5</v>
       </c>
       <c r="N7" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -4990,13 +4808,13 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B8" s="4">
-        <v>6.1980338537650603E-4</v>
+        <v>5.4677156819961902E-4</v>
       </c>
       <c r="C8" s="4">
-        <v>6.1879554853493395E-4</v>
+        <v>5.5187162969136795E-4</v>
       </c>
       <c r="D8" s="4">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="E8" s="4">
         <v>1</v>
@@ -5008,15 +4826,15 @@
       </c>
       <c r="K8" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>5.4788148409678095E-3</v>
+        <v>3.464594984706487E-3</v>
       </c>
       <c r="L8" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>5.2534477532081222E-3</v>
+        <v>3.3366143976702972E-3</v>
       </c>
       <c r="M8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>186.5</v>
+        <v>162.5</v>
       </c>
       <c r="N8" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -5028,13 +4846,13 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B9" s="4">
-        <v>6.0282098319738896E-4</v>
+        <v>5.4995353105477898E-4</v>
       </c>
       <c r="C9" s="4">
-        <v>6.0341790931316901E-4</v>
+        <v>5.51712040783493E-4</v>
       </c>
       <c r="D9" s="4">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="E9" s="4">
         <v>1</v>
@@ -5046,15 +4864,15 @@
       </c>
       <c r="K9" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95775334369633824</v>
+        <v>1.4517841141797583</v>
       </c>
       <c r="L9" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93775767128352272</v>
+        <v>1.073173625643844</v>
       </c>
       <c r="M9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>190.5</v>
+        <v>166.5</v>
       </c>
       <c r="N9" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -5062,74 +4880,74 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
+      <c r="A10" s="3">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="B10" s="4">
-        <v>6.0882785545675203E-4</v>
-      </c>
-      <c r="C10" s="4">
-        <v>6.1045092572282295E-4</v>
-      </c>
-      <c r="D10" s="4">
-        <v>169</v>
-      </c>
-      <c r="E10" s="4">
+      <c r="B10" s="2">
+        <v>5.4344469686038702E-4</v>
+      </c>
+      <c r="C10" s="2">
+        <v>5.5203445542716405E-4</v>
+      </c>
+      <c r="D10" s="2">
+        <v>145</v>
+      </c>
+      <c r="E10" s="2">
         <v>1</v>
       </c>
       <c r="L10">
         <f ca="1">MIN(L2:L9)</f>
-        <v>6.1082911366302454E-4</v>
+        <v>5.5093768420354803E-4</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
+      <c r="A11" s="3">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="B11" s="4">
-        <v>6.1842446837252004E-4</v>
-      </c>
-      <c r="C11" s="4">
-        <v>6.2343241638099798E-4</v>
-      </c>
-      <c r="D11" s="4">
-        <v>170</v>
-      </c>
-      <c r="E11" s="4">
+      <c r="B11" s="2">
+        <v>5.4675683104433103E-4</v>
+      </c>
+      <c r="C11" s="2">
+        <v>5.4808842351179601E-4</v>
+      </c>
+      <c r="D11" s="2">
+        <v>146</v>
+      </c>
+      <c r="E11" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
+      <c r="A12" s="3">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="B12" s="4">
-        <v>6.1882309581404605E-4</v>
-      </c>
-      <c r="C12" s="4">
-        <v>6.1897190786318204E-4</v>
-      </c>
-      <c r="D12" s="4">
-        <v>171</v>
-      </c>
-      <c r="E12" s="4">
+      <c r="B12" s="2">
+        <v>5.4924231246113696E-4</v>
+      </c>
+      <c r="C12" s="2">
+        <v>5.5396067965508703E-4</v>
+      </c>
+      <c r="D12" s="2">
+        <v>147</v>
+      </c>
+      <c r="E12" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
+      <c r="A13" s="3">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="B13" s="4">
-        <v>5.9751566911615003E-4</v>
-      </c>
-      <c r="C13" s="4">
-        <v>5.9693826544801403E-4</v>
-      </c>
-      <c r="D13" s="4">
-        <v>172</v>
-      </c>
-      <c r="E13" s="4">
+      <c r="B13" s="2">
+        <v>5.4769337195903001E-4</v>
+      </c>
+      <c r="C13" s="2">
+        <v>5.4966717822014502E-4</v>
+      </c>
+      <c r="D13" s="2">
+        <v>148</v>
+      </c>
+      <c r="E13" s="2">
         <v>1</v>
       </c>
     </row>
@@ -5138,13 +4956,13 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B14">
-        <v>6.1082480912829501E-4</v>
+        <v>5.4969457532279102E-4</v>
       </c>
       <c r="C14">
-        <v>6.1503354732368905E-4</v>
+        <v>5.5699890248097803E-4</v>
       </c>
       <c r="D14">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -5155,13 +4973,13 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B15">
-        <v>6.1185607839468401E-4</v>
+        <v>5.5122252376750103E-4</v>
       </c>
       <c r="C15">
-        <v>6.1564046103190903E-4</v>
+        <v>5.5241879449481005E-4</v>
       </c>
       <c r="D15">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -5172,13 +4990,13 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B16">
-        <v>6.2753468000449196E-4</v>
+        <v>5.55050844559446E-4</v>
       </c>
       <c r="C16">
-        <v>6.2554147762228804E-4</v>
+        <v>5.6302289079554404E-4</v>
       </c>
       <c r="D16">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -5189,13 +5007,13 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B17">
-        <v>6.0474942031402503E-4</v>
+        <v>5.5152514521032497E-4</v>
       </c>
       <c r="C17">
-        <v>6.04942067578997E-4</v>
+        <v>5.5391283166019399E-4</v>
       </c>
       <c r="D17">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -5206,13 +5024,13 @@
         <v>1E-4</v>
       </c>
       <c r="B18">
-        <v>6.6319399226955598E-4</v>
+        <v>5.7868409161455903E-4</v>
       </c>
       <c r="C18">
-        <v>6.7641262518558303E-4</v>
+        <v>5.8366856066907505E-4</v>
       </c>
       <c r="D18">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -5223,13 +5041,13 @@
         <v>1E-4</v>
       </c>
       <c r="B19">
-        <v>6.58737985892839E-4</v>
+        <v>5.7505093975923898E-4</v>
       </c>
       <c r="C19">
-        <v>6.5660282018383496E-4</v>
+        <v>5.7272240741973197E-4</v>
       </c>
       <c r="D19">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -5240,13 +5058,13 @@
         <v>1E-4</v>
       </c>
       <c r="B20">
-        <v>6.8931868084666601E-4</v>
+        <v>5.8041596319526403E-4</v>
       </c>
       <c r="C20">
-        <v>6.7292798402771904E-4</v>
+        <v>5.8937194304107697E-4</v>
       </c>
       <c r="D20">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -5257,13 +5075,13 @@
         <v>1E-4</v>
       </c>
       <c r="B21">
-        <v>6.6692955470290798E-4</v>
+        <v>5.7762686731293797E-4</v>
       </c>
       <c r="C21">
-        <v>6.6258829363779895E-4</v>
+        <v>5.8129380322150404E-4</v>
       </c>
       <c r="D21">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -5274,13 +5092,13 @@
         <v>1E-3</v>
       </c>
       <c r="B22">
-        <v>9.31884528891408E-4</v>
+        <v>7.5570705803111105E-4</v>
       </c>
       <c r="C22">
-        <v>9.4429495852036403E-4</v>
+        <v>7.5359870998521002E-4</v>
       </c>
       <c r="D22">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -5291,13 +5109,13 @@
         <v>1E-3</v>
       </c>
       <c r="B23">
-        <v>9.88194873165869E-4</v>
+        <v>7.3320005889981898E-4</v>
       </c>
       <c r="C23">
-        <v>1.0055391785671101E-3</v>
+        <v>7.1736435876020195E-4</v>
       </c>
       <c r="D23">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -5308,13 +5126,13 @@
         <v>1E-3</v>
       </c>
       <c r="B24">
-        <v>9.8992244564482298E-4</v>
+        <v>7.5610822103917602E-4</v>
       </c>
       <c r="C24">
-        <v>9.3182174923812098E-4</v>
+        <v>7.8136392069719403E-4</v>
       </c>
       <c r="D24">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -5325,13 +5143,13 @@
         <v>1E-3</v>
       </c>
       <c r="B25">
-        <v>9.9932243253029302E-4</v>
+        <v>7.5013312539085704E-4</v>
       </c>
       <c r="C25">
-        <v>9.6256450369936505E-4</v>
+        <v>7.4450019524569097E-4</v>
       </c>
       <c r="D25">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -5342,13 +5160,13 @@
         <v>0.01</v>
       </c>
       <c r="B26">
-        <v>5.5974833206582503E-3</v>
+        <v>3.4582590067759101E-3</v>
       </c>
       <c r="C26">
-        <v>5.79402166778959E-3</v>
+        <v>3.4015328233326001E-3</v>
       </c>
       <c r="D26">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -5359,13 +5177,13 @@
         <v>0.01</v>
       </c>
       <c r="B27">
-        <v>5.09926428388301E-3</v>
+        <v>3.43492303136736E-3</v>
       </c>
       <c r="C27">
-        <v>4.9462787826756397E-3</v>
+        <v>3.1165065656113501E-3</v>
       </c>
       <c r="D27">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -5376,13 +5194,13 @@
         <v>0.01</v>
       </c>
       <c r="B28">
-        <v>5.4447425207149597E-3</v>
+        <v>3.5513509649783299E-3</v>
       </c>
       <c r="C28">
-        <v>5.0669391156297197E-3</v>
+        <v>3.4254438467738999E-3</v>
       </c>
       <c r="D28">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -5393,13 +5211,13 @@
         <v>0.01</v>
       </c>
       <c r="B29">
-        <v>5.7737692386150199E-3</v>
+        <v>3.4138469357043498E-3</v>
       </c>
       <c r="C29">
-        <v>5.2065514467375404E-3</v>
+        <v>3.40297435496334E-3</v>
       </c>
       <c r="D29">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -5410,13 +5228,13 @@
         <v>0.1</v>
       </c>
       <c r="B30">
-        <v>7.9303193387191398E-2</v>
+        <v>3.4631295219063697E-2</v>
       </c>
       <c r="C30">
-        <v>7.6216881919019597E-2</v>
+        <v>3.2619364168139001E-2</v>
       </c>
       <c r="D30">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -5427,13 +5245,13 @@
         <v>0.1</v>
       </c>
       <c r="B31">
-        <v>3.6042677644304701</v>
+        <v>3.4280919279158099E-2</v>
       </c>
       <c r="C31">
-        <v>3.5316734268980201</v>
+        <v>2.6455554102731298E-2</v>
       </c>
       <c r="D31">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -5444,13 +5262,13 @@
         <v>0.1</v>
       </c>
       <c r="B32">
-        <v>7.6917742387837398E-2</v>
+        <v>5.70629115829467</v>
       </c>
       <c r="C32">
-        <v>7.2686749949770105E-2</v>
+        <v>4.2035867864159204</v>
       </c>
       <c r="D32">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -5461,13 +5279,13 @@
         <v>0.1</v>
       </c>
       <c r="B33">
-        <v>7.0524674579854202E-2</v>
+        <v>3.1933083926141199E-2</v>
       </c>
       <c r="C33">
-        <v>7.0453626367281003E-2</v>
+        <v>3.0032797888585702E-2</v>
       </c>
       <c r="D33">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="E33">
         <v>1</v>

--- a/eg2.xlsx
+++ b/eg2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiqing/Desktop/Lipschitz-System-ID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A463B09-9CD5-DF42-B6FE-93AF6A9AD619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BBEA802-11E8-2547-A96E-15814E18F6DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="34560" windowHeight="19800" xr2:uid="{624D5C9E-D399-6E42-9BAD-9829FF00FD61}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="34560" windowHeight="19800" activeTab="2" xr2:uid="{624D5C9E-D399-6E42-9BAD-9829FF00FD61}"/>
   </bookViews>
   <sheets>
     <sheet name="Ours 0.25" sheetId="1" r:id="rId1"/>
@@ -468,8 +468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C7B8AE4-A984-5E47-83F5-2F9341F82724}">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -520,13 +520,13 @@
         <v>0.5</v>
       </c>
       <c r="B2">
-        <v>0.50343608856201105</v>
+        <v>0.50201749801635698</v>
       </c>
       <c r="C2">
-        <v>2.1735071946101501</v>
+        <v>1.6040319173958599</v>
       </c>
       <c r="D2">
-        <v>2.18359927235135</v>
+        <v>1.60878175003513</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -539,16 +539,16 @@
         <v>0.5</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:O9" ca="1" si="0">AVERAGE(OFFSET(B$2,(ROW()-2)*4,0,4,1))</f>
-        <v>0.50343608856201105</v>
+        <f t="shared" ref="K2:O7" ca="1" si="0">AVERAGE(OFFSET(B$2,(ROW()-2)*4,0,4,1))</f>
+        <v>0.50201749801635698</v>
       </c>
       <c r="L2" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1780631303027875</v>
+        <v>1.60968002297316</v>
       </c>
       <c r="M2" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1810737962176026</v>
+        <v>1.6086577750315274</v>
       </c>
       <c r="N2">
         <f t="shared" ca="1" si="0"/>
@@ -564,13 +564,13 @@
         <v>0.5</v>
       </c>
       <c r="B3">
-        <v>0.50343608856201105</v>
+        <v>0.50201749801635698</v>
       </c>
       <c r="C3">
-        <v>2.1712246958617101</v>
+        <v>1.6065417148504999</v>
       </c>
       <c r="D3">
-        <v>2.1808614077841399</v>
+        <v>1.6117816047303899</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -579,20 +579,20 @@
         <v>0.25</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J9" ca="1" si="1">AVERAGE(OFFSET(A$2,(ROW()-2)*4,0,4,1))</f>
+        <f t="shared" ref="J3:J7" ca="1" si="1">AVERAGE(OFFSET(A$2,(ROW()-2)*4,0,4,1))</f>
         <v>1</v>
       </c>
       <c r="K3">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0068721771240201</v>
+        <v>1.00403499603271</v>
       </c>
       <c r="L3" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>3.6107831504077245E-2</v>
+        <v>1.4253109809201001E-2</v>
       </c>
       <c r="M3" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>3.6132179701902446E-2</v>
+        <v>1.417162999285345E-2</v>
       </c>
       <c r="N3">
         <f t="shared" ca="1" si="0"/>
@@ -608,13 +608,13 @@
         <v>0.5</v>
       </c>
       <c r="B4">
-        <v>0.50343608856201105</v>
+        <v>0.50201749801635698</v>
       </c>
       <c r="C4">
-        <v>2.18034577597478</v>
+        <v>1.61014389688042</v>
       </c>
       <c r="D4">
-        <v>2.18360775898975</v>
+        <v>1.6090118976155601</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -628,15 +628,15 @@
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="0"/>
-        <v>2.0137443542480402</v>
+        <v>2.0080699920654199</v>
       </c>
       <c r="L4" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>5.9455320209221671E-4</v>
+        <v>2.6832558577998848E-3</v>
       </c>
       <c r="M4" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>6.0949500928785634E-4</v>
+        <v>2.7252197144019153E-3</v>
       </c>
       <c r="N4">
         <f t="shared" ca="1" si="0"/>
@@ -652,13 +652,13 @@
         <v>0.5</v>
       </c>
       <c r="B5">
-        <v>0.50343608856201105</v>
+        <v>0.50201749801635698</v>
       </c>
       <c r="C5">
-        <v>2.18717485476451</v>
+        <v>1.6180025627658601</v>
       </c>
       <c r="D5">
-        <v>2.1762267457451698</v>
+        <v>1.6050558477450301</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -672,15 +672,15 @@
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="0"/>
-        <v>4.0274887084960902</v>
+        <v>4.0161399841308496</v>
       </c>
       <c r="L5" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>5.452778507087073E-4</v>
+        <v>2.6455514505950425E-3</v>
       </c>
       <c r="M5" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>5.581857397715602E-4</v>
+        <v>2.6858639755066747E-3</v>
       </c>
       <c r="N5">
         <f t="shared" ca="1" si="0"/>
@@ -696,13 +696,13 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>1.0068721771240201</v>
+        <v>1.00403499603271</v>
       </c>
       <c r="C6">
-        <v>3.6012388160748803E-2</v>
+        <v>1.4212394827253101E-2</v>
       </c>
       <c r="D6">
-        <v>3.5845790995628901E-2</v>
+        <v>1.4172130299933699E-2</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -716,15 +716,15 @@
       </c>
       <c r="K6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>8.0549774169921804</v>
+        <v>8.0322799682617099</v>
       </c>
       <c r="L6" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>5.4361808882502703E-4</v>
+        <v>2.6407969606132651E-3</v>
       </c>
       <c r="M6" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>5.5668496048140144E-4</v>
+        <v>2.6892789967275024E-3</v>
       </c>
       <c r="N6" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -740,13 +740,13 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>1.0068721771240201</v>
+        <v>1.00403499603271</v>
       </c>
       <c r="C7">
-        <v>3.62820042902307E-2</v>
+        <v>1.4072357421847599E-2</v>
       </c>
       <c r="D7">
-        <v>3.6863046941483797E-2</v>
+        <v>1.41718639832013E-2</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -760,15 +760,15 @@
       </c>
       <c r="K7" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>16.1099548339843</v>
+        <v>16.064559936523398</v>
       </c>
       <c r="L7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>5.4484329177667253E-4</v>
+        <v>2.6369558189028599E-3</v>
       </c>
       <c r="M7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>5.5814121512823625E-4</v>
+        <v>2.6894721230729252E-3</v>
       </c>
       <c r="N7" s="4">
         <f t="shared" ca="1" si="0"/>
@@ -784,13 +784,13 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>1.0068721771240201</v>
+        <v>1.00403499603271</v>
       </c>
       <c r="C8">
-        <v>3.57363707486801E-2</v>
+        <v>1.4097937691221101E-2</v>
       </c>
       <c r="D8">
-        <v>3.5740032934459098E-2</v>
+        <v>1.4068624603852701E-2</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -800,7 +800,7 @@
       </c>
       <c r="M8" s="8">
         <f ca="1">MIN(M2:M7)</f>
-        <v>5.5668496048140144E-4</v>
+        <v>2.6858639755066747E-3</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -808,13 +808,13 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>1.0068721771240201</v>
+        <v>1.00403499603271</v>
       </c>
       <c r="C9">
-        <v>3.6400562816649398E-2</v>
+        <v>1.4629749296482201E-2</v>
       </c>
       <c r="D9">
-        <v>3.6079847936038002E-2</v>
+        <v>1.42739010844261E-2</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -828,13 +828,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="4">
-        <v>2.0137443542480402</v>
+        <v>2.0080699920654199</v>
       </c>
       <c r="C10" s="4">
-        <v>6.0107597968523199E-4</v>
+        <v>2.69861010816778E-3</v>
       </c>
       <c r="D10" s="4">
-        <v>6.1308984884956598E-4</v>
+        <v>2.7344013240995098E-3</v>
       </c>
       <c r="E10" s="4">
         <v>9</v>
@@ -848,13 +848,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="4">
-        <v>2.0137443542480402</v>
+        <v>2.0080699920654199</v>
       </c>
       <c r="C11" s="4">
-        <v>5.8680281241774298E-4</v>
+        <v>2.6809683612363899E-3</v>
       </c>
       <c r="D11" s="4">
-        <v>5.96752308144465E-4</v>
+        <v>2.7150642230608399E-3</v>
       </c>
       <c r="E11" s="4">
         <v>10</v>
@@ -868,13 +868,13 @@
         <v>2</v>
       </c>
       <c r="B12" s="4">
-        <v>2.0137443542480402</v>
+        <v>2.0080699920654199</v>
       </c>
       <c r="C12" s="4">
-        <v>6.0462306630293405E-4</v>
+        <v>2.6862568438503899E-3</v>
       </c>
       <c r="D12" s="4">
-        <v>6.3861888324675696E-4</v>
+        <v>2.7510193532487002E-3</v>
       </c>
       <c r="E12" s="4">
         <v>11</v>
@@ -888,13 +888,13 @@
         <v>2</v>
       </c>
       <c r="B13" s="4">
-        <v>2.0137443542480402</v>
+        <v>2.0080699920654199</v>
       </c>
       <c r="C13" s="4">
-        <v>5.8571094996295804E-4</v>
+        <v>2.6671881179449802E-3</v>
       </c>
       <c r="D13" s="4">
-        <v>5.8951899691063697E-4</v>
+        <v>2.70039395719861E-3</v>
       </c>
       <c r="E13" s="4">
         <v>12</v>
@@ -908,13 +908,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="4">
-        <v>4.0274887084960902</v>
+        <v>4.0161399841308496</v>
       </c>
       <c r="C14" s="4">
-        <v>5.4981337287789503E-4</v>
+        <v>2.6619284470108802E-3</v>
       </c>
       <c r="D14" s="4">
-        <v>5.6310984025009303E-4</v>
+        <v>2.6998612614478998E-3</v>
       </c>
       <c r="E14" s="4">
         <v>13</v>
@@ -928,13 +928,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="4">
-        <v>4.0274887084960902</v>
+        <v>4.0161399841308496</v>
       </c>
       <c r="C15" s="4">
-        <v>5.3967553996154703E-4</v>
+        <v>2.63997281243087E-3</v>
       </c>
       <c r="D15" s="4">
-        <v>5.4952412232709097E-4</v>
+        <v>2.6736399855844298E-3</v>
       </c>
       <c r="E15" s="4">
         <v>14</v>
@@ -948,13 +948,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="4">
-        <v>4.0274887084960902</v>
+        <v>4.0161399841308496</v>
       </c>
       <c r="C16" s="4">
-        <v>5.4906379797786502E-4</v>
+        <v>2.6450714194304801E-3</v>
       </c>
       <c r="D16" s="4">
-        <v>5.6453061139560997E-4</v>
+        <v>2.6953982628265E-3</v>
       </c>
       <c r="E16" s="4">
         <v>15</v>
@@ -968,13 +968,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="4">
-        <v>4.0274887084960902</v>
+        <v>4.0161399841308496</v>
       </c>
       <c r="C17" s="4">
-        <v>5.4255869201752201E-4</v>
+        <v>2.6352331235079398E-3</v>
       </c>
       <c r="D17" s="4">
-        <v>5.5557838511344703E-4</v>
+        <v>2.67455639216787E-3</v>
       </c>
       <c r="E17" s="4">
         <v>16</v>
@@ -988,13 +988,13 @@
         <v>8</v>
       </c>
       <c r="B18" s="2">
-        <v>8.0549774169921804</v>
+        <v>8.0322799682617099</v>
       </c>
       <c r="C18" s="2">
-        <v>5.4833445895261499E-4</v>
+        <v>2.6585307746390002E-3</v>
       </c>
       <c r="D18" s="2">
-        <v>5.6080434639689005E-4</v>
+        <v>2.7070754462746299E-3</v>
       </c>
       <c r="E18" s="2">
         <v>17</v>
@@ -1008,13 +1008,13 @@
         <v>8</v>
       </c>
       <c r="B19" s="2">
-        <v>8.0549774169921804</v>
+        <v>8.0322799682617099</v>
       </c>
       <c r="C19" s="2">
-        <v>5.4089286235594095E-4</v>
+        <v>2.6349038401749102E-3</v>
       </c>
       <c r="D19" s="2">
-        <v>5.5435626410914698E-4</v>
+        <v>2.6753074934433201E-3</v>
       </c>
       <c r="E19" s="2">
         <v>18</v>
@@ -1028,13 +1028,13 @@
         <v>8</v>
       </c>
       <c r="B20" s="2">
-        <v>8.0549774169921804</v>
+        <v>8.0322799682617099</v>
       </c>
       <c r="C20" s="2">
-        <v>5.4240873907277496E-4</v>
+        <v>2.6375412374473801E-3</v>
       </c>
       <c r="D20" s="2">
-        <v>5.5606377768555601E-4</v>
+        <v>2.6924385033713898E-3</v>
       </c>
       <c r="E20" s="2">
         <v>19</v>
@@ -1048,13 +1048,13 @@
         <v>8</v>
       </c>
       <c r="B21" s="2">
-        <v>8.0549774169921804</v>
+        <v>8.0322799682617099</v>
       </c>
       <c r="C21" s="2">
-        <v>5.42836294918777E-4</v>
+        <v>2.6322119901917699E-3</v>
       </c>
       <c r="D21" s="2">
-        <v>5.5551545373401295E-4</v>
+        <v>2.6822945438206699E-3</v>
       </c>
       <c r="E21" s="2">
         <v>20</v>
@@ -1068,13 +1068,13 @@
         <v>16</v>
       </c>
       <c r="B22" s="4">
-        <v>16.1099548339843</v>
+        <v>16.064559936523398</v>
       </c>
       <c r="C22" s="4">
-        <v>5.4647215952722996E-4</v>
+        <v>2.6526001629057698E-3</v>
       </c>
       <c r="D22" s="4">
-        <v>5.6024865027825502E-4</v>
+        <v>2.7053089764942002E-3</v>
       </c>
       <c r="E22" s="4">
         <v>21</v>
@@ -1088,13 +1088,13 @@
         <v>16</v>
       </c>
       <c r="B23" s="4">
-        <v>16.1099548339843</v>
+        <v>16.064559936523398</v>
       </c>
       <c r="C23" s="4">
-        <v>5.4397792585051698E-4</v>
+        <v>2.6308262341056599E-3</v>
       </c>
       <c r="D23" s="4">
-        <v>5.5711213936791902E-4</v>
+        <v>2.6753881536898702E-3</v>
       </c>
       <c r="E23" s="4">
         <v>22</v>
@@ -1108,13 +1108,13 @@
         <v>16</v>
       </c>
       <c r="B24" s="4">
-        <v>16.1099548339843</v>
+        <v>16.064559936523398</v>
       </c>
       <c r="C24" s="4">
-        <v>5.4389158090291704E-4</v>
+        <v>2.6333988125133399E-3</v>
       </c>
       <c r="D24" s="4">
-        <v>5.5760146874287797E-4</v>
+        <v>2.6906877266729499E-3</v>
       </c>
       <c r="E24" s="4">
         <v>23</v>
@@ -1128,13 +1128,13 @@
         <v>16</v>
       </c>
       <c r="B25" s="4">
-        <v>16.1099548339843</v>
+        <v>16.064559936523398</v>
       </c>
       <c r="C25" s="4">
-        <v>5.4503150082602602E-4</v>
+        <v>2.6309980660866698E-3</v>
       </c>
       <c r="D25" s="4">
-        <v>5.5760260212389299E-4</v>
+        <v>2.6865036354346799E-3</v>
       </c>
       <c r="E25" s="4">
         <v>24</v>
@@ -1154,7 +1154,7 @@
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="A2" sqref="A2:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1205,13 +1205,13 @@
         <v>0.5</v>
       </c>
       <c r="B2">
-        <v>0.50343608856201105</v>
+        <v>0.50201749801635698</v>
       </c>
       <c r="C2">
-        <v>2.1733742693361702</v>
+        <v>1.60636234435791</v>
       </c>
       <c r="D2">
-        <v>2.1836015160676001</v>
+        <v>1.6087801357742999</v>
       </c>
       <c r="E2">
         <v>25</v>
@@ -1225,15 +1225,15 @@
       </c>
       <c r="K2">
         <f t="shared" ref="K2:O2" ca="1" si="0">AVERAGE(OFFSET(B$2,(ROW()-2)*4,0,4,1))</f>
-        <v>0.50343608856201105</v>
+        <v>0.50201749801635698</v>
       </c>
       <c r="L2" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1778302356457901</v>
+        <v>1.6107299445917025</v>
       </c>
       <c r="M2" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1810733448168254</v>
+        <v>1.6086574916247276</v>
       </c>
       <c r="N2">
         <f t="shared" ca="1" si="0"/>
@@ -1249,13 +1249,13 @@
         <v>0.5</v>
       </c>
       <c r="B3">
-        <v>0.50343608856201105</v>
+        <v>0.50201749801635698</v>
       </c>
       <c r="C3">
-        <v>2.1753447901326601</v>
+        <v>1.6078533566416999</v>
       </c>
       <c r="D3">
-        <v>2.1808622118773702</v>
+        <v>1.61178210130922</v>
       </c>
       <c r="E3">
         <v>26</v>
@@ -1264,27 +1264,27 @@
         <v>0.5</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J9" ca="1" si="1">AVERAGE(OFFSET(A$2,(ROW()-2)*4,0,4,1))</f>
+        <f t="shared" ref="J3:J7" ca="1" si="1">AVERAGE(OFFSET(A$2,(ROW()-2)*4,0,4,1))</f>
         <v>1</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K9" ca="1" si="2">AVERAGE(OFFSET(B$2,(ROW()-2)*4,0,4,1))</f>
-        <v>1.0068721771240201</v>
+        <f t="shared" ref="K3:K7" ca="1" si="2">AVERAGE(OFFSET(B$2,(ROW()-2)*4,0,4,1))</f>
+        <v>1.00403499603271</v>
       </c>
       <c r="L3" s="8">
-        <f t="shared" ref="L3:L9" ca="1" si="3">AVERAGE(OFFSET(C$2,(ROW()-2)*4,0,4,1))</f>
-        <v>3.5472061150311499E-2</v>
+        <f t="shared" ref="L3:L7" ca="1" si="3">AVERAGE(OFFSET(C$2,(ROW()-2)*4,0,4,1))</f>
+        <v>1.43543535325759E-2</v>
       </c>
       <c r="M3" s="8">
-        <f t="shared" ref="M3:M9" ca="1" si="4">AVERAGE(OFFSET(D$2,(ROW()-2)*4,0,4,1))</f>
-        <v>3.5557323856172454E-2</v>
+        <f t="shared" ref="M3:M7" ca="1" si="4">AVERAGE(OFFSET(D$2,(ROW()-2)*4,0,4,1))</f>
+        <v>1.4249456754238974E-2</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N9" ca="1" si="5">AVERAGE(OFFSET(E$2,(ROW()-2)*4,0,4,1))</f>
+        <f t="shared" ref="N3:N7" ca="1" si="5">AVERAGE(OFFSET(E$2,(ROW()-2)*4,0,4,1))</f>
         <v>30.5</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O9" ca="1" si="6">AVERAGE(OFFSET(F$2,(ROW()-2)*4,0,4,1))</f>
+        <f t="shared" ref="O3:O7" ca="1" si="6">AVERAGE(OFFSET(F$2,(ROW()-2)*4,0,4,1))</f>
         <v>0.5</v>
       </c>
     </row>
@@ -1293,13 +1293,13 @@
         <v>0.5</v>
       </c>
       <c r="B4">
-        <v>0.50343608856201105</v>
+        <v>0.50201749801635698</v>
       </c>
       <c r="C4">
-        <v>2.17870248773227</v>
+        <v>1.6111428566253201</v>
       </c>
       <c r="D4">
-        <v>2.1836066625680099</v>
+        <v>1.6090114663360899</v>
       </c>
       <c r="E4">
         <v>27</v>
@@ -1313,15 +1313,15 @@
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="2"/>
-        <v>2.0137443542480402</v>
+        <v>2.0080699920654199</v>
       </c>
       <c r="L4" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>5.5837750872083768E-4</v>
+        <v>2.6658235897738494E-3</v>
       </c>
       <c r="M4" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>5.649203405111939E-4</v>
+        <v>2.6903139092888228E-3</v>
       </c>
       <c r="N4">
         <f t="shared" ca="1" si="5"/>
@@ -1337,13 +1337,13 @@
         <v>0.5</v>
       </c>
       <c r="B5">
-        <v>0.50343608856201105</v>
+        <v>0.50201749801635698</v>
       </c>
       <c r="C5">
-        <v>2.1838993953820598</v>
+        <v>1.6175612207418799</v>
       </c>
       <c r="D5">
-        <v>2.1762229887543199</v>
+        <v>1.6050562630792999</v>
       </c>
       <c r="E5">
         <v>28</v>
@@ -1357,15 +1357,15 @@
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="2"/>
-        <v>4.0274887084960902</v>
+        <v>4.0161399841308496</v>
       </c>
       <c r="L5" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3801258185174651E-4</v>
+        <v>2.6503132731347202E-3</v>
       </c>
       <c r="M5" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>5.4533378187541723E-4</v>
+        <v>2.6761502347097546E-3</v>
       </c>
       <c r="N5">
         <f t="shared" ca="1" si="5"/>
@@ -1381,13 +1381,13 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>1.0068721771240201</v>
+        <v>1.00403499603271</v>
       </c>
       <c r="C6">
-        <v>3.5639402269126798E-2</v>
+        <v>1.43980162527662E-2</v>
       </c>
       <c r="D6">
-        <v>3.56954152867862E-2</v>
+        <v>1.43033342530867E-2</v>
       </c>
       <c r="E6">
         <v>29</v>
@@ -1401,15 +1401,15 @@
       </c>
       <c r="K6" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>8.0549774169921804</v>
+        <v>8.0322799682617099</v>
       </c>
       <c r="L6" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3585417960237041E-4</v>
+        <v>2.6463595676063227E-3</v>
       </c>
       <c r="M6" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.4390126821484124E-4</v>
+        <v>2.6749424098035752E-3</v>
       </c>
       <c r="N6" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -1425,13 +1425,13 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>1.0068721771240201</v>
+        <v>1.00403499603271</v>
       </c>
       <c r="C7">
-        <v>3.5394447382551403E-2</v>
+        <v>1.44472058636311E-2</v>
       </c>
       <c r="D7">
-        <v>3.5481934477189503E-2</v>
+        <v>1.4438540496786299E-2</v>
       </c>
       <c r="E7">
         <v>30</v>
@@ -1445,15 +1445,15 @@
       </c>
       <c r="K7" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>16.1099548339843</v>
+        <v>16.064559936523398</v>
       </c>
       <c r="L7" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3655499198266372E-4</v>
+        <v>2.6467788747672424E-3</v>
       </c>
       <c r="M7" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.4450290894712675E-4</v>
+        <v>2.6755391769882272E-3</v>
       </c>
       <c r="N7" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -1469,13 +1469,13 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>1.0068721771240201</v>
+        <v>1.00403499603271</v>
       </c>
       <c r="C8">
-        <v>3.5323340344590802E-2</v>
+        <v>1.40570152711611E-2</v>
       </c>
       <c r="D8">
-        <v>3.5554324270813301E-2</v>
+        <v>1.4064750895141399E-2</v>
       </c>
       <c r="E8">
         <v>31</v>
@@ -1485,7 +1485,7 @@
       </c>
       <c r="M8" s="8">
         <f ca="1">MIN(M2:M7)</f>
-        <v>5.4390126821484124E-4</v>
+        <v>2.6749424098035752E-3</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -1493,13 +1493,13 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>1.0068721771240201</v>
+        <v>1.00403499603271</v>
       </c>
       <c r="C9">
-        <v>3.5531054604976998E-2</v>
+        <v>1.45151767427452E-2</v>
       </c>
       <c r="D9">
-        <v>3.5497621389900799E-2</v>
+        <v>1.4191201371941501E-2</v>
       </c>
       <c r="E9">
         <v>32</v>
@@ -1513,13 +1513,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="4">
-        <v>2.0137443542480402</v>
+        <v>2.0080699920654199</v>
       </c>
       <c r="C10" s="4">
-        <v>5.6286719434272701E-4</v>
+        <v>2.6793622042828999E-3</v>
       </c>
       <c r="D10" s="4">
-        <v>5.6907127442277301E-4</v>
+        <v>2.70745136247129E-3</v>
       </c>
       <c r="E10" s="4">
         <v>33</v>
@@ -1533,13 +1533,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="4">
-        <v>2.0137443542480402</v>
+        <v>2.0080699920654199</v>
       </c>
       <c r="C11" s="4">
-        <v>5.5305552123986203E-4</v>
+        <v>2.6741617034894498E-3</v>
       </c>
       <c r="D11" s="4">
-        <v>5.5302580103728995E-4</v>
+        <v>2.6793199632862501E-3</v>
       </c>
       <c r="E11" s="4">
         <v>34</v>
@@ -1553,13 +1553,13 @@
         <v>2</v>
       </c>
       <c r="B12" s="4">
-        <v>2.0137443542480402</v>
+        <v>2.0080699920654199</v>
       </c>
       <c r="C12" s="4">
-        <v>5.5906595253108805E-4</v>
+        <v>2.6479015616289398E-3</v>
       </c>
       <c r="D12" s="4">
-        <v>5.7509818072074795E-4</v>
+        <v>2.6945757982172699E-3</v>
       </c>
       <c r="E12" s="4">
         <v>35</v>
@@ -1573,13 +1573,13 @@
         <v>2</v>
       </c>
       <c r="B13" s="4">
-        <v>2.0137443542480402</v>
+        <v>2.0080699920654199</v>
       </c>
       <c r="C13" s="4">
-        <v>5.5852136676967396E-4</v>
+        <v>2.66186888969411E-3</v>
       </c>
       <c r="D13" s="4">
-        <v>5.6248610586396501E-4</v>
+        <v>2.6799085131804798E-3</v>
       </c>
       <c r="E13" s="4">
         <v>36</v>
@@ -1593,13 +1593,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="4">
-        <v>4.0274887084960902</v>
+        <v>4.0161399841308496</v>
       </c>
       <c r="C14" s="4">
-        <v>5.4149631151971099E-4</v>
+        <v>2.6638885222065901E-3</v>
       </c>
       <c r="D14" s="4">
-        <v>5.4983834526204896E-4</v>
+        <v>2.69401625427565E-3</v>
       </c>
       <c r="E14" s="4">
         <v>37</v>
@@ -1613,13 +1613,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="4">
-        <v>4.0274887084960902</v>
+        <v>4.0161399841308496</v>
       </c>
       <c r="C15" s="4">
-        <v>5.3796559111393704E-4</v>
+        <v>2.6562785991607299E-3</v>
       </c>
       <c r="D15" s="4">
-        <v>5.4137504516483799E-4</v>
+        <v>2.6621057023145898E-3</v>
       </c>
       <c r="E15" s="4">
         <v>38</v>
@@ -1633,13 +1633,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="4">
-        <v>4.0274887084960902</v>
+        <v>4.0161399841308496</v>
       </c>
       <c r="C16" s="4">
-        <v>5.3502259308847104E-4</v>
+        <v>2.63390972460515E-3</v>
       </c>
       <c r="D16" s="4">
-        <v>5.4625761109422001E-4</v>
+        <v>2.6788843060090201E-3</v>
       </c>
       <c r="E16" s="4">
         <v>39</v>
@@ -1653,13 +1653,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="4">
-        <v>4.0274887084960902</v>
+        <v>4.0161399841308496</v>
       </c>
       <c r="C17" s="4">
-        <v>5.3756583168486697E-4</v>
+        <v>2.6471762465664099E-3</v>
       </c>
       <c r="D17" s="4">
-        <v>5.4386412598056205E-4</v>
+        <v>2.6695946762397599E-3</v>
       </c>
       <c r="E17" s="4">
         <v>40</v>
@@ -1673,13 +1673,13 @@
         <v>8</v>
       </c>
       <c r="B18" s="2">
-        <v>8.0549774169921804</v>
+        <v>8.0322799682617099</v>
       </c>
       <c r="C18" s="2">
-        <v>5.38865440731909E-4</v>
+        <v>2.6569964844709599E-3</v>
       </c>
       <c r="D18" s="2">
-        <v>5.4807743264486699E-4</v>
+        <v>2.6872719676607499E-3</v>
       </c>
       <c r="E18" s="2">
         <v>41</v>
@@ -1693,13 +1693,13 @@
         <v>8</v>
       </c>
       <c r="B19" s="2">
-        <v>8.0549774169921804</v>
+        <v>8.0322799682617099</v>
       </c>
       <c r="C19" s="2">
-        <v>5.3656613919140096E-4</v>
+        <v>2.6543432067091801E-3</v>
       </c>
       <c r="D19" s="2">
-        <v>5.3999117137359996E-4</v>
+        <v>2.6648144733018302E-3</v>
       </c>
       <c r="E19" s="2">
         <v>42</v>
@@ -1713,13 +1713,13 @@
         <v>8</v>
       </c>
       <c r="B20" s="2">
-        <v>8.0549774169921804</v>
+        <v>8.0322799682617099</v>
       </c>
       <c r="C20" s="2">
-        <v>5.3291574206810197E-4</v>
+        <v>2.6305411241579601E-3</v>
       </c>
       <c r="D20" s="2">
-        <v>5.4513137442042004E-4</v>
+        <v>2.67834401730993E-3</v>
       </c>
       <c r="E20" s="2">
         <v>43</v>
@@ -1733,13 +1733,13 @@
         <v>8</v>
       </c>
       <c r="B21" s="2">
-        <v>8.0549774169921804</v>
+        <v>8.0322799682617099</v>
       </c>
       <c r="C21" s="2">
-        <v>5.3506939641807002E-4</v>
+        <v>2.6435574550871901E-3</v>
       </c>
       <c r="D21" s="2">
-        <v>5.4240509442047798E-4</v>
+        <v>2.6693391809417899E-3</v>
       </c>
       <c r="E21" s="2">
         <v>44</v>
@@ -1753,13 +1753,13 @@
         <v>16</v>
       </c>
       <c r="B22" s="4">
-        <v>16.1099548339843</v>
+        <v>16.064559936523398</v>
       </c>
       <c r="C22" s="4">
-        <v>5.3752587259056704E-4</v>
+        <v>2.6565076226886201E-3</v>
       </c>
       <c r="D22" s="4">
-        <v>5.4582439297750805E-4</v>
+        <v>2.69296751535574E-3</v>
       </c>
       <c r="E22" s="4">
         <v>45</v>
@@ -1773,13 +1773,13 @@
         <v>16</v>
       </c>
       <c r="B23" s="4">
-        <v>16.1099548339843</v>
+        <v>16.064559936523398</v>
       </c>
       <c r="C23" s="4">
-        <v>5.3690766855053697E-4</v>
+        <v>2.65418897165705E-3</v>
       </c>
       <c r="D23" s="4">
-        <v>5.4326290757822403E-4</v>
+        <v>2.66152058704311E-3</v>
       </c>
       <c r="E23" s="4">
         <v>46</v>
@@ -1793,13 +1793,13 @@
         <v>16</v>
       </c>
       <c r="B24" s="4">
-        <v>16.1099548339843</v>
+        <v>16.064559936523398</v>
       </c>
       <c r="C24" s="4">
-        <v>5.3338661182525903E-4</v>
+        <v>2.6293851088542001E-3</v>
       </c>
       <c r="D24" s="4">
-        <v>5.4406284359817601E-4</v>
+        <v>2.6765463155973101E-3</v>
       </c>
       <c r="E24" s="4">
         <v>47</v>
@@ -1813,13 +1813,13 @@
         <v>16</v>
       </c>
       <c r="B25" s="4">
-        <v>16.1099548339843</v>
+        <v>16.064559936523398</v>
       </c>
       <c r="C25" s="4">
-        <v>5.3839981496429197E-4</v>
+        <v>2.6470337958690998E-3</v>
       </c>
       <c r="D25" s="4">
-        <v>5.4486149163459903E-4</v>
+        <v>2.6711222899567502E-3</v>
       </c>
       <c r="E25" s="4">
         <v>48</v>
@@ -1837,8 +1837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C910F4E5-1871-5D44-A4D1-B4921F11A929}">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1889,13 +1889,13 @@
         <v>0.5</v>
       </c>
       <c r="B2">
-        <v>0.50343608856201105</v>
+        <v>0.50201749801635698</v>
       </c>
       <c r="C2">
-        <v>2.1766328506469699</v>
+        <v>1.60939243011474</v>
       </c>
       <c r="D2">
-        <v>2.1835943566765699</v>
+        <v>1.60877783738883</v>
       </c>
       <c r="E2">
         <v>49</v>
@@ -1909,15 +1909,15 @@
       </c>
       <c r="K2">
         <f t="shared" ref="K2:O7" ca="1" si="0">AVERAGE(OFFSET(B$2,(ROW()-2)*4,0,4,1))</f>
-        <v>0.50343608856201105</v>
+        <v>0.50201749801635698</v>
       </c>
       <c r="L2" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1774129129886575</v>
+        <v>1.6094626363277376</v>
       </c>
       <c r="M2" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>2.18107405096102</v>
+        <v>1.60865762715886</v>
       </c>
       <c r="N2">
         <f t="shared" ca="1" si="0"/>
@@ -1933,13 +1933,13 @@
         <v>0.5</v>
       </c>
       <c r="B3">
-        <v>0.50343608856201105</v>
+        <v>0.50201749801635698</v>
       </c>
       <c r="C3">
-        <v>2.1775262559890698</v>
+        <v>1.6088195510864201</v>
       </c>
       <c r="D3">
-        <v>2.1808682247331901</v>
+        <v>1.6117847284693601</v>
       </c>
       <c r="E3">
         <v>50</v>
@@ -1953,15 +1953,15 @@
       </c>
       <c r="K3">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0068721771240201</v>
+        <v>1.00403499603271</v>
       </c>
       <c r="L3" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5877577021717975E-2</v>
+        <v>1.4142242239415575E-2</v>
       </c>
       <c r="M3" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>3.589527369447193E-2</v>
+        <v>1.4021678844757451E-2</v>
       </c>
       <c r="N3">
         <f t="shared" ca="1" si="0"/>
@@ -1977,13 +1977,13 @@
         <v>0.5</v>
       </c>
       <c r="B4">
-        <v>0.50343608856201105</v>
+        <v>0.50201749801635698</v>
       </c>
       <c r="C4">
-        <v>2.1766223686218198</v>
+        <v>1.6091734893798799</v>
       </c>
       <c r="D4">
-        <v>2.1836080429660201</v>
+        <v>1.60901171690339</v>
       </c>
       <c r="E4">
         <v>51</v>
@@ -1997,15 +1997,15 @@
       </c>
       <c r="K4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.0137443542480402</v>
+        <v>2.0080699920654199</v>
       </c>
       <c r="L4" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>5.44796273100655E-4</v>
+        <v>2.66313693672418E-3</v>
       </c>
       <c r="M4" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>5.4843390178251203E-4</v>
+        <v>2.6801768130515977E-3</v>
       </c>
       <c r="N4" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -2021,13 +2021,13 @@
         <v>0.5</v>
       </c>
       <c r="B5">
-        <v>0.50343608856201105</v>
+        <v>0.50201749801635698</v>
       </c>
       <c r="C5">
-        <v>2.17887017669677</v>
+        <v>1.6104650747299101</v>
       </c>
       <c r="D5">
-        <v>2.1762255794683001</v>
+        <v>1.6050562258738601</v>
       </c>
       <c r="E5">
         <v>52</v>
@@ -2041,15 +2041,15 @@
       </c>
       <c r="K5" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>4.0274887084960902</v>
+        <v>4.0161399841308496</v>
       </c>
       <c r="L5" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>5.3488306086510364E-4</v>
+        <v>2.6552034677937574E-3</v>
       </c>
       <c r="M5" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>5.4031718390879576E-4</v>
+        <v>2.6717358976928777E-3</v>
       </c>
       <c r="N5" s="4">
         <f t="shared" ca="1" si="0"/>
@@ -2065,13 +2065,13 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>1.0068721771240201</v>
+        <v>1.00403499603271</v>
       </c>
       <c r="C6">
-        <v>3.5592726659774698E-2</v>
+        <v>1.3969874751567799E-2</v>
       </c>
       <c r="D6">
-        <v>3.5595786431507702E-2</v>
+        <v>1.38455461799671E-2</v>
       </c>
       <c r="E6">
         <v>53</v>
@@ -2085,15 +2085,15 @@
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="0"/>
-        <v>8.0549774169921804</v>
+        <v>8.0322799682617099</v>
       </c>
       <c r="L6" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>5.3306349304039005E-4</v>
+        <v>2.6532512893900229E-3</v>
       </c>
       <c r="M6" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>5.3853282588534003E-4</v>
+        <v>2.6700411271452129E-3</v>
       </c>
       <c r="N6">
         <f t="shared" ca="1" si="0"/>
@@ -2109,13 +2109,13 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>1.0068721771240201</v>
+        <v>1.00403499603271</v>
       </c>
       <c r="C7">
-        <v>3.6501656001806201E-2</v>
+        <v>1.4454277741163901E-2</v>
       </c>
       <c r="D7">
-        <v>3.6691080304277902E-2</v>
+        <v>1.4436141148826499E-2</v>
       </c>
       <c r="E7">
         <v>54</v>
@@ -2129,15 +2129,15 @@
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="0"/>
-        <v>16.1099548339843</v>
+        <v>16.064559936523398</v>
       </c>
       <c r="L7" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>5.3380343744065576E-4</v>
+        <v>2.6515201264061001E-3</v>
       </c>
       <c r="M7" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>5.3837227743159025E-4</v>
+        <v>2.6691702626805676E-3</v>
       </c>
       <c r="N7">
         <f t="shared" ca="1" si="0"/>
@@ -2153,13 +2153,13 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>1.0068721771240201</v>
+        <v>1.00403499603271</v>
       </c>
       <c r="C8">
-        <v>3.5614374345541003E-2</v>
+        <v>1.39996772453188E-2</v>
       </c>
       <c r="D8">
-        <v>3.5849563279159502E-2</v>
+        <v>1.3964034723723E-2</v>
       </c>
       <c r="E8">
         <v>55</v>
@@ -2172,7 +2172,7 @@
       <c r="L8" s="6"/>
       <c r="M8" s="6">
         <f ca="1">MIN(M2:M7)</f>
-        <v>5.3837227743159025E-4</v>
+        <v>2.6691702626805676E-3</v>
       </c>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
@@ -2182,13 +2182,13 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>1.0068721771240201</v>
+        <v>1.00403499603271</v>
       </c>
       <c r="C9">
-        <v>3.5801551079749999E-2</v>
+        <v>1.41451392196118E-2</v>
       </c>
       <c r="D9">
-        <v>3.5444664762942599E-2</v>
+        <v>1.38409933265132E-2</v>
       </c>
       <c r="E9">
         <v>56</v>
@@ -2202,13 +2202,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="2">
-        <v>2.0137443542480402</v>
+        <v>2.0080699920654199</v>
       </c>
       <c r="C10" s="2">
-        <v>5.4671502402052203E-4</v>
+        <v>2.6641007740050501E-3</v>
       </c>
       <c r="D10" s="2">
-        <v>5.5108411451890605E-4</v>
+        <v>2.69873827179763E-3</v>
       </c>
       <c r="E10" s="2">
         <v>57</v>
@@ -2222,13 +2222,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="2">
-        <v>2.0137443542480402</v>
+        <v>2.0080699920654199</v>
       </c>
       <c r="C11" s="2">
-        <v>5.41395342070609E-4</v>
+        <v>2.66469187103211E-3</v>
       </c>
       <c r="D11" s="2">
-        <v>5.4446025213944396E-4</v>
+        <v>2.6724596187519801E-3</v>
       </c>
       <c r="E11" s="2">
         <v>58</v>
@@ -2242,13 +2242,13 @@
         <v>2</v>
       </c>
       <c r="B12" s="2">
-        <v>2.0137443542480402</v>
+        <v>2.0080699920654199</v>
       </c>
       <c r="C12" s="2">
-        <v>5.44865331286564E-4</v>
+        <v>2.6591389868408401E-3</v>
       </c>
       <c r="D12" s="2">
-        <v>5.5057641562181203E-4</v>
+        <v>2.67689332223621E-3</v>
       </c>
       <c r="E12" s="2">
         <v>59</v>
@@ -2262,13 +2262,13 @@
         <v>2</v>
       </c>
       <c r="B13" s="2">
-        <v>2.0137443542480402</v>
+        <v>2.0080699920654199</v>
       </c>
       <c r="C13" s="2">
-        <v>5.4620939502492496E-4</v>
+        <v>2.6646161150187201E-3</v>
       </c>
       <c r="D13" s="2">
-        <v>5.4761482484988596E-4</v>
+        <v>2.6726160394205702E-3</v>
       </c>
       <c r="E13" s="2">
         <v>60</v>
@@ -2282,13 +2282,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="4">
-        <v>4.0274887084960902</v>
+        <v>4.0161399841308496</v>
       </c>
       <c r="C14" s="4">
-        <v>5.3520710361190096E-4</v>
+        <v>2.65213258452713E-3</v>
       </c>
       <c r="D14" s="4">
-        <v>5.4482978755299703E-4</v>
+        <v>2.6886004993134402E-3</v>
       </c>
       <c r="E14" s="4">
         <v>61</v>
@@ -2302,13 +2302,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="4">
-        <v>4.0274887084960902</v>
+        <v>4.0161399841308496</v>
       </c>
       <c r="C15" s="4">
-        <v>5.3389373254030903E-4</v>
+        <v>2.65617913194E-3</v>
       </c>
       <c r="D15" s="4">
-        <v>5.3813045968266005E-4</v>
+        <v>2.66112329788316E-3</v>
       </c>
       <c r="E15" s="4">
         <v>62</v>
@@ -2322,13 +2322,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="4">
-        <v>4.0274887084960902</v>
+        <v>4.0161399841308496</v>
       </c>
       <c r="C16" s="4">
-        <v>5.3533195322379395E-4</v>
+        <v>2.65402523428201E-3</v>
       </c>
       <c r="D16" s="4">
-        <v>5.3911201472714497E-4</v>
+        <v>2.6715947077817202E-3</v>
       </c>
       <c r="E16" s="4">
         <v>63</v>
@@ -2342,13 +2342,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="4">
-        <v>4.0274887084960902</v>
+        <v>4.0161399841308496</v>
       </c>
       <c r="C17" s="4">
-        <v>5.3509945408441095E-4</v>
+        <v>2.6584769204258899E-3</v>
       </c>
       <c r="D17" s="4">
-        <v>5.3919647367238097E-4</v>
+        <v>2.6656250857931899E-3</v>
       </c>
       <c r="E17" s="4">
         <v>64</v>
@@ -2362,13 +2362,13 @@
         <v>8</v>
       </c>
       <c r="B18" s="4">
-        <v>8.0549774169921804</v>
+        <v>8.0322799682617099</v>
       </c>
       <c r="C18" s="4">
-        <v>5.3272665482945701E-4</v>
+        <v>2.6496654976159301E-3</v>
       </c>
       <c r="D18" s="4">
-        <v>5.4266521815435895E-4</v>
+        <v>2.6889254819530499E-3</v>
       </c>
       <c r="E18" s="4">
         <v>65</v>
@@ -2382,13 +2382,13 @@
         <v>8</v>
       </c>
       <c r="B19" s="4">
-        <v>8.0549774169921804</v>
+        <v>8.0322799682617099</v>
       </c>
       <c r="C19" s="4">
-        <v>5.3388965432532099E-4</v>
+        <v>2.6565317131578901E-3</v>
       </c>
       <c r="D19" s="4">
-        <v>5.3793034304206204E-4</v>
+        <v>2.6626801904243401E-3</v>
       </c>
       <c r="E19" s="4">
         <v>66</v>
@@ -2402,13 +2402,13 @@
         <v>8</v>
       </c>
       <c r="B20" s="4">
-        <v>8.0549774169921804</v>
+        <v>8.0322799682617099</v>
       </c>
       <c r="C20" s="4">
-        <v>5.3282709205523099E-4</v>
+        <v>2.65135557651519E-3</v>
       </c>
       <c r="D20" s="4">
-        <v>5.3707223180177199E-4</v>
+        <v>2.6661231565129001E-3</v>
       </c>
       <c r="E20" s="4">
         <v>67</v>
@@ -2422,13 +2422,13 @@
         <v>8</v>
       </c>
       <c r="B21" s="4">
-        <v>8.0549774169921804</v>
+        <v>8.0322799682617099</v>
       </c>
       <c r="C21" s="4">
-        <v>5.32810570951551E-4</v>
+        <v>2.6554523702710798E-3</v>
       </c>
       <c r="D21" s="4">
-        <v>5.3646351054316703E-4</v>
+        <v>2.6624356796905598E-3</v>
       </c>
       <c r="E21" s="4">
         <v>68</v>
@@ -2442,13 +2442,13 @@
         <v>16</v>
       </c>
       <c r="B22" s="4">
-        <v>16.1099548339843</v>
+        <v>16.064559936523398</v>
       </c>
       <c r="C22" s="4">
-        <v>5.3240928314626204E-4</v>
+        <v>2.6473566584289E-3</v>
       </c>
       <c r="D22" s="4">
-        <v>5.4179476763145499E-4</v>
+        <v>2.6857732249435701E-3</v>
       </c>
       <c r="E22" s="4">
         <v>69</v>
@@ -2462,13 +2462,13 @@
         <v>16</v>
       </c>
       <c r="B23" s="4">
-        <v>16.1099548339843</v>
+        <v>16.064559936523398</v>
       </c>
       <c r="C23" s="4">
-        <v>5.3358408650383299E-4</v>
+        <v>2.65233252942562E-3</v>
       </c>
       <c r="D23" s="4">
-        <v>5.36472148448822E-4</v>
+        <v>2.65965866707977E-3</v>
       </c>
       <c r="E23" s="4">
         <v>70</v>
@@ -2482,13 +2482,13 @@
         <v>16</v>
       </c>
       <c r="B24" s="4">
-        <v>16.1099548339843</v>
+        <v>16.064559936523398</v>
       </c>
       <c r="C24" s="4">
-        <v>5.3274723063222998E-4</v>
+        <v>2.6513111744075999E-3</v>
       </c>
       <c r="D24" s="4">
-        <v>5.3596395738185595E-4</v>
+        <v>2.6686858922646398E-3</v>
       </c>
       <c r="E24" s="4">
         <v>71</v>
@@ -2502,13 +2502,13 @@
         <v>16</v>
       </c>
       <c r="B25" s="4">
-        <v>16.1099548339843</v>
+        <v>16.064559936523398</v>
       </c>
       <c r="C25" s="4">
-        <v>5.3647314948029802E-4</v>
+        <v>2.6550801433622801E-3</v>
       </c>
       <c r="D25" s="4">
-        <v>5.3925823626422805E-4</v>
+        <v>2.6625632664342902E-3</v>
       </c>
       <c r="E25" s="4">
         <v>72</v>
@@ -2559,7 +2559,7 @@
   <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2604,10 +2604,10 @@
         <v>1E-8</v>
       </c>
       <c r="B2" s="2">
-        <v>5.6541745645842295E-4</v>
+        <v>2.67818693077535E-3</v>
       </c>
       <c r="C2" s="2">
-        <v>5.7780275037541803E-4</v>
+        <v>2.7217607274888801E-3</v>
       </c>
       <c r="D2" s="2">
         <v>73</v>
@@ -2622,11 +2622,11 @@
       </c>
       <c r="K2" s="7">
         <f t="shared" ref="K2:N9" ca="1" si="0">AVERAGE(OFFSET(B$2,(ROW()-2)*4,0,4,1))</f>
-        <v>5.7819696824706977E-4</v>
+        <v>2.6735078523404078E-3</v>
       </c>
       <c r="L2" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>5.9059019972404134E-4</v>
+        <v>2.7142888173063476E-3</v>
       </c>
       <c r="M2" s="3">
         <f t="shared" ca="1" si="0"/>
@@ -2642,10 +2642,10 @@
         <v>1E-8</v>
       </c>
       <c r="B3" s="2">
-        <v>5.8007244707328405E-4</v>
+        <v>2.6632251209063301E-3</v>
       </c>
       <c r="C3" s="2">
-        <v>5.9028253998091298E-4</v>
+        <v>2.7054784252978602E-3</v>
       </c>
       <c r="D3" s="2">
         <v>74</v>
@@ -2660,11 +2660,11 @@
       </c>
       <c r="K3" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>5.7795681001894289E-4</v>
+        <v>2.6764765149723847E-3</v>
       </c>
       <c r="L3" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>5.9135529136835328E-4</v>
+        <v>2.7174581358339724E-3</v>
       </c>
       <c r="M3" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -2680,10 +2680,10 @@
         <v>1E-8</v>
       </c>
       <c r="B4" s="2">
-        <v>5.7598258514004704E-4</v>
+        <v>2.6696011139329002E-3</v>
       </c>
       <c r="C4" s="2">
-        <v>5.9285401781890399E-4</v>
+        <v>2.7158713742355001E-3</v>
       </c>
       <c r="D4" s="2">
         <v>75</v>
@@ -2698,11 +2698,11 @@
       </c>
       <c r="K4" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>5.7904893181295598E-4</v>
+        <v>2.6760193953812572E-3</v>
       </c>
       <c r="L4" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>5.9219708805792535E-4</v>
+        <v>2.7176955430086198E-3</v>
       </c>
       <c r="M4" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -2718,10 +2718,10 @@
         <v>1E-8</v>
       </c>
       <c r="B5" s="2">
-        <v>5.9131538431652503E-4</v>
+        <v>2.68301824374705E-3</v>
       </c>
       <c r="C5" s="2">
-        <v>6.0142149072093002E-4</v>
+        <v>2.7140447422031502E-3</v>
       </c>
       <c r="D5" s="2">
         <v>76</v>
@@ -2736,11 +2736,11 @@
       </c>
       <c r="K5" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>5.8228606138501426E-4</v>
+        <v>2.6781797248893826E-3</v>
       </c>
       <c r="L5" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>5.9523507587501867E-4</v>
+        <v>2.7189813828641476E-3</v>
       </c>
       <c r="M5" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -2757,10 +2757,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B6" s="4">
-        <v>5.6640698224495896E-4</v>
+        <v>2.6854791109017099E-3</v>
       </c>
       <c r="C6" s="4">
-        <v>5.8026455497001302E-4</v>
+        <v>2.7298614127668199E-3</v>
       </c>
       <c r="D6" s="4">
         <v>77</v>
@@ -2774,11 +2774,11 @@
       </c>
       <c r="K6" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.1070532549119196E-4</v>
+        <v>2.7054716776581849E-3</v>
       </c>
       <c r="L6" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.2429691900485777E-4</v>
+        <v>2.7441303612765148E-3</v>
       </c>
       <c r="M6" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -2794,10 +2794,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B7" s="4">
-        <v>5.8241917679062601E-4</v>
+        <v>2.6697678770276701E-3</v>
       </c>
       <c r="C7" s="4">
-        <v>5.9257565692043398E-4</v>
+        <v>2.7106199843607301E-3</v>
       </c>
       <c r="D7" s="4">
         <v>78</v>
@@ -2811,11 +2811,11 @@
       </c>
       <c r="K7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>8.4254743196188805E-4</v>
+        <v>2.9248731936755176E-3</v>
       </c>
       <c r="L7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>8.6168765077800405E-4</v>
+        <v>2.964774483687295E-3</v>
       </c>
       <c r="M7" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -2831,10 +2831,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B8" s="4">
-        <v>5.7996068984732696E-4</v>
+        <v>2.6700465070902302E-3</v>
       </c>
       <c r="C8" s="4">
-        <v>5.9840324202071896E-4</v>
+        <v>2.7179133953752002E-3</v>
       </c>
       <c r="D8" s="4">
         <v>79</v>
@@ -2848,11 +2848,11 @@
       </c>
       <c r="K8" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>3.2727769296097223E-3</v>
+        <v>5.1662268711752226E-3</v>
       </c>
       <c r="L8" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>3.2467599791344078E-3</v>
+        <v>4.9653772908339975E-3</v>
       </c>
       <c r="M8" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -2868,10 +2868,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B9" s="4">
-        <v>5.8304039119285995E-4</v>
+        <v>2.6806125648699301E-3</v>
       </c>
       <c r="C9" s="4">
-        <v>5.9417771156224704E-4</v>
+        <v>2.7114377508331402E-3</v>
       </c>
       <c r="D9" s="4">
         <v>80</v>
@@ -2885,11 +2885,11 @@
       </c>
       <c r="K9" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>2.122708010896563</v>
+        <v>3.9714733977226677</v>
       </c>
       <c r="L9" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1150257369773273</v>
+        <v>3.9693225914505597</v>
       </c>
       <c r="M9" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -2905,10 +2905,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B10" s="4">
-        <v>5.7328121060398697E-4</v>
+        <v>2.68437093343277E-3</v>
       </c>
       <c r="C10" s="4">
-        <v>5.8678872671992597E-4</v>
+        <v>2.7282375554631201E-3</v>
       </c>
       <c r="D10" s="4">
         <v>81</v>
@@ -2916,9 +2916,9 @@
       <c r="E10" s="4">
         <v>0.25</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="8">
         <f ca="1">MIN(L2:L9)</f>
-        <v>5.9059019972404134E-4</v>
+        <v>2.7142888173063476E-3</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -2926,10 +2926,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B11" s="4">
-        <v>5.8022293241421596E-4</v>
+        <v>2.6715399006346E-3</v>
       </c>
       <c r="C11" s="4">
-        <v>5.9050067986367598E-4</v>
+        <v>2.7122661237053199E-3</v>
       </c>
       <c r="D11" s="4">
         <v>82</v>
@@ -2943,10 +2943,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B12" s="4">
-        <v>5.7913665288976195E-4</v>
+        <v>2.6708607425450499E-3</v>
       </c>
       <c r="C12" s="4">
-        <v>5.9811678043252198E-4</v>
+        <v>2.7185087818889599E-3</v>
       </c>
       <c r="D12" s="4">
         <v>83</v>
@@ -2960,10 +2960,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B13" s="4">
-        <v>5.8355493134385904E-4</v>
+        <v>2.6773060049126102E-3</v>
       </c>
       <c r="C13" s="4">
-        <v>5.9338216521557705E-4</v>
+        <v>2.7117697109770799E-3</v>
       </c>
       <c r="D13" s="4">
         <v>84</v>
@@ -2977,10 +2977,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B14">
-        <v>5.7865814031487302E-4</v>
+        <v>2.6829097179731499E-3</v>
       </c>
       <c r="C14">
-        <v>5.9193047171363599E-4</v>
+        <v>2.7269615234130802E-3</v>
       </c>
       <c r="D14">
         <v>85</v>
@@ -2994,10 +2994,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B15">
-        <v>5.7779760604166597E-4</v>
+        <v>2.6739063720177302E-3</v>
       </c>
       <c r="C15">
-        <v>5.8830945098559096E-4</v>
+        <v>2.7116451554807098E-3</v>
       </c>
       <c r="D15">
         <v>86</v>
@@ -3011,10 +3011,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B16">
-        <v>5.8385476122972105E-4</v>
+        <v>2.6756542153466602E-3</v>
       </c>
       <c r="C16">
-        <v>6.0301332936212797E-4</v>
+        <v>2.7257851725384801E-3</v>
       </c>
       <c r="D16">
         <v>87</v>
@@ -3028,10 +3028,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B17">
-        <v>5.8883373795379701E-4</v>
+        <v>2.6802485942199901E-3</v>
       </c>
       <c r="C17">
-        <v>5.9768705143871999E-4</v>
+        <v>2.7115336800243202E-3</v>
       </c>
       <c r="D17">
         <v>88</v>
@@ -3045,10 +3045,10 @@
         <v>1E-4</v>
       </c>
       <c r="B18">
-        <v>6.0537197496623302E-4</v>
+        <v>2.7128302753208901E-3</v>
       </c>
       <c r="C18">
-        <v>6.1865981555525996E-4</v>
+        <v>2.7524540378789202E-3</v>
       </c>
       <c r="D18">
         <v>89</v>
@@ -3062,10 +3062,10 @@
         <v>1E-4</v>
       </c>
       <c r="B19">
-        <v>6.0554378878052305E-4</v>
+        <v>2.6978962790742901E-3</v>
       </c>
       <c r="C19">
-        <v>6.1649967976371196E-4</v>
+        <v>2.7312609414528498E-3</v>
       </c>
       <c r="D19">
         <v>90</v>
@@ -3079,10 +3079,10 @@
         <v>1E-4</v>
       </c>
       <c r="B20">
-        <v>6.1581921385553699E-4</v>
+        <v>2.70056949815695E-3</v>
       </c>
       <c r="C20">
-        <v>6.3938499431297798E-4</v>
+        <v>2.7538429275392302E-3</v>
       </c>
       <c r="D20">
         <v>91</v>
@@ -3096,10 +3096,10 @@
         <v>1E-4</v>
       </c>
       <c r="B21">
-        <v>6.1608632436247499E-4</v>
+        <v>2.7105906580806101E-3</v>
       </c>
       <c r="C21">
-        <v>6.2264318638748095E-4</v>
+        <v>2.7389635382350599E-3</v>
       </c>
       <c r="D21">
         <v>92</v>
@@ -3113,10 +3113,10 @@
         <v>1E-3</v>
       </c>
       <c r="B22">
-        <v>8.4477011744632903E-4</v>
+        <v>2.9804151531925799E-3</v>
       </c>
       <c r="C22">
-        <v>8.6796102981575403E-4</v>
+        <v>3.00673857942271E-3</v>
       </c>
       <c r="D22">
         <v>93</v>
@@ -3130,10 +3130,10 @@
         <v>1E-3</v>
       </c>
       <c r="B23">
-        <v>8.2551543029903097E-4</v>
+        <v>2.8862396780116699E-3</v>
       </c>
       <c r="C23">
-        <v>8.2781503516824698E-4</v>
+        <v>2.8946642811368598E-3</v>
       </c>
       <c r="D23">
         <v>94</v>
@@ -3147,10 +3147,10 @@
         <v>1E-3</v>
       </c>
       <c r="B24">
-        <v>8.6174574925320995E-4</v>
+        <v>2.9209280270893201E-3</v>
       </c>
       <c r="C24">
-        <v>9.1465145006930002E-4</v>
+        <v>3.01710586953362E-3</v>
       </c>
       <c r="D24">
         <v>95</v>
@@ -3164,10 +3164,10 @@
         <v>1E-3</v>
       </c>
       <c r="B25">
-        <v>8.3815843084898201E-4</v>
+        <v>2.9119099164085002E-3</v>
       </c>
       <c r="C25">
-        <v>8.3632308805871498E-4</v>
+        <v>2.94058920465599E-3</v>
       </c>
       <c r="D25">
         <v>96</v>
@@ -3181,10 +3181,10 @@
         <v>0.01</v>
       </c>
       <c r="B26">
-        <v>3.3672697379425799E-3</v>
+        <v>5.0831032534290003E-3</v>
       </c>
       <c r="C26">
-        <v>3.37827368713559E-3</v>
+        <v>4.99293617577926E-3</v>
       </c>
       <c r="D26">
         <v>97</v>
@@ -3198,10 +3198,10 @@
         <v>0.01</v>
       </c>
       <c r="B27">
-        <v>3.0663283897718E-3</v>
+        <v>5.2753879620462199E-3</v>
       </c>
       <c r="C27">
-        <v>2.9906799192213999E-3</v>
+        <v>4.7340126794163696E-3</v>
       </c>
       <c r="D27">
         <v>98</v>
@@ -3215,10 +3215,10 @@
         <v>0.01</v>
       </c>
       <c r="B28">
-        <v>3.4187150367233098E-3</v>
+        <v>5.11163194325699E-3</v>
       </c>
       <c r="C28">
-        <v>3.4703091676732498E-3</v>
+        <v>5.1748605539939201E-3</v>
       </c>
       <c r="D28">
         <v>99</v>
@@ -3232,10 +3232,10 @@
         <v>0.01</v>
       </c>
       <c r="B29">
-        <v>3.2387945540012001E-3</v>
+        <v>5.19478432596868E-3</v>
       </c>
       <c r="C29">
-        <v>3.14777714250739E-3</v>
+        <v>4.9596997541464403E-3</v>
       </c>
       <c r="D29">
         <v>100</v>
@@ -3249,10 +3249,10 @@
         <v>0.1</v>
       </c>
       <c r="B30">
-        <v>3.6411751702332899E-2</v>
+        <v>3.15694778891885</v>
       </c>
       <c r="C30">
-        <v>3.3474456554480399E-2</v>
+        <v>3.1480999342195499</v>
       </c>
       <c r="D30">
         <v>101</v>
@@ -3266,10 +3266,10 @@
         <v>0.1</v>
       </c>
       <c r="B31">
-        <v>3.2890900115298598E-2</v>
+        <v>6.3802874802024503</v>
       </c>
       <c r="C31">
-        <v>2.7019487498150099E-2</v>
+        <v>6.4021752594382901</v>
       </c>
       <c r="D31">
         <v>102</v>
@@ -3283,10 +3283,10 @@
         <v>0.1</v>
       </c>
       <c r="B32">
-        <v>4.1868441226376003</v>
+        <v>3.16099795414384</v>
       </c>
       <c r="C32">
-        <v>4.2051387729158796</v>
+        <v>3.1725405462228502</v>
       </c>
       <c r="D32">
         <v>103</v>
@@ -3300,10 +3300,10 @@
         <v>0.1</v>
       </c>
       <c r="B33">
-        <v>4.2346852691310204</v>
+        <v>3.1876603676255302</v>
       </c>
       <c r="C33">
-        <v>4.1944702309407997</v>
+        <v>3.1544746259215501</v>
       </c>
       <c r="D33">
         <v>104</v>
@@ -3370,7 +3370,7 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3415,10 +3415,10 @@
         <v>1E-8</v>
       </c>
       <c r="B2">
-        <v>5.5263131254757196E-4</v>
+        <v>2.66369335582485E-3</v>
       </c>
       <c r="C2">
-        <v>5.6130248329536896E-4</v>
+        <v>2.6937930067633298E-3</v>
       </c>
       <c r="D2">
         <v>105</v>
@@ -3432,11 +3432,11 @@
       </c>
       <c r="K2" s="6">
         <f t="shared" ref="K2:N9" ca="1" si="0">AVERAGE(OFFSET(B$2,(ROW()-2)*4,0,4,1))</f>
-        <v>5.5828773130747473E-4</v>
+        <v>2.6614423757552823E-3</v>
       </c>
       <c r="L2" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>5.6527988923265671E-4</v>
+        <v>2.6902778865324547E-3</v>
       </c>
       <c r="M2" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -3452,10 +3452,10 @@
         <v>1E-8</v>
       </c>
       <c r="B3">
-        <v>5.6071017994158503E-4</v>
+        <v>2.66996726539497E-3</v>
       </c>
       <c r="C3">
-        <v>5.6339648647150801E-4</v>
+        <v>2.6854577868773398E-3</v>
       </c>
       <c r="D3">
         <v>106</v>
@@ -3469,11 +3469,11 @@
       </c>
       <c r="K3" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>5.5881054133653601E-4</v>
+        <v>2.662362710099675E-3</v>
       </c>
       <c r="L3" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>5.6573410840463252E-4</v>
+        <v>2.6900080740036524E-3</v>
       </c>
       <c r="M3" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -3489,10 +3489,10 @@
         <v>1E-8</v>
       </c>
       <c r="B4">
-        <v>5.6082593563857805E-4</v>
+        <v>2.6480520602327499E-3</v>
       </c>
       <c r="C4">
-        <v>5.7157715686128295E-4</v>
+        <v>2.6950110980920499E-3</v>
       </c>
       <c r="D4">
         <v>107</v>
@@ -3506,11 +3506,11 @@
       </c>
       <c r="K4" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>5.5761588995397729E-4</v>
+        <v>2.6623583422935053E-3</v>
       </c>
       <c r="L4" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>5.6508772906025675E-4</v>
+        <v>2.689303292308565E-3</v>
       </c>
       <c r="M4" s="3">
         <f t="shared" ca="1" si="0"/>
@@ -3526,10 +3526,10 @@
         <v>1E-8</v>
       </c>
       <c r="B5">
-        <v>5.58983497102164E-4</v>
+        <v>2.6640568215685599E-3</v>
       </c>
       <c r="C5">
-        <v>5.6484343030246704E-4</v>
+        <v>2.6868496543971001E-3</v>
       </c>
       <c r="D5">
         <v>108</v>
@@ -3543,11 +3543,11 @@
       </c>
       <c r="K5" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>5.6248040906188524E-4</v>
+        <v>2.6657359312681175E-3</v>
       </c>
       <c r="L5" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>5.6991259173332879E-4</v>
+        <v>2.6913510837924329E-3</v>
       </c>
       <c r="M5" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -3563,10 +3563,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B6">
-        <v>5.5202254307673505E-4</v>
+        <v>2.6663812041020801E-3</v>
       </c>
       <c r="C6">
-        <v>5.5980326713116202E-4</v>
+        <v>2.6982963903789299E-3</v>
       </c>
       <c r="D6">
         <v>109</v>
@@ -3580,11 +3580,11 @@
       </c>
       <c r="K6" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>5.8671337389275551E-4</v>
+        <v>2.6927849808975573E-3</v>
       </c>
       <c r="L6" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>5.9324888403862572E-4</v>
+        <v>2.7164013175424275E-3</v>
       </c>
       <c r="M6" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -3600,10 +3600,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B7">
-        <v>5.5980839152499002E-4</v>
+        <v>2.67092503767948E-3</v>
       </c>
       <c r="C7">
-        <v>5.6338233292654405E-4</v>
+        <v>2.6840448059189002E-3</v>
       </c>
       <c r="D7">
         <v>110</v>
@@ -3617,11 +3617,11 @@
       </c>
       <c r="K7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>7.9565478999096232E-4</v>
+        <v>2.89479137629645E-3</v>
       </c>
       <c r="L7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>7.9779635184625388E-4</v>
+        <v>2.9124807845207876E-3</v>
       </c>
       <c r="M7" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -3637,10 +3637,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B8">
-        <v>5.6428886959686297E-4</v>
+        <v>2.6505359414274602E-3</v>
       </c>
       <c r="C8">
-        <v>5.7416183208144997E-4</v>
+        <v>2.6956415916110799E-3</v>
       </c>
       <c r="D8">
         <v>111</v>
@@ -3654,11 +3654,11 @@
       </c>
       <c r="K8" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>3.4457935183420524E-3</v>
+        <v>5.4406329508522675E-3</v>
       </c>
       <c r="L8" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>3.2479536771895853E-3</v>
+        <v>5.0112792886912224E-3</v>
       </c>
       <c r="M8" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -3674,10 +3674,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B9">
-        <v>5.5912236114755598E-4</v>
+        <v>2.66160865718968E-3</v>
       </c>
       <c r="C9">
-        <v>5.6558900147937405E-4</v>
+        <v>2.6820495081057E-3</v>
       </c>
       <c r="D9">
         <v>112</v>
@@ -3691,11 +3691,11 @@
       </c>
       <c r="K9" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1232378592144823</v>
+        <v>4.0200800918542479</v>
       </c>
       <c r="L9" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1145050669352896</v>
+        <v>3.96947394738531</v>
       </c>
       <c r="M9" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -3711,10 +3711,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B10" s="2">
-        <v>5.5249963268509705E-4</v>
+        <v>2.6671191277250201E-3</v>
       </c>
       <c r="C10" s="2">
-        <v>5.6002740444212101E-4</v>
+        <v>2.69686189705541E-3</v>
       </c>
       <c r="D10" s="2">
         <v>113</v>
@@ -3723,9 +3723,9 @@
         <v>0.5</v>
       </c>
       <c r="F10" s="2"/>
-      <c r="L10">
+      <c r="L10" s="8">
         <f ca="1">MIN(L2:L9)</f>
-        <v>5.6508772906025675E-4</v>
+        <v>2.689303292308565E-3</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -3733,10 +3733,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B11" s="2">
-        <v>5.5935114263943697E-4</v>
+        <v>2.6705130962982201E-3</v>
       </c>
       <c r="C11" s="2">
-        <v>5.6134643582597503E-4</v>
+        <v>2.6834176758387201E-3</v>
       </c>
       <c r="D11" s="2">
         <v>114</v>
@@ -3751,10 +3751,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B12" s="2">
-        <v>5.5923445561986999E-4</v>
+        <v>2.6489111941498198E-3</v>
       </c>
       <c r="C12" s="2">
-        <v>5.7286426023087696E-4</v>
+        <v>2.6939949747412199E-3</v>
       </c>
       <c r="D12" s="2">
         <v>115</v>
@@ -3769,10 +3769,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B13" s="2">
-        <v>5.5937832887150503E-4</v>
+        <v>2.6628899510009602E-3</v>
       </c>
       <c r="C13" s="2">
-        <v>5.66112815742054E-4</v>
+        <v>2.6829386215989101E-3</v>
       </c>
       <c r="D13" s="2">
         <v>116</v>
@@ -3787,10 +3787,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B14" s="4">
-        <v>5.5880822946492996E-4</v>
+        <v>2.6707099177859699E-3</v>
       </c>
       <c r="C14" s="4">
-        <v>5.6594284418169498E-4</v>
+        <v>2.6992405779588499E-3</v>
       </c>
       <c r="D14" s="4">
         <v>117</v>
@@ -3804,10 +3804,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B15" s="4">
-        <v>5.6347674812925097E-4</v>
+        <v>2.6740312074927E-3</v>
       </c>
       <c r="C15" s="4">
-        <v>5.6502484708318497E-4</v>
+        <v>2.6824448812325799E-3</v>
       </c>
       <c r="D15" s="4">
         <v>118</v>
@@ -3821,10 +3821,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B16" s="4">
-        <v>5.6352210733236099E-4</v>
+        <v>2.6519251183960701E-3</v>
       </c>
       <c r="C16" s="4">
-        <v>5.7777870115734999E-4</v>
+        <v>2.6979845826911502E-3</v>
       </c>
       <c r="D16" s="4">
         <v>119</v>
@@ -3838,10 +3838,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B17" s="4">
-        <v>5.6411455132099905E-4</v>
+        <v>2.6662774813977302E-3</v>
       </c>
       <c r="C17" s="4">
-        <v>5.7090397451108499E-4</v>
+        <v>2.6857342932871502E-3</v>
       </c>
       <c r="D17" s="4">
         <v>120</v>
@@ -3855,10 +3855,10 @@
         <v>1E-4</v>
       </c>
       <c r="B18">
-        <v>5.87470419987583E-4</v>
+        <v>2.6987905401331799E-3</v>
       </c>
       <c r="C18">
-        <v>5.9395586733652895E-4</v>
+        <v>2.7251058617001698E-3</v>
       </c>
       <c r="D18">
         <v>121</v>
@@ -3872,10 +3872,10 @@
         <v>1E-4</v>
       </c>
       <c r="B19">
-        <v>5.85025130658032E-4</v>
+        <v>2.7003279379821899E-3</v>
       </c>
       <c r="C19">
-        <v>5.8581712500008296E-4</v>
+        <v>2.70507658778387E-3</v>
       </c>
       <c r="D19">
         <v>122</v>
@@ -3889,10 +3889,10 @@
         <v>1E-4</v>
       </c>
       <c r="B20">
-        <v>5.9064052487238505E-4</v>
+        <v>2.6810204970260502E-3</v>
       </c>
       <c r="C20">
-        <v>6.0522263227505196E-4</v>
+        <v>2.72749079492204E-3</v>
       </c>
       <c r="D20">
         <v>123</v>
@@ -3906,10 +3906,10 @@
         <v>1E-4</v>
       </c>
       <c r="B21">
-        <v>5.8371742005302197E-4</v>
+        <v>2.6910009484488102E-3</v>
       </c>
       <c r="C21">
-        <v>5.8799991154283901E-4</v>
+        <v>2.7079320257636301E-3</v>
       </c>
       <c r="D21">
         <v>124</v>
@@ -3923,10 +3923,10 @@
         <v>1E-3</v>
       </c>
       <c r="B22">
-        <v>8.00141765097804E-4</v>
+        <v>2.90174136375681E-3</v>
       </c>
       <c r="C22">
-        <v>8.0908634989065604E-4</v>
+        <v>2.9246272047637502E-3</v>
       </c>
       <c r="D22">
         <v>125</v>
@@ -3940,10 +3940,10 @@
         <v>1E-3</v>
       </c>
       <c r="B23">
-        <v>7.9402500579800104E-4</v>
+        <v>2.9004783103295999E-3</v>
       </c>
       <c r="C23">
-        <v>7.6441199609203004E-4</v>
+        <v>2.8798841340407998E-3</v>
       </c>
       <c r="D23">
         <v>126</v>
@@ -3957,10 +3957,10 @@
         <v>1E-3</v>
       </c>
       <c r="B24">
-        <v>8.0967178072084104E-4</v>
+        <v>2.8902687728940501E-3</v>
       </c>
       <c r="C24">
-        <v>8.4609396579218604E-4</v>
+        <v>2.9623475842249E-3</v>
       </c>
       <c r="D24">
         <v>127</v>
@@ -3974,10 +3974,10 @@
         <v>1E-3</v>
       </c>
       <c r="B25">
-        <v>7.7878060834720298E-4</v>
+        <v>2.8866770582053401E-3</v>
       </c>
       <c r="C25">
-        <v>7.7159309561014295E-4</v>
+        <v>2.8830642150537E-3</v>
       </c>
       <c r="D25">
         <v>128</v>
@@ -3991,10 +3991,10 @@
         <v>0.01</v>
       </c>
       <c r="B26">
-        <v>3.45288520937743E-3</v>
+        <v>5.87740844969575E-3</v>
       </c>
       <c r="C26">
-        <v>3.4101545887815299E-3</v>
+        <v>5.0532058575398203E-3</v>
       </c>
       <c r="D26">
         <v>129</v>
@@ -4008,10 +4008,10 @@
         <v>0.01</v>
       </c>
       <c r="B27">
-        <v>3.34667624904217E-3</v>
+        <v>5.0095988090890897E-3</v>
       </c>
       <c r="C27">
-        <v>2.9383985026128498E-3</v>
+        <v>4.7378178588025699E-3</v>
       </c>
       <c r="D27">
         <v>130</v>
@@ -4025,10 +4025,10 @@
         <v>0.01</v>
       </c>
       <c r="B28">
-        <v>3.39914413396649E-3</v>
+        <v>5.6739071742616604E-3</v>
       </c>
       <c r="C28">
-        <v>3.3996321607950501E-3</v>
+        <v>5.1958111150391898E-3</v>
       </c>
       <c r="D28">
         <v>131</v>
@@ -4042,10 +4042,10 @@
         <v>0.01</v>
       </c>
       <c r="B29">
-        <v>3.58446848098212E-3</v>
+        <v>5.20161737036257E-3</v>
       </c>
       <c r="C29">
-        <v>3.2436294565689099E-3</v>
+        <v>5.0582823233833096E-3</v>
       </c>
       <c r="D29">
         <v>132</v>
@@ -4059,10 +4059,10 @@
         <v>0.1</v>
       </c>
       <c r="B30">
-        <v>3.4286613579089603E-2</v>
+        <v>3.1518260632840902</v>
       </c>
       <c r="C30">
-        <v>3.1754694155352099E-2</v>
+        <v>3.1465878532190898</v>
       </c>
       <c r="D30">
         <v>133</v>
@@ -4076,10 +4076,10 @@
         <v>0.1</v>
       </c>
       <c r="B31">
-        <v>3.0314061603249998E-2</v>
+        <v>6.3853961758720201</v>
       </c>
       <c r="C31">
-        <v>2.6289657203207702E-2</v>
+        <v>6.4051447643595898</v>
       </c>
       <c r="D31">
         <v>134</v>
@@ -4093,10 +4093,10 @@
         <v>0.1</v>
       </c>
       <c r="B32">
-        <v>4.20803042113209</v>
+        <v>3.3632846975478801</v>
       </c>
       <c r="C32">
-        <v>4.2055203747597396</v>
+        <v>3.1728052925911601</v>
       </c>
       <c r="D32">
         <v>135</v>
@@ -4110,10 +4110,10 @@
         <v>0.1</v>
       </c>
       <c r="B33">
-        <v>4.2203203405435001</v>
+        <v>3.1798134307130002</v>
       </c>
       <c r="C33">
-        <v>4.1944555416228599</v>
+        <v>3.1533578793713999</v>
       </c>
       <c r="D33">
         <v>136</v>
@@ -4132,7 +4132,7 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4180,10 +4180,10 @@
         <v>1E-8</v>
       </c>
       <c r="B2" s="4">
-        <v>5.41926246369257E-4</v>
+        <v>2.6497093062847802E-3</v>
       </c>
       <c r="C2" s="4">
-        <v>5.4944366914409901E-4</v>
+        <v>2.6872655418315799E-3</v>
       </c>
       <c r="D2" s="4">
         <v>137</v>
@@ -4197,11 +4197,11 @@
       </c>
       <c r="K2" s="6">
         <f t="shared" ref="K2:N9" ca="1" si="0">AVERAGE(OFFSET(B$2,(ROW()-2)*4,0,4,1))</f>
-        <v>5.4721664829412444E-4</v>
+        <v>2.6581420116126501E-3</v>
       </c>
       <c r="L2" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>5.5184196436089557E-4</v>
+        <v>2.6778043985550676E-3</v>
       </c>
       <c r="M2" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -4217,10 +4217,10 @@
         <v>1E-8</v>
       </c>
       <c r="B3" s="4">
-        <v>5.4839390292763695E-4</v>
+        <v>2.6629607215523702E-3</v>
       </c>
       <c r="C3" s="4">
-        <v>5.5113619128182797E-4</v>
+        <v>2.6684240675323699E-3</v>
       </c>
       <c r="D3" s="4">
         <v>138</v>
@@ -4234,11 +4234,11 @@
       </c>
       <c r="K3" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>5.4662439271341951E-4</v>
+        <v>2.6573903674259724E-3</v>
       </c>
       <c r="L3" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>5.5097479761205873E-4</v>
+        <v>2.6773507643793526E-3</v>
       </c>
       <c r="M3" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -4254,10 +4254,10 @@
         <v>1E-8</v>
       </c>
       <c r="B4" s="4">
-        <v>5.5013704607263195E-4</v>
+        <v>2.6570250395685402E-3</v>
       </c>
       <c r="C4" s="4">
-        <v>5.5629565457629502E-4</v>
+        <v>2.6839163961114398E-3</v>
       </c>
       <c r="D4" s="4">
         <v>139</v>
@@ -4265,23 +4265,23 @@
       <c r="E4" s="4">
         <v>1</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="5">
         <f t="shared" ca="1" si="1"/>
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="K4" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.4678430308122128E-4</v>
-      </c>
-      <c r="L4" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.5093768420354803E-4</v>
-      </c>
-      <c r="M4" s="3">
+      <c r="K4" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.6589848283678223E-3</v>
+      </c>
+      <c r="L4" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.6783322219167374E-3</v>
+      </c>
+      <c r="M4" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>146.5</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="5">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
@@ -4291,10 +4291,10 @@
         <v>1E-8</v>
       </c>
       <c r="B5" s="4">
-        <v>5.4840939780697196E-4</v>
+        <v>2.66287297904491E-3</v>
       </c>
       <c r="C5" s="4">
-        <v>5.5049234244135996E-4</v>
+        <v>2.6716115887448801E-3</v>
       </c>
       <c r="D5" s="4">
         <v>140</v>
@@ -4308,11 +4308,11 @@
       </c>
       <c r="K5" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>5.5187327221501575E-4</v>
+        <v>2.6628318175673446E-3</v>
       </c>
       <c r="L5" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>5.5658835485788147E-4</v>
+        <v>2.681649881370575E-3</v>
       </c>
       <c r="M5" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -4324,19 +4324,19 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
+      <c r="A6" s="3">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="B6" s="4">
-        <v>5.4299019603058698E-4</v>
-      </c>
-      <c r="C6" s="4">
-        <v>5.5131978973758098E-4</v>
-      </c>
-      <c r="D6" s="4">
+      <c r="B6" s="2">
+        <v>2.6501650173217E-3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2.6890752647238101E-3</v>
+      </c>
+      <c r="D6" s="2">
         <v>141</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="2">
         <v>1</v>
       </c>
       <c r="F6" s="2"/>
@@ -4346,11 +4346,11 @@
       </c>
       <c r="K6" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>5.7794446547049998E-4</v>
+        <v>2.6889065774157576E-3</v>
       </c>
       <c r="L6" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>5.8176417858784701E-4</v>
+        <v>2.7052727583528799E-3</v>
       </c>
       <c r="M6" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -4362,19 +4362,19 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
+      <c r="A7" s="3">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="B7" s="4">
-        <v>5.4678227556869297E-4</v>
-      </c>
-      <c r="C7" s="4">
-        <v>5.4899573023579299E-4</v>
-      </c>
-      <c r="D7" s="4">
+      <c r="B7" s="2">
+        <v>2.6613167595118201E-3</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2.6697940430396301E-3</v>
+      </c>
+      <c r="D7" s="2">
         <v>142</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="2">
         <v>1</v>
       </c>
       <c r="F7" s="2"/>
@@ -4384,11 +4384,11 @@
       </c>
       <c r="K7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>7.4878711584024083E-4</v>
+        <v>2.8600350555963751E-3</v>
       </c>
       <c r="L7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>7.4920679617207421E-4</v>
+        <v>2.8702130019931647E-3</v>
       </c>
       <c r="M7" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -4400,19 +4400,19 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
+      <c r="A8" s="3">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="B8" s="4">
-        <v>5.4677156819961902E-4</v>
-      </c>
-      <c r="C8" s="4">
-        <v>5.5187162969136795E-4</v>
-      </c>
-      <c r="D8" s="4">
+      <c r="B8" s="2">
+        <v>2.6561062857508601E-3</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2.6799386002384299E-3</v>
+      </c>
+      <c r="D8" s="2">
         <v>143</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="2">
         <v>1</v>
       </c>
       <c r="F8" s="2"/>
@@ -4422,11 +4422,11 @@
       </c>
       <c r="K8" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>3.464594984706487E-3</v>
+        <v>5.500365569256243E-3</v>
       </c>
       <c r="L8" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>3.3366143976702972E-3</v>
+        <v>5.0661458235655155E-3</v>
       </c>
       <c r="M8" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -4438,19 +4438,19 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
+      <c r="A9" s="3">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="B9" s="4">
-        <v>5.4995353105477898E-4</v>
-      </c>
-      <c r="C9" s="4">
-        <v>5.51712040783493E-4</v>
-      </c>
-      <c r="D9" s="4">
+      <c r="B9" s="2">
+        <v>2.6619734071195102E-3</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2.6705951495155401E-3</v>
+      </c>
+      <c r="D9" s="2">
         <v>144</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="2">
         <v>1</v>
       </c>
       <c r="F9" s="2"/>
@@ -4460,11 +4460,11 @@
       </c>
       <c r="K9" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4517841141797583</v>
+        <v>3.1880103270940436</v>
       </c>
       <c r="L9" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.073173625643844</v>
+        <v>3.1915545481891834</v>
       </c>
       <c r="M9" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -4476,74 +4476,74 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+      <c r="A10" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="B10" s="2">
-        <v>5.4344469686038702E-4</v>
-      </c>
-      <c r="C10" s="2">
-        <v>5.5203445542716405E-4</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="B10" s="4">
+        <v>2.6503726866096201E-3</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2.6884307776381998E-3</v>
+      </c>
+      <c r="D10" s="4">
         <v>145</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="4">
         <v>1</v>
       </c>
       <c r="L10" s="8">
         <f ca="1">MIN(L2:L9)</f>
-        <v>5.5093768420354803E-4</v>
+        <v>2.6773507643793526E-3</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+      <c r="A11" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="B11" s="2">
-        <v>5.4675683104433103E-4</v>
-      </c>
-      <c r="C11" s="2">
-        <v>5.4808842351179601E-4</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="B11" s="4">
+        <v>2.6648320943117101E-3</v>
+      </c>
+      <c r="C11" s="4">
+        <v>2.6734031983028299E-3</v>
+      </c>
+      <c r="D11" s="4">
         <v>146</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+      <c r="A12" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="B12" s="2">
-        <v>5.4924231246113696E-4</v>
-      </c>
-      <c r="C12" s="2">
-        <v>5.5396067965508703E-4</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="B12" s="4">
+        <v>2.65616450868546E-3</v>
+      </c>
+      <c r="C12" s="4">
+        <v>2.6774337013981699E-3</v>
+      </c>
+      <c r="D12" s="4">
         <v>147</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+      <c r="A13" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="B13" s="2">
-        <v>5.4769337195903001E-4</v>
-      </c>
-      <c r="C13" s="2">
-        <v>5.4966717822014502E-4</v>
-      </c>
-      <c r="D13" s="2">
+      <c r="B13" s="4">
+        <v>2.6645700238645E-3</v>
+      </c>
+      <c r="C13" s="4">
+        <v>2.6740612103277502E-3</v>
+      </c>
+      <c r="D13" s="4">
         <v>148</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="4">
         <v>1</v>
       </c>
     </row>
@@ -4552,10 +4552,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B14">
-        <v>5.4969457532279102E-4</v>
+        <v>2.65513513870537E-3</v>
       </c>
       <c r="C14">
-        <v>5.5699890248097803E-4</v>
+        <v>2.6943825057761102E-3</v>
       </c>
       <c r="D14">
         <v>149</v>
@@ -4569,10 +4569,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B15">
-        <v>5.5122252376750103E-4</v>
+        <v>2.66427062451839E-3</v>
       </c>
       <c r="C15">
-        <v>5.5241879449481005E-4</v>
+        <v>2.6718791067054499E-3</v>
       </c>
       <c r="D15">
         <v>150</v>
@@ -4586,10 +4586,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B16">
-        <v>5.55050844559446E-4</v>
+        <v>2.66465717703104E-3</v>
       </c>
       <c r="C16">
-        <v>5.6302289079554404E-4</v>
+        <v>2.6873654113477299E-3</v>
       </c>
       <c r="D16">
         <v>151</v>
@@ -4603,10 +4603,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B17">
-        <v>5.5152514521032497E-4</v>
+        <v>2.6672643300145798E-3</v>
       </c>
       <c r="C17">
-        <v>5.5391283166019399E-4</v>
+        <v>2.67297250165301E-3</v>
       </c>
       <c r="D17">
         <v>152</v>
@@ -4620,10 +4620,10 @@
         <v>1E-4</v>
       </c>
       <c r="B18">
-        <v>5.7868409161455903E-4</v>
+        <v>2.6861373517662198E-3</v>
       </c>
       <c r="C18">
-        <v>5.8366856066907505E-4</v>
+        <v>2.71950036459335E-3</v>
       </c>
       <c r="D18">
         <v>153</v>
@@ -4637,10 +4637,10 @@
         <v>1E-4</v>
       </c>
       <c r="B19">
-        <v>5.7505093975923898E-4</v>
+        <v>2.6878295149654098E-3</v>
       </c>
       <c r="C19">
-        <v>5.7272240741973197E-4</v>
+        <v>2.6887425171080799E-3</v>
       </c>
       <c r="D19">
         <v>154</v>
@@ -4654,10 +4654,10 @@
         <v>1E-4</v>
       </c>
       <c r="B20">
-        <v>5.8041596319526403E-4</v>
+        <v>2.6936523366719398E-3</v>
       </c>
       <c r="C20">
-        <v>5.8937194304107697E-4</v>
+        <v>2.7164649411110498E-3</v>
       </c>
       <c r="D20">
         <v>155</v>
@@ -4671,10 +4671,10 @@
         <v>1E-4</v>
       </c>
       <c r="B21">
-        <v>5.7762686731293797E-4</v>
+        <v>2.6880071062594601E-3</v>
       </c>
       <c r="C21">
-        <v>5.8129380322150404E-4</v>
+        <v>2.6963832105990401E-3</v>
       </c>
       <c r="D21">
         <v>156</v>
@@ -4688,10 +4688,10 @@
         <v>1E-3</v>
       </c>
       <c r="B22">
-        <v>7.5570705803111105E-4</v>
+        <v>2.8621493529528302E-3</v>
       </c>
       <c r="C22">
-        <v>7.5359870998521002E-4</v>
+        <v>2.8786083066444398E-3</v>
       </c>
       <c r="D22">
         <v>157</v>
@@ -4705,10 +4705,10 @@
         <v>1E-3</v>
       </c>
       <c r="B23">
-        <v>7.3320005889981898E-4</v>
+        <v>2.84603921510279E-3</v>
       </c>
       <c r="C23">
-        <v>7.1736435876020195E-4</v>
+        <v>2.83370781422942E-3</v>
       </c>
       <c r="D23">
         <v>158</v>
@@ -4722,10 +4722,10 @@
         <v>1E-3</v>
       </c>
       <c r="B24">
-        <v>7.5610822103917602E-4</v>
+        <v>2.8732688792049801E-3</v>
       </c>
       <c r="C24">
-        <v>7.8136392069719403E-4</v>
+        <v>2.9127803619262899E-3</v>
       </c>
       <c r="D24">
         <v>159</v>
@@ -4739,10 +4739,10 @@
         <v>1E-3</v>
       </c>
       <c r="B25">
-        <v>7.5013312539085704E-4</v>
+        <v>2.8586827751249E-3</v>
       </c>
       <c r="C25">
-        <v>7.4450019524569097E-4</v>
+        <v>2.8557555251725098E-3</v>
       </c>
       <c r="D25">
         <v>160</v>
@@ -4756,10 +4756,10 @@
         <v>0.01</v>
       </c>
       <c r="B26">
-        <v>3.4582590067759101E-3</v>
+        <v>5.89558693729341E-3</v>
       </c>
       <c r="C26">
-        <v>3.4015328233326001E-3</v>
+        <v>5.0450859303663304E-3</v>
       </c>
       <c r="D26">
         <v>161</v>
@@ -4773,10 +4773,10 @@
         <v>0.01</v>
       </c>
       <c r="B27">
-        <v>3.43492303136736E-3</v>
+        <v>5.3065918225795004E-3</v>
       </c>
       <c r="C27">
-        <v>3.1165065656113501E-3</v>
+        <v>4.8686065192031797E-3</v>
       </c>
       <c r="D27">
         <v>162</v>
@@ -4790,10 +4790,10 @@
         <v>0.01</v>
       </c>
       <c r="B28">
-        <v>3.5513509649783299E-3</v>
+        <v>5.2080070648342297E-3</v>
       </c>
       <c r="C28">
-        <v>3.4254438467738999E-3</v>
+        <v>5.1817290594647E-3</v>
       </c>
       <c r="D28">
         <v>163</v>
@@ -4807,10 +4807,10 @@
         <v>0.01</v>
       </c>
       <c r="B29">
-        <v>3.4138469357043498E-3</v>
+        <v>5.59127645231783E-3</v>
       </c>
       <c r="C29">
-        <v>3.40297435496334E-3</v>
+        <v>5.16916178522785E-3</v>
       </c>
       <c r="D29">
         <v>164</v>
@@ -4824,10 +4824,10 @@
         <v>0.1</v>
       </c>
       <c r="B30">
-        <v>3.4631295219063697E-2</v>
+        <v>3.2825512477755503E-2</v>
       </c>
       <c r="C30">
-        <v>3.2619364168139001E-2</v>
+        <v>2.8836831664014E-2</v>
       </c>
       <c r="D30">
         <v>165</v>
@@ -4841,10 +4841,10 @@
         <v>0.1</v>
       </c>
       <c r="B31">
-        <v>3.4280919279158099E-2</v>
+        <v>6.3926731750488202</v>
       </c>
       <c r="C31">
-        <v>2.6455554102731298E-2</v>
+        <v>6.4068091204211903</v>
       </c>
       <c r="D31">
         <v>166</v>
@@ -4858,10 +4858,10 @@
         <v>0.1</v>
       </c>
       <c r="B32">
-        <v>5.70629115829467</v>
+        <v>3.1606208847045898</v>
       </c>
       <c r="C32">
-        <v>4.2035867864159204</v>
+        <v>3.17361072977637</v>
       </c>
       <c r="D32">
         <v>167</v>
@@ -4875,10 +4875,10 @@
         <v>0.1</v>
       </c>
       <c r="B33">
-        <v>3.1933083926141199E-2</v>
+        <v>3.1659217361450098</v>
       </c>
       <c r="C33">
-        <v>3.0032797888585702E-2</v>
+        <v>3.1569615108951599</v>
       </c>
       <c r="D33">
         <v>168</v>

--- a/eg2.xlsx
+++ b/eg2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiqing/Desktop/Lipschitz-System-ID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BBEA802-11E8-2547-A96E-15814E18F6DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{318A3BDF-6CE7-5A4B-979D-9186F7908E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="34560" windowHeight="19800" activeTab="2" xr2:uid="{624D5C9E-D399-6E42-9BAD-9829FF00FD61}"/>
+    <workbookView xWindow="160" yWindow="2380" windowWidth="34560" windowHeight="19800" xr2:uid="{624D5C9E-D399-6E42-9BAD-9829FF00FD61}"/>
   </bookViews>
   <sheets>
     <sheet name="Ours 0.25" sheetId="1" r:id="rId1"/>
@@ -468,8 +468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C7B8AE4-A984-5E47-83F5-2F9341F82724}">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1837,7 +1837,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C910F4E5-1871-5D44-A4D1-B4921F11A929}">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -4945,7 +4945,7 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E5"/>
+      <selection activeCell="A2" sqref="A2:F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4990,10 +4990,10 @@
         <v>1E-8</v>
       </c>
       <c r="B2" s="2">
-        <v>9.4699756550798298E-4</v>
+        <v>2.8792300489938701E-3</v>
       </c>
       <c r="C2" s="2">
-        <v>9.5495518859013099E-4</v>
+        <v>2.9098534390069302E-3</v>
       </c>
       <c r="D2" s="2">
         <v>169</v>
@@ -5007,11 +5007,11 @@
       </c>
       <c r="K2" s="7">
         <f t="shared" ref="K2:N9" ca="1" si="0">AVERAGE(OFFSET(B$2,(ROW()-2)*4,0,4,1))</f>
-        <v>1.0136723495014349E-3</v>
+        <v>2.9881701939650251E-3</v>
       </c>
       <c r="L2" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0407914153217159E-3</v>
+        <v>3.0281673545895752E-3</v>
       </c>
       <c r="M2" s="3">
         <f t="shared" ca="1" si="0"/>
@@ -5027,10 +5027,10 @@
         <v>1E-8</v>
       </c>
       <c r="B3" s="2">
-        <v>1.1427439078184401E-3</v>
+        <v>3.1401925782560298E-3</v>
       </c>
       <c r="C3" s="2">
-        <v>1.16296528481172E-3</v>
+        <v>3.1599084117040501E-3</v>
       </c>
       <c r="D3" s="2">
         <v>170</v>
@@ -5044,11 +5044,11 @@
       </c>
       <c r="K3" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1140353439908109E-3</v>
+        <v>2.9780820429556399E-3</v>
       </c>
       <c r="L3" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1396310468290277E-3</v>
+        <v>3.015050381662283E-3</v>
       </c>
       <c r="M3" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -5064,10 +5064,10 @@
         <v>1E-8</v>
       </c>
       <c r="B4" s="2">
-        <v>9.3804527063717595E-4</v>
+        <v>2.9806051415148002E-3</v>
       </c>
       <c r="C4" s="2">
-        <v>9.7758280837042296E-4</v>
+        <v>3.0701405555602999E-3</v>
       </c>
       <c r="D4" s="2">
         <v>171</v>
@@ -5081,11 +5081,11 @@
       </c>
       <c r="K4" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0423178495920738E-3</v>
+        <v>2.9764262900782625E-3</v>
       </c>
       <c r="L4" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0666595515164757E-3</v>
+        <v>3.0163145215535226E-3</v>
       </c>
       <c r="M4" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -5101,10 +5101,10 @@
         <v>1E-8</v>
       </c>
       <c r="B5" s="2">
-        <v>1.02690265404214E-3</v>
+        <v>2.9526530070954002E-3</v>
       </c>
       <c r="C5" s="2">
-        <v>1.0676623795145899E-3</v>
+        <v>2.97276701208702E-3</v>
       </c>
       <c r="D5" s="2">
         <v>172</v>
@@ -5118,11 +5118,11 @@
       </c>
       <c r="K5" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0901313789698967E-3</v>
+        <v>3.0086427388689003E-3</v>
       </c>
       <c r="L5" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1067081168279111E-3</v>
+        <v>3.0361003276541971E-3</v>
       </c>
       <c r="M5" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -5138,10 +5138,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B6">
-        <v>9.7631742016584297E-4</v>
+        <v>2.8581663930586899E-3</v>
       </c>
       <c r="C6">
-        <v>9.8145940484906102E-4</v>
+        <v>2.88248571988408E-3</v>
       </c>
       <c r="D6">
         <v>173</v>
@@ -5155,11 +5155,11 @@
       </c>
       <c r="K6" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1996041496201201E-3</v>
+        <v>3.1117448059747024E-3</v>
       </c>
       <c r="L6" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1083454279796974E-3</v>
+        <v>3.0424317851466824E-3</v>
       </c>
       <c r="M6" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -5175,10 +5175,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B7">
-        <v>1.28702056048449E-3</v>
+        <v>3.14143898742641E-3</v>
       </c>
       <c r="C7">
-        <v>1.2978246330971599E-3</v>
+        <v>3.1556811948917798E-3</v>
       </c>
       <c r="D7">
         <v>174</v>
@@ -5192,11 +5192,11 @@
       </c>
       <c r="K7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2163733155585201E-3</v>
+        <v>4.0740128921694799E-3</v>
       </c>
       <c r="L7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0779971584223859E-3</v>
+        <v>3.0243066944045452E-3</v>
       </c>
       <c r="M7" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -5212,10 +5212,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B8">
-        <v>9.7557084611172098E-4</v>
+        <v>2.97662912820507E-3</v>
       </c>
       <c r="C8">
-        <v>1.02012476195717E-3</v>
+        <v>3.0610043641511901E-3</v>
       </c>
       <c r="D8">
         <v>175</v>
@@ -5229,11 +5229,11 @@
       </c>
       <c r="K8" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2665945655446775E-2</v>
+        <v>1.3829577042406775E-2</v>
       </c>
       <c r="L8" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1760240092029738E-3</v>
+        <v>3.0470638981557547E-3</v>
       </c>
       <c r="M8" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -5249,10 +5249,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B9">
-        <v>1.2172325492011899E-3</v>
+        <v>2.93609366313239E-3</v>
       </c>
       <c r="C9">
-        <v>1.2591153874127201E-3</v>
+        <v>2.9610302477220802E-3</v>
       </c>
       <c r="D9">
         <v>176</v>
@@ -5266,11 +5266,11 @@
       </c>
       <c r="K9" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11572750575935326</v>
+        <v>0.110331763982013</v>
       </c>
       <c r="L9" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>4.6112489731608601E-3</v>
+        <v>5.1686512050515424E-3</v>
       </c>
       <c r="M9" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -5286,10 +5286,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B10">
-        <v>8.6599908832899603E-4</v>
+        <v>2.8265673536688601E-3</v>
       </c>
       <c r="C10">
-        <v>8.6943784715299297E-4</v>
+        <v>2.8627984549043401E-3</v>
       </c>
       <c r="D10">
         <v>177</v>
@@ -5299,7 +5299,7 @@
       </c>
       <c r="L10">
         <f ca="1">MIN(L2:L9)</f>
-        <v>1.0407914153217159E-3</v>
+        <v>3.015050381662283E-3</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -5307,10 +5307,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B11">
-        <v>1.23730917820101E-3</v>
+        <v>3.13938366676307E-3</v>
       </c>
       <c r="C11">
-        <v>1.2480235576279601E-3</v>
+        <v>3.15010316141993E-3</v>
       </c>
       <c r="D11">
         <v>178</v>
@@ -5324,10 +5324,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B12">
-        <v>1.0167238800074499E-3</v>
+        <v>2.9832508346765798E-3</v>
       </c>
       <c r="C12">
-        <v>1.0595381316272101E-3</v>
+        <v>3.0673789053229901E-3</v>
       </c>
       <c r="D12">
         <v>179</v>
@@ -5341,10 +5341,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B13">
-        <v>1.04923925183084E-3</v>
+        <v>2.9565033052045401E-3</v>
       </c>
       <c r="C13">
-        <v>1.08963866965774E-3</v>
+        <v>2.9849775645668301E-3</v>
       </c>
       <c r="D13">
         <v>180</v>
@@ -5358,10 +5358,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B14">
-        <v>9.57505948022957E-4</v>
+        <v>2.8808455970612801E-3</v>
       </c>
       <c r="C14">
-        <v>9.54541471152074E-4</v>
+        <v>2.8916534768998799E-3</v>
       </c>
       <c r="D14">
         <v>181</v>
@@ -5375,10 +5375,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B15">
-        <v>1.3162855983557501E-3</v>
+        <v>3.1387060228142E-3</v>
       </c>
       <c r="C15">
-        <v>1.31876557022867E-3</v>
+        <v>3.1440734795063299E-3</v>
       </c>
       <c r="D15">
         <v>182</v>
@@ -5392,10 +5392,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B16">
-        <v>1.02099644763181E-3</v>
+        <v>2.9830541951095398E-3</v>
       </c>
       <c r="C16">
-        <v>1.0584811591039E-3</v>
+        <v>3.0598711432995801E-3</v>
       </c>
       <c r="D16">
         <v>183</v>
@@ -5409,10 +5409,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B17">
-        <v>1.0657375218690701E-3</v>
+        <v>3.0319651404905799E-3</v>
       </c>
       <c r="C17">
-        <v>1.095044266827E-3</v>
+        <v>3.0488032109110001E-3</v>
       </c>
       <c r="D17">
         <v>184</v>
@@ -5426,10 +5426,10 @@
         <v>1E-4</v>
       </c>
       <c r="B18" s="4">
-        <v>1.1106749331418399E-3</v>
+        <v>2.98777514783914E-3</v>
       </c>
       <c r="C18" s="4">
-        <v>1.0015457482255099E-3</v>
+        <v>2.91183821346824E-3</v>
       </c>
       <c r="D18" s="4">
         <v>185</v>
@@ -5443,10 +5443,10 @@
         <v>1E-4</v>
       </c>
       <c r="B19" s="4">
-        <v>1.25553715747193E-3</v>
+        <v>3.2958304984079798E-3</v>
       </c>
       <c r="C19" s="4">
-        <v>1.13792742816078E-3</v>
+        <v>3.2055044359865599E-3</v>
       </c>
       <c r="D19" s="4">
         <v>186</v>
@@ -5460,10 +5460,10 @@
         <v>1E-4</v>
       </c>
       <c r="B20" s="4">
-        <v>1.30411314038014E-3</v>
+        <v>3.09376219868849E-3</v>
       </c>
       <c r="C20" s="4">
-        <v>1.24626255677241E-3</v>
+        <v>3.0712569962925902E-3</v>
       </c>
       <c r="D20" s="4">
         <v>187</v>
@@ -5477,10 +5477,10 @@
         <v>1E-4</v>
       </c>
       <c r="B21" s="4">
-        <v>1.1280913674865699E-3</v>
+        <v>3.0696113789632001E-3</v>
       </c>
       <c r="C21" s="4">
-        <v>1.0476459787600899E-3</v>
+        <v>2.9811274948393402E-3</v>
       </c>
       <c r="D21" s="4">
         <v>188</v>
@@ -5494,10 +5494,10 @@
         <v>1E-3</v>
       </c>
       <c r="B22" s="4">
-        <v>2.1132122492417602E-3</v>
+        <v>3.9462778646095504E-3</v>
       </c>
       <c r="C22" s="4">
-        <v>9.5916384457355396E-4</v>
+        <v>2.8889620525370898E-3</v>
       </c>
       <c r="D22" s="4">
         <v>189</v>
@@ -5511,10 +5511,10 @@
         <v>1E-3</v>
       </c>
       <c r="B23" s="4">
-        <v>2.3503546858099598E-3</v>
+        <v>4.2255822150926402E-3</v>
       </c>
       <c r="C23" s="4">
-        <v>1.17826583064131E-3</v>
+        <v>3.1436512804335001E-3</v>
       </c>
       <c r="D23" s="4">
         <v>190</v>
@@ -5528,10 +5528,10 @@
         <v>1E-3</v>
       </c>
       <c r="B24" s="4">
-        <v>2.1413414654541398E-3</v>
+        <v>4.1166787439138597E-3</v>
       </c>
       <c r="C24" s="4">
-        <v>1.0377103629652499E-3</v>
+        <v>3.1207907992373599E-3</v>
       </c>
       <c r="D24" s="4">
         <v>191</v>
@@ -5545,10 +5545,10 @@
         <v>1E-3</v>
       </c>
       <c r="B25" s="4">
-        <v>2.26058486172822E-3</v>
+        <v>4.0075127450618702E-3</v>
       </c>
       <c r="C25" s="4">
-        <v>1.1368485955094299E-3</v>
+        <v>2.9438226454102301E-3</v>
       </c>
       <c r="D25" s="4">
         <v>192</v>
@@ -5562,10 +5562,10 @@
         <v>0.01</v>
       </c>
       <c r="B26" s="4">
-        <v>1.2538958951878299E-2</v>
+        <v>1.3686708305149699E-2</v>
       </c>
       <c r="C26" s="4">
-        <v>9.89839861356315E-4</v>
+        <v>2.9276331017612399E-3</v>
       </c>
       <c r="D26" s="4">
         <v>193</v>
@@ -5580,10 +5580,10 @@
         <v>0.01</v>
       </c>
       <c r="B27" s="4">
-        <v>1.2731184459226099E-2</v>
+        <v>1.3907158949003001E-2</v>
       </c>
       <c r="C27" s="4">
-        <v>1.22171785322071E-3</v>
+        <v>3.1343654545534102E-3</v>
       </c>
       <c r="D27" s="4">
         <v>194</v>
@@ -5598,10 +5598,10 @@
         <v>0.01</v>
       </c>
       <c r="B28" s="4">
-        <v>1.27349289632432E-2</v>
+        <v>1.3877714729043301E-2</v>
       </c>
       <c r="C28" s="4">
-        <v>1.29335469293414E-3</v>
+        <v>3.09662916845861E-3</v>
       </c>
       <c r="D28" s="4">
         <v>195</v>
@@ -5616,10 +5616,10 @@
         <v>0.01</v>
       </c>
       <c r="B29" s="4">
-        <v>1.26587102474395E-2</v>
+        <v>1.38467261864311E-2</v>
       </c>
       <c r="C29" s="4">
-        <v>1.1991836293007299E-3</v>
+        <v>3.02962786784976E-3</v>
       </c>
       <c r="D29" s="4">
         <v>196</v>
@@ -5634,10 +5634,10 @@
         <v>0.1</v>
       </c>
       <c r="B30">
-        <v>0.115422913270771</v>
+        <v>0.10957662054118</v>
       </c>
       <c r="C30">
-        <v>4.0016268501592098E-3</v>
+        <v>4.8304974341729402E-3</v>
       </c>
       <c r="D30">
         <v>197</v>
@@ -5651,10 +5651,10 @@
         <v>0.1</v>
       </c>
       <c r="B31">
-        <v>0.115906117828028</v>
+        <v>0.111004235305983</v>
       </c>
       <c r="C31">
-        <v>4.8796440975942199E-3</v>
+        <v>5.3058335658423801E-3</v>
       </c>
       <c r="D31">
         <v>198</v>
@@ -5668,10 +5668,10 @@
         <v>0.1</v>
       </c>
       <c r="B32">
-        <v>0.115880250029123</v>
+        <v>0.110491869271181</v>
       </c>
       <c r="C32">
-        <v>5.1096968996415604E-3</v>
+        <v>5.4249675324554401E-3</v>
       </c>
       <c r="D32">
         <v>199</v>
@@ -5685,10 +5685,10 @@
         <v>0.1</v>
       </c>
       <c r="B33">
-        <v>0.11570074190949101</v>
+        <v>0.11025433080970801</v>
       </c>
       <c r="C33">
-        <v>4.4540280452484496E-3</v>
+        <v>5.1133062877354099E-3</v>
       </c>
       <c r="D33">
         <v>200</v>
@@ -5707,7 +5707,7 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:E13"/>
+      <selection activeCell="A2" sqref="A2:F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5752,10 +5752,10 @@
         <v>1E-8</v>
       </c>
       <c r="B2" s="4">
-        <v>6.5256514625189397E-4</v>
+        <v>2.7323410535356201E-3</v>
       </c>
       <c r="C2" s="4">
-        <v>6.6620113541650901E-4</v>
+        <v>2.7670246551916599E-3</v>
       </c>
       <c r="D2" s="4">
         <v>201</v>
@@ -5769,11 +5769,11 @@
       </c>
       <c r="K2" s="6">
         <f t="shared" ref="K2:N9" ca="1" si="0">AVERAGE(OFFSET(B$2,(ROW()-2)*4,0,4,1))</f>
-        <v>6.670169195233909E-4</v>
+        <v>2.7805720708859579E-3</v>
       </c>
       <c r="L2" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7960241179954777E-4</v>
+        <v>2.8122932658305299E-3</v>
       </c>
       <c r="M2" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -5789,10 +5789,10 @@
         <v>1E-8</v>
       </c>
       <c r="B3" s="4">
-        <v>6.8504774285414901E-4</v>
+        <v>2.83409804760362E-3</v>
       </c>
       <c r="C3" s="4">
-        <v>6.8753236826141402E-4</v>
+        <v>2.83631533058063E-3</v>
       </c>
       <c r="D3" s="4">
         <v>202</v>
@@ -5806,11 +5806,11 @@
       </c>
       <c r="K3" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7116226801037246E-4</v>
+        <v>2.7687685648217376E-3</v>
       </c>
       <c r="L3" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.8325677003850825E-4</v>
+        <v>2.7990043493266474E-3</v>
       </c>
       <c r="M3" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -5826,10 +5826,10 @@
         <v>1E-8</v>
       </c>
       <c r="B4" s="4">
-        <v>6.5945288536106098E-4</v>
+        <v>2.8077315832205499E-3</v>
       </c>
       <c r="C4" s="4">
-        <v>6.7728998919557395E-4</v>
+        <v>2.8695529045026898E-3</v>
       </c>
       <c r="D4" s="4">
         <v>203</v>
@@ -5843,11 +5843,11 @@
       </c>
       <c r="K4" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>6.6421534577380825E-4</v>
+        <v>2.7673293833811248E-3</v>
       </c>
       <c r="L4" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7385230406193358E-4</v>
+        <v>2.7973132199091673E-3</v>
       </c>
       <c r="M4" s="3">
         <f t="shared" ca="1" si="0"/>
@@ -5863,10 +5863,10 @@
         <v>1E-8</v>
       </c>
       <c r="B5" s="4">
-        <v>6.7100190362645996E-4</v>
+        <v>2.7481175991840401E-3</v>
       </c>
       <c r="C5" s="4">
-        <v>6.8738615432469398E-4</v>
+        <v>2.7762801730471399E-3</v>
       </c>
       <c r="D5" s="4">
         <v>204</v>
@@ -5880,11 +5880,11 @@
       </c>
       <c r="K5" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7492670881875798E-4</v>
+        <v>2.7711874708316025E-3</v>
       </c>
       <c r="L5" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7433398107591695E-4</v>
+        <v>2.7900249953085078E-3</v>
       </c>
       <c r="M5" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -5900,10 +5900,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B6">
-        <v>6.6427729864673203E-4</v>
+        <v>2.7488424448659401E-3</v>
       </c>
       <c r="C6">
-        <v>6.7862236848587401E-4</v>
+        <v>2.78043690446028E-3</v>
       </c>
       <c r="D6">
         <v>205</v>
@@ -5917,11 +5917,11 @@
       </c>
       <c r="K6" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>7.869649765222292E-4</v>
+        <v>2.8814171307375023E-3</v>
       </c>
       <c r="L6" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.8183252599036894E-4</v>
+        <v>2.8024315511493377E-3</v>
       </c>
       <c r="M6" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -5937,10 +5937,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B7">
-        <v>6.9405491848419695E-4</v>
+        <v>2.7818529168887698E-3</v>
       </c>
       <c r="C7">
-        <v>6.9614644436711399E-4</v>
+        <v>2.7840718327410401E-3</v>
       </c>
       <c r="D7">
         <v>206</v>
@@ -5954,11 +5954,11 @@
       </c>
       <c r="K7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.848251952904275E-3</v>
+        <v>3.8598551784609276E-3</v>
       </c>
       <c r="L7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>7.0222078879648498E-4</v>
+        <v>2.7988549969959853E-3</v>
       </c>
       <c r="M7" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -5974,10 +5974,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B8">
-        <v>6.4831809717239399E-4</v>
+        <v>2.78907203927826E-3</v>
       </c>
       <c r="C8">
-        <v>6.6551025571289705E-4</v>
+        <v>2.84852118344063E-3</v>
       </c>
       <c r="D8">
         <v>207</v>
@@ -5991,11 +5991,11 @@
       </c>
       <c r="K8" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2288117933774325E-2</v>
+        <v>1.3639132663333799E-2</v>
       </c>
       <c r="L8" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>7.2485109975422061E-4</v>
+        <v>2.84897389000127E-3</v>
       </c>
       <c r="M8" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -6011,10 +6011,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B9">
-        <v>6.7799875773816699E-4</v>
+        <v>2.7553068582539799E-3</v>
       </c>
       <c r="C9">
-        <v>6.9274801158814795E-4</v>
+        <v>2.7829874766646398E-3</v>
       </c>
       <c r="D9">
         <v>208</v>
@@ -6028,11 +6028,11 @@
       </c>
       <c r="K9" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11524875084170275</v>
+        <v>0.10989893155214076</v>
       </c>
       <c r="L9" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>3.9751372625606348E-3</v>
+        <v>5.0814770637406283E-3</v>
       </c>
       <c r="M9" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -6048,10 +6048,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B10" s="2">
-        <v>6.3744707216401497E-4</v>
+        <v>2.7369967492196102E-3</v>
       </c>
       <c r="C10" s="2">
-        <v>6.4682173668733104E-4</v>
+        <v>2.7703824467885801E-3</v>
       </c>
       <c r="D10" s="2">
         <v>209</v>
@@ -6061,7 +6061,7 @@
       </c>
       <c r="L10">
         <f ca="1">MIN(L2:L9)</f>
-        <v>6.7385230406193358E-4</v>
+        <v>2.7900249953085078E-3</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -6069,10 +6069,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B11" s="2">
-        <v>6.9515238357588805E-4</v>
+        <v>2.7944942714628598E-3</v>
       </c>
       <c r="C11" s="2">
-        <v>6.9570767427764896E-4</v>
+        <v>2.7997032012553099E-3</v>
       </c>
       <c r="D11" s="2">
         <v>210</v>
@@ -6086,10 +6086,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B12" s="2">
-        <v>6.4785386931847397E-4</v>
+        <v>2.7872625613412499E-3</v>
       </c>
       <c r="C12" s="2">
-        <v>6.61508443062401E-4</v>
+        <v>2.84562928151268E-3</v>
       </c>
       <c r="D12" s="2">
         <v>211</v>
@@ -6103,10 +6103,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B13" s="2">
-        <v>6.7640805803685601E-4</v>
+        <v>2.7505639515007802E-3</v>
       </c>
       <c r="C13" s="2">
-        <v>6.9137136222035297E-4</v>
+        <v>2.7735379500801001E-3</v>
       </c>
       <c r="D13" s="2">
         <v>212</v>
@@ -6120,10 +6120,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B14" s="4">
-        <v>6.4702008697635699E-4</v>
+        <v>2.7514042581220301E-3</v>
       </c>
       <c r="C14" s="4">
-        <v>6.4605650911700799E-4</v>
+        <v>2.7728878631950501E-3</v>
       </c>
       <c r="D14" s="4">
         <v>213</v>
@@ -6137,10 +6137,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B15" s="4">
-        <v>7.1212346832931397E-4</v>
+        <v>2.7989233663966101E-3</v>
       </c>
       <c r="C15" s="4">
-        <v>7.0110712849956198E-4</v>
+        <v>2.7915704817434001E-3</v>
       </c>
       <c r="D15" s="4">
         <v>214</v>
@@ -6154,10 +6154,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B16" s="4">
-        <v>6.7058945753084901E-4</v>
+        <v>2.7846888335534702E-3</v>
       </c>
       <c r="C16" s="4">
-        <v>6.7621193993777304E-4</v>
+        <v>2.82807273873288E-3</v>
       </c>
       <c r="D16" s="4">
         <v>215</v>
@@ -6171,10 +6171,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B17" s="4">
-        <v>6.6997382243851196E-4</v>
+        <v>2.7497334252543E-3</v>
       </c>
       <c r="C17" s="4">
-        <v>6.7396034674932503E-4</v>
+        <v>2.7675688975627001E-3</v>
       </c>
       <c r="D17" s="4">
         <v>216</v>
@@ -6188,10 +6188,10 @@
         <v>1E-4</v>
       </c>
       <c r="B18">
-        <v>7.5688241841866599E-4</v>
+        <v>2.8538513860215898E-3</v>
       </c>
       <c r="C18">
-        <v>6.5296338122207496E-4</v>
+        <v>2.7780720525106802E-3</v>
       </c>
       <c r="D18">
         <v>217</v>
@@ -6205,10 +6205,10 @@
         <v>1E-4</v>
       </c>
       <c r="B19">
-        <v>8.0614417014768496E-4</v>
+        <v>2.8842952475844302E-3</v>
       </c>
       <c r="C19">
-        <v>6.9134382740149505E-4</v>
+        <v>2.7769124832383901E-3</v>
       </c>
       <c r="D19">
         <v>218</v>
@@ -6222,10 +6222,10 @@
         <v>1E-4</v>
       </c>
       <c r="B20">
-        <v>7.8649514115983795E-4</v>
+        <v>2.9095270055027799E-3</v>
       </c>
       <c r="C20">
-        <v>6.8754657945791398E-4</v>
+        <v>2.8625279368393701E-3</v>
       </c>
       <c r="D20">
         <v>219</v>
@@ -6239,10 +6239,10 @@
         <v>1E-4</v>
       </c>
       <c r="B21">
-        <v>7.9833817636272802E-4</v>
+        <v>2.8779948838412099E-3</v>
       </c>
       <c r="C21">
-        <v>6.9547631587999197E-4</v>
+        <v>2.7922137320089101E-3</v>
       </c>
       <c r="D21">
         <v>220</v>
@@ -6256,10 +6256,10 @@
         <v>1E-3</v>
       </c>
       <c r="B22">
-        <v>1.7869619986625499E-3</v>
+        <v>3.8435277804291898E-3</v>
       </c>
       <c r="C22">
-        <v>6.4082151748963596E-4</v>
+        <v>2.78308236182542E-3</v>
       </c>
       <c r="D22">
         <v>221</v>
@@ -6273,10 +6273,10 @@
         <v>1E-3</v>
       </c>
       <c r="B23">
-        <v>1.92669084438453E-3</v>
+        <v>3.8705849380324601E-3</v>
       </c>
       <c r="C23">
-        <v>7.6417622800062195E-4</v>
+        <v>2.7823702292813402E-3</v>
       </c>
       <c r="D23">
         <v>222</v>
@@ -6290,10 +6290,10 @@
         <v>1E-3</v>
       </c>
       <c r="B24">
-        <v>1.81510513306211E-3</v>
+        <v>3.8813264310038598E-3</v>
       </c>
       <c r="C24">
-        <v>6.7752764847983703E-4</v>
+        <v>2.8490223135846601E-3</v>
       </c>
       <c r="D24">
         <v>223</v>
@@ -6307,10 +6307,10 @@
         <v>1E-3</v>
       </c>
       <c r="B25">
-        <v>1.8642498355079099E-3</v>
+        <v>3.8439815643782002E-3</v>
       </c>
       <c r="C25">
-        <v>7.2635776121584498E-4</v>
+        <v>2.78094508329252E-3</v>
       </c>
       <c r="D25">
         <v>224</v>
@@ -6324,10 +6324,10 @@
         <v>0.01</v>
       </c>
       <c r="B26" s="4">
-        <v>1.22633228352227E-2</v>
+        <v>1.3643190928231901E-2</v>
       </c>
       <c r="C26" s="4">
-        <v>7.4331829944257704E-4</v>
+        <v>2.8347059666137598E-3</v>
       </c>
       <c r="D26" s="4">
         <v>225</v>
@@ -6342,10 +6342,10 @@
         <v>0.01</v>
       </c>
       <c r="B27" s="4">
-        <v>1.22837812636797E-2</v>
+        <v>1.36478778938896E-2</v>
       </c>
       <c r="C27" s="4">
-        <v>7.1800773656351602E-4</v>
+        <v>2.8345711443241001E-3</v>
       </c>
       <c r="D27" s="4">
         <v>226</v>
@@ -6360,10 +6360,10 @@
         <v>0.01</v>
       </c>
       <c r="B28" s="4">
-        <v>1.22856949113856E-2</v>
+        <v>1.3630353670103099E-2</v>
       </c>
       <c r="C28" s="4">
-        <v>7.3058291184152299E-4</v>
+        <v>2.8965264472778202E-3</v>
       </c>
       <c r="D28" s="4">
         <v>227</v>
@@ -6378,10 +6378,10 @@
         <v>0.01</v>
       </c>
       <c r="B29" s="4">
-        <v>1.23196727248093E-2</v>
+        <v>1.3635108161110601E-2</v>
       </c>
       <c r="C29" s="4">
-        <v>7.0749545116926605E-4</v>
+        <v>2.8300920017894E-3</v>
       </c>
       <c r="D29" s="4">
         <v>228</v>
@@ -6396,10 +6396,10 @@
         <v>0.1</v>
       </c>
       <c r="B30">
-        <v>0.11483158918615299</v>
+        <v>0.109945402144433</v>
       </c>
       <c r="C30">
-        <v>3.66256746261789E-3</v>
+        <v>4.9696863542910003E-3</v>
       </c>
       <c r="D30">
         <v>229</v>
@@ -6413,10 +6413,10 @@
         <v>0.1</v>
       </c>
       <c r="B31">
-        <v>0.1158298323044</v>
+        <v>0.10998145455179099</v>
       </c>
       <c r="C31">
-        <v>4.0655485339533897E-3</v>
+        <v>5.0847183284201403E-3</v>
       </c>
       <c r="D31">
         <v>230</v>
@@ -6430,10 +6430,10 @@
         <v>0.1</v>
       </c>
       <c r="B32">
-        <v>0.115462034274213</v>
+        <v>0.109816173395028</v>
       </c>
       <c r="C32">
-        <v>4.1989304442670503E-3</v>
+        <v>5.1787573529798797E-3</v>
       </c>
       <c r="D32">
         <v>231</v>
@@ -6447,10 +6447,10 @@
         <v>0.1</v>
       </c>
       <c r="B33">
-        <v>0.114871547602045</v>
+        <v>0.10985269611731099</v>
       </c>
       <c r="C33">
-        <v>3.9735026094042097E-3</v>
+        <v>5.0927462192714903E-3</v>
       </c>
       <c r="D33">
         <v>232</v>
@@ -6469,7 +6469,7 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="A2" sqref="A2:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6510,19 +6510,19 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
+      <c r="A2" s="3">
         <v>1E-8</v>
       </c>
-      <c r="B2" s="4">
-        <v>5.89789831126108E-4</v>
-      </c>
-      <c r="C2" s="4">
-        <v>5.9602656075434296E-4</v>
-      </c>
-      <c r="D2" s="4">
+      <c r="B2" s="2">
+        <v>2.6920043915510099E-3</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2.7276158131137001E-3</v>
+      </c>
+      <c r="D2" s="2">
         <v>233</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="2">
         <v>1</v>
       </c>
       <c r="J2" s="5">
@@ -6531,11 +6531,11 @@
       </c>
       <c r="K2" s="5">
         <f t="shared" ref="K2:N9" ca="1" si="0">AVERAGE(OFFSET(B$2,(ROW()-2)*4,0,4,1))</f>
-        <v>5.8722082899184821E-4</v>
+        <v>2.6939118370413722E-3</v>
       </c>
       <c r="L2" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>5.9171476904495578E-4</v>
+        <v>2.7143984293760874E-3</v>
       </c>
       <c r="M2" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -6547,19 +6547,19 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+      <c r="A3" s="3">
         <v>1E-8</v>
       </c>
-      <c r="B3" s="4">
-        <v>5.9303126744925897E-4</v>
-      </c>
-      <c r="C3" s="4">
-        <v>5.9178957877277201E-4</v>
-      </c>
-      <c r="D3" s="4">
+      <c r="B3" s="2">
+        <v>2.7055321987718298E-3</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2.7168373070111502E-3</v>
+      </c>
+      <c r="D3" s="2">
         <v>234</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="2">
         <v>1</v>
       </c>
       <c r="J3" s="5">
@@ -6568,11 +6568,11 @@
       </c>
       <c r="K3" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>5.8484484563814431E-4</v>
+        <v>2.7047782431356576E-3</v>
       </c>
       <c r="L3" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>5.891152194965844E-4</v>
+        <v>2.7235383512659826E-3</v>
       </c>
       <c r="M3" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -6584,19 +6584,19 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
+      <c r="A4" s="3">
         <v>1E-8</v>
       </c>
-      <c r="B4" s="4">
-        <v>5.72157310508191E-4</v>
-      </c>
-      <c r="C4" s="4">
-        <v>5.8024334587797397E-4</v>
-      </c>
-      <c r="D4" s="4">
+      <c r="B4" s="2">
+        <v>2.6923950117081399E-3</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2.7162738583364999E-3</v>
+      </c>
+      <c r="D4" s="2">
         <v>235</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="2">
         <v>1</v>
       </c>
       <c r="J4" s="5">
@@ -6605,11 +6605,11 @@
       </c>
       <c r="K4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>5.9259939879411771E-4</v>
+        <v>2.7020205792970898E-3</v>
       </c>
       <c r="L4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>5.9575756540363269E-4</v>
+        <v>2.720322703518515E-3</v>
       </c>
       <c r="M4" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -6621,19 +6621,19 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
+      <c r="A5" s="3">
         <v>1E-8</v>
       </c>
-      <c r="B5" s="4">
-        <v>5.9390490688383498E-4</v>
-      </c>
-      <c r="C5" s="4">
-        <v>5.9879959077473405E-4</v>
-      </c>
-      <c r="D5" s="4">
+      <c r="B5" s="2">
+        <v>2.6857157461345101E-3</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2.696866739043E-3</v>
+      </c>
+      <c r="D5" s="2">
         <v>236</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="2">
         <v>1</v>
       </c>
       <c r="J5" s="5">
@@ -6642,11 +6642,11 @@
       </c>
       <c r="K5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>5.9530298806494044E-4</v>
+        <v>2.7142989164218225E-3</v>
       </c>
       <c r="L5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>5.8805637923032173E-4</v>
+        <v>2.7223646115796347E-3</v>
       </c>
       <c r="M5" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -6662,10 +6662,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B6">
-        <v>5.9214994860813002E-4</v>
+        <v>2.6925402183085598E-3</v>
       </c>
       <c r="C6">
-        <v>5.9657122596510996E-4</v>
+        <v>2.7283580890696498E-3</v>
       </c>
       <c r="D6">
         <v>237</v>
@@ -6679,11 +6679,11 @@
       </c>
       <c r="K6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6.9874339085072238E-4</v>
+        <v>2.8081679422408273E-3</v>
       </c>
       <c r="L6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5.8693857807932959E-4</v>
+        <v>2.72066818341126E-3</v>
       </c>
       <c r="M6" s="3">
         <f t="shared" ca="1" si="0"/>
@@ -6699,10 +6699,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B7">
-        <v>5.9012735653668599E-4</v>
+        <v>2.7411275919526799E-3</v>
       </c>
       <c r="C7">
-        <v>5.9193648248881197E-4</v>
+        <v>2.7468173978197701E-3</v>
       </c>
       <c r="D7">
         <v>238</v>
@@ -6716,11 +6716,11 @@
       </c>
       <c r="K7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.751090476708485E-3</v>
+        <v>3.7893920511938577E-3</v>
       </c>
       <c r="L7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>5.9357719132743401E-4</v>
+        <v>2.7223945214193551E-3</v>
       </c>
       <c r="M7" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -6736,10 +6736,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B8">
-        <v>5.7130422829650303E-4</v>
+        <v>2.69619865603745E-3</v>
       </c>
       <c r="C8">
-        <v>5.7879450696128999E-4</v>
+        <v>2.71723183186333E-3</v>
       </c>
       <c r="D8">
         <v>239</v>
@@ -6753,11 +6753,11 @@
       </c>
       <c r="K8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2209100121632174E-2</v>
+        <v>1.35443993542343E-2</v>
       </c>
       <c r="L8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6.4852281572196297E-4</v>
+        <v>2.7515191060585773E-3</v>
       </c>
       <c r="M8" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -6773,10 +6773,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B9">
-        <v>5.8579784911125797E-4</v>
+        <v>2.6892465062439402E-3</v>
       </c>
       <c r="C9">
-        <v>5.89158662571126E-4</v>
+        <v>2.7017460863111801E-3</v>
       </c>
       <c r="D9">
         <v>240</v>
@@ -6790,11 +6790,11 @@
       </c>
       <c r="K9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11478387839198075</v>
+        <v>0.10971586593389476</v>
       </c>
       <c r="L9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5325161029012226E-3</v>
+        <v>4.8201439429851551E-3</v>
       </c>
       <c r="M9" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -6810,10 +6810,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B10">
-        <v>6.0216052867472099E-4</v>
+        <v>2.6956670116633102E-3</v>
       </c>
       <c r="C10">
-        <v>6.0549784421321602E-4</v>
+        <v>2.7303314044075E-3</v>
       </c>
       <c r="D10">
         <v>241</v>
@@ -6823,7 +6823,7 @@
       </c>
       <c r="L10">
         <f ca="1">MIN(L2:L9)</f>
-        <v>5.8693857807932959E-4</v>
+        <v>2.7143984293760874E-3</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -6831,10 +6831,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B11">
-        <v>5.9920521783642404E-4</v>
+        <v>2.7348661605268699E-3</v>
       </c>
       <c r="C11">
-        <v>5.9857328013060201E-4</v>
+        <v>2.7405182211096301E-3</v>
       </c>
       <c r="D11">
         <v>242</v>
@@ -6848,10 +6848,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B12">
-        <v>5.7224672436714103E-4</v>
+        <v>2.6891561988741102E-3</v>
       </c>
       <c r="C12">
-        <v>5.7948237191589097E-4</v>
+        <v>2.7123419256513E-3</v>
       </c>
       <c r="D12">
         <v>243</v>
@@ -6865,10 +6865,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B13">
-        <v>5.9678512429818498E-4</v>
+        <v>2.6883929461240701E-3</v>
       </c>
       <c r="C13">
-        <v>5.9947676535482199E-4</v>
+        <v>2.6980992629056298E-3</v>
       </c>
       <c r="D13">
         <v>244</v>
@@ -6882,10 +6882,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B14">
-        <v>5.9829322146251799E-4</v>
+        <v>2.7038662470877102E-3</v>
       </c>
       <c r="C14">
-        <v>5.91803109087939E-4</v>
+        <v>2.72861597051096E-3</v>
       </c>
       <c r="D14">
         <v>245</v>
@@ -6899,10 +6899,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B15">
-        <v>6.0048039639368602E-4</v>
+        <v>2.7510126546025199E-3</v>
       </c>
       <c r="C15">
-        <v>5.9136184645004004E-4</v>
+        <v>2.74540887475251E-3</v>
       </c>
       <c r="D15">
         <v>246</v>
@@ -6916,10 +6916,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B16">
-        <v>5.8490134445019003E-4</v>
+        <v>2.7015184871852301E-3</v>
       </c>
       <c r="C16">
-        <v>5.8103175288819599E-4</v>
+        <v>2.7142106332952599E-3</v>
       </c>
       <c r="D16">
         <v>247</v>
@@ -6933,10 +6933,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B17">
-        <v>5.9753698995336805E-4</v>
+        <v>2.7007982768118299E-3</v>
       </c>
       <c r="C17">
-        <v>5.8802880849511199E-4</v>
+        <v>2.7012229677598099E-3</v>
       </c>
       <c r="D17">
         <v>248</v>
@@ -6946,70 +6946,70 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
+      <c r="A18" s="4">
         <v>1E-4</v>
       </c>
-      <c r="B18" s="2">
-        <v>7.0272399373352498E-4</v>
-      </c>
-      <c r="C18" s="2">
-        <v>5.9255489495221002E-4</v>
-      </c>
-      <c r="D18" s="2">
+      <c r="B18" s="4">
+        <v>2.8029937375336801E-3</v>
+      </c>
+      <c r="C18" s="4">
+        <v>2.7300837600995201E-3</v>
+      </c>
+      <c r="D18" s="4">
         <v>249</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
+      <c r="A19" s="4">
         <v>1E-4</v>
       </c>
-      <c r="B19" s="2">
-        <v>6.9762882515788001E-4</v>
-      </c>
-      <c r="C19" s="2">
-        <v>5.8518199377639803E-4</v>
-      </c>
-      <c r="D19" s="2">
+      <c r="B19" s="4">
+        <v>2.81654464080929E-3</v>
+      </c>
+      <c r="C19" s="4">
+        <v>2.7205046298943302E-3</v>
+      </c>
+      <c r="D19" s="4">
         <v>250</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
+      <c r="A20" s="4">
         <v>1E-4</v>
       </c>
-      <c r="B20" s="2">
-        <v>6.9053379958495501E-4</v>
-      </c>
-      <c r="C20" s="2">
-        <v>5.8133288799743497E-4</v>
-      </c>
-      <c r="D20" s="2">
+      <c r="B20" s="4">
+        <v>2.8031106099486299E-3</v>
+      </c>
+      <c r="C20" s="4">
+        <v>2.72009865185067E-3</v>
+      </c>
+      <c r="D20" s="4">
         <v>251</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
+      <c r="A21" s="4">
         <v>1E-4</v>
       </c>
-      <c r="B21" s="2">
-        <v>7.0408694492652996E-4</v>
-      </c>
-      <c r="C21" s="2">
-        <v>5.8868453559127502E-4</v>
-      </c>
-      <c r="D21" s="2">
+      <c r="B21" s="4">
+        <v>2.8100227806717101E-3</v>
+      </c>
+      <c r="C21" s="4">
+        <v>2.7119856918005202E-3</v>
+      </c>
+      <c r="D21" s="4">
         <v>252</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="4">
         <v>1</v>
       </c>
     </row>
@@ -7018,10 +7018,10 @@
         <v>1E-3</v>
       </c>
       <c r="B22" s="4">
-        <v>1.7647853238508099E-3</v>
+        <v>3.7795698426663798E-3</v>
       </c>
       <c r="C22" s="4">
-        <v>6.0077136787318899E-4</v>
+        <v>2.7311938936424602E-3</v>
       </c>
       <c r="D22" s="4">
         <v>253</v>
@@ -7035,10 +7035,10 @@
         <v>1E-3</v>
       </c>
       <c r="B23" s="4">
-        <v>1.7509149869903899E-3</v>
+        <v>3.7981522835791098E-3</v>
       </c>
       <c r="C23" s="4">
-        <v>5.9177971053512603E-4</v>
+        <v>2.71993510389498E-3</v>
       </c>
       <c r="D23" s="4">
         <v>254</v>
@@ -7052,10 +7052,10 @@
         <v>1E-3</v>
       </c>
       <c r="B24" s="4">
-        <v>1.74711456596851E-3</v>
+        <v>3.8035762626677698E-3</v>
       </c>
       <c r="C24" s="4">
-        <v>5.9659076816770103E-4</v>
+        <v>2.7377720518856198E-3</v>
       </c>
       <c r="D24" s="4">
         <v>255</v>
@@ -7069,10 +7069,10 @@
         <v>1E-3</v>
       </c>
       <c r="B25" s="4">
-        <v>1.74154703002423E-3</v>
+        <v>3.77626981586217E-3</v>
       </c>
       <c r="C25" s="4">
-        <v>5.8516691873371999E-4</v>
+        <v>2.70067703625436E-3</v>
       </c>
       <c r="D25" s="4">
         <v>256</v>
@@ -7086,10 +7086,10 @@
         <v>0.01</v>
       </c>
       <c r="B26" s="4">
-        <v>1.2214176236093E-2</v>
+        <v>1.3518234355747699E-2</v>
       </c>
       <c r="C26" s="4">
-        <v>6.4920634809869499E-4</v>
+        <v>2.7651060268781098E-3</v>
       </c>
       <c r="D26" s="4">
         <v>257</v>
@@ -7104,10 +7104,10 @@
         <v>0.01</v>
       </c>
       <c r="B27" s="4">
-        <v>1.21757371380925E-2</v>
+        <v>1.35837231382727E-2</v>
       </c>
       <c r="C27" s="4">
-        <v>6.4062822541921896E-4</v>
+        <v>2.744910675012E-3</v>
       </c>
       <c r="D27" s="4">
         <v>258</v>
@@ -7122,10 +7122,10 @@
         <v>0.01</v>
       </c>
       <c r="B28" s="4">
-        <v>1.2242590489983499E-2</v>
+        <v>1.3518968357145699E-2</v>
       </c>
       <c r="C28" s="4">
-        <v>6.4895418583812796E-4</v>
+        <v>2.75862266333287E-3</v>
       </c>
       <c r="D28" s="4">
         <v>259</v>
@@ -7140,10 +7140,10 @@
         <v>0.01</v>
       </c>
       <c r="B29" s="4">
-        <v>1.2203896622359701E-2</v>
+        <v>1.3556671565771099E-2</v>
       </c>
       <c r="C29" s="4">
-        <v>6.5530250353180997E-4</v>
+        <v>2.7374370590113298E-3</v>
       </c>
       <c r="D29" s="4">
         <v>260</v>
@@ -7158,10 +7158,10 @@
         <v>0.1</v>
       </c>
       <c r="B30">
-        <v>0.114560183322429</v>
+        <v>0.109537003946304</v>
       </c>
       <c r="C30">
-        <v>3.4782089505071699E-3</v>
+        <v>4.6731737593580297E-3</v>
       </c>
       <c r="D30">
         <v>261</v>
@@ -7175,10 +7175,10 @@
         <v>0.1</v>
       </c>
       <c r="B31">
-        <v>0.114986252748966</v>
+        <v>0.109761010074615</v>
       </c>
       <c r="C31">
-        <v>3.5710043872997201E-3</v>
+        <v>4.9457165359216796E-3</v>
       </c>
       <c r="D31">
         <v>262</v>
@@ -7192,10 +7192,10 @@
         <v>0.1</v>
       </c>
       <c r="B32">
-        <v>0.114957288074493</v>
+        <v>0.109953359651565</v>
       </c>
       <c r="C32">
-        <v>3.5937536451490998E-3</v>
+        <v>4.8398805358061498E-3</v>
       </c>
       <c r="D32">
         <v>263</v>
@@ -7209,10 +7209,10 @@
         <v>0.1</v>
       </c>
       <c r="B33">
-        <v>0.114631789422035</v>
+        <v>0.109612090063095</v>
       </c>
       <c r="C33">
-        <v>3.4870974286489E-3</v>
+        <v>4.8218049408547603E-3</v>
       </c>
       <c r="D33">
         <v>264</v>
